--- a/Records.xlsx
+++ b/Records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DBE49B-48AE-4C36-BAC5-1F85375672F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22830530-9233-4CB5-8C5A-058139890683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>Timestamp</t>
   </si>
@@ -511,6 +511,24 @@
   </si>
   <si>
     <t>https://a7hmed-5.github.io/Proj/</t>
+  </si>
+  <si>
+    <t>me20230351@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mina-ezzat11.github.io/mina-ezzat12/</t>
+  </si>
+  <si>
+    <t>sm20230319@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://shmohamed30.github.io/mybadge./</t>
+  </si>
+  <si>
+    <t>se20230208@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://m3hmoudhani.github.io/github.io.sheref/</t>
   </si>
 </sst>
 </file>
@@ -576,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -749,12 +767,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,12 +861,6 @@
     <xf numFmtId="22" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -783,38 +870,59 @@
     <xf numFmtId="22" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1131,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,1674 +1275,1710 @@
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="18">
         <v>30509051400865</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="18">
         <v>20233360</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="16">
         <v>20233360</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>20233360</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+      <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9">
+      <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="8"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
+      <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="8"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
+      <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="8"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
+      <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
+      <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="8"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9">
+      <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="8"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="9">
+      <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="8"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+      <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="8"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
+      <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="13"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="8"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9">
+      <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="13"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="8"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9">
+      <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="13"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="8"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
+      <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="20"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D7D316A0-11BC-4FA2-9906-84F4F9AFB0FE}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{DB0F75EC-374B-4042-ABE1-15D108403BF3}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{90A8EED4-DA36-45A7-B00A-EA24E385A186}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{F0B0EE71-6F86-4C04-98EE-B0ACC1950475}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{74D38166-0D65-47F2-9D90-9AFFBB954F34}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{8F09BF05-8077-4FBA-8876-C1B9C8019813}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{2B2D0909-960F-4870-8C36-3B5EA58FEE14}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{C4AED685-EE50-4E84-B467-7E0DACED7287}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{1E8D0CD1-6D8A-4B63-A521-70CBA6840529}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{58E08CE8-A11B-4843-BA02-C694E7C6720C}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{13DB52D7-4A68-40EF-A568-DB7B97D63213}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{9C3D27B6-D275-4C60-8A27-60D4DF22FEF8}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{DDAFC474-55B3-416A-B170-CDCEC74265C6}"/>
-    <hyperlink ref="C30" r:id="rId14" xr:uid="{79F0CD2F-F022-44E7-9718-B69F1348CD82}"/>
-    <hyperlink ref="C31" r:id="rId15" xr:uid="{921B19AF-3A38-4173-BD7B-62A9AC7D85D8}"/>
-    <hyperlink ref="C32" r:id="rId16" xr:uid="{C5DD9547-8F6C-47DC-9C53-7809BEFFE716}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{5DA3F4EB-21AC-45A2-B49A-451F2427099C}"/>
-    <hyperlink ref="C36" r:id="rId18" xr:uid="{FBD620C6-A5E5-487C-A254-8FF5E31D1FC7}"/>
-    <hyperlink ref="C37" r:id="rId19" xr:uid="{E4330E28-580A-4DDF-9936-01BAD463143B}"/>
-    <hyperlink ref="C38" r:id="rId20" xr:uid="{FF9A685B-1FAD-4E05-9AA5-523759D93096}"/>
-    <hyperlink ref="C39" r:id="rId21" xr:uid="{8840A7BC-D0A1-43A7-8025-4B69173E5979}"/>
-    <hyperlink ref="C42" r:id="rId22" xr:uid="{06F5386C-7DFA-42CE-A52E-D9EC297D4D9D}"/>
-    <hyperlink ref="C44" r:id="rId23" xr:uid="{5BDDD86B-8580-4AE3-8F60-231946D5EAC9}"/>
-    <hyperlink ref="C46" r:id="rId24" xr:uid="{D42BCB1E-0556-4253-97C6-C1A431D05134}"/>
-    <hyperlink ref="C47" r:id="rId25" xr:uid="{69A05A73-9B5B-4358-B2A3-12CEF2A3EE45}"/>
-    <hyperlink ref="C49" r:id="rId26" xr:uid="{C17060BD-86DC-4EFF-9F2A-94AB27C9A63C}"/>
-    <hyperlink ref="C50" r:id="rId27" xr:uid="{91DA6CD7-D9D5-4B83-BC5B-7F10A9CCE8D2}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{8BF01C2D-1FF8-4079-AF9C-1DE74C94D4A4}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{BC7118F0-575B-4F29-A5B5-054FB8EA8D0C}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{A38F4E3F-147C-4FAD-B108-428FE5BFE784}"/>
-    <hyperlink ref="C55" r:id="rId31" xr:uid="{66CD80D0-E9BE-4AED-8BFF-C18EBECB43AC}"/>
-    <hyperlink ref="C57" r:id="rId32" xr:uid="{10CC021F-9569-4D3B-A23D-46B5960E792E}"/>
-    <hyperlink ref="C59" r:id="rId33" xr:uid="{54933850-97F0-4ACF-AC42-2A30362459DD}"/>
-    <hyperlink ref="C60" r:id="rId34" xr:uid="{D26AFE21-E5A8-4A14-85AD-EF56B875F649}"/>
-    <hyperlink ref="C62" r:id="rId35" xr:uid="{0EF5F27C-F472-4340-8F9F-A3374D6E6BC9}"/>
-    <hyperlink ref="C63" r:id="rId36" xr:uid="{0947E0B5-C0D0-4F7C-A222-48D37841AE74}"/>
-    <hyperlink ref="C64" r:id="rId37" xr:uid="{8B728CBE-F4A7-45B6-83C0-BA3674EB1BA7}"/>
-    <hyperlink ref="C65" r:id="rId38" xr:uid="{7A8EAC02-5D79-4329-A081-83E8DD37A2C9}"/>
-    <hyperlink ref="C66" r:id="rId39" xr:uid="{ED5E860B-945B-4657-B0A0-C37F71417BCA}"/>
-    <hyperlink ref="C67" r:id="rId40" xr:uid="{9D0FC949-B14D-400A-ADCE-423A2106E2B0}"/>
-    <hyperlink ref="C70" r:id="rId41" xr:uid="{26A14787-E793-4DB4-8DE0-1F22663B78B6}"/>
-    <hyperlink ref="C71" r:id="rId42" xr:uid="{74F08A49-893E-4B45-BC7E-FC518A660387}"/>
-    <hyperlink ref="C72" r:id="rId43" xr:uid="{3093A843-8320-4BA0-8BB4-543A7BA28661}"/>
-    <hyperlink ref="C73" r:id="rId44" xr:uid="{54A7423E-8489-48B9-AB05-CEAD03781497}"/>
-    <hyperlink ref="C74" r:id="rId45" xr:uid="{D14085F9-887E-4680-9F2E-47D47ADD6502}"/>
-    <hyperlink ref="C76" r:id="rId46" display="https://rahma5555.github.io/roro00/" xr:uid="{6228D6D2-6FBF-471E-97AA-3FD9A70E652E}"/>
-    <hyperlink ref="C77" r:id="rId47" xr:uid="{59303A22-2897-4D14-AE18-D75710B0514F}"/>
-    <hyperlink ref="C78" r:id="rId48" xr:uid="{E6E4ECE8-FBEF-4717-9B94-5307493CC9FA}"/>
-    <hyperlink ref="C79" r:id="rId49" xr:uid="{DB5514BD-E2E9-442F-AE1B-E27C969B6D68}"/>
-    <hyperlink ref="C80" r:id="rId50" xr:uid="{1E7A66AC-17BB-43AA-8C48-4F5A1F039326}"/>
-    <hyperlink ref="C81" r:id="rId51" xr:uid="{B9944BF2-B713-4DBC-A208-30421BBC9D0B}"/>
-    <hyperlink ref="C82" r:id="rId52" xr:uid="{146E58F0-A21C-4F09-867A-18DADD9A2BB0}"/>
-    <hyperlink ref="C86" r:id="rId53" xr:uid="{DB3385C7-5287-418A-9B49-BE370595E596}"/>
-    <hyperlink ref="C87" r:id="rId54" xr:uid="{032C89F7-7720-421F-8E0A-59459D8550F2}"/>
-    <hyperlink ref="C88" r:id="rId55" xr:uid="{A3878C55-D659-4852-A7FC-C835578F0112}"/>
-    <hyperlink ref="C89" r:id="rId56" xr:uid="{718D8B6E-0128-45FE-9A19-A717B5FA1619}"/>
-    <hyperlink ref="C90" r:id="rId57" display="https://loloah20.githup.io/sva20/" xr:uid="{978E065A-04E5-4E28-9134-37FF64669B54}"/>
-    <hyperlink ref="C92" r:id="rId58" xr:uid="{6893234A-7A01-476E-A7E8-65B35D9AF7C1}"/>
-    <hyperlink ref="C93" r:id="rId59" xr:uid="{7DAF2124-4CE9-4663-90F3-8632E8256152}"/>
-    <hyperlink ref="C94" r:id="rId60" xr:uid="{09B0AA50-2D6B-4F24-A038-C15F15AFCAFB}"/>
-    <hyperlink ref="C96" r:id="rId61" xr:uid="{C18CD608-5CE8-464C-A11A-2B8116396214}"/>
-    <hyperlink ref="C97" r:id="rId62" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{F1D5E19B-3247-41CA-9932-81115A1C584D}"/>
-    <hyperlink ref="C98" r:id="rId63" xr:uid="{B9D1366C-1650-4B28-A478-5252A223F967}"/>
-    <hyperlink ref="C99" r:id="rId64" xr:uid="{337603B5-4518-40C8-AFBF-09CD276A212B}"/>
-    <hyperlink ref="C100" r:id="rId65" xr:uid="{7028BA84-A49D-404E-A100-7306274EEF0E}"/>
-    <hyperlink ref="C101" r:id="rId66" xr:uid="{0B3CC362-4EE9-480E-AF70-1BD76607DF6E}"/>
-    <hyperlink ref="C102" r:id="rId67" xr:uid="{DF6684D8-5C6C-410D-9AD8-D1C9479F6062}"/>
-    <hyperlink ref="C103" r:id="rId68" xr:uid="{05C3369F-7413-4931-B01C-C25F6133F8F9}"/>
-    <hyperlink ref="C104" r:id="rId69" display="https://basant1512006.github.io/basant-walid/" xr:uid="{199F9204-0967-4CBD-BC97-B812B0BCB7B9}"/>
-    <hyperlink ref="C105" r:id="rId70" xr:uid="{08171835-3F6D-43D1-9247-7743BD570505}"/>
-    <hyperlink ref="C106" r:id="rId71" xr:uid="{A649ADF4-F578-4570-94CE-AABCB6335F32}"/>
-    <hyperlink ref="C107" r:id="rId72" xr:uid="{BC4C8269-329D-4443-99ED-7394CA8C3939}"/>
-    <hyperlink ref="C109" r:id="rId73" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{9C6C6B9C-AD53-46A2-BFA3-2EFF5AA9A28A}"/>
-    <hyperlink ref="C110" r:id="rId74" xr:uid="{F0918692-0547-4BD4-91CD-52FD1BC8D187}"/>
-    <hyperlink ref="C111" r:id="rId75" xr:uid="{A0BAAD0F-0ABE-4024-9283-16F40C518F5D}"/>
-    <hyperlink ref="C112" r:id="rId76" xr:uid="{32A16139-F653-43B1-B9AF-E662F344D871}"/>
-    <hyperlink ref="C113" r:id="rId77" xr:uid="{F91A1A76-C8FC-4553-AC04-B81295ED59DF}"/>
-    <hyperlink ref="C114" r:id="rId78" xr:uid="{A089F846-EF51-456D-9936-86D6CA35E63B}"/>
-    <hyperlink ref="C115" r:id="rId79" xr:uid="{10B7B417-C236-4341-958F-44C3E9713491}"/>
-    <hyperlink ref="C116" r:id="rId80" xr:uid="{F39F5994-D6DD-4432-BE32-4499AB113732}"/>
-    <hyperlink ref="C117" r:id="rId81" xr:uid="{0AE062CC-572C-45E3-9999-E40B4B94656D}"/>
-    <hyperlink ref="C118" r:id="rId82" xr:uid="{D1185209-8143-4A79-B78B-56A84DDEE094}"/>
-    <hyperlink ref="C119" r:id="rId83" xr:uid="{DFA63963-63F6-4445-883D-438FCDF42800}"/>
-    <hyperlink ref="C120" r:id="rId84" xr:uid="{4FAA639B-1052-49B6-9660-A0DBC6E41D88}"/>
-    <hyperlink ref="C121" r:id="rId85" xr:uid="{CBAF99D9-915D-4D0E-83FB-592329817712}"/>
-    <hyperlink ref="C123" r:id="rId86" xr:uid="{57246EBD-87D1-409D-8C08-FDE4A390D1D0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{72D5F7D2-0624-4F16-BE83-6876243392C3}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{9D6DFF6B-B487-433C-97D5-D4218B4BB3DF}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{078C5AC7-7F0A-4A4A-B874-628194A281BC}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{91FEFBD1-6E92-4B3D-9B2F-3E0FDFAF1E74}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{8B785016-3B47-4915-A97F-44AF0B7F0681}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{73D43D72-2458-49CA-A903-B198128611E0}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{26EE51B5-E889-4D7E-A5B7-42F738679E16}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{15694730-7E5F-4640-89DB-A20FADAA9094}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{891A2137-4689-424F-98A2-8C94D17E3E89}"/>
+    <hyperlink ref="C26" r:id="rId10" xr:uid="{1704543F-D39D-4C18-8308-508BB4F0E2C2}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{742CE638-3290-44AE-B1B3-8FFF7B6233CC}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{A8990CEA-2E3D-4229-B534-36127D77186E}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{714F38B3-6215-43B9-89D2-3319172952DB}"/>
+    <hyperlink ref="C30" r:id="rId14" xr:uid="{01693E8F-B3C1-4B06-8F2E-F97742852B17}"/>
+    <hyperlink ref="C31" r:id="rId15" xr:uid="{8F8F6175-A5BF-48A8-B431-916D796F88C7}"/>
+    <hyperlink ref="C32" r:id="rId16" xr:uid="{D179E8CA-13F4-4071-8D93-DCD70E831E06}"/>
+    <hyperlink ref="C35" r:id="rId17" xr:uid="{77667B5C-F890-46F5-9655-D5EE000846AC}"/>
+    <hyperlink ref="C36" r:id="rId18" xr:uid="{C6E8FD17-B593-46B2-9FFA-2D2EBA584773}"/>
+    <hyperlink ref="C37" r:id="rId19" xr:uid="{5C7214A6-186F-4DA2-8970-B210B54F810E}"/>
+    <hyperlink ref="C38" r:id="rId20" xr:uid="{CBC47421-3BDF-4178-9CE5-8D917A7864D1}"/>
+    <hyperlink ref="C39" r:id="rId21" xr:uid="{78779188-43D7-4915-A0E5-54D8D517FA87}"/>
+    <hyperlink ref="C42" r:id="rId22" xr:uid="{8BFF2D87-15E8-46AE-B098-C80F27F41C33}"/>
+    <hyperlink ref="C44" r:id="rId23" xr:uid="{2AE5BD18-88BD-4B97-9A5B-CF4173E9D081}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{FF30D97D-855B-439D-9968-0D75522675B2}"/>
+    <hyperlink ref="C47" r:id="rId25" xr:uid="{666892A2-49F2-4FA8-BA40-5A8F2225228F}"/>
+    <hyperlink ref="C49" r:id="rId26" xr:uid="{DB7ED885-68EA-46FA-A276-9FA7B7E54C81}"/>
+    <hyperlink ref="C50" r:id="rId27" xr:uid="{1FBA17D2-9A1D-4FEF-BF6B-A7A47648BA66}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{D92D8FD2-216F-408B-AAB5-0B7A9FA2DAB8}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{284D13D1-701C-4964-AEA7-E25F5BF7EDF9}"/>
+    <hyperlink ref="C54" r:id="rId30" xr:uid="{5C0D9C32-B47D-4AF2-AD6F-7C8966EC874B}"/>
+    <hyperlink ref="C55" r:id="rId31" xr:uid="{5CAFC818-B8C9-4DBD-AABE-EBA34B2112E4}"/>
+    <hyperlink ref="C57" r:id="rId32" xr:uid="{1E6BD932-D8E4-41AE-8213-0307728FAEE3}"/>
+    <hyperlink ref="C59" r:id="rId33" xr:uid="{EC48553C-3090-44DE-8BB4-870E3FF610ED}"/>
+    <hyperlink ref="C60" r:id="rId34" xr:uid="{FA6148D0-D107-4CCE-9CCE-16BB111AA8B1}"/>
+    <hyperlink ref="C62" r:id="rId35" xr:uid="{4922410F-AAF2-46D8-A49D-33B91F8E10EE}"/>
+    <hyperlink ref="C63" r:id="rId36" xr:uid="{A0D99F61-B735-4811-82C7-E8292897E568}"/>
+    <hyperlink ref="C64" r:id="rId37" xr:uid="{48258EED-ED33-4422-A8EF-C0CFEFB40112}"/>
+    <hyperlink ref="C65" r:id="rId38" xr:uid="{ADCCD914-0761-4589-B346-27D70CBE975D}"/>
+    <hyperlink ref="C66" r:id="rId39" xr:uid="{073F0D61-0361-4921-9842-4D6FB982FD97}"/>
+    <hyperlink ref="C67" r:id="rId40" xr:uid="{79B581B0-C77F-49A6-9A54-52FEA63CC8AA}"/>
+    <hyperlink ref="C70" r:id="rId41" xr:uid="{AB8AA94B-D8B3-411C-A58E-5DC5061A40D1}"/>
+    <hyperlink ref="C71" r:id="rId42" xr:uid="{7B6E7C13-989A-45E6-B18F-093A4E9F3949}"/>
+    <hyperlink ref="C72" r:id="rId43" xr:uid="{84315609-E697-461F-9AE2-E6644B8BD231}"/>
+    <hyperlink ref="C73" r:id="rId44" xr:uid="{4C1E57D6-B340-4DDB-9450-E66E3672F326}"/>
+    <hyperlink ref="C74" r:id="rId45" xr:uid="{2A2C3581-7AEF-46D8-9D03-B6EFFF1749D7}"/>
+    <hyperlink ref="C76" r:id="rId46" display="https://rahma5555.github.io/roro00/" xr:uid="{0607DDF8-5947-4C37-BA65-78D84D59B82F}"/>
+    <hyperlink ref="C77" r:id="rId47" xr:uid="{733DE07A-A9A9-4B7A-AB15-F82C57EE105A}"/>
+    <hyperlink ref="C78" r:id="rId48" xr:uid="{E94B1FD6-21DC-4B86-8773-2F3354E29DAD}"/>
+    <hyperlink ref="C79" r:id="rId49" xr:uid="{B573D002-29CB-449C-B5F4-139ABDE0955A}"/>
+    <hyperlink ref="C80" r:id="rId50" xr:uid="{C90BE87F-8FB2-46BF-962F-89B7A282AF20}"/>
+    <hyperlink ref="C81" r:id="rId51" xr:uid="{06B472CE-B3FE-4EED-8229-D9CDED110C1A}"/>
+    <hyperlink ref="C82" r:id="rId52" xr:uid="{A4077127-26E8-4879-80FC-60B23E1AE4EC}"/>
+    <hyperlink ref="C86" r:id="rId53" xr:uid="{7190FFFB-22BC-4466-B5EB-17ED19B02764}"/>
+    <hyperlink ref="C87" r:id="rId54" xr:uid="{18FBDA05-E05A-4D40-B397-72A69F5C0CA9}"/>
+    <hyperlink ref="C88" r:id="rId55" xr:uid="{1E588AD6-1F2F-477C-832F-D02CF64CCEC4}"/>
+    <hyperlink ref="C89" r:id="rId56" xr:uid="{A4EAA657-F374-41F4-ACCF-ED57E78F9C38}"/>
+    <hyperlink ref="C90" r:id="rId57" display="https://loloah20.githup.io/sva20/" xr:uid="{F2727D39-E805-4B2E-A771-B24BE5F76763}"/>
+    <hyperlink ref="C92" r:id="rId58" xr:uid="{C50E8FAA-02C2-402E-87C2-E77AC52A86AF}"/>
+    <hyperlink ref="C93" r:id="rId59" xr:uid="{75D2EE83-58C0-41A5-AB80-B9BBC3BABA8D}"/>
+    <hyperlink ref="C94" r:id="rId60" xr:uid="{38691589-CB31-4B97-B0A5-24F17FDE4B43}"/>
+    <hyperlink ref="C96" r:id="rId61" xr:uid="{921304D5-5570-4C26-A43F-3F4D6311F5BA}"/>
+    <hyperlink ref="C97" r:id="rId62" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{E6627A26-264A-4E1A-AC7F-0A15E42815B3}"/>
+    <hyperlink ref="C98" r:id="rId63" xr:uid="{4CA01A48-7A18-41C2-937B-C99162B298C2}"/>
+    <hyperlink ref="C99" r:id="rId64" xr:uid="{E83CC212-FE36-4731-85A4-57EAAD64FD59}"/>
+    <hyperlink ref="C100" r:id="rId65" xr:uid="{BCE8741D-F48A-464E-984E-885B62041DE6}"/>
+    <hyperlink ref="C101" r:id="rId66" xr:uid="{82F1F12A-7F5F-4C69-8E31-99817EF39535}"/>
+    <hyperlink ref="C102" r:id="rId67" xr:uid="{8242DF4A-5337-4E4C-8CBF-51B0EE8EF2AA}"/>
+    <hyperlink ref="C103" r:id="rId68" xr:uid="{3C383468-DD8B-4959-A1F6-62B719ACE9A3}"/>
+    <hyperlink ref="C104" r:id="rId69" display="https://basant1512006.github.io/basant-walid/" xr:uid="{3878C092-56B8-4008-965C-978F96559773}"/>
+    <hyperlink ref="C105" r:id="rId70" xr:uid="{2420300A-3E3C-42E5-8175-FA474FAC2E00}"/>
+    <hyperlink ref="C106" r:id="rId71" xr:uid="{DC93A3E5-0747-4A56-9621-B4AC6B1EF0F3}"/>
+    <hyperlink ref="C107" r:id="rId72" xr:uid="{7E15AAD1-E9BD-4202-A67A-7FFD50D513C0}"/>
+    <hyperlink ref="C109" r:id="rId73" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{B2F6AF59-DA74-4503-90DD-A439F9547621}"/>
+    <hyperlink ref="C110" r:id="rId74" xr:uid="{96B184C4-7BAC-4522-852C-3A7C456D74CF}"/>
+    <hyperlink ref="C111" r:id="rId75" xr:uid="{BE7FC360-789A-4C4D-A838-67FBF05DB305}"/>
+    <hyperlink ref="C112" r:id="rId76" xr:uid="{19219059-8BA0-47FA-AEE9-DEC583E31604}"/>
+    <hyperlink ref="C113" r:id="rId77" xr:uid="{18EC16E6-F7A8-405B-BB94-5996A88A46C6}"/>
+    <hyperlink ref="C114" r:id="rId78" xr:uid="{BD516DB0-2C4F-4E16-8C75-F958A23DFAA6}"/>
+    <hyperlink ref="C115" r:id="rId79" xr:uid="{59CAAA31-D3DF-4F05-8640-EE12F2DF50EA}"/>
+    <hyperlink ref="C116" r:id="rId80" xr:uid="{C017A2C4-0C0B-4120-AC9A-F136D376FB36}"/>
+    <hyperlink ref="C117" r:id="rId81" xr:uid="{9E1ADA44-5A79-4F2E-98AE-D0032310CBC4}"/>
+    <hyperlink ref="C118" r:id="rId82" xr:uid="{3092C81D-3811-43F7-8788-A497A88CF205}"/>
+    <hyperlink ref="C119" r:id="rId83" xr:uid="{6A80819E-7401-4205-89DE-E672192AF884}"/>
+    <hyperlink ref="C120" r:id="rId84" xr:uid="{D84B2878-F53A-4008-AB17-2DA28E9D4540}"/>
+    <hyperlink ref="C121" r:id="rId85" xr:uid="{13476157-1F53-4278-92FD-FF794DCF70E2}"/>
+    <hyperlink ref="C123" r:id="rId86" xr:uid="{8964485F-8B3E-4398-A1CB-CBF9ED7BD4BA}"/>
+    <hyperlink ref="C124" r:id="rId87" xr:uid="{6292C07B-1ED3-4D29-91BA-5738205B5405}"/>
+    <hyperlink ref="C125" r:id="rId88" xr:uid="{227CA664-5AA4-49A4-80C6-5203BC3E01FA}"/>
+    <hyperlink ref="C126" r:id="rId89" xr:uid="{E3F3C8CD-7664-4ADE-98D7-154B4479A917}"/>
+    <hyperlink ref="C127" r:id="rId90" xr:uid="{BA0D527C-0E33-45F6-8CD2-EC9AE331D884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22830530-9233-4CB5-8C5A-058139890683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D573E-4703-4273-8664-66BD00F9D966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t>Timestamp</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>https://m3hmoudhani.github.io/github.io.sheref/</t>
+  </si>
+  <si>
+    <t>https://abdullah-m2023.github.io/Repo/</t>
+  </si>
+  <si>
+    <t>am20232318@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -847,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -924,6 +930,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1239,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C127"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,6 +2892,14 @@
       </c>
       <c r="C127" s="25" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2979,6 +2994,7 @@
     <hyperlink ref="C125" r:id="rId88" xr:uid="{227CA664-5AA4-49A4-80C6-5203BC3E01FA}"/>
     <hyperlink ref="C126" r:id="rId89" xr:uid="{E3F3C8CD-7664-4ADE-98D7-154B4479A917}"/>
     <hyperlink ref="C127" r:id="rId90" xr:uid="{BA0D527C-0E33-45F6-8CD2-EC9AE331D884}"/>
+    <hyperlink ref="C128" r:id="rId91" xr:uid="{27326168-368F-455C-B8CA-852A1348805F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D573E-4703-4273-8664-66BD00F9D966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C8FEB-6F9F-114B-8728-55533001D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
   <si>
     <t>Timestamp</t>
   </si>
@@ -535,6 +546,12 @@
   </si>
   <si>
     <t>am20232318@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://rana5890.github.io/my-page/</t>
+  </si>
+  <si>
+    <t>rr20231278@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -950,9 +967,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -990,7 +1007,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1096,7 +1113,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1238,7 +1255,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1246,22 +1263,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1291,7 +1308,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1304,7 +1321,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1317,7 +1334,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1330,7 +1347,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1343,7 +1360,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1356,7 +1373,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1369,7 +1386,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1382,7 +1399,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1395,7 +1412,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1408,7 +1425,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1421,7 +1438,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1434,7 +1451,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1447,7 +1464,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1460,7 +1477,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1473,7 +1490,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1486,7 +1503,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1499,7 +1516,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1510,7 +1527,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1523,7 +1540,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1536,7 +1553,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1549,7 +1566,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1562,7 +1579,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1575,7 +1592,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1588,7 +1605,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1601,7 +1618,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1614,7 +1631,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1627,7 +1644,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1640,7 +1657,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1653,7 +1670,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1666,7 +1683,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1679,7 +1696,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1692,7 +1709,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1705,7 +1722,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1718,7 +1735,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1731,7 +1748,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1744,7 +1761,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1757,7 +1774,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1770,7 +1787,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1783,7 +1800,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -1796,7 +1813,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -1809,7 +1826,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -1822,7 +1839,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -1835,7 +1852,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -1848,7 +1865,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -1861,7 +1878,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -1874,7 +1891,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -1887,7 +1904,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -1900,7 +1917,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -1913,7 +1930,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -1926,7 +1943,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -1939,7 +1956,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -1952,7 +1969,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -1965,7 +1982,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -1978,7 +1995,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -1991,7 +2008,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2004,7 +2021,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2017,7 +2034,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2030,7 +2047,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2043,7 +2060,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2056,7 +2073,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2069,7 +2086,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2082,7 +2099,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2095,7 +2112,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2108,7 +2125,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2121,7 +2138,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2134,7 +2151,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2147,7 +2164,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2160,7 +2177,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2173,7 +2190,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2186,7 +2203,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2199,7 +2216,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2212,7 +2229,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2225,7 +2242,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2238,7 +2255,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2251,7 +2268,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2264,7 +2281,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2277,7 +2294,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2290,7 +2307,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2303,7 +2320,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2316,7 +2333,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2329,7 +2346,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2342,7 +2359,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2355,7 +2372,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2368,7 +2385,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2381,7 +2398,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2394,7 +2411,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2407,7 +2424,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2420,7 +2437,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2433,7 +2450,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2446,7 +2463,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2459,7 +2476,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2472,7 +2489,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2485,7 +2502,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2498,7 +2515,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2511,7 +2528,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2524,7 +2541,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2537,7 +2554,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2550,7 +2567,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2563,7 +2580,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2576,7 +2593,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2589,7 +2606,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2602,7 +2619,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2615,7 +2632,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2628,7 +2645,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2641,7 +2658,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2654,7 +2671,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2667,7 +2684,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2680,7 +2697,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2693,7 +2710,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2706,7 +2723,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2719,7 +2736,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2732,7 +2749,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2745,7 +2762,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2758,7 +2775,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -2771,7 +2788,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -2784,7 +2801,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -2797,7 +2814,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -2810,7 +2827,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -2823,7 +2840,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -2836,7 +2853,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -2849,7 +2866,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -2862,7 +2879,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="17" t="s">
         <v>161</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>163</v>
       </c>
@@ -2878,7 +2895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="17" t="s">
         <v>165</v>
       </c>
@@ -2886,7 +2903,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="24" t="s">
         <v>77</v>
       </c>
@@ -2894,12 +2911,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C8FEB-6F9F-114B-8728-55533001D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981CE7B-72E5-D24F-9413-3838EFCA5674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>Timestamp</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>rr20231278@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mzakaraia.github.io/MyWeRepo/</t>
+  </si>
+  <si>
+    <t>at20233308@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
@@ -2921,18 +2927,18 @@
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981CE7B-72E5-D24F-9413-3838EFCA5674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1CBC9-02EC-DD4B-8C2D-ED286E84E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -554,10 +554,10 @@
     <t>rr20231278@sva.edu.eg</t>
   </si>
   <si>
-    <t>https://mzakaraia.github.io/MyWeRepo/</t>
-  </si>
-  <si>
     <t>at20233308@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mariamyousef-boop.github.io/this-is-my-page/</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" t="s">
         <v>172</v>
-      </c>
-      <c r="C130" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1CBC9-02EC-DD4B-8C2D-ED286E84E3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2527EAC-A115-4F61-AD83-C6CBBA2D0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="179">
   <si>
     <t>Timestamp</t>
   </si>
@@ -558,6 +548,24 @@
   </si>
   <si>
     <t>https://mariamyousef-boop.github.io/this-is-my-page/</t>
+  </si>
+  <si>
+    <t>as20232248@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://hoda3225.github.io/my-first-webpage/</t>
+  </si>
+  <si>
+    <t>ys20231357@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://goo782.github.io/My-page/</t>
+  </si>
+  <si>
+    <t>ns20232229@sav.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nesmasayed2004.github.io/mypage/</t>
   </si>
 </sst>
 </file>
@@ -623,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -871,12 +879,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -954,6 +973,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,9 +1019,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,7 +1059,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1119,7 +1165,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1261,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,22 +1315,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1314,7 +1360,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1327,7 +1373,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1340,7 +1386,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1353,7 +1399,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1366,7 +1412,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1379,7 +1425,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1392,7 +1438,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1405,7 +1451,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1418,7 +1464,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1431,7 +1477,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1444,7 +1490,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1457,7 +1503,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1470,7 +1516,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1483,7 +1529,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1496,7 +1542,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1509,7 +1555,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1522,7 +1568,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1533,7 +1579,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1546,7 +1592,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1559,7 +1605,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1572,7 +1618,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1585,7 +1631,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1598,7 +1644,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1611,7 +1657,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1624,7 +1670,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1637,7 +1683,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1650,7 +1696,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1663,7 +1709,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1676,7 +1722,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1689,7 +1735,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1702,7 +1748,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1715,7 +1761,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1728,7 +1774,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1741,7 +1787,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1754,7 +1800,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1767,7 +1813,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1780,7 +1826,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1793,7 +1839,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1806,7 +1852,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -1819,7 +1865,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -1832,7 +1878,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -1845,7 +1891,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -1858,7 +1904,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -1871,7 +1917,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -1884,7 +1930,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -1897,7 +1943,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -1910,7 +1956,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -1923,7 +1969,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -1936,7 +1982,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -1949,7 +1995,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -1962,7 +2008,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -1975,7 +2021,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -1988,7 +2034,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -2001,7 +2047,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -2014,7 +2060,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2027,7 +2073,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2040,7 +2086,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2053,7 +2099,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2066,7 +2112,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2079,7 +2125,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2092,7 +2138,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2105,7 +2151,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2118,7 +2164,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2131,7 +2177,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2144,7 +2190,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2157,7 +2203,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2170,7 +2216,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2183,7 +2229,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2196,7 +2242,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2209,7 +2255,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2222,7 +2268,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2235,7 +2281,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2248,7 +2294,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2261,7 +2307,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2274,7 +2320,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2287,7 +2333,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2300,7 +2346,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2313,7 +2359,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2326,7 +2372,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2339,7 +2385,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2352,7 +2398,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2365,7 +2411,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2378,7 +2424,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2391,7 +2437,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2404,7 +2450,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2417,7 +2463,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2430,7 +2476,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2443,7 +2489,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2456,7 +2502,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2469,7 +2515,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2482,7 +2528,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2495,7 +2541,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2508,7 +2554,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2521,7 +2567,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2534,7 +2580,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2547,7 +2593,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2560,7 +2606,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2573,7 +2619,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2586,7 +2632,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2599,7 +2645,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2612,7 +2658,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2625,7 +2671,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2638,7 +2684,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2651,7 +2697,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2664,7 +2710,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2677,7 +2723,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2690,7 +2736,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2703,7 +2749,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2716,7 +2762,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2729,7 +2775,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2742,7 +2788,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2755,7 +2801,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2768,7 +2814,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2781,7 +2827,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -2794,7 +2840,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -2807,7 +2853,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -2820,7 +2866,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -2833,7 +2879,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -2846,7 +2892,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -2859,7 +2905,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -2872,7 +2918,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -2885,7 +2931,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>161</v>
       </c>
@@ -2893,7 +2939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15" t="s">
         <v>163</v>
       </c>
@@ -2901,7 +2947,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="17" t="s">
         <v>165</v>
       </c>
@@ -2909,7 +2955,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="24" t="s">
         <v>77</v>
       </c>
@@ -2917,7 +2963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="24" t="s">
         <v>168</v>
       </c>
@@ -2925,7 +2971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>170</v>
       </c>
@@ -2933,12 +2979,1074 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>171</v>
       </c>
       <c r="C130" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="31">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="31">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="30">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="31">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C204" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C206" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C218" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C221" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C230" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C232" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C233" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C235" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C238" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C242" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C244" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C248" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C253" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C254" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C255" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C256" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C260" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C262" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3034,6 +4142,1956 @@
     <hyperlink ref="C126" r:id="rId89" xr:uid="{E3F3C8CD-7664-4ADE-98D7-154B4479A917}"/>
     <hyperlink ref="C127" r:id="rId90" xr:uid="{BA0D527C-0E33-45F6-8CD2-EC9AE331D884}"/>
     <hyperlink ref="C128" r:id="rId91" xr:uid="{27326168-368F-455C-B8CA-852A1348805F}"/>
+    <hyperlink ref="C131" r:id="rId92" xr:uid="{14225C5E-B7BD-49C6-86AA-AFB391EB8E37}"/>
+    <hyperlink ref="C134" r:id="rId93" xr:uid="{32957B8F-DB3C-4F52-8B42-D4BBEB87DBE9}"/>
+    <hyperlink ref="C138" r:id="rId94" xr:uid="{04618E1E-8396-41A2-BBCD-D991F77023F9}"/>
+    <hyperlink ref="C140" r:id="rId95" xr:uid="{96987C03-6C37-414C-9120-2A9714D06B1C}"/>
+    <hyperlink ref="C141" r:id="rId96" xr:uid="{6332ABA4-BB09-4A1E-A912-45ECFA97D184}"/>
+    <hyperlink ref="C147" r:id="rId97" xr:uid="{A634D200-5823-48B0-BC32-A4BED6E2E506}"/>
+    <hyperlink ref="C149" r:id="rId98" xr:uid="{2407C056-4360-409E-B4BA-6AB5B8595856}"/>
+    <hyperlink ref="C153" r:id="rId99" xr:uid="{8AB0AA49-4B2D-4D37-88C0-818EE05708DF}"/>
+    <hyperlink ref="C154" r:id="rId100" xr:uid="{250D35DE-8E69-4833-8FC2-1B455E8436F5}"/>
+    <hyperlink ref="C155" r:id="rId101" xr:uid="{C9598387-4A22-4D28-A4E3-F065D0F94BEE}"/>
+    <hyperlink ref="C156" r:id="rId102" xr:uid="{BEB7ADC7-0023-4A40-AA34-BC120E04B9AA}"/>
+    <hyperlink ref="C157" r:id="rId103" xr:uid="{ED919C9F-AED8-49C0-A099-3CB8973442DA}"/>
+    <hyperlink ref="C158" r:id="rId104" xr:uid="{423FCCA3-0875-4113-BEA8-52DE51F80E57}"/>
+    <hyperlink ref="C159" r:id="rId105" xr:uid="{5E8F0970-81DB-400E-8287-65F12AE3A2DE}"/>
+    <hyperlink ref="C160" r:id="rId106" xr:uid="{25A77503-A007-47C4-8016-3524337ABE29}"/>
+    <hyperlink ref="C161" r:id="rId107" xr:uid="{FCB1BB1F-588E-4D67-97E2-90021FBAB9E7}"/>
+    <hyperlink ref="C164" r:id="rId108" xr:uid="{A53E6AB1-B6D7-4E89-9057-228FC67F2874}"/>
+    <hyperlink ref="C165" r:id="rId109" xr:uid="{F13B9639-BA14-434A-8117-7D41E9772A6D}"/>
+    <hyperlink ref="C166" r:id="rId110" xr:uid="{26944A19-2D7D-4CF9-877A-82A6AF3BB535}"/>
+    <hyperlink ref="C167" r:id="rId111" xr:uid="{8F8E2E15-9666-4D6C-8664-732778A22B2F}"/>
+    <hyperlink ref="C168" r:id="rId112" xr:uid="{D993C5A1-72D3-4978-AE37-4ACB911DF3DB}"/>
+    <hyperlink ref="C171" r:id="rId113" xr:uid="{2784E194-CBB6-45F7-B1C1-6C038F235E85}"/>
+    <hyperlink ref="C173" r:id="rId114" xr:uid="{DA7B7ED9-23B3-4857-8AC1-D17DD7636BF1}"/>
+    <hyperlink ref="C175" r:id="rId115" xr:uid="{FB699941-5324-46F4-B7F6-EC1AAB02D83D}"/>
+    <hyperlink ref="C176" r:id="rId116" xr:uid="{03D2BC55-4C3C-426E-A9F2-D3D9E0F44B8A}"/>
+    <hyperlink ref="C178" r:id="rId117" xr:uid="{C7BAA3EE-45BE-4F71-8E10-0D41D75C7D03}"/>
+    <hyperlink ref="C179" r:id="rId118" xr:uid="{13861B14-C0CE-4426-AC3E-21DF973CE63D}"/>
+    <hyperlink ref="C181" r:id="rId119" xr:uid="{7B7D1175-DC1B-4493-9041-2B37EB4D19AA}"/>
+    <hyperlink ref="C182" r:id="rId120" xr:uid="{BA6E4306-90D7-47A5-A7D8-8792C7984186}"/>
+    <hyperlink ref="C183" r:id="rId121" xr:uid="{D930B4B3-2AA6-4855-A7E1-B27723648EB4}"/>
+    <hyperlink ref="C184" r:id="rId122" xr:uid="{B3558EE9-D82A-473A-91C7-8EC21EBB0587}"/>
+    <hyperlink ref="C186" r:id="rId123" xr:uid="{BC198CA1-EDAB-482F-8D2E-FD8A1FA2BE3B}"/>
+    <hyperlink ref="C188" r:id="rId124" xr:uid="{0A7786C8-C00E-4C0A-BE42-6940F41702F9}"/>
+    <hyperlink ref="C189" r:id="rId125" xr:uid="{1F8488F3-5AB4-4292-99ED-5B9DEA9339B8}"/>
+    <hyperlink ref="C191" r:id="rId126" xr:uid="{D084E017-9652-4BCC-B807-7FC98E313ADA}"/>
+    <hyperlink ref="C192" r:id="rId127" xr:uid="{3FCF43E2-8A67-475C-A54E-100AA5893C99}"/>
+    <hyperlink ref="C193" r:id="rId128" xr:uid="{B3CF6434-FB7E-478C-AC6A-08D68BE25A97}"/>
+    <hyperlink ref="C194" r:id="rId129" xr:uid="{D8301C01-B6A1-436E-BE87-6D50272D0A2B}"/>
+    <hyperlink ref="C195" r:id="rId130" xr:uid="{13766ED0-555E-440E-A7CF-62FE285EC3C0}"/>
+    <hyperlink ref="C196" r:id="rId131" xr:uid="{5908520D-AE33-43AD-A3A5-86EBBA94D7BA}"/>
+    <hyperlink ref="C199" r:id="rId132" xr:uid="{BD570479-CECC-43A3-80C3-E466905D211B}"/>
+    <hyperlink ref="C200" r:id="rId133" xr:uid="{DC140F46-EAEE-49E8-86DC-DFE09CDBCD5E}"/>
+    <hyperlink ref="C201" r:id="rId134" xr:uid="{5508B6FD-40E8-4638-93B4-43A14BC1E7D5}"/>
+    <hyperlink ref="C202" r:id="rId135" xr:uid="{48CA729B-3886-4857-9683-8A41706D74B0}"/>
+    <hyperlink ref="C203" r:id="rId136" xr:uid="{F7FFD695-3573-43F6-9522-2D9A07BE7F3C}"/>
+    <hyperlink ref="C205" r:id="rId137" display="https://rahma5555.github.io/roro00/" xr:uid="{2EF0D4DE-1427-4630-9CCD-2F1F66305D0A}"/>
+    <hyperlink ref="C206" r:id="rId138" xr:uid="{D2054565-FD4D-4872-937F-A434528B45C8}"/>
+    <hyperlink ref="C207" r:id="rId139" xr:uid="{D1708153-4D09-4BD8-899A-CB9B9FEEE278}"/>
+    <hyperlink ref="C208" r:id="rId140" xr:uid="{AB34F1A6-76B8-4C6B-99F5-665D19ED8892}"/>
+    <hyperlink ref="C209" r:id="rId141" xr:uid="{CE602436-2E0A-40C0-A2A1-6E20C7918D1C}"/>
+    <hyperlink ref="C210" r:id="rId142" xr:uid="{4BF9E4EF-67C4-4DFB-969B-D0440AE03ADB}"/>
+    <hyperlink ref="C211" r:id="rId143" xr:uid="{7082CB31-610E-43EF-8643-D416C81841D3}"/>
+    <hyperlink ref="C215" r:id="rId144" xr:uid="{93AE67AC-8601-4DB6-ADF9-09383D3E5A27}"/>
+    <hyperlink ref="C216" r:id="rId145" xr:uid="{A1701B05-7572-47AE-9E5E-96978D821923}"/>
+    <hyperlink ref="C217" r:id="rId146" xr:uid="{2BA08A41-A9BB-4EBA-9757-1B8262CB1848}"/>
+    <hyperlink ref="C218" r:id="rId147" xr:uid="{58110AEF-7B4E-4C66-8B98-7C4EF8EC0D57}"/>
+    <hyperlink ref="C219" r:id="rId148" display="https://loloah20.githup.io/sva20/" xr:uid="{DAC1F688-ECAD-42C7-943E-63DC70C49950}"/>
+    <hyperlink ref="C221" r:id="rId149" xr:uid="{EA723097-6D62-412F-A756-DD027F91B1A5}"/>
+    <hyperlink ref="C222" r:id="rId150" xr:uid="{BC69EDDB-C9A6-427B-BEE9-FD64E4621C8E}"/>
+    <hyperlink ref="C223" r:id="rId151" xr:uid="{5A81CA0B-DD86-4996-997B-ADB7B883713C}"/>
+    <hyperlink ref="C225" r:id="rId152" xr:uid="{A6C05884-AB6D-46A5-9B45-79195B8D854A}"/>
+    <hyperlink ref="C226" r:id="rId153" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{E487F24C-31E3-4F40-AC47-62759D5D054B}"/>
+    <hyperlink ref="C227" r:id="rId154" xr:uid="{B6621E51-F004-4E17-8D25-328B946FD3BB}"/>
+    <hyperlink ref="C228" r:id="rId155" xr:uid="{8CAE9522-9864-4A3C-8A9A-B479EECACE63}"/>
+    <hyperlink ref="C229" r:id="rId156" xr:uid="{EE77A9AB-D20A-4AAF-A084-1159351150EB}"/>
+    <hyperlink ref="C230" r:id="rId157" xr:uid="{BE3BF1DB-0DF0-4967-A5D2-F76BA18A6416}"/>
+    <hyperlink ref="C231" r:id="rId158" xr:uid="{2A63E44A-D7AE-4805-A85B-E83457D922D3}"/>
+    <hyperlink ref="C232" r:id="rId159" xr:uid="{C592C7B0-0457-416C-865D-C22B058D5EE0}"/>
+    <hyperlink ref="C233" r:id="rId160" display="https://basant1512006.github.io/basant-walid/" xr:uid="{02947F82-58DE-45A5-B7E6-E6E4BF451D12}"/>
+    <hyperlink ref="C234" r:id="rId161" xr:uid="{9B37BF0E-136A-4B76-B394-4FCBD71CDA18}"/>
+    <hyperlink ref="C235" r:id="rId162" xr:uid="{5906300B-8E57-4281-8263-1712A23FFBA1}"/>
+    <hyperlink ref="C236" r:id="rId163" xr:uid="{358A3FE3-9433-40E6-8410-0E28B3B8DB6D}"/>
+    <hyperlink ref="C238" r:id="rId164" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{3B00A136-0367-4FEC-8164-BC159620AE28}"/>
+    <hyperlink ref="C239" r:id="rId165" xr:uid="{6C15C93E-F838-4F23-93C9-927294F21285}"/>
+    <hyperlink ref="C240" r:id="rId166" xr:uid="{CE60375C-D8CA-44DD-9961-83F965CC6791}"/>
+    <hyperlink ref="C241" r:id="rId167" xr:uid="{AEBDE4AB-9C66-48DE-BCD0-FC9639AEC8F3}"/>
+    <hyperlink ref="C242" r:id="rId168" xr:uid="{E44C41FF-4CA1-41D2-8F3E-A0BB7305DBC2}"/>
+    <hyperlink ref="C243" r:id="rId169" xr:uid="{21AF7C4F-149E-42D6-A805-387A559640D2}"/>
+    <hyperlink ref="C244" r:id="rId170" xr:uid="{B9057F45-FF97-4864-B9B2-2D1DF2BA092E}"/>
+    <hyperlink ref="C245" r:id="rId171" xr:uid="{CDF24FCA-1BBD-4D2F-A3E4-3AFCD35FE6DC}"/>
+    <hyperlink ref="C246" r:id="rId172" xr:uid="{189C1E80-CD6A-40B8-B513-F7DB0DDD378B}"/>
+    <hyperlink ref="C247" r:id="rId173" xr:uid="{C1F66C58-E3D8-4490-AC75-DEF65AD38923}"/>
+    <hyperlink ref="C248" r:id="rId174" xr:uid="{B0E63A93-CE83-4004-924E-4CD4A576038F}"/>
+    <hyperlink ref="C249" r:id="rId175" xr:uid="{720AE4F0-6456-4B28-9400-B1134FD0944A}"/>
+    <hyperlink ref="C250" r:id="rId176" xr:uid="{AFF68C18-297D-4693-AC30-DFCA5C7942F7}"/>
+    <hyperlink ref="C252" r:id="rId177" xr:uid="{CF82DCDD-8086-4097-8513-CBD611B7084D}"/>
+    <hyperlink ref="C253" r:id="rId178" xr:uid="{95DAA79B-E338-485C-8CCC-8CE0439A75A5}"/>
+    <hyperlink ref="C254" r:id="rId179" xr:uid="{24F1050E-22C5-4DC9-9B5C-8087656F5DD4}"/>
+    <hyperlink ref="C255" r:id="rId180" xr:uid="{1175D431-461C-4303-A1C0-537EEB99E4B5}"/>
+    <hyperlink ref="C256" r:id="rId181" xr:uid="{67B0FFC9-D690-41E3-A5D1-4CE659B734B9}"/>
+    <hyperlink ref="C257" r:id="rId182" xr:uid="{112098E6-FB8E-4C6A-8BA3-8CE9DBD3F8A8}"/>
+    <hyperlink ref="C258" r:id="rId183" xr:uid="{5DD71B4C-52BD-4353-A062-2327991B2F35}"/>
+    <hyperlink ref="C259" r:id="rId184" xr:uid="{86F4C953-184D-4A20-B437-9F47CFECFC9D}"/>
+    <hyperlink ref="C260" r:id="rId185" xr:uid="{4F71BA32-866F-4718-9385-6F67B79D4870}"/>
+    <hyperlink ref="C261" r:id="rId186" xr:uid="{39CD2FB7-8639-4B5A-82E7-0E009B1621A5}"/>
+    <hyperlink ref="C262" r:id="rId187" xr:uid="{B98A8FF6-7A76-4F18-9358-31078AE94F9F}"/>
+    <hyperlink ref="B263" r:id="rId188" xr:uid="{DE96C102-1B62-4FE4-A6A7-B7A3EE98C8B9}"/>
+    <hyperlink ref="C263" r:id="rId189" xr:uid="{896C395F-298E-4509-9175-1901F37278F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE4BE1E-D098-4EB7-9768-3C4DBF16DCB0}">
+  <dimension ref="C1:G134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>45724.771736111114</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7">
+        <v>45724.772939814815</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>45724.777685185189</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31">
+        <v>30509051400865</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>45724.783252314817</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>45724.800636574073</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>45724.803206018521</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>45724.805752314816</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="31">
+        <v>20233360</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>45724.812673611108</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>45725.53019675926</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>45726.039942129632</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>45726.04005787037</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
+        <v>45726.356793981482</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>45726.357164351852</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>45726.466319444444</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>45726.506782407407</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>45726.507210648146</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <v>45727.02065972222</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7">
+        <v>45727.022858796299</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
+        <v>45727.029664351852</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>45727.032870370371</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="30">
+        <v>20233360</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <v>45727.033043981479</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="31">
+        <v>20233360</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>45727.039386574077</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <v>45727.051342592589</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>45727.055520833332</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <v>45727.348298611112</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>45727.348761574074</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
+        <v>45727.550428240742</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7">
+        <v>45730.132939814815</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4">
+        <v>45730.667627314811</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
+        <v>45730.668043981481</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
+        <v>45730.692094907405</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
+        <v>45731.041458333333</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>45731.042604166665</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="7">
+        <v>45731.383217592593</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="4">
+        <v>45731.89230324074</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7">
+        <v>45731.892442129632</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="4">
+        <v>45731.893680555557</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
+        <v>45731.893842592595</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="4">
+        <v>45731.895567129628</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7">
+        <v>45733.789525462962</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
+        <v>45733.795115740744</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7">
+        <v>45733.800370370373</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
+        <v>45733.805578703701</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7">
+        <v>45733.80641203704</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="4">
+        <v>45733.816261574073</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="7">
+        <v>45735.574652777781</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="4">
+        <v>45733.827337962961</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="7">
+        <v>45733.838587962964</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="4">
+        <v>45733.851712962962</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="7">
+        <v>45733.881053240744</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="4">
+        <v>45735.546041666668</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="7">
+        <v>45733.974374999998</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="4">
+        <v>45733.987372685187</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7">
+        <v>45733.991678240738</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4">
+        <v>45734.08734953704</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7">
+        <v>45734.128171296295</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="4">
+        <v>45734.495439814818</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="7">
+        <v>45734.552002314813</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4">
+        <v>45734.606840277775</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="7">
+        <v>45734.612662037034</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="4">
+        <v>45734.63653935185</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="7">
+        <v>45734.719652777778</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="4">
+        <v>45734.721446759257</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="7">
+        <v>45734.725555555553</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="4">
+        <v>45734.728935185187</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="7">
+        <v>45734.863935185182</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="4">
+        <v>45735.164502314816</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="7">
+        <v>45735.229097222225</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="4">
+        <v>45735.262106481481</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="7">
+        <v>45735.341168981482</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="4">
+        <v>45735.395312499997</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="7">
+        <v>45735.414930555555</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="4">
+        <v>45735.517326388886</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7">
+        <v>45735.634039351855</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="4">
+        <v>45735.653171296297</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="7">
+        <v>45735.656875000001</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="4">
+        <v>45735.669131944444</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="7">
+        <v>45735.683749999997</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="4">
+        <v>45735.722696759258</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="7">
+        <v>45735.73709490741</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="4">
+        <v>45735.791226851848</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="7">
+        <v>45735.815532407411</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="4">
+        <v>45735.83017361111</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="7">
+        <v>45735.904293981483</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="4">
+        <v>45735.916076388887</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="7">
+        <v>45735.931064814817</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="4">
+        <v>45735.954722222225</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="7">
+        <v>45736.216805555552</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="4">
+        <v>45736.221365740741</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="7">
+        <v>45736.383368055554</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="4">
+        <v>45736.435949074075</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="7">
+        <v>45736.531006944446</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="4">
+        <v>45736.532453703701</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="7">
+        <v>45736.622372685182</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="4">
+        <v>45736.630844907406</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="7">
+        <v>45736.789652777778</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="4">
+        <v>45736.954583333332</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="7">
+        <v>45736.958553240744</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="4">
+        <v>45736.958796296298</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="7">
+        <v>45737.594444444447</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="4">
+        <v>45737.594560185185</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="7">
+        <v>45737.594675925924</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="4">
+        <v>45737.625115740739</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="7">
+        <v>45737.638344907406</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="4">
+        <v>45737.638645833336</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="7">
+        <v>45737.662002314813</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="4">
+        <v>45737.693680555552</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="7">
+        <v>45737.693831018521</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="4">
+        <v>45737.7031712963</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="7">
+        <v>45737.703530092593</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="4">
+        <v>45737.87636574074</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="7">
+        <v>45737.876574074071</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="4">
+        <v>45737.987118055556</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="7">
+        <v>45738.049212962964</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="4">
+        <v>45738.637048611112</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="7">
+        <v>45738.637326388889</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="4">
+        <v>45738.740254629629</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="7">
+        <v>45738.740439814814</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="4">
+        <v>45738.741099537037</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="7">
+        <v>45739.096574074072</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="4">
+        <v>45739.616539351853</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7">
+        <v>45740.519872685189</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="4">
+        <v>45742.76363425926</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="7">
+        <v>45743.680300925924</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="4">
+        <v>45746.572465277779</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="7">
+        <v>45754.547407407408</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="4">
+        <v>45756.423807870371</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="7">
+        <v>45756.662766203706</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="4">
+        <v>45756.682824074072</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="7">
+        <v>45756.682974537034</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="4">
+        <v>45757.531770833331</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="10">
+        <v>45759.652187500003</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F1E9BD74-B617-42B1-893F-CF8BF982BFAD}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{4B239A6E-0869-4E0A-9FA4-D4C809244E0C}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{6213795D-670C-49E9-8A54-F7D9F9CB3040}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{D274EC45-DA75-484E-AD31-CC3E74A3B301}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{B23F349C-30F9-4F85-B5C4-537DBEBEC7CD}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{4EA4265E-9D15-4F2A-BD13-58AFDB3454D7}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{14E48C6B-F3FF-402D-8F55-825A94B71745}"/>
+    <hyperlink ref="E25" r:id="rId8" xr:uid="{664A1C0F-756D-412D-B2F6-9BFDE325DA08}"/>
+    <hyperlink ref="E26" r:id="rId9" xr:uid="{E208BCD5-AE43-4520-AB2E-BB14445E511E}"/>
+    <hyperlink ref="E27" r:id="rId10" xr:uid="{32FFA529-C98F-4404-9B26-B7344EB9ECA3}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{6A058655-8EEC-4394-94D4-171A5244D033}"/>
+    <hyperlink ref="E29" r:id="rId12" xr:uid="{F3A8A684-8CAD-496F-A1BA-7D7F45FBFBDF}"/>
+    <hyperlink ref="E30" r:id="rId13" xr:uid="{63A6E579-990B-4C8F-A6D2-2E091F8B75FF}"/>
+    <hyperlink ref="E31" r:id="rId14" xr:uid="{C3F13DA3-EFCB-44DF-B441-8E829DB1359A}"/>
+    <hyperlink ref="E32" r:id="rId15" xr:uid="{CFCFF2AB-3C69-4729-8402-D77BF49F0D79}"/>
+    <hyperlink ref="E33" r:id="rId16" xr:uid="{B90919A0-2D03-41D1-98D1-151572BCFB5D}"/>
+    <hyperlink ref="E36" r:id="rId17" xr:uid="{F062E9C5-86C1-4CF1-8D4E-576A74443984}"/>
+    <hyperlink ref="E37" r:id="rId18" xr:uid="{1E5FA45C-7BC0-4F57-9ABD-CAA728EEBCBC}"/>
+    <hyperlink ref="E38" r:id="rId19" xr:uid="{8AE69837-736F-4218-9137-7705C4F2FC46}"/>
+    <hyperlink ref="E39" r:id="rId20" xr:uid="{D8F7CA9B-4F0E-4FBC-A5BE-BD117CFEF273}"/>
+    <hyperlink ref="E40" r:id="rId21" xr:uid="{E2A930C9-1408-4475-8A22-28E1282CD8FD}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{19C58405-5551-4842-85E5-2F57FE08ABE8}"/>
+    <hyperlink ref="E45" r:id="rId23" xr:uid="{6A3B2EEE-A8F0-4878-ADEF-FC15B66B05B0}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{50DBB9DF-1EB5-4B4C-9B72-89EFE8906780}"/>
+    <hyperlink ref="E48" r:id="rId25" xr:uid="{20EA74E2-1BD2-44C7-B609-607A22CEF453}"/>
+    <hyperlink ref="E50" r:id="rId26" xr:uid="{4C6A92F7-673F-4835-A0E2-4E1F2399C446}"/>
+    <hyperlink ref="E51" r:id="rId27" xr:uid="{9CAA46B0-C10E-48A3-B97C-F31731DCAF90}"/>
+    <hyperlink ref="E53" r:id="rId28" xr:uid="{46059E33-73CF-47F9-95E0-9610F14B2402}"/>
+    <hyperlink ref="E54" r:id="rId29" xr:uid="{648AFC1B-22F5-43A8-AB30-74CA08637BDE}"/>
+    <hyperlink ref="E55" r:id="rId30" xr:uid="{C5548410-26B3-4999-9F46-A32AE15BB71E}"/>
+    <hyperlink ref="E56" r:id="rId31" xr:uid="{B2DB7B47-AC8B-4C88-98B3-4FCFCB68FE51}"/>
+    <hyperlink ref="E58" r:id="rId32" xr:uid="{2D0B801E-C6BB-4724-A5CF-7B21413C86F5}"/>
+    <hyperlink ref="E60" r:id="rId33" xr:uid="{40E5DCBB-1316-4F98-9128-A9E0915870EA}"/>
+    <hyperlink ref="E61" r:id="rId34" xr:uid="{CB6FDEA4-84F5-440D-899A-49BFD4EFAEDC}"/>
+    <hyperlink ref="E63" r:id="rId35" xr:uid="{5B6BFAB9-3718-4A83-AF57-A1EA51792951}"/>
+    <hyperlink ref="E64" r:id="rId36" xr:uid="{A1D837A8-90EB-4CC0-B2D0-BF705DF67A01}"/>
+    <hyperlink ref="E65" r:id="rId37" xr:uid="{DD1FF8CF-D802-4BCD-A1C4-A5C87777B40B}"/>
+    <hyperlink ref="E66" r:id="rId38" xr:uid="{B4C5687C-5C33-47D0-90EA-BDB13F2FC0F5}"/>
+    <hyperlink ref="E67" r:id="rId39" xr:uid="{50563910-D00C-49EF-A930-5E17F4EC7A1F}"/>
+    <hyperlink ref="E68" r:id="rId40" xr:uid="{DF8FDDDF-2292-4EA3-9A44-C0F77BE4B6CE}"/>
+    <hyperlink ref="E71" r:id="rId41" xr:uid="{6AF62F41-F9EB-4A72-A20C-32E0447D919A}"/>
+    <hyperlink ref="E72" r:id="rId42" xr:uid="{62042588-2E73-48F8-B4FA-9D34893588DA}"/>
+    <hyperlink ref="E73" r:id="rId43" xr:uid="{6EA8A875-106E-489F-A625-C6459C4088E0}"/>
+    <hyperlink ref="E74" r:id="rId44" xr:uid="{89670EDD-B9B1-4CF9-86ED-E71B209FD907}"/>
+    <hyperlink ref="E75" r:id="rId45" xr:uid="{3C33C2E5-3D23-48D1-8949-26274195583D}"/>
+    <hyperlink ref="E77" r:id="rId46" display="https://rahma5555.github.io/roro00/" xr:uid="{D308997D-C6BE-4A15-960A-AC32D4D94848}"/>
+    <hyperlink ref="E78" r:id="rId47" xr:uid="{E9985539-FA90-4985-8574-FE7ED2E3556D}"/>
+    <hyperlink ref="E79" r:id="rId48" xr:uid="{2B700A39-1AB9-472A-ADC3-CB897401956D}"/>
+    <hyperlink ref="E80" r:id="rId49" xr:uid="{C10DE254-DEED-4A9C-9DC4-25AD39B15F08}"/>
+    <hyperlink ref="E81" r:id="rId50" xr:uid="{97C2A39B-7FE1-4995-AF55-DA3F019FF0C1}"/>
+    <hyperlink ref="E82" r:id="rId51" xr:uid="{74401B6D-40C2-488F-BEEE-90D836E92002}"/>
+    <hyperlink ref="E83" r:id="rId52" xr:uid="{670F00C2-4564-4667-AFA6-9B76ED94B65D}"/>
+    <hyperlink ref="E87" r:id="rId53" xr:uid="{F0A1C0A4-7449-4215-B2CD-945640E4C879}"/>
+    <hyperlink ref="E88" r:id="rId54" xr:uid="{5B7A631F-0DAC-4353-AC1B-5DD79D8574EE}"/>
+    <hyperlink ref="E89" r:id="rId55" xr:uid="{145D794B-E753-4FDD-A251-698EA8827CE4}"/>
+    <hyperlink ref="E90" r:id="rId56" xr:uid="{A1129247-88EB-4897-9A51-377D1A58B799}"/>
+    <hyperlink ref="E91" r:id="rId57" display="https://loloah20.githup.io/sva20/" xr:uid="{F5C4C357-E455-49F8-A05E-024CBA9FFC50}"/>
+    <hyperlink ref="E93" r:id="rId58" xr:uid="{1FEA772F-2D05-4C8C-A80C-67468E6451A3}"/>
+    <hyperlink ref="E94" r:id="rId59" xr:uid="{9D40D9E0-DBDC-46BF-AE8D-5B3FF2EC1B79}"/>
+    <hyperlink ref="E95" r:id="rId60" xr:uid="{021C3CA8-B193-468F-8CD0-9D11B3EA3CAB}"/>
+    <hyperlink ref="E97" r:id="rId61" xr:uid="{FBE4702E-B39B-41B4-BB14-693515EE2E76}"/>
+    <hyperlink ref="E98" r:id="rId62" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{66D14907-BA0F-4A07-B706-EFCB28692EE2}"/>
+    <hyperlink ref="E99" r:id="rId63" xr:uid="{8B1B00DD-A7F4-42FF-8989-96F30E34C0B8}"/>
+    <hyperlink ref="E100" r:id="rId64" xr:uid="{339F7C50-3890-49AA-AB27-EA4C121B8CD4}"/>
+    <hyperlink ref="E101" r:id="rId65" xr:uid="{C222D95B-471A-4D13-81D8-09A739A2F2A3}"/>
+    <hyperlink ref="E102" r:id="rId66" xr:uid="{7D4CF153-DD0C-4BA1-8DC5-E7FA6AD2273E}"/>
+    <hyperlink ref="E103" r:id="rId67" xr:uid="{B0A3FB84-3C92-44A7-A9B2-6A7E6CF1234B}"/>
+    <hyperlink ref="E104" r:id="rId68" xr:uid="{602AD707-7D4D-495A-AF4E-2F6EAD107592}"/>
+    <hyperlink ref="E105" r:id="rId69" display="https://basant1512006.github.io/basant-walid/" xr:uid="{0C664C73-B17A-4502-B968-94E167DF42C0}"/>
+    <hyperlink ref="E106" r:id="rId70" xr:uid="{D215A287-EE72-4ABF-8035-FC46456A6ED4}"/>
+    <hyperlink ref="E107" r:id="rId71" xr:uid="{62A9721D-E74F-4891-98CD-1D8E906D9EB2}"/>
+    <hyperlink ref="E108" r:id="rId72" xr:uid="{38CCB2F7-8AFE-4C61-AF6C-269C7E5A5671}"/>
+    <hyperlink ref="E110" r:id="rId73" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{783795E7-4D3B-475C-AD9D-4F36A7A6D9E8}"/>
+    <hyperlink ref="E111" r:id="rId74" xr:uid="{EFF439D5-B8C8-4F1E-BCCD-B4DAB0645D17}"/>
+    <hyperlink ref="E112" r:id="rId75" xr:uid="{E07D9E32-0374-4D2C-AB3F-4E1BB92C0473}"/>
+    <hyperlink ref="E113" r:id="rId76" xr:uid="{FC306888-5930-4017-81C3-EEEF3676B098}"/>
+    <hyperlink ref="E114" r:id="rId77" xr:uid="{43EAD1E0-0D89-487A-8426-7465F7CFC9C9}"/>
+    <hyperlink ref="E115" r:id="rId78" xr:uid="{434E66F2-4693-4FCD-B37F-54B73EA6503D}"/>
+    <hyperlink ref="E116" r:id="rId79" xr:uid="{6C1BFD19-2C91-4586-9D27-2E66CAB7D18C}"/>
+    <hyperlink ref="E117" r:id="rId80" xr:uid="{C92E710E-B025-4F7D-AFAA-943AFAAB60E0}"/>
+    <hyperlink ref="E118" r:id="rId81" xr:uid="{E466499E-9B3A-4A01-ACFB-D522B3316A1F}"/>
+    <hyperlink ref="E119" r:id="rId82" xr:uid="{5B1561AD-7AB7-4AA5-B762-FFA1D317E42F}"/>
+    <hyperlink ref="E120" r:id="rId83" xr:uid="{E2772DAA-486C-4C1D-B0C1-12DE0BB3DB26}"/>
+    <hyperlink ref="E121" r:id="rId84" xr:uid="{FCF797AC-428A-41F2-B568-CE39534F325B}"/>
+    <hyperlink ref="E122" r:id="rId85" xr:uid="{953FDC00-3AB0-45CE-955B-FC4FB1CB2771}"/>
+    <hyperlink ref="E124" r:id="rId86" xr:uid="{CD72FD9F-0C9C-44C5-A338-C8C387B9756D}"/>
+    <hyperlink ref="E125" r:id="rId87" xr:uid="{FEA3DBF3-7B45-49EB-A734-99505210C4B8}"/>
+    <hyperlink ref="E126" r:id="rId88" xr:uid="{C4857A75-C4FF-40E1-BF21-2A6E09555771}"/>
+    <hyperlink ref="E127" r:id="rId89" xr:uid="{D592619F-CB5F-4EFD-A5D3-A3ACA24F0DF5}"/>
+    <hyperlink ref="E128" r:id="rId90" xr:uid="{33177A24-E441-490F-96D9-D3D890FC485B}"/>
+    <hyperlink ref="E129" r:id="rId91" xr:uid="{7C6B22DD-7F00-4ACC-9DC0-D7861FC7686C}"/>
+    <hyperlink ref="E130" r:id="rId92" xr:uid="{D71395D0-1F33-4D5C-B03F-72791AD93B6F}"/>
+    <hyperlink ref="E131" r:id="rId93" xr:uid="{DE976379-35BF-458D-84FB-F1C769FEE336}"/>
+    <hyperlink ref="E132" r:id="rId94" xr:uid="{D87DD31F-E02B-44C1-93D6-F47AA5695D30}"/>
+    <hyperlink ref="E133" r:id="rId95" xr:uid="{1A58D559-3D9E-4510-B73A-0CB3EDFDBEB9}"/>
+    <hyperlink ref="E134" r:id="rId96" xr:uid="{6C9F5C82-30F9-4BDD-9EA2-2E7CFA0612D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2527EAC-A115-4F61-AD83-C6CBBA2D0E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BEBCCD-E140-416C-96A0-339230CEF341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="181">
   <si>
     <t>Timestamp</t>
   </si>
@@ -566,6 +566,12 @@
   </si>
   <si>
     <t>https://nesmasayed2004.github.io/mypage/</t>
+  </si>
+  <si>
+    <t>https://hhn-yy.github.io/my-page/</t>
+  </si>
+  <si>
+    <t>aw20230244@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,6 +4053,14 @@
       </c>
       <c r="C263" s="26" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4240,6 +4254,8 @@
     <hyperlink ref="C262" r:id="rId187" xr:uid="{B98A8FF6-7A76-4F18-9358-31078AE94F9F}"/>
     <hyperlink ref="B263" r:id="rId188" xr:uid="{DE96C102-1B62-4FE4-A6A7-B7A3EE98C8B9}"/>
     <hyperlink ref="C263" r:id="rId189" xr:uid="{896C395F-298E-4509-9175-1901F37278F8}"/>
+    <hyperlink ref="C264" r:id="rId190" xr:uid="{023DBCD6-7027-4F16-9C80-3603CD010D8A}"/>
+    <hyperlink ref="B264" r:id="rId191" display="mailto:aw20230244@sva.edu.eg" xr:uid="{B22A4D90-2059-4DF1-8788-DA4D97D93F1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BEBCCD-E140-416C-96A0-339230CEF341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3330D30-A684-5742-9CE6-0ECC146A452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3460" yWindow="3460" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="187">
   <si>
     <t>Timestamp</t>
   </si>
@@ -572,6 +572,24 @@
   </si>
   <si>
     <t>aw20230244@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>me20233253@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mariam2005856.github.io/mariam_essam/</t>
+  </si>
+  <si>
+    <t>https://rehabezzat122.github.io/first-web-page/</t>
+  </si>
+  <si>
+    <t>re20231348@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://eman2005820.github.io/mypage./</t>
+  </si>
+  <si>
+    <t>ea20230350@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1025,9 +1043,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1065,7 +1083,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1171,7 +1189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1313,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,22 +1339,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1366,7 +1384,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1379,7 +1397,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1392,7 +1410,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1405,7 +1423,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1418,7 +1436,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1431,7 +1449,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1444,7 +1462,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1457,7 +1475,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1470,7 +1488,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1483,7 +1501,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1496,7 +1514,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1509,7 +1527,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1522,7 +1540,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1535,7 +1553,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1548,7 +1566,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1561,7 +1579,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1574,7 +1592,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1585,7 +1603,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1598,7 +1616,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1611,7 +1629,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1624,7 +1642,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1637,7 +1655,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1650,7 +1668,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1663,7 +1681,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1676,7 +1694,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1689,7 +1707,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1702,7 +1720,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1715,7 +1733,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1728,7 +1746,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1741,7 +1759,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1754,7 +1772,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1767,7 +1785,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1780,7 +1798,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1793,7 +1811,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1806,7 +1824,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1819,7 +1837,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1832,7 +1850,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1845,7 +1863,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1858,7 +1876,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -1871,7 +1889,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -1884,7 +1902,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -1897,7 +1915,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -1910,7 +1928,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -1923,7 +1941,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -1936,7 +1954,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -1949,7 +1967,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -1962,7 +1980,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -1975,7 +1993,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -1988,7 +2006,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -2001,7 +2019,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -2014,7 +2032,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -2027,7 +2045,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -2040,7 +2058,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -2053,7 +2071,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -2066,7 +2084,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2079,7 +2097,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2092,7 +2110,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2105,7 +2123,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2118,7 +2136,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2131,7 +2149,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2144,7 +2162,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2157,7 +2175,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2170,7 +2188,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2183,7 +2201,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2196,7 +2214,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2209,7 +2227,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2222,7 +2240,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2235,7 +2253,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2248,7 +2266,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2261,7 +2279,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2274,7 +2292,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2287,7 +2305,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2300,7 +2318,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2313,7 +2331,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2326,7 +2344,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2339,7 +2357,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2352,7 +2370,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2365,7 +2383,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2378,7 +2396,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2391,7 +2409,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2404,7 +2422,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2417,7 +2435,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2430,7 +2448,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2443,7 +2461,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2456,7 +2474,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2469,7 +2487,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2482,7 +2500,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2495,7 +2513,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2508,7 +2526,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2521,7 +2539,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2534,7 +2552,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2547,7 +2565,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2560,7 +2578,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2573,7 +2591,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2586,7 +2604,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2599,7 +2617,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2612,7 +2630,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2625,7 +2643,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2638,7 +2656,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2651,7 +2669,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2664,7 +2682,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2677,7 +2695,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2690,7 +2708,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2703,7 +2721,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2716,7 +2734,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2729,7 +2747,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2742,7 +2760,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2755,7 +2773,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2768,7 +2786,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2781,7 +2799,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2794,7 +2812,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2807,7 +2825,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2820,7 +2838,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2833,7 +2851,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -2846,7 +2864,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -2859,7 +2877,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -2872,7 +2890,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -2885,7 +2903,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -2898,7 +2916,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -2911,7 +2929,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -2924,7 +2942,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -2937,7 +2955,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="17" t="s">
         <v>161</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>163</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="17" t="s">
         <v>165</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="24" t="s">
         <v>77</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="24" t="s">
         <v>168</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>170</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>171</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B132" s="29" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="27" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3035,7 @@
         <v>30509051400865</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="29" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="27" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +3051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="29" t="s">
         <v>13</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="27" t="s">
         <v>15</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="29" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="27" t="s">
         <v>13</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="29" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B141" s="27" t="s">
         <v>18</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="29" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="27" t="s">
         <v>13</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="29" t="s">
         <v>13</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="29" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="27" t="s">
         <v>20</v>
       </c>
@@ -3129,13 +3147,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="27" t="s">
         <v>23</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="29" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="27" t="s">
         <v>15</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="29" t="s">
         <v>15</v>
       </c>
@@ -3167,7 +3185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B153" s="27" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B154" s="29" t="s">
         <v>28</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="27" t="s">
         <v>30</v>
       </c>
@@ -3191,7 +3209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B156" s="29" t="s">
         <v>30</v>
       </c>
@@ -3199,7 +3217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="27" t="s">
         <v>26</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B158" s="29" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="27" t="s">
         <v>34</v>
       </c>
@@ -3223,7 +3241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="29" t="s">
         <v>34</v>
       </c>
@@ -3231,7 +3249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="27" t="s">
         <v>26</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="29" t="s">
         <v>36</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B163" s="27" t="s">
         <v>36</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="29" t="s">
         <v>34</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B165" s="27" t="s">
         <v>39</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B166" s="29" t="s">
         <v>39</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B167" s="27" t="s">
         <v>41</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B168" s="29" t="s">
         <v>41</v>
       </c>
@@ -3295,7 +3313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="27" t="s">
         <v>36</v>
       </c>
@@ -3303,7 +3321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="29" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B171" s="27" t="s">
         <v>28</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B172" s="29" t="s">
         <v>15</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="27" t="s">
         <v>28</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B174" s="29" t="s">
         <v>43</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B175" s="27" t="s">
         <v>44</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B176" s="29" t="s">
         <v>41</v>
       </c>
@@ -3359,7 +3377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B177" s="27" t="s">
         <v>15</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="29" t="s">
         <v>47</v>
       </c>
@@ -3375,7 +3393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B179" s="27" t="s">
         <v>49</v>
       </c>
@@ -3383,7 +3401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="29" t="s">
         <v>51</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="27" t="s">
         <v>53</v>
       </c>
@@ -3399,7 +3417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="29" t="s">
         <v>55</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B183" s="27" t="s">
         <v>57</v>
       </c>
@@ -3415,7 +3433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B184" s="29" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B185" s="27" t="s">
         <v>61</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="29" t="s">
         <v>63</v>
       </c>
@@ -3439,7 +3457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="27" t="s">
         <v>13</v>
       </c>
@@ -3447,7 +3465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B188" s="29" t="s">
         <v>65</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B189" s="27" t="s">
         <v>67</v>
       </c>
@@ -3463,7 +3481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="29" t="s">
         <v>69</v>
       </c>
@@ -3471,7 +3489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B191" s="27" t="s">
         <v>71</v>
       </c>
@@ -3479,7 +3497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B192" s="29" t="s">
         <v>73</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="27" t="s">
         <v>75</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="29" t="s">
         <v>77</v>
       </c>
@@ -3503,7 +3521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="27" t="s">
         <v>79</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B196" s="29" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B197" s="27" t="s">
         <v>82</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="29" t="s">
         <v>84</v>
       </c>
@@ -3535,7 +3553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="27" t="s">
         <v>86</v>
       </c>
@@ -3543,7 +3561,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="29" t="s">
         <v>88</v>
       </c>
@@ -3551,7 +3569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B201" s="27" t="s">
         <v>90</v>
       </c>
@@ -3559,7 +3577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="29" t="s">
         <v>92</v>
       </c>
@@ -3567,7 +3585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B203" s="27" t="s">
         <v>94</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B204" s="29" t="s">
         <v>96</v>
       </c>
@@ -3583,7 +3601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="27" t="s">
         <v>98</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B206" s="29" t="s">
         <v>100</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B207" s="27" t="s">
         <v>102</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B208" s="29" t="s">
         <v>104</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="27" t="s">
         <v>106</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="29" t="s">
         <v>108</v>
       </c>
@@ -3631,7 +3649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B211" s="27" t="s">
         <v>110</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B212" s="29" t="s">
         <v>112</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B213" s="27" t="s">
         <v>114</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B214" s="29" t="s">
         <v>116</v>
       </c>
@@ -3663,7 +3681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B215" s="27" t="s">
         <v>118</v>
       </c>
@@ -3671,7 +3689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B216" s="29" t="s">
         <v>120</v>
       </c>
@@ -3679,7 +3697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="27" t="s">
         <v>122</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="29" t="s">
         <v>88</v>
       </c>
@@ -3695,7 +3713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B219" s="27" t="s">
         <v>124</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B220" s="29" t="s">
         <v>126</v>
       </c>
@@ -3711,7 +3729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B221" s="27" t="s">
         <v>128</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B222" s="29" t="s">
         <v>104</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B223" s="27" t="s">
         <v>104</v>
       </c>
@@ -3735,7 +3753,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="29" t="s">
         <v>131</v>
       </c>
@@ -3743,7 +3761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B225" s="27" t="s">
         <v>133</v>
       </c>
@@ -3751,7 +3769,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B226" s="29" t="s">
         <v>135</v>
       </c>
@@ -3759,7 +3777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B227" s="27" t="s">
         <v>137</v>
       </c>
@@ -3767,7 +3785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B228" s="29" t="s">
         <v>137</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B229" s="27" t="s">
         <v>137</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B230" s="29" t="s">
         <v>139</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B231" s="27" t="s">
         <v>139</v>
       </c>
@@ -3799,7 +3817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B232" s="29" t="s">
         <v>139</v>
       </c>
@@ -3807,7 +3825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B233" s="27" t="s">
         <v>141</v>
       </c>
@@ -3815,7 +3833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B234" s="29" t="s">
         <v>133</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B235" s="27" t="s">
         <v>133</v>
       </c>
@@ -3831,7 +3849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B236" s="29" t="s">
         <v>79</v>
       </c>
@@ -3839,7 +3857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B237" s="27" t="s">
         <v>143</v>
       </c>
@@ -3847,7 +3865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B238" s="29" t="s">
         <v>143</v>
       </c>
@@ -3855,7 +3873,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B239" s="27" t="s">
         <v>146</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B240" s="29" t="s">
         <v>146</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B241" s="27" t="s">
         <v>148</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B242" s="29" t="s">
         <v>148</v>
       </c>
@@ -3887,7 +3905,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B243" s="27" t="s">
         <v>150</v>
       </c>
@@ -3895,7 +3913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B244" s="29" t="s">
         <v>152</v>
       </c>
@@ -3903,7 +3921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B245" s="27" t="s">
         <v>154</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B246" s="29" t="s">
         <v>154</v>
       </c>
@@ -3919,7 +3937,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B247" s="27" t="s">
         <v>156</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B248" s="29" t="s">
         <v>156</v>
       </c>
@@ -3935,7 +3953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B249" s="27" t="s">
         <v>156</v>
       </c>
@@ -3943,7 +3961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B250" s="29" t="s">
         <v>106</v>
       </c>
@@ -3951,7 +3969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B251" s="27" t="s">
         <v>158</v>
       </c>
@@ -3959,7 +3977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B252" s="29" t="s">
         <v>159</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B253" s="27" t="s">
         <v>161</v>
       </c>
@@ -3975,7 +3993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B254" s="29" t="s">
         <v>163</v>
       </c>
@@ -3983,7 +4001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B255" s="27" t="s">
         <v>165</v>
       </c>
@@ -3991,7 +4009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B256" s="29" t="s">
         <v>77</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B257" s="27" t="s">
         <v>173</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B258" s="29" t="s">
         <v>170</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B259" s="27" t="s">
         <v>86</v>
       </c>
@@ -4023,7 +4041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B260" s="29" t="s">
         <v>86</v>
       </c>
@@ -4031,7 +4049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B261" s="27" t="s">
         <v>88</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B262" s="33" t="s">
         <v>175</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="35" t="s">
         <v>177</v>
       </c>
@@ -4055,12 +4073,36 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="26" t="s">
         <v>180</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>181</v>
+      </c>
+      <c r="C265" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>184</v>
+      </c>
+      <c r="C266" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>186</v>
+      </c>
+      <c r="C267" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4269,17 +4311,17 @@
       <selection activeCell="D3" sqref="D3:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -4309,7 +4351,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -4322,7 +4364,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -4335,7 +4377,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -4348,7 +4390,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -4361,7 +4403,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -4374,7 +4416,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -4387,7 +4429,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -4400,7 +4442,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -4413,7 +4455,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -4426,7 +4468,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -4439,7 +4481,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -4452,7 +4494,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -4465,7 +4507,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -4478,7 +4520,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -4491,7 +4533,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -4504,7 +4546,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -4517,7 +4559,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -4528,7 +4570,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -4541,7 +4583,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -4554,7 +4596,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -4567,7 +4609,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -4580,7 +4622,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -4593,7 +4635,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -4606,7 +4648,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -4619,7 +4661,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -4632,7 +4674,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -4645,7 +4687,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -4658,7 +4700,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -4671,7 +4713,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -4684,7 +4726,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -4697,7 +4739,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -4710,7 +4752,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -4723,7 +4765,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -4736,7 +4778,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -4749,7 +4791,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -4762,7 +4804,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -4775,7 +4817,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -4788,7 +4830,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -4801,7 +4843,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -4814,7 +4856,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -4827,7 +4869,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -4840,7 +4882,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -4853,7 +4895,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -4866,7 +4908,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -4879,7 +4921,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -4892,7 +4934,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -4905,7 +4947,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -4918,7 +4960,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -4931,7 +4973,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -4944,7 +4986,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -4957,7 +4999,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -4970,7 +5012,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -4983,7 +5025,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -4996,7 +5038,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -5009,7 +5051,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -5022,7 +5064,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -5035,7 +5077,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -5048,7 +5090,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -5061,7 +5103,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -5074,7 +5116,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -5087,7 +5129,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -5100,7 +5142,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -5113,7 +5155,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -5126,7 +5168,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -5139,7 +5181,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -5152,7 +5194,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -5165,7 +5207,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -5178,7 +5220,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -5191,7 +5233,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -5204,7 +5246,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -5217,7 +5259,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -5230,7 +5272,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -5243,7 +5285,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -5256,7 +5298,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -5269,7 +5311,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -5282,7 +5324,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -5295,7 +5337,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -5308,7 +5350,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -5321,7 +5363,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -5334,7 +5376,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -5347,7 +5389,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -5360,7 +5402,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -5373,7 +5415,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -5386,7 +5428,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -5399,7 +5441,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -5412,7 +5454,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -5425,7 +5467,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -5438,7 +5480,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -5451,7 +5493,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -5464,7 +5506,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -5477,7 +5519,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -5490,7 +5532,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -5503,7 +5545,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -5516,7 +5558,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -5529,7 +5571,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -5542,7 +5584,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -5555,7 +5597,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -5568,7 +5610,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -5581,7 +5623,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -5594,7 +5636,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -5607,7 +5649,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -5620,7 +5662,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -5633,7 +5675,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -5646,7 +5688,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -5659,7 +5701,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -5672,7 +5714,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -5685,7 +5727,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -5698,7 +5740,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -5711,7 +5753,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -5724,7 +5766,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -5737,7 +5779,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -5750,7 +5792,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -5763,7 +5805,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -5776,7 +5818,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -5789,7 +5831,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -5802,7 +5844,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -5815,7 +5857,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -5828,7 +5870,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -5841,7 +5883,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -5854,7 +5896,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -5867,7 +5909,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
@@ -5880,7 +5922,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
@@ -5893,7 +5935,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
@@ -5906,7 +5948,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
@@ -5919,7 +5961,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
@@ -5932,7 +5974,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
@@ -5945,7 +5987,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
@@ -5958,7 +6000,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
@@ -5971,7 +6013,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
@@ -5984,7 +6026,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
@@ -5997,7 +6039,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3330D30-A684-5742-9CE6-0ECC146A452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA78-F6D2-C24A-A040-063AB632F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3460" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="189">
   <si>
     <t>Timestamp</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>ea20230350@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://hagersalim.github.io/myfirstweb/</t>
+  </si>
+  <si>
+    <t>hm20230396@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4103,6 +4109,14 @@
       </c>
       <c r="C267" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/معهد الوادي/MyWeRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AFA78-F6D2-C24A-A040-063AB632F6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E5F1D0-7EEE-46EF-97BE-88A19A05B932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="3460" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="191">
   <si>
     <t>Timestamp</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>hm20230396@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mariamyousef-boop.github.io/--my-page-/</t>
+  </si>
+  <si>
+    <t>ae20233312@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1055,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1089,7 +1095,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1195,7 +1201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1337,7 +1343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1345,22 +1351,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1403,7 +1409,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1416,7 +1422,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1429,7 +1435,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1455,7 +1461,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1468,7 +1474,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1481,7 +1487,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1494,7 +1500,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1507,7 +1513,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1520,7 +1526,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1533,7 +1539,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1546,7 +1552,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1559,7 +1565,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1585,7 +1591,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1598,7 +1604,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1609,7 +1615,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1622,7 +1628,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1635,7 +1641,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1648,7 +1654,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1661,7 +1667,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1674,7 +1680,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1700,7 +1706,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1713,7 +1719,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1726,7 +1732,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1752,7 +1758,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1765,7 +1771,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1778,7 +1784,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1791,7 +1797,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1804,7 +1810,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1817,7 +1823,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1830,7 +1836,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1843,7 +1849,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1856,7 +1862,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1869,7 +1875,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -1895,7 +1901,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -1908,7 +1914,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -1934,7 +1940,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -1947,7 +1953,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -1960,7 +1966,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -1973,7 +1979,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -1986,7 +1992,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -1999,7 +2005,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -2012,7 +2018,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -2025,7 +2031,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -2038,7 +2044,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -2051,7 +2057,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -2064,7 +2070,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -2077,7 +2083,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -2090,7 +2096,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2103,7 +2109,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2116,7 +2122,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2129,7 +2135,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2142,7 +2148,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2155,7 +2161,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2168,7 +2174,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2181,7 +2187,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2194,7 +2200,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2207,7 +2213,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2220,7 +2226,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2233,7 +2239,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2246,7 +2252,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2272,7 +2278,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2285,7 +2291,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2298,7 +2304,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2311,7 +2317,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2324,7 +2330,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2389,7 +2395,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2402,7 +2408,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2415,7 +2421,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2428,7 +2434,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2441,7 +2447,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2454,7 +2460,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2467,7 +2473,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2480,7 +2486,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2493,7 +2499,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2506,7 +2512,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2519,7 +2525,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2532,7 +2538,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2545,7 +2551,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2558,7 +2564,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2571,7 +2577,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2584,7 +2590,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2597,7 +2603,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2610,7 +2616,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2636,7 +2642,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2649,7 +2655,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2662,7 +2668,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2675,7 +2681,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2688,7 +2694,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2701,7 +2707,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2714,7 +2720,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2727,7 +2733,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2740,7 +2746,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2753,7 +2759,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2766,7 +2772,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2779,7 +2785,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2792,7 +2798,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2805,7 +2811,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2818,7 +2824,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2831,7 +2837,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2844,7 +2850,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2857,7 +2863,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -2870,7 +2876,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -2883,7 +2889,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -2896,7 +2902,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -2909,7 +2915,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -2922,7 +2928,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -2948,7 +2954,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -2961,7 +2967,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>161</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="15" t="s">
         <v>163</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="17" t="s">
         <v>165</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="24" t="s">
         <v>77</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="24" t="s">
         <v>168</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>170</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>171</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="27" t="s">
         <v>5</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="29" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="27" t="s">
         <v>9</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>30509051400865</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="29" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="27" t="s">
         <v>12</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="29" t="s">
         <v>13</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="27" t="s">
         <v>15</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="29" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="27" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="29" t="s">
         <v>18</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="27" t="s">
         <v>18</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="29" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="27" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="29" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="27" t="s">
         <v>13</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="29" t="s">
         <v>13</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="27" t="s">
         <v>20</v>
       </c>
@@ -3153,13 +3159,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="27" t="s">
         <v>23</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="29" t="s">
         <v>15</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="27" t="s">
         <v>15</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>20233360</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="29" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="27" t="s">
         <v>26</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="29" t="s">
         <v>28</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="27" t="s">
         <v>30</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="29" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="27" t="s">
         <v>26</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="29" t="s">
         <v>32</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="27" t="s">
         <v>34</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="29" t="s">
         <v>34</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="27" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="29" t="s">
         <v>36</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="27" t="s">
         <v>36</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="29" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="27" t="s">
         <v>39</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="29" t="s">
         <v>39</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="27" t="s">
         <v>41</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="29" t="s">
         <v>41</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="27" t="s">
         <v>36</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="29" t="s">
         <v>15</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="27" t="s">
         <v>28</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="29" t="s">
         <v>15</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="27" t="s">
         <v>28</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="29" t="s">
         <v>43</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="27" t="s">
         <v>44</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="29" t="s">
         <v>41</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="27" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="29" t="s">
         <v>47</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="27" t="s">
         <v>49</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="29" t="s">
         <v>51</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="27" t="s">
         <v>53</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="29" t="s">
         <v>55</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="27" t="s">
         <v>57</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="29" t="s">
         <v>59</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="27" t="s">
         <v>61</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="29" t="s">
         <v>63</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="27" t="s">
         <v>13</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="29" t="s">
         <v>65</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="27" t="s">
         <v>67</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="29" t="s">
         <v>69</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="27" t="s">
         <v>71</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="29" t="s">
         <v>73</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="27" t="s">
         <v>75</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B194" s="29" t="s">
         <v>77</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="27" t="s">
         <v>79</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="29" t="s">
         <v>7</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="27" t="s">
         <v>82</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="29" t="s">
         <v>84</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="27" t="s">
         <v>86</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="29" t="s">
         <v>88</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="27" t="s">
         <v>90</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="29" t="s">
         <v>92</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="27" t="s">
         <v>94</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="29" t="s">
         <v>96</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="27" t="s">
         <v>98</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="29" t="s">
         <v>100</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="27" t="s">
         <v>102</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="29" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="27" t="s">
         <v>106</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="29" t="s">
         <v>108</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="27" t="s">
         <v>110</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="29" t="s">
         <v>112</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="27" t="s">
         <v>114</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="29" t="s">
         <v>116</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="27" t="s">
         <v>118</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="29" t="s">
         <v>120</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="27" t="s">
         <v>122</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="29" t="s">
         <v>88</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="27" t="s">
         <v>124</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="29" t="s">
         <v>126</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="27" t="s">
         <v>128</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="29" t="s">
         <v>104</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="27" t="s">
         <v>104</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="29" t="s">
         <v>131</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="27" t="s">
         <v>133</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="29" t="s">
         <v>135</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="27" t="s">
         <v>137</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="29" t="s">
         <v>137</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="27" t="s">
         <v>137</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="29" t="s">
         <v>139</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="27" t="s">
         <v>139</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="29" t="s">
         <v>139</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="27" t="s">
         <v>141</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="29" t="s">
         <v>133</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="27" t="s">
         <v>133</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="29" t="s">
         <v>79</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="27" t="s">
         <v>143</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B238" s="29" t="s">
         <v>143</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="27" t="s">
         <v>146</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="29" t="s">
         <v>146</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="27" t="s">
         <v>148</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="29" t="s">
         <v>148</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="27" t="s">
         <v>150</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B244" s="29" t="s">
         <v>152</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="27" t="s">
         <v>154</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="29" t="s">
         <v>154</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="27" t="s">
         <v>156</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B248" s="29" t="s">
         <v>156</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="27" t="s">
         <v>156</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="29" t="s">
         <v>106</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="27" t="s">
         <v>158</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="29" t="s">
         <v>159</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="27" t="s">
         <v>161</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="29" t="s">
         <v>163</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="27" t="s">
         <v>165</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B256" s="29" t="s">
         <v>77</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B257" s="27" t="s">
         <v>173</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="29" t="s">
         <v>170</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="27" t="s">
         <v>86</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="29" t="s">
         <v>86</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="27" t="s">
         <v>88</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="33" t="s">
         <v>175</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="35" t="s">
         <v>177</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="26" t="s">
         <v>180</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>181</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>184</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>186</v>
       </c>
@@ -4111,12 +4117,20 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>188</v>
       </c>
       <c r="C268" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4312,8 +4326,11 @@
     <hyperlink ref="C263" r:id="rId189" xr:uid="{896C395F-298E-4509-9175-1901F37278F8}"/>
     <hyperlink ref="C264" r:id="rId190" xr:uid="{023DBCD6-7027-4F16-9C80-3603CD010D8A}"/>
     <hyperlink ref="B264" r:id="rId191" display="mailto:aw20230244@sva.edu.eg" xr:uid="{B22A4D90-2059-4DF1-8788-DA4D97D93F1E}"/>
+    <hyperlink ref="C269" r:id="rId192" xr:uid="{2801CA35-7F2B-4037-BAB5-9467EB047F1B}"/>
+    <hyperlink ref="B269" r:id="rId193" display="mailto:ae20233312@sva.edu.eg" xr:uid="{A4AB64C3-181C-46C6-9571-C1AD96FB2CDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId194"/>
 </worksheet>
 </file>
 
@@ -4325,17 +4342,17 @@
       <selection activeCell="D3" sqref="D3:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -4365,7 +4382,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -4378,7 +4395,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -4391,7 +4408,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -4404,7 +4421,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -4417,7 +4434,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -4430,7 +4447,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -4443,7 +4460,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -4456,7 +4473,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -4469,7 +4486,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -4482,7 +4499,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -4495,7 +4512,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -4508,7 +4525,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -4521,7 +4538,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -4534,7 +4551,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -4547,7 +4564,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -4560,7 +4577,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -4573,7 +4590,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -4584,7 +4601,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -4597,7 +4614,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -4610,7 +4627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -4623,7 +4640,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -4636,7 +4653,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -4649,7 +4666,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -4662,7 +4679,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -4675,7 +4692,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -4688,7 +4705,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -4701,7 +4718,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -4714,7 +4731,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -4727,7 +4744,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -4740,7 +4757,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -4753,7 +4770,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -4766,7 +4783,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -4779,7 +4796,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -4792,7 +4809,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -4805,7 +4822,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -4818,7 +4835,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -4831,7 +4848,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -4844,7 +4861,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -4857,7 +4874,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -4870,7 +4887,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -4883,7 +4900,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -4896,7 +4913,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -4909,7 +4926,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -4922,7 +4939,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -4935,7 +4952,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -4948,7 +4965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -4961,7 +4978,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -4974,7 +4991,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -4987,7 +5004,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -5000,7 +5017,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -5013,7 +5030,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -5026,7 +5043,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -5039,7 +5056,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -5052,7 +5069,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -5065,7 +5082,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -5078,7 +5095,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -5091,7 +5108,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -5104,7 +5121,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -5117,7 +5134,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -5130,7 +5147,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -5143,7 +5160,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -5156,7 +5173,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -5169,7 +5186,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -5182,7 +5199,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -5195,7 +5212,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -5208,7 +5225,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -5221,7 +5238,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -5234,7 +5251,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -5247,7 +5264,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -5260,7 +5277,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -5273,7 +5290,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -5286,7 +5303,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -5299,7 +5316,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -5312,7 +5329,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -5325,7 +5342,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -5338,7 +5355,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -5351,7 +5368,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -5364,7 +5381,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -5377,7 +5394,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -5390,7 +5407,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -5403,7 +5420,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -5416,7 +5433,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -5429,7 +5446,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -5442,7 +5459,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -5455,7 +5472,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -5468,7 +5485,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -5481,7 +5498,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -5494,7 +5511,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -5507,7 +5524,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -5520,7 +5537,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -5533,7 +5550,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -5546,7 +5563,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -5559,7 +5576,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -5572,7 +5589,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -5585,7 +5602,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -5598,7 +5615,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -5611,7 +5628,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -5624,7 +5641,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -5637,7 +5654,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -5650,7 +5667,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -5663,7 +5680,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -5676,7 +5693,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -5689,7 +5706,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -5702,7 +5719,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -5715,7 +5732,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -5728,7 +5745,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -5741,7 +5758,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -5754,7 +5771,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -5767,7 +5784,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -5780,7 +5797,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -5793,7 +5810,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -5806,7 +5823,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -5819,7 +5836,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -5832,7 +5849,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -5845,7 +5862,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -5858,7 +5875,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -5871,7 +5888,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -5884,7 +5901,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -5897,7 +5914,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -5910,7 +5927,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -5923,7 +5940,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
@@ -5936,7 +5953,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
@@ -5949,7 +5966,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
@@ -5962,7 +5979,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
@@ -5975,7 +5992,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
@@ -5988,7 +6005,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
@@ -6001,7 +6018,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
@@ -6014,7 +6031,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
@@ -6027,7 +6044,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
@@ -6040,7 +6057,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
@@ -6053,7 +6070,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E5F1D0-7EEE-46EF-97BE-88A19A05B932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107A210-3C09-4B6A-B518-820AEB55B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
   <si>
     <t>Timestamp</t>
   </si>
@@ -602,6 +602,63 @@
   </si>
   <si>
     <t>ae20233312@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>es20232225@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>file:///D:/New%20folder%20(2)/index.html</t>
+  </si>
+  <si>
+    <t>ss20230389@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://saad8000.github.io/student/index.HTML</t>
+  </si>
+  <si>
+    <t>fk20232282@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://farah966.github.io/student/index.html</t>
+  </si>
+  <si>
+    <t>mn20230221@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://moasnasr.github.io/my-first-project/</t>
+  </si>
+  <si>
+    <t>ns20232229@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/MoasNasr/my-first-project/blob/main/moaz%20index.html</t>
+  </si>
+  <si>
+    <t>ea20235222@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://esraaalaa1144.github.io/my-page/</t>
+  </si>
+  <si>
+    <t>aw20222311@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://awafa111.github.io/freepalestine/</t>
+  </si>
+  <si>
+    <t>mm20230307@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>zm20231380@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://zyad055.github.io/zoz/</t>
+  </si>
+  <si>
+    <t>bw20230356@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://basant-2005.github.io/basant-walid2005/</t>
   </si>
 </sst>
 </file>
@@ -667,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -901,26 +958,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFF8F9FA"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
       <bottom/>
@@ -931,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -996,16 +1036,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -1033,8 +1064,61 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1351,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B261" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,154 +1575,154 @@
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="50"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
+      <c r="B11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="B12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="B13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="54"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="B14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="50"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="B15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="54"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="B16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="50"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="B17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="54"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="B18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="50"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="54"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="B20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="50"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16">
-        <v>20233360</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="B21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="54"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1646,10 +1730,10 @@
         <v>45727.033043981479</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="18">
-        <v>20233360</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1658,26 +1742,26 @@
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="8"/>
+      <c r="B23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="54"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="B24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="50"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,10 +1769,10 @@
         <v>45727.055520833332</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
@@ -1698,10 +1782,10 @@
         <v>45727.348298611112</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -1710,130 +1794,130 @@
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="8"/>
+      <c r="B27" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="54"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5"/>
+      <c r="B28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="50"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="B29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="54"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="5"/>
+      <c r="B30" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="50"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="8"/>
+      <c r="B31" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="54"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="5"/>
+      <c r="B32" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="50"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="8"/>
+      <c r="B33" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="54"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="5"/>
+      <c r="B34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="50"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="8"/>
+      <c r="B35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="54"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="B36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="50"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,10 +1925,10 @@
         <v>45731.892442129632</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
@@ -1854,10 +1938,10 @@
         <v>45731.893680555557</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
@@ -1867,10 +1951,10 @@
         <v>45731.893842592595</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
@@ -1880,10 +1964,10 @@
         <v>45731.895567129628</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
@@ -1893,10 +1977,10 @@
         <v>45733.789525462962</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
@@ -1906,10 +1990,10 @@
         <v>45733.795115740744</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
@@ -1919,10 +2003,10 @@
         <v>45733.800370370373</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
@@ -1932,10 +2016,10 @@
         <v>45733.805578703701</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
@@ -1945,10 +2029,10 @@
         <v>45733.80641203704</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
@@ -1958,10 +2042,10 @@
         <v>45733.816261574073</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -1971,10 +2055,10 @@
         <v>45735.574652777781</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
@@ -1984,10 +2068,10 @@
         <v>45733.827337962961</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
@@ -1997,10 +2081,10 @@
         <v>45733.838587962964</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
@@ -2010,10 +2094,10 @@
         <v>45733.851712962962</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
@@ -2023,10 +2107,10 @@
         <v>45733.881053240744</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
@@ -2036,10 +2120,10 @@
         <v>45735.546041666668</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
@@ -2049,10 +2133,10 @@
         <v>45733.974374999998</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
@@ -2062,10 +2146,10 @@
         <v>45733.987372685187</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
@@ -2075,10 +2159,10 @@
         <v>45733.991678240738</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
@@ -2088,10 +2172,10 @@
         <v>45734.08734953704</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>62</v>
+        <v>102</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
@@ -2101,10 +2185,10 @@
         <v>45734.128171296295</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
@@ -2114,10 +2198,10 @@
         <v>45734.495439814818</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
@@ -2127,10 +2211,10 @@
         <v>45734.552002314813</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
@@ -2140,10 +2224,10 @@
         <v>45734.606840277775</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
@@ -2153,10 +2237,10 @@
         <v>45734.612662037034</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
@@ -2166,10 +2250,10 @@
         <v>45734.63653935185</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
@@ -2179,10 +2263,10 @@
         <v>45734.719652777778</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
@@ -2192,10 +2276,10 @@
         <v>45734.721446759257</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
@@ -2205,10 +2289,10 @@
         <v>45734.725555555553</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
@@ -2218,64 +2302,64 @@
         <v>45734.728935185187</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="8"/>
+      <c r="B67" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="54"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="5"/>
+      <c r="B68" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="50"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="8"/>
+      <c r="B69" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="54"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="5"/>
+      <c r="B70" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="50"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2283,10 +2367,10 @@
         <v>45735.341168981482</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>89</v>
+        <v>131</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
@@ -2296,23 +2380,23 @@
         <v>45735.395312499997</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
@@ -2322,10 +2406,10 @@
         <v>45735.517326388886</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
@@ -2335,10 +2419,10 @@
         <v>45735.634039351855</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>97</v>
+        <v>139</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
@@ -2348,10 +2432,10 @@
         <v>45735.653171296297</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
@@ -2360,39 +2444,39 @@
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="8"/>
+      <c r="B77" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="54"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="5"/>
+      <c r="B78" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="50"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="8"/>
+      <c r="B79" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="54"/>
       <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2400,10 +2484,10 @@
         <v>45735.722696759258</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
@@ -2412,39 +2496,39 @@
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" s="8"/>
+      <c r="B81" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="54"/>
       <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" s="5"/>
+      <c r="B82" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="50"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="8"/>
+      <c r="B83" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="54"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2452,10 +2536,10 @@
         <v>45735.83017361111</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>115</v>
+        <v>156</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -2464,299 +2548,299 @@
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="8"/>
+      <c r="B85" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="54"/>
       <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="5"/>
+      <c r="B86" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="50"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="8"/>
+      <c r="B87" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="48"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="5"/>
+      <c r="B88" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="49"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="8"/>
+      <c r="B89" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="48"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="5"/>
+      <c r="B90" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="49"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="8"/>
+      <c r="B91" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="48"/>
       <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="5"/>
+      <c r="B92" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="49"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93" s="8"/>
+      <c r="B93" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="48"/>
       <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D94" s="5"/>
+      <c r="B94" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="49"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" s="8"/>
+      <c r="B95" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="48"/>
       <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="5"/>
+      <c r="B96" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="49"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="8"/>
+      <c r="B97" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="48"/>
       <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="5"/>
+      <c r="B98" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="49"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" s="8"/>
+      <c r="B99" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="48"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="5"/>
+      <c r="B100" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="49"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="8"/>
+      <c r="B101" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="48"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" s="5"/>
+      <c r="B102" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="49"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="8"/>
+      <c r="B103" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="48"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D104" s="5"/>
+      <c r="B104" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="49"/>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D105" s="8"/>
+      <c r="B105" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="48"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
-      <c r="B106" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D106" s="5"/>
+      <c r="B106" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="49"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
-      <c r="B107" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="8"/>
+      <c r="B107" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="48"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,12 +2848,12 @@
         <v>45737.693680555552</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108" s="49"/>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2777,12 +2861,12 @@
         <v>45737.693831018521</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" s="8"/>
+        <v>202</v>
+      </c>
+      <c r="D109" s="48"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2790,12 +2874,12 @@
         <v>45737.7031712963</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D110" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="D110" s="49"/>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2803,12 +2887,12 @@
         <v>45737.703530092593</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D111" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="48"/>
       <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,1521 +2900,174 @@
         <v>45737.87636574074</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D112" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="D112" s="49"/>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" s="8"/>
+      <c r="B113" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
-      <c r="B114" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114" s="5"/>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="5"/>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="5"/>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" s="5"/>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" s="5"/>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
-      <c r="B123" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" s="11"/>
       <c r="E123" s="12"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>170</v>
-      </c>
-      <c r="C129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="31">
-        <v>30509051400865</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="31">
-        <v>20233360</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="8"/>
-    </row>
-    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="30">
-        <v>20233360</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="31">
-        <v>20233360</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C166" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C172" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C178" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C181" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C183" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C190" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C191" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C193" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C195" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C199" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C200" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C201" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C202" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C204" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C205" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C206" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C207" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C208" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C209" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C210" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C211" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C212" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C214" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C215" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C216" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C217" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C219" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C220" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C221" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C222" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C223" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C225" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C226" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C228" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C229" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C231" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C232" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C233" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C234" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C235" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C236" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C237" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C238" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C239" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C240" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C241" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C242" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C243" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C244" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C245" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C246" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C247" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C248" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C250" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C251" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C252" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C253" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C254" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C255" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C256" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C257" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C258" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C259" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C260" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C261" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C262" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C264" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>181</v>
-      </c>
-      <c r="C265" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>184</v>
-      </c>
-      <c r="C266" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
-        <v>186</v>
-      </c>
-      <c r="C267" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>188</v>
-      </c>
-      <c r="C268" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C269" s="26" t="s">
-        <v>189</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{72D5F7D2-0624-4F16-BE83-6876243392C3}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{9D6DFF6B-B487-433C-97D5-D4218B4BB3DF}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{078C5AC7-7F0A-4A4A-B874-628194A281BC}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{91FEFBD1-6E92-4B3D-9B2F-3E0FDFAF1E74}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{8B785016-3B47-4915-A97F-44AF0B7F0681}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{73D43D72-2458-49CA-A903-B198128611E0}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{26EE51B5-E889-4D7E-A5B7-42F738679E16}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{15694730-7E5F-4640-89DB-A20FADAA9094}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{891A2137-4689-424F-98A2-8C94D17E3E89}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{1704543F-D39D-4C18-8308-508BB4F0E2C2}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{742CE638-3290-44AE-B1B3-8FFF7B6233CC}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{A8990CEA-2E3D-4229-B534-36127D77186E}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{714F38B3-6215-43B9-89D2-3319172952DB}"/>
-    <hyperlink ref="C30" r:id="rId14" xr:uid="{01693E8F-B3C1-4B06-8F2E-F97742852B17}"/>
-    <hyperlink ref="C31" r:id="rId15" xr:uid="{8F8F6175-A5BF-48A8-B431-916D796F88C7}"/>
-    <hyperlink ref="C32" r:id="rId16" xr:uid="{D179E8CA-13F4-4071-8D93-DCD70E831E06}"/>
-    <hyperlink ref="C35" r:id="rId17" xr:uid="{77667B5C-F890-46F5-9655-D5EE000846AC}"/>
-    <hyperlink ref="C36" r:id="rId18" xr:uid="{C6E8FD17-B593-46B2-9FFA-2D2EBA584773}"/>
-    <hyperlink ref="C37" r:id="rId19" xr:uid="{5C7214A6-186F-4DA2-8970-B210B54F810E}"/>
-    <hyperlink ref="C38" r:id="rId20" xr:uid="{CBC47421-3BDF-4178-9CE5-8D917A7864D1}"/>
-    <hyperlink ref="C39" r:id="rId21" xr:uid="{78779188-43D7-4915-A0E5-54D8D517FA87}"/>
-    <hyperlink ref="C42" r:id="rId22" xr:uid="{8BFF2D87-15E8-46AE-B098-C80F27F41C33}"/>
-    <hyperlink ref="C44" r:id="rId23" xr:uid="{2AE5BD18-88BD-4B97-9A5B-CF4173E9D081}"/>
-    <hyperlink ref="C46" r:id="rId24" xr:uid="{FF30D97D-855B-439D-9968-0D75522675B2}"/>
-    <hyperlink ref="C47" r:id="rId25" xr:uid="{666892A2-49F2-4FA8-BA40-5A8F2225228F}"/>
-    <hyperlink ref="C49" r:id="rId26" xr:uid="{DB7ED885-68EA-46FA-A276-9FA7B7E54C81}"/>
-    <hyperlink ref="C50" r:id="rId27" xr:uid="{1FBA17D2-9A1D-4FEF-BF6B-A7A47648BA66}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{D92D8FD2-216F-408B-AAB5-0B7A9FA2DAB8}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{284D13D1-701C-4964-AEA7-E25F5BF7EDF9}"/>
-    <hyperlink ref="C54" r:id="rId30" xr:uid="{5C0D9C32-B47D-4AF2-AD6F-7C8966EC874B}"/>
-    <hyperlink ref="C55" r:id="rId31" xr:uid="{5CAFC818-B8C9-4DBD-AABE-EBA34B2112E4}"/>
-    <hyperlink ref="C57" r:id="rId32" xr:uid="{1E6BD932-D8E4-41AE-8213-0307728FAEE3}"/>
-    <hyperlink ref="C59" r:id="rId33" xr:uid="{EC48553C-3090-44DE-8BB4-870E3FF610ED}"/>
-    <hyperlink ref="C60" r:id="rId34" xr:uid="{FA6148D0-D107-4CCE-9CCE-16BB111AA8B1}"/>
-    <hyperlink ref="C62" r:id="rId35" xr:uid="{4922410F-AAF2-46D8-A49D-33B91F8E10EE}"/>
-    <hyperlink ref="C63" r:id="rId36" xr:uid="{A0D99F61-B735-4811-82C7-E8292897E568}"/>
-    <hyperlink ref="C64" r:id="rId37" xr:uid="{48258EED-ED33-4422-A8EF-C0CFEFB40112}"/>
-    <hyperlink ref="C65" r:id="rId38" xr:uid="{ADCCD914-0761-4589-B346-27D70CBE975D}"/>
-    <hyperlink ref="C66" r:id="rId39" xr:uid="{073F0D61-0361-4921-9842-4D6FB982FD97}"/>
-    <hyperlink ref="C67" r:id="rId40" xr:uid="{79B581B0-C77F-49A6-9A54-52FEA63CC8AA}"/>
-    <hyperlink ref="C70" r:id="rId41" xr:uid="{AB8AA94B-D8B3-411C-A58E-5DC5061A40D1}"/>
-    <hyperlink ref="C71" r:id="rId42" xr:uid="{7B6E7C13-989A-45E6-B18F-093A4E9F3949}"/>
-    <hyperlink ref="C72" r:id="rId43" xr:uid="{84315609-E697-461F-9AE2-E6644B8BD231}"/>
-    <hyperlink ref="C73" r:id="rId44" xr:uid="{4C1E57D6-B340-4DDB-9450-E66E3672F326}"/>
-    <hyperlink ref="C74" r:id="rId45" xr:uid="{2A2C3581-7AEF-46D8-9D03-B6EFFF1749D7}"/>
-    <hyperlink ref="C76" r:id="rId46" display="https://rahma5555.github.io/roro00/" xr:uid="{0607DDF8-5947-4C37-BA65-78D84D59B82F}"/>
-    <hyperlink ref="C77" r:id="rId47" xr:uid="{733DE07A-A9A9-4B7A-AB15-F82C57EE105A}"/>
-    <hyperlink ref="C78" r:id="rId48" xr:uid="{E94B1FD6-21DC-4B86-8773-2F3354E29DAD}"/>
-    <hyperlink ref="C79" r:id="rId49" xr:uid="{B573D002-29CB-449C-B5F4-139ABDE0955A}"/>
-    <hyperlink ref="C80" r:id="rId50" xr:uid="{C90BE87F-8FB2-46BF-962F-89B7A282AF20}"/>
-    <hyperlink ref="C81" r:id="rId51" xr:uid="{06B472CE-B3FE-4EED-8229-D9CDED110C1A}"/>
-    <hyperlink ref="C82" r:id="rId52" xr:uid="{A4077127-26E8-4879-80FC-60B23E1AE4EC}"/>
-    <hyperlink ref="C86" r:id="rId53" xr:uid="{7190FFFB-22BC-4466-B5EB-17ED19B02764}"/>
-    <hyperlink ref="C87" r:id="rId54" xr:uid="{18FBDA05-E05A-4D40-B397-72A69F5C0CA9}"/>
-    <hyperlink ref="C88" r:id="rId55" xr:uid="{1E588AD6-1F2F-477C-832F-D02CF64CCEC4}"/>
-    <hyperlink ref="C89" r:id="rId56" xr:uid="{A4EAA657-F374-41F4-ACCF-ED57E78F9C38}"/>
-    <hyperlink ref="C90" r:id="rId57" display="https://loloah20.githup.io/sva20/" xr:uid="{F2727D39-E805-4B2E-A771-B24BE5F76763}"/>
-    <hyperlink ref="C92" r:id="rId58" xr:uid="{C50E8FAA-02C2-402E-87C2-E77AC52A86AF}"/>
-    <hyperlink ref="C93" r:id="rId59" xr:uid="{75D2EE83-58C0-41A5-AB80-B9BBC3BABA8D}"/>
-    <hyperlink ref="C94" r:id="rId60" xr:uid="{38691589-CB31-4B97-B0A5-24F17FDE4B43}"/>
-    <hyperlink ref="C96" r:id="rId61" xr:uid="{921304D5-5570-4C26-A43F-3F4D6311F5BA}"/>
-    <hyperlink ref="C97" r:id="rId62" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{E6627A26-264A-4E1A-AC7F-0A15E42815B3}"/>
-    <hyperlink ref="C98" r:id="rId63" xr:uid="{4CA01A48-7A18-41C2-937B-C99162B298C2}"/>
-    <hyperlink ref="C99" r:id="rId64" xr:uid="{E83CC212-FE36-4731-85A4-57EAAD64FD59}"/>
-    <hyperlink ref="C100" r:id="rId65" xr:uid="{BCE8741D-F48A-464E-984E-885B62041DE6}"/>
-    <hyperlink ref="C101" r:id="rId66" xr:uid="{82F1F12A-7F5F-4C69-8E31-99817EF39535}"/>
-    <hyperlink ref="C102" r:id="rId67" xr:uid="{8242DF4A-5337-4E4C-8CBF-51B0EE8EF2AA}"/>
-    <hyperlink ref="C103" r:id="rId68" xr:uid="{3C383468-DD8B-4959-A1F6-62B719ACE9A3}"/>
-    <hyperlink ref="C104" r:id="rId69" display="https://basant1512006.github.io/basant-walid/" xr:uid="{3878C092-56B8-4008-965C-978F96559773}"/>
-    <hyperlink ref="C105" r:id="rId70" xr:uid="{2420300A-3E3C-42E5-8175-FA474FAC2E00}"/>
-    <hyperlink ref="C106" r:id="rId71" xr:uid="{DC93A3E5-0747-4A56-9621-B4AC6B1EF0F3}"/>
-    <hyperlink ref="C107" r:id="rId72" xr:uid="{7E15AAD1-E9BD-4202-A67A-7FFD50D513C0}"/>
-    <hyperlink ref="C109" r:id="rId73" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{B2F6AF59-DA74-4503-90DD-A439F9547621}"/>
-    <hyperlink ref="C110" r:id="rId74" xr:uid="{96B184C4-7BAC-4522-852C-3A7C456D74CF}"/>
-    <hyperlink ref="C111" r:id="rId75" xr:uid="{BE7FC360-789A-4C4D-A838-67FBF05DB305}"/>
-    <hyperlink ref="C112" r:id="rId76" xr:uid="{19219059-8BA0-47FA-AEE9-DEC583E31604}"/>
-    <hyperlink ref="C113" r:id="rId77" xr:uid="{18EC16E6-F7A8-405B-BB94-5996A88A46C6}"/>
-    <hyperlink ref="C114" r:id="rId78" xr:uid="{BD516DB0-2C4F-4E16-8C75-F958A23DFAA6}"/>
-    <hyperlink ref="C115" r:id="rId79" xr:uid="{59CAAA31-D3DF-4F05-8640-EE12F2DF50EA}"/>
-    <hyperlink ref="C116" r:id="rId80" xr:uid="{C017A2C4-0C0B-4120-AC9A-F136D376FB36}"/>
-    <hyperlink ref="C117" r:id="rId81" xr:uid="{9E1ADA44-5A79-4F2E-98AE-D0032310CBC4}"/>
-    <hyperlink ref="C118" r:id="rId82" xr:uid="{3092C81D-3811-43F7-8788-A497A88CF205}"/>
-    <hyperlink ref="C119" r:id="rId83" xr:uid="{6A80819E-7401-4205-89DE-E672192AF884}"/>
-    <hyperlink ref="C120" r:id="rId84" xr:uid="{D84B2878-F53A-4008-AB17-2DA28E9D4540}"/>
-    <hyperlink ref="C121" r:id="rId85" xr:uid="{13476157-1F53-4278-92FD-FF794DCF70E2}"/>
-    <hyperlink ref="C123" r:id="rId86" xr:uid="{8964485F-8B3E-4398-A1CB-CBF9ED7BD4BA}"/>
-    <hyperlink ref="C124" r:id="rId87" xr:uid="{6292C07B-1ED3-4D29-91BA-5738205B5405}"/>
-    <hyperlink ref="C125" r:id="rId88" xr:uid="{227CA664-5AA4-49A4-80C6-5203BC3E01FA}"/>
-    <hyperlink ref="C126" r:id="rId89" xr:uid="{E3F3C8CD-7664-4ADE-98D7-154B4479A917}"/>
-    <hyperlink ref="C127" r:id="rId90" xr:uid="{BA0D527C-0E33-45F6-8CD2-EC9AE331D884}"/>
-    <hyperlink ref="C128" r:id="rId91" xr:uid="{27326168-368F-455C-B8CA-852A1348805F}"/>
-    <hyperlink ref="C131" r:id="rId92" xr:uid="{14225C5E-B7BD-49C6-86AA-AFB391EB8E37}"/>
-    <hyperlink ref="C134" r:id="rId93" xr:uid="{32957B8F-DB3C-4F52-8B42-D4BBEB87DBE9}"/>
-    <hyperlink ref="C138" r:id="rId94" xr:uid="{04618E1E-8396-41A2-BBCD-D991F77023F9}"/>
-    <hyperlink ref="C140" r:id="rId95" xr:uid="{96987C03-6C37-414C-9120-2A9714D06B1C}"/>
-    <hyperlink ref="C141" r:id="rId96" xr:uid="{6332ABA4-BB09-4A1E-A912-45ECFA97D184}"/>
-    <hyperlink ref="C147" r:id="rId97" xr:uid="{A634D200-5823-48B0-BC32-A4BED6E2E506}"/>
-    <hyperlink ref="C149" r:id="rId98" xr:uid="{2407C056-4360-409E-B4BA-6AB5B8595856}"/>
-    <hyperlink ref="C153" r:id="rId99" xr:uid="{8AB0AA49-4B2D-4D37-88C0-818EE05708DF}"/>
-    <hyperlink ref="C154" r:id="rId100" xr:uid="{250D35DE-8E69-4833-8FC2-1B455E8436F5}"/>
-    <hyperlink ref="C155" r:id="rId101" xr:uid="{C9598387-4A22-4D28-A4E3-F065D0F94BEE}"/>
-    <hyperlink ref="C156" r:id="rId102" xr:uid="{BEB7ADC7-0023-4A40-AA34-BC120E04B9AA}"/>
-    <hyperlink ref="C157" r:id="rId103" xr:uid="{ED919C9F-AED8-49C0-A099-3CB8973442DA}"/>
-    <hyperlink ref="C158" r:id="rId104" xr:uid="{423FCCA3-0875-4113-BEA8-52DE51F80E57}"/>
-    <hyperlink ref="C159" r:id="rId105" xr:uid="{5E8F0970-81DB-400E-8287-65F12AE3A2DE}"/>
-    <hyperlink ref="C160" r:id="rId106" xr:uid="{25A77503-A007-47C4-8016-3524337ABE29}"/>
-    <hyperlink ref="C161" r:id="rId107" xr:uid="{FCB1BB1F-588E-4D67-97E2-90021FBAB9E7}"/>
-    <hyperlink ref="C164" r:id="rId108" xr:uid="{A53E6AB1-B6D7-4E89-9057-228FC67F2874}"/>
-    <hyperlink ref="C165" r:id="rId109" xr:uid="{F13B9639-BA14-434A-8117-7D41E9772A6D}"/>
-    <hyperlink ref="C166" r:id="rId110" xr:uid="{26944A19-2D7D-4CF9-877A-82A6AF3BB535}"/>
-    <hyperlink ref="C167" r:id="rId111" xr:uid="{8F8E2E15-9666-4D6C-8664-732778A22B2F}"/>
-    <hyperlink ref="C168" r:id="rId112" xr:uid="{D993C5A1-72D3-4978-AE37-4ACB911DF3DB}"/>
-    <hyperlink ref="C171" r:id="rId113" xr:uid="{2784E194-CBB6-45F7-B1C1-6C038F235E85}"/>
-    <hyperlink ref="C173" r:id="rId114" xr:uid="{DA7B7ED9-23B3-4857-8AC1-D17DD7636BF1}"/>
-    <hyperlink ref="C175" r:id="rId115" xr:uid="{FB699941-5324-46F4-B7F6-EC1AAB02D83D}"/>
-    <hyperlink ref="C176" r:id="rId116" xr:uid="{03D2BC55-4C3C-426E-A9F2-D3D9E0F44B8A}"/>
-    <hyperlink ref="C178" r:id="rId117" xr:uid="{C7BAA3EE-45BE-4F71-8E10-0D41D75C7D03}"/>
-    <hyperlink ref="C179" r:id="rId118" xr:uid="{13861B14-C0CE-4426-AC3E-21DF973CE63D}"/>
-    <hyperlink ref="C181" r:id="rId119" xr:uid="{7B7D1175-DC1B-4493-9041-2B37EB4D19AA}"/>
-    <hyperlink ref="C182" r:id="rId120" xr:uid="{BA6E4306-90D7-47A5-A7D8-8792C7984186}"/>
-    <hyperlink ref="C183" r:id="rId121" xr:uid="{D930B4B3-2AA6-4855-A7E1-B27723648EB4}"/>
-    <hyperlink ref="C184" r:id="rId122" xr:uid="{B3558EE9-D82A-473A-91C7-8EC21EBB0587}"/>
-    <hyperlink ref="C186" r:id="rId123" xr:uid="{BC198CA1-EDAB-482F-8D2E-FD8A1FA2BE3B}"/>
-    <hyperlink ref="C188" r:id="rId124" xr:uid="{0A7786C8-C00E-4C0A-BE42-6940F41702F9}"/>
-    <hyperlink ref="C189" r:id="rId125" xr:uid="{1F8488F3-5AB4-4292-99ED-5B9DEA9339B8}"/>
-    <hyperlink ref="C191" r:id="rId126" xr:uid="{D084E017-9652-4BCC-B807-7FC98E313ADA}"/>
-    <hyperlink ref="C192" r:id="rId127" xr:uid="{3FCF43E2-8A67-475C-A54E-100AA5893C99}"/>
-    <hyperlink ref="C193" r:id="rId128" xr:uid="{B3CF6434-FB7E-478C-AC6A-08D68BE25A97}"/>
-    <hyperlink ref="C194" r:id="rId129" xr:uid="{D8301C01-B6A1-436E-BE87-6D50272D0A2B}"/>
-    <hyperlink ref="C195" r:id="rId130" xr:uid="{13766ED0-555E-440E-A7CF-62FE285EC3C0}"/>
-    <hyperlink ref="C196" r:id="rId131" xr:uid="{5908520D-AE33-43AD-A3A5-86EBBA94D7BA}"/>
-    <hyperlink ref="C199" r:id="rId132" xr:uid="{BD570479-CECC-43A3-80C3-E466905D211B}"/>
-    <hyperlink ref="C200" r:id="rId133" xr:uid="{DC140F46-EAEE-49E8-86DC-DFE09CDBCD5E}"/>
-    <hyperlink ref="C201" r:id="rId134" xr:uid="{5508B6FD-40E8-4638-93B4-43A14BC1E7D5}"/>
-    <hyperlink ref="C202" r:id="rId135" xr:uid="{48CA729B-3886-4857-9683-8A41706D74B0}"/>
-    <hyperlink ref="C203" r:id="rId136" xr:uid="{F7FFD695-3573-43F6-9522-2D9A07BE7F3C}"/>
-    <hyperlink ref="C205" r:id="rId137" display="https://rahma5555.github.io/roro00/" xr:uid="{2EF0D4DE-1427-4630-9CCD-2F1F66305D0A}"/>
-    <hyperlink ref="C206" r:id="rId138" xr:uid="{D2054565-FD4D-4872-937F-A434528B45C8}"/>
-    <hyperlink ref="C207" r:id="rId139" xr:uid="{D1708153-4D09-4BD8-899A-CB9B9FEEE278}"/>
-    <hyperlink ref="C208" r:id="rId140" xr:uid="{AB34F1A6-76B8-4C6B-99F5-665D19ED8892}"/>
-    <hyperlink ref="C209" r:id="rId141" xr:uid="{CE602436-2E0A-40C0-A2A1-6E20C7918D1C}"/>
-    <hyperlink ref="C210" r:id="rId142" xr:uid="{4BF9E4EF-67C4-4DFB-969B-D0440AE03ADB}"/>
-    <hyperlink ref="C211" r:id="rId143" xr:uid="{7082CB31-610E-43EF-8643-D416C81841D3}"/>
-    <hyperlink ref="C215" r:id="rId144" xr:uid="{93AE67AC-8601-4DB6-ADF9-09383D3E5A27}"/>
-    <hyperlink ref="C216" r:id="rId145" xr:uid="{A1701B05-7572-47AE-9E5E-96978D821923}"/>
-    <hyperlink ref="C217" r:id="rId146" xr:uid="{2BA08A41-A9BB-4EBA-9757-1B8262CB1848}"/>
-    <hyperlink ref="C218" r:id="rId147" xr:uid="{58110AEF-7B4E-4C66-8B98-7C4EF8EC0D57}"/>
-    <hyperlink ref="C219" r:id="rId148" display="https://loloah20.githup.io/sva20/" xr:uid="{DAC1F688-ECAD-42C7-943E-63DC70C49950}"/>
-    <hyperlink ref="C221" r:id="rId149" xr:uid="{EA723097-6D62-412F-A756-DD027F91B1A5}"/>
-    <hyperlink ref="C222" r:id="rId150" xr:uid="{BC69EDDB-C9A6-427B-BEE9-FD64E4621C8E}"/>
-    <hyperlink ref="C223" r:id="rId151" xr:uid="{5A81CA0B-DD86-4996-997B-ADB7B883713C}"/>
-    <hyperlink ref="C225" r:id="rId152" xr:uid="{A6C05884-AB6D-46A5-9B45-79195B8D854A}"/>
-    <hyperlink ref="C226" r:id="rId153" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{E487F24C-31E3-4F40-AC47-62759D5D054B}"/>
-    <hyperlink ref="C227" r:id="rId154" xr:uid="{B6621E51-F004-4E17-8D25-328B946FD3BB}"/>
-    <hyperlink ref="C228" r:id="rId155" xr:uid="{8CAE9522-9864-4A3C-8A9A-B479EECACE63}"/>
-    <hyperlink ref="C229" r:id="rId156" xr:uid="{EE77A9AB-D20A-4AAF-A084-1159351150EB}"/>
-    <hyperlink ref="C230" r:id="rId157" xr:uid="{BE3BF1DB-0DF0-4967-A5D2-F76BA18A6416}"/>
-    <hyperlink ref="C231" r:id="rId158" xr:uid="{2A63E44A-D7AE-4805-A85B-E83457D922D3}"/>
-    <hyperlink ref="C232" r:id="rId159" xr:uid="{C592C7B0-0457-416C-865D-C22B058D5EE0}"/>
-    <hyperlink ref="C233" r:id="rId160" display="https://basant1512006.github.io/basant-walid/" xr:uid="{02947F82-58DE-45A5-B7E6-E6E4BF451D12}"/>
-    <hyperlink ref="C234" r:id="rId161" xr:uid="{9B37BF0E-136A-4B76-B394-4FCBD71CDA18}"/>
-    <hyperlink ref="C235" r:id="rId162" xr:uid="{5906300B-8E57-4281-8263-1712A23FFBA1}"/>
-    <hyperlink ref="C236" r:id="rId163" xr:uid="{358A3FE3-9433-40E6-8410-0E28B3B8DB6D}"/>
-    <hyperlink ref="C238" r:id="rId164" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{3B00A136-0367-4FEC-8164-BC159620AE28}"/>
-    <hyperlink ref="C239" r:id="rId165" xr:uid="{6C15C93E-F838-4F23-93C9-927294F21285}"/>
-    <hyperlink ref="C240" r:id="rId166" xr:uid="{CE60375C-D8CA-44DD-9961-83F965CC6791}"/>
-    <hyperlink ref="C241" r:id="rId167" xr:uid="{AEBDE4AB-9C66-48DE-BCD0-FC9639AEC8F3}"/>
-    <hyperlink ref="C242" r:id="rId168" xr:uid="{E44C41FF-4CA1-41D2-8F3E-A0BB7305DBC2}"/>
-    <hyperlink ref="C243" r:id="rId169" xr:uid="{21AF7C4F-149E-42D6-A805-387A559640D2}"/>
-    <hyperlink ref="C244" r:id="rId170" xr:uid="{B9057F45-FF97-4864-B9B2-2D1DF2BA092E}"/>
-    <hyperlink ref="C245" r:id="rId171" xr:uid="{CDF24FCA-1BBD-4D2F-A3E4-3AFCD35FE6DC}"/>
-    <hyperlink ref="C246" r:id="rId172" xr:uid="{189C1E80-CD6A-40B8-B513-F7DB0DDD378B}"/>
-    <hyperlink ref="C247" r:id="rId173" xr:uid="{C1F66C58-E3D8-4490-AC75-DEF65AD38923}"/>
-    <hyperlink ref="C248" r:id="rId174" xr:uid="{B0E63A93-CE83-4004-924E-4CD4A576038F}"/>
-    <hyperlink ref="C249" r:id="rId175" xr:uid="{720AE4F0-6456-4B28-9400-B1134FD0944A}"/>
-    <hyperlink ref="C250" r:id="rId176" xr:uid="{AFF68C18-297D-4693-AC30-DFCA5C7942F7}"/>
-    <hyperlink ref="C252" r:id="rId177" xr:uid="{CF82DCDD-8086-4097-8513-CBD611B7084D}"/>
-    <hyperlink ref="C253" r:id="rId178" xr:uid="{95DAA79B-E338-485C-8CCC-8CE0439A75A5}"/>
-    <hyperlink ref="C254" r:id="rId179" xr:uid="{24F1050E-22C5-4DC9-9B5C-8087656F5DD4}"/>
-    <hyperlink ref="C255" r:id="rId180" xr:uid="{1175D431-461C-4303-A1C0-537EEB99E4B5}"/>
-    <hyperlink ref="C256" r:id="rId181" xr:uid="{67B0FFC9-D690-41E3-A5D1-4CE659B734B9}"/>
-    <hyperlink ref="C257" r:id="rId182" xr:uid="{112098E6-FB8E-4C6A-8BA3-8CE9DBD3F8A8}"/>
-    <hyperlink ref="C258" r:id="rId183" xr:uid="{5DD71B4C-52BD-4353-A062-2327991B2F35}"/>
-    <hyperlink ref="C259" r:id="rId184" xr:uid="{86F4C953-184D-4A20-B437-9F47CFECFC9D}"/>
-    <hyperlink ref="C260" r:id="rId185" xr:uid="{4F71BA32-866F-4718-9385-6F67B79D4870}"/>
-    <hyperlink ref="C261" r:id="rId186" xr:uid="{39CD2FB7-8639-4B5A-82E7-0E009B1621A5}"/>
-    <hyperlink ref="C262" r:id="rId187" xr:uid="{B98A8FF6-7A76-4F18-9358-31078AE94F9F}"/>
-    <hyperlink ref="B263" r:id="rId188" xr:uid="{DE96C102-1B62-4FE4-A6A7-B7A3EE98C8B9}"/>
-    <hyperlink ref="C263" r:id="rId189" xr:uid="{896C395F-298E-4509-9175-1901F37278F8}"/>
-    <hyperlink ref="C264" r:id="rId190" xr:uid="{023DBCD6-7027-4F16-9C80-3603CD010D8A}"/>
-    <hyperlink ref="B264" r:id="rId191" display="mailto:aw20230244@sva.edu.eg" xr:uid="{B22A4D90-2059-4DF1-8788-DA4D97D93F1E}"/>
-    <hyperlink ref="C269" r:id="rId192" xr:uid="{2801CA35-7F2B-4037-BAB5-9467EB047F1B}"/>
-    <hyperlink ref="B269" r:id="rId193" display="mailto:ae20233312@sva.edu.eg" xr:uid="{A4AB64C3-181C-46C6-9571-C1AD96FB2CDC}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{91FEFBD1-6E92-4B3D-9B2F-3E0FDFAF1E74}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{73D43D72-2458-49CA-A903-B198128611E0}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{26EE51B5-E889-4D7E-A5B7-42F738679E16}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{15694730-7E5F-4640-89DB-A20FADAA9094}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{891A2137-4689-424F-98A2-8C94D17E3E89}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{1704543F-D39D-4C18-8308-508BB4F0E2C2}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{714F38B3-6215-43B9-89D2-3319172952DB}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{01693E8F-B3C1-4B06-8F2E-F97742852B17}"/>
+    <hyperlink ref="C22" r:id="rId12" xr:uid="{C6E8FD17-B593-46B2-9FFA-2D2EBA584773}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{CBC47421-3BDF-4178-9CE5-8D917A7864D1}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{FF30D97D-855B-439D-9968-0D75522675B2}"/>
+    <hyperlink ref="C28" r:id="rId15" xr:uid="{DB7ED885-68EA-46FA-A276-9FA7B7E54C81}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{1FBA17D2-9A1D-4FEF-BF6B-A7A47648BA66}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{D92D8FD2-216F-408B-AAB5-0B7A9FA2DAB8}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{284D13D1-701C-4964-AEA7-E25F5BF7EDF9}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{5C0D9C32-B47D-4AF2-AD6F-7C8966EC874B}"/>
+    <hyperlink ref="C34" r:id="rId20" xr:uid="{5CAFC818-B8C9-4DBD-AABE-EBA34B2112E4}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{1E6BD932-D8E4-41AE-8213-0307728FAEE3}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{EC48553C-3090-44DE-8BB4-870E3FF610ED}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{FA6148D0-D107-4CCE-9CCE-16BB111AA8B1}"/>
+    <hyperlink ref="C40" r:id="rId24" xr:uid="{4922410F-AAF2-46D8-A49D-33B91F8E10EE}"/>
+    <hyperlink ref="C41" r:id="rId25" xr:uid="{A0D99F61-B735-4811-82C7-E8292897E568}"/>
+    <hyperlink ref="C42" r:id="rId26" xr:uid="{48258EED-ED33-4422-A8EF-C0CFEFB40112}"/>
+    <hyperlink ref="C43" r:id="rId27" xr:uid="{ADCCD914-0761-4589-B346-27D70CBE975D}"/>
+    <hyperlink ref="C44" r:id="rId28" xr:uid="{073F0D61-0361-4921-9842-4D6FB982FD97}"/>
+    <hyperlink ref="C45" r:id="rId29" xr:uid="{79B581B0-C77F-49A6-9A54-52FEA63CC8AA}"/>
+    <hyperlink ref="C48" r:id="rId30" xr:uid="{AB8AA94B-D8B3-411C-A58E-5DC5061A40D1}"/>
+    <hyperlink ref="C49" r:id="rId31" xr:uid="{7B6E7C13-989A-45E6-B18F-093A4E9F3949}"/>
+    <hyperlink ref="C50" r:id="rId32" xr:uid="{84315609-E697-461F-9AE2-E6644B8BD231}"/>
+    <hyperlink ref="C51" r:id="rId33" xr:uid="{4C1E57D6-B340-4DDB-9450-E66E3672F326}"/>
+    <hyperlink ref="C52" r:id="rId34" xr:uid="{2A2C3581-7AEF-46D8-9D03-B6EFFF1749D7}"/>
+    <hyperlink ref="C54" r:id="rId35" display="https://rahma5555.github.io/roro00/" xr:uid="{0607DDF8-5947-4C37-BA65-78D84D59B82F}"/>
+    <hyperlink ref="C55" r:id="rId36" xr:uid="{733DE07A-A9A9-4B7A-AB15-F82C57EE105A}"/>
+    <hyperlink ref="C56" r:id="rId37" xr:uid="{E94B1FD6-21DC-4B86-8773-2F3354E29DAD}"/>
+    <hyperlink ref="C57" r:id="rId38" xr:uid="{B573D002-29CB-449C-B5F4-139ABDE0955A}"/>
+    <hyperlink ref="C58" r:id="rId39" xr:uid="{C90BE87F-8FB2-46BF-962F-89B7A282AF20}"/>
+    <hyperlink ref="C59" r:id="rId40" xr:uid="{06B472CE-B3FE-4EED-8229-D9CDED110C1A}"/>
+    <hyperlink ref="C60" r:id="rId41" xr:uid="{A4077127-26E8-4879-80FC-60B23E1AE4EC}"/>
+    <hyperlink ref="C64" r:id="rId42" xr:uid="{7190FFFB-22BC-4466-B5EB-17ED19B02764}"/>
+    <hyperlink ref="C65" r:id="rId43" xr:uid="{18FBDA05-E05A-4D40-B397-72A69F5C0CA9}"/>
+    <hyperlink ref="C66" r:id="rId44" xr:uid="{1E588AD6-1F2F-477C-832F-D02CF64CCEC4}"/>
+    <hyperlink ref="C67" r:id="rId45" display="https://loloah20.githup.io/sva20/" xr:uid="{F2727D39-E805-4B2E-A771-B24BE5F76763}"/>
+    <hyperlink ref="C69" r:id="rId46" xr:uid="{C50E8FAA-02C2-402E-87C2-E77AC52A86AF}"/>
+    <hyperlink ref="C70" r:id="rId47" xr:uid="{75D2EE83-58C0-41A5-AB80-B9BBC3BABA8D}"/>
+    <hyperlink ref="C72" r:id="rId48" xr:uid="{921304D5-5570-4C26-A43F-3F4D6311F5BA}"/>
+    <hyperlink ref="C73" r:id="rId49" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{E6627A26-264A-4E1A-AC7F-0A15E42815B3}"/>
+    <hyperlink ref="C74" r:id="rId50" xr:uid="{4CA01A48-7A18-41C2-937B-C99162B298C2}"/>
+    <hyperlink ref="C75" r:id="rId51" xr:uid="{82F1F12A-7F5F-4C69-8E31-99817EF39535}"/>
+    <hyperlink ref="C76" r:id="rId52" display="https://basant1512006.github.io/basant-walid/" xr:uid="{3878C092-56B8-4008-965C-978F96559773}"/>
+    <hyperlink ref="C78" r:id="rId53" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{B2F6AF59-DA74-4503-90DD-A439F9547621}"/>
+    <hyperlink ref="C79" r:id="rId54" xr:uid="{96B184C4-7BAC-4522-852C-3A7C456D74CF}"/>
+    <hyperlink ref="C80" r:id="rId55" xr:uid="{19219059-8BA0-47FA-AEE9-DEC583E31604}"/>
+    <hyperlink ref="C81" r:id="rId56" xr:uid="{BD516DB0-2C4F-4E16-8C75-F958A23DFAA6}"/>
+    <hyperlink ref="C82" r:id="rId57" xr:uid="{59CAAA31-D3DF-4F05-8640-EE12F2DF50EA}"/>
+    <hyperlink ref="C83" r:id="rId58" xr:uid="{C017A2C4-0C0B-4120-AC9A-F136D376FB36}"/>
+    <hyperlink ref="C84" r:id="rId59" xr:uid="{3092C81D-3811-43F7-8788-A497A88CF205}"/>
+    <hyperlink ref="C86" r:id="rId60" xr:uid="{8964485F-8B3E-4398-A1CB-CBF9ED7BD4BA}"/>
+    <hyperlink ref="C87" r:id="rId61" xr:uid="{6292C07B-1ED3-4D29-91BA-5738205B5405}"/>
+    <hyperlink ref="C88" r:id="rId62" xr:uid="{227CA664-5AA4-49A4-80C6-5203BC3E01FA}"/>
+    <hyperlink ref="C89" r:id="rId63" xr:uid="{E3F3C8CD-7664-4ADE-98D7-154B4479A917}"/>
+    <hyperlink ref="C90" r:id="rId64" xr:uid="{27326168-368F-455C-B8CA-852A1348805F}"/>
+    <hyperlink ref="C93" r:id="rId65" xr:uid="{14225C5E-B7BD-49C6-86AA-AFB391EB8E37}"/>
+    <hyperlink ref="C94" r:id="rId66" xr:uid="{112098E6-FB8E-4C6A-8BA3-8CE9DBD3F8A8}"/>
+    <hyperlink ref="C95" r:id="rId67" xr:uid="{B98A8FF6-7A76-4F18-9358-31078AE94F9F}"/>
+    <hyperlink ref="B96" r:id="rId68" xr:uid="{DE96C102-1B62-4FE4-A6A7-B7A3EE98C8B9}"/>
+    <hyperlink ref="C96" r:id="rId69" xr:uid="{896C395F-298E-4509-9175-1901F37278F8}"/>
+    <hyperlink ref="C97" r:id="rId70" xr:uid="{023DBCD6-7027-4F16-9C80-3603CD010D8A}"/>
+    <hyperlink ref="B97" r:id="rId71" display="mailto:aw20230244@sva.edu.eg" xr:uid="{B22A4D90-2059-4DF1-8788-DA4D97D93F1E}"/>
+    <hyperlink ref="C102" r:id="rId72" xr:uid="{2801CA35-7F2B-4037-BAB5-9467EB047F1B}"/>
+    <hyperlink ref="B102" r:id="rId73" display="mailto:ae20233312@sva.edu.eg" xr:uid="{A4AB64C3-181C-46C6-9571-C1AD96FB2CDC}"/>
+    <hyperlink ref="C104" r:id="rId74" xr:uid="{B215B4AF-C410-492C-BDB9-F7B117AE1BF6}"/>
+    <hyperlink ref="C105" r:id="rId75" xr:uid="{3285834A-A9BB-47BA-AA0C-4DD3B3327787}"/>
+    <hyperlink ref="C106" r:id="rId76" xr:uid="{2FB32C52-8FB8-41D3-9B4F-BE2E9BEF3C3E}"/>
+    <hyperlink ref="C107" r:id="rId77" xr:uid="{3059C378-CC3A-4E44-88E8-7CF94B80B16B}"/>
+    <hyperlink ref="C108" r:id="rId78" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{F0F1CAA6-F459-4EF2-AF3D-EEB37E488C53}"/>
+    <hyperlink ref="C109" r:id="rId79" xr:uid="{D820D582-B0EB-409C-A7ED-8C6BED86C2D5}"/>
+    <hyperlink ref="C110" r:id="rId80" xr:uid="{893D0413-ED69-4045-9BA1-8204E8A802D9}"/>
+    <hyperlink ref="C112" r:id="rId81" xr:uid="{7E2ACC06-C4CE-42EB-9A54-5DA79C517488}"/>
+    <hyperlink ref="B113" r:id="rId82" xr:uid="{7CA9F188-4377-4FFE-992F-290BBD53DAE7}"/>
+    <hyperlink ref="C113" r:id="rId83" xr:uid="{03AD4B45-8806-447D-A75D-14E4CCD34E83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId194"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
@@ -4373,10 +3110,10 @@
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5"/>
@@ -4386,10 +3123,10 @@
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="8"/>
@@ -4399,10 +3136,10 @@
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <v>30509051400865</v>
       </c>
       <c r="F5" s="5"/>
@@ -4412,10 +3149,10 @@
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8"/>
@@ -4425,10 +3162,10 @@
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5"/>
@@ -4438,10 +3175,10 @@
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="8"/>
@@ -4451,10 +3188,10 @@
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>20233360</v>
       </c>
       <c r="F9" s="5"/>
@@ -4464,10 +3201,10 @@
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8"/>
@@ -4477,10 +3214,10 @@
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5"/>
@@ -4490,10 +3227,10 @@
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="8"/>
@@ -4503,10 +3240,10 @@
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="5"/>
@@ -4516,10 +3253,10 @@
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="8"/>
@@ -4529,10 +3266,10 @@
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="5"/>
@@ -4542,10 +3279,10 @@
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="8"/>
@@ -4555,10 +3292,10 @@
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5"/>
@@ -4568,10 +3305,10 @@
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="8"/>
@@ -4581,10 +3318,10 @@
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="5"/>
@@ -4594,7 +3331,7 @@
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="8"/>
@@ -4605,10 +3342,10 @@
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="5"/>
@@ -4618,10 +3355,10 @@
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <v>20233360</v>
       </c>
       <c r="F22" s="8"/>
@@ -4631,10 +3368,10 @@
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <v>20233360</v>
       </c>
       <c r="F23" s="5"/>
@@ -4644,10 +3381,10 @@
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="8"/>
@@ -4657,10 +3394,10 @@
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="25" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="5"/>
@@ -4670,10 +3407,10 @@
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="8"/>
@@ -4683,10 +3420,10 @@
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="25" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="5"/>
@@ -4696,10 +3433,10 @@
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="8"/>
@@ -4709,10 +3446,10 @@
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="25" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="5"/>
@@ -4722,10 +3459,10 @@
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="8"/>
@@ -4735,10 +3472,10 @@
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="5"/>
@@ -4748,10 +3485,10 @@
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="8"/>
@@ -4761,10 +3498,10 @@
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="5"/>
@@ -4774,10 +3511,10 @@
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="8"/>
@@ -4787,10 +3524,10 @@
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="5"/>
@@ -4800,10 +3537,10 @@
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="8"/>
@@ -4813,10 +3550,10 @@
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="25" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="5"/>
@@ -4826,10 +3563,10 @@
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="8"/>
@@ -4839,10 +3576,10 @@
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="5"/>
@@ -4852,10 +3589,10 @@
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="8"/>
@@ -4865,10 +3602,10 @@
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="5"/>
@@ -4878,10 +3615,10 @@
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="8"/>
@@ -4891,10 +3628,10 @@
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="5"/>
@@ -4904,10 +3641,10 @@
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="8"/>
@@ -4917,10 +3654,10 @@
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="5"/>
@@ -4930,10 +3667,10 @@
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8"/>
@@ -4943,10 +3680,10 @@
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="5"/>
@@ -4956,10 +3693,10 @@
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="8"/>
@@ -4969,10 +3706,10 @@
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F49" s="5"/>
@@ -4982,10 +3719,10 @@
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="8"/>
@@ -4995,10 +3732,10 @@
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="5"/>
@@ -5008,10 +3745,10 @@
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="26" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="8"/>
@@ -5021,10 +3758,10 @@
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="25" t="s">
         <v>54</v>
       </c>
       <c r="F53" s="5"/>
@@ -5034,10 +3771,10 @@
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="8"/>
@@ -5047,10 +3784,10 @@
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F55" s="5"/>
@@ -5060,10 +3797,10 @@
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F56" s="8"/>
@@ -5073,10 +3810,10 @@
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F57" s="5"/>
@@ -5086,10 +3823,10 @@
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="29" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="8"/>
@@ -5099,10 +3836,10 @@
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="5"/>
@@ -5112,10 +3849,10 @@
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F60" s="8"/>
@@ -5125,10 +3862,10 @@
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F61" s="5"/>
@@ -5138,10 +3875,10 @@
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="27" t="s">
         <v>70</v>
       </c>
       <c r="F62" s="8"/>
@@ -5151,10 +3888,10 @@
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F63" s="5"/>
@@ -5164,10 +3901,10 @@
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="8"/>
@@ -5177,10 +3914,10 @@
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F65" s="5"/>
@@ -5190,10 +3927,10 @@
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F66" s="8"/>
@@ -5203,10 +3940,10 @@
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="25" t="s">
         <v>80</v>
       </c>
       <c r="F67" s="5"/>
@@ -5216,10 +3953,10 @@
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="29" t="s">
         <v>81</v>
       </c>
       <c r="F68" s="8"/>
@@ -5229,10 +3966,10 @@
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="24" t="s">
         <v>83</v>
       </c>
       <c r="F69" s="5"/>
@@ -5242,10 +3979,10 @@
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F70" s="8"/>
@@ -5255,10 +3992,10 @@
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F71" s="5"/>
@@ -5268,10 +4005,10 @@
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F72" s="8"/>
@@ -5281,10 +4018,10 @@
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F73" s="5"/>
@@ -5294,10 +4031,10 @@
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F74" s="8"/>
@@ -5307,10 +4044,10 @@
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F75" s="5"/>
@@ -5320,10 +4057,10 @@
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F76" s="8"/>
@@ -5333,10 +4070,10 @@
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F77" s="5"/>
@@ -5346,10 +4083,10 @@
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="29" t="s">
         <v>101</v>
       </c>
       <c r="F78" s="8"/>
@@ -5359,10 +4096,10 @@
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F79" s="5"/>
@@ -5372,10 +4109,10 @@
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="29" t="s">
         <v>105</v>
       </c>
       <c r="F80" s="8"/>
@@ -5385,10 +4122,10 @@
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="25" t="s">
         <v>107</v>
       </c>
       <c r="F81" s="5"/>
@@ -5398,10 +4135,10 @@
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="29" t="s">
         <v>109</v>
       </c>
       <c r="F82" s="8"/>
@@ -5411,10 +4148,10 @@
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F83" s="5"/>
@@ -5424,10 +4161,10 @@
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F84" s="8"/>
@@ -5437,10 +4174,10 @@
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="24" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="5"/>
@@ -5450,10 +4187,10 @@
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="26" t="s">
         <v>117</v>
       </c>
       <c r="F86" s="8"/>
@@ -5463,10 +4200,10 @@
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="25" t="s">
         <v>119</v>
       </c>
       <c r="F87" s="5"/>
@@ -5476,10 +4213,10 @@
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="29" t="s">
         <v>121</v>
       </c>
       <c r="F88" s="8"/>
@@ -5489,10 +4226,10 @@
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="25" t="s">
         <v>123</v>
       </c>
       <c r="F89" s="5"/>
@@ -5502,10 +4239,10 @@
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="29" t="s">
         <v>89</v>
       </c>
       <c r="F90" s="8"/>
@@ -5515,10 +4252,10 @@
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="28" t="s">
+      <c r="E91" s="25" t="s">
         <v>125</v>
       </c>
       <c r="F91" s="5"/>
@@ -5528,10 +4265,10 @@
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D92" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="8"/>
@@ -5541,10 +4278,10 @@
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E93" s="25" t="s">
         <v>129</v>
       </c>
       <c r="F93" s="5"/>
@@ -5554,10 +4291,10 @@
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="29" t="s">
         <v>130</v>
       </c>
       <c r="F94" s="8"/>
@@ -5567,10 +4304,10 @@
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="25" t="s">
         <v>130</v>
       </c>
       <c r="F95" s="5"/>
@@ -5580,10 +4317,10 @@
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F96" s="8"/>
@@ -5593,10 +4330,10 @@
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F97" s="5"/>
@@ -5606,10 +4343,10 @@
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="29" t="s">
         <v>136</v>
       </c>
       <c r="F98" s="8"/>
@@ -5619,10 +4356,10 @@
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D99" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="25" t="s">
         <v>138</v>
       </c>
       <c r="F99" s="5"/>
@@ -5632,10 +4369,10 @@
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="29" t="s">
         <v>138</v>
       </c>
       <c r="F100" s="8"/>
@@ -5645,10 +4382,10 @@
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="25" t="s">
         <v>138</v>
       </c>
       <c r="F101" s="5"/>
@@ -5658,10 +4395,10 @@
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="29" t="s">
         <v>140</v>
       </c>
       <c r="F102" s="8"/>
@@ -5671,10 +4408,10 @@
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
-      <c r="D103" s="27" t="s">
+      <c r="D103" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="25" t="s">
         <v>140</v>
       </c>
       <c r="F103" s="5"/>
@@ -5684,10 +4421,10 @@
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="29" t="s">
         <v>140</v>
       </c>
       <c r="F104" s="8"/>
@@ -5697,10 +4434,10 @@
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D105" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="25" t="s">
         <v>142</v>
       </c>
       <c r="F105" s="5"/>
@@ -5710,10 +4447,10 @@
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F106" s="8"/>
@@ -5723,10 +4460,10 @@
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="E107" s="25" t="s">
         <v>134</v>
       </c>
       <c r="F107" s="5"/>
@@ -5736,10 +4473,10 @@
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="29" t="s">
         <v>80</v>
       </c>
       <c r="F108" s="8"/>
@@ -5749,10 +4486,10 @@
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
-      <c r="D109" s="27" t="s">
+      <c r="D109" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="27" t="s">
+      <c r="E109" s="24" t="s">
         <v>144</v>
       </c>
       <c r="F109" s="5"/>
@@ -5762,10 +4499,10 @@
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="29" t="s">
         <v>145</v>
       </c>
       <c r="F110" s="8"/>
@@ -5775,10 +4512,10 @@
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="25" t="s">
         <v>147</v>
       </c>
       <c r="F111" s="5"/>
@@ -5788,10 +4525,10 @@
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="29" t="s">
         <v>147</v>
       </c>
       <c r="F112" s="8"/>
@@ -5801,10 +4538,10 @@
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="E113" s="25" t="s">
         <v>149</v>
       </c>
       <c r="F113" s="5"/>
@@ -5814,10 +4551,10 @@
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E114" s="32" t="s">
+      <c r="E114" s="29" t="s">
         <v>149</v>
       </c>
       <c r="F114" s="8"/>
@@ -5827,10 +4564,10 @@
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D115" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="25" t="s">
         <v>151</v>
       </c>
       <c r="F115" s="5"/>
@@ -5840,10 +4577,10 @@
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E116" s="32" t="s">
+      <c r="E116" s="29" t="s">
         <v>153</v>
       </c>
       <c r="F116" s="8"/>
@@ -5853,10 +4590,10 @@
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="25" t="s">
         <v>155</v>
       </c>
       <c r="F117" s="5"/>
@@ -5866,10 +4603,10 @@
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F118" s="8"/>
@@ -5879,10 +4616,10 @@
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F119" s="5"/>
@@ -5892,10 +4629,10 @@
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="D120" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E120" s="32" t="s">
+      <c r="E120" s="29" t="s">
         <v>157</v>
       </c>
       <c r="F120" s="8"/>
@@ -5905,10 +4642,10 @@
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="E121" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F121" s="5"/>
@@ -5918,10 +4655,10 @@
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E122" s="32" t="s">
+      <c r="E122" s="29" t="s">
         <v>107</v>
       </c>
       <c r="F122" s="8"/>
@@ -5931,10 +4668,10 @@
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E123" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F123" s="5"/>
@@ -5944,10 +4681,10 @@
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E124" s="32" t="s">
+      <c r="E124" s="29" t="s">
         <v>160</v>
       </c>
       <c r="F124" s="8"/>
@@ -5957,10 +4694,10 @@
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="25" t="s">
         <v>162</v>
       </c>
       <c r="F125" s="5"/>
@@ -5970,10 +4707,10 @@
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E126" s="32" t="s">
+      <c r="E126" s="29" t="s">
         <v>164</v>
       </c>
       <c r="F126" s="8"/>
@@ -5983,10 +4720,10 @@
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="25" t="s">
         <v>166</v>
       </c>
       <c r="F127" s="5"/>
@@ -5996,10 +4733,10 @@
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E128" s="32" t="s">
+      <c r="E128" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F128" s="8"/>
@@ -6009,10 +4746,10 @@
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F129" s="5"/>
@@ -6022,10 +4759,10 @@
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D130" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E130" s="32" t="s">
+      <c r="E130" s="29" t="s">
         <v>169</v>
       </c>
       <c r="F130" s="8"/>
@@ -6035,10 +4772,10 @@
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E131" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F131" s="5"/>
@@ -6048,10 +4785,10 @@
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E132" s="32" t="s">
+      <c r="E132" s="29" t="s">
         <v>87</v>
       </c>
       <c r="F132" s="8"/>
@@ -6061,10 +4798,10 @@
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E133" s="25" t="s">
         <v>89</v>
       </c>
       <c r="F133" s="5"/>
@@ -6074,10 +4811,10 @@
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E134" s="34" t="s">
+      <c r="E134" s="31" t="s">
         <v>176</v>
       </c>
       <c r="F134" s="11"/>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F107A210-3C09-4B6A-B518-820AEB55B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33936BAE-4F40-4994-9D69-AA69C01349F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="212">
   <si>
     <t>Timestamp</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>https://basant-2005.github.io/basant-walid2005/</t>
+  </si>
+  <si>
+    <t>https://esraa1232.github.io/first-web-page/</t>
+  </si>
+  <si>
+    <t>er20231290@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,6 +2929,12 @@
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="E114" s="6"/>
     </row>
@@ -3065,9 +3077,11 @@
     <hyperlink ref="C112" r:id="rId81" xr:uid="{7E2ACC06-C4CE-42EB-9A54-5DA79C517488}"/>
     <hyperlink ref="B113" r:id="rId82" xr:uid="{7CA9F188-4377-4FFE-992F-290BBD53DAE7}"/>
     <hyperlink ref="C113" r:id="rId83" xr:uid="{03AD4B45-8806-447D-A75D-14E4CCD34E83}"/>
+    <hyperlink ref="C114" r:id="rId84" xr:uid="{79E34923-323F-49FE-B862-8A096359B9B5}"/>
+    <hyperlink ref="B114" r:id="rId85" xr:uid="{6FBA24ED-D5EE-4DC7-82FE-AA3F9E64E9AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55EBD3-6CF4-ED43-9067-CA52E3DA205A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC5643-A54C-4CEE-AA9D-A354CF82E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="215">
   <si>
     <t>Timestamp</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>https://rokaabobakr.github.io/ROKYA22/</t>
+  </si>
+  <si>
+    <t>https://ibrahimrrada.github.io/PageSite/</t>
+  </si>
+  <si>
+    <t>er20230207@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1148,9 +1154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1188,7 +1194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1294,7 +1300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1436,7 +1442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1450,16 +1456,16 @@
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1489,7 +1495,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1502,7 +1508,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1515,7 +1521,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1528,7 +1534,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1541,7 +1547,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1554,7 +1560,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1580,7 +1586,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1593,7 +1599,7 @@
       <c r="D10" s="50"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1606,7 +1612,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="D12" s="50"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1630,7 +1636,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1643,7 +1649,7 @@
       <c r="D14" s="50"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1656,7 +1662,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1682,7 +1688,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1708,7 +1714,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1721,7 +1727,7 @@
       <c r="D20" s="50"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1734,7 +1740,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1747,7 +1753,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1760,7 +1766,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1773,7 +1779,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1786,7 +1792,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1812,7 +1818,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1825,7 +1831,7 @@
       <c r="D28" s="50"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1838,7 +1844,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1851,7 +1857,7 @@
       <c r="D30" s="50"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1864,7 +1870,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1903,7 +1909,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1916,7 +1922,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1929,7 +1935,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1942,7 +1948,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1955,7 +1961,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1968,7 +1974,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1981,7 +1987,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -2007,7 +2013,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -2033,7 +2039,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -2046,7 +2052,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -2059,7 +2065,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -2072,7 +2078,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -2085,7 +2091,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -2098,7 +2104,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -2111,7 +2117,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -2124,7 +2130,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -2137,7 +2143,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -2150,7 +2156,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -2163,7 +2169,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -2176,7 +2182,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -2189,7 +2195,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2202,7 +2208,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2215,7 +2221,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2228,7 +2234,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2254,7 +2260,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2267,7 +2273,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2280,7 +2286,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2293,7 +2299,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2306,7 +2312,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2319,7 +2325,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2332,7 +2338,7 @@
       <c r="D67" s="54"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2345,7 +2351,7 @@
       <c r="D68" s="50"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2358,7 +2364,7 @@
       <c r="D69" s="54"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2371,7 +2377,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2384,7 +2390,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2397,7 +2403,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2410,7 +2416,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2423,7 +2429,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2436,7 +2442,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2449,7 +2455,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2475,7 +2481,7 @@
       <c r="D78" s="50"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2488,7 +2494,7 @@
       <c r="D79" s="54"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2501,7 +2507,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2514,7 +2520,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2527,7 +2533,7 @@
       <c r="D82" s="50"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2540,7 +2546,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2553,7 +2559,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2566,7 +2572,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2579,7 +2585,7 @@
       <c r="D86" s="50"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="D87" s="48"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2605,7 +2611,7 @@
       <c r="D88" s="49"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2618,7 +2624,7 @@
       <c r="D89" s="48"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2631,7 +2637,7 @@
       <c r="D90" s="49"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2644,7 +2650,7 @@
       <c r="D91" s="48"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2657,7 +2663,7 @@
       <c r="D92" s="49"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2670,7 +2676,7 @@
       <c r="D93" s="48"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2683,7 +2689,7 @@
       <c r="D94" s="49"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2696,7 +2702,7 @@
       <c r="D95" s="48"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2709,7 +2715,7 @@
       <c r="D96" s="49"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2722,7 +2728,7 @@
       <c r="D97" s="48"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2735,7 +2741,7 @@
       <c r="D98" s="49"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2748,7 +2754,7 @@
       <c r="D99" s="48"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2761,7 +2767,7 @@
       <c r="D100" s="49"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2774,7 +2780,7 @@
       <c r="D101" s="48"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="D102" s="49"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2800,7 +2806,7 @@
       <c r="D103" s="48"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2813,7 +2819,7 @@
       <c r="D104" s="49"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2826,7 +2832,7 @@
       <c r="D105" s="48"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2839,7 +2845,7 @@
       <c r="D106" s="49"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2852,7 +2858,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2865,7 +2871,7 @@
       <c r="D108" s="49"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2878,7 +2884,7 @@
       <c r="D109" s="48"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2891,7 +2897,7 @@
       <c r="D110" s="49"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="D111" s="48"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2917,7 +2923,7 @@
       <c r="D112" s="49"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2929,7 +2935,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2941,7 +2947,7 @@
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2953,49 +2959,55 @@
       </c>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
+      <c r="B116" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>213</v>
+      </c>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -3088,9 +3100,11 @@
     <hyperlink ref="C113" r:id="rId83" xr:uid="{03AD4B45-8806-447D-A75D-14E4CCD34E83}"/>
     <hyperlink ref="C114" r:id="rId84" xr:uid="{79E34923-323F-49FE-B862-8A096359B9B5}"/>
     <hyperlink ref="B114" r:id="rId85" xr:uid="{6FBA24ED-D5EE-4DC7-82FE-AA3F9E64E9AC}"/>
+    <hyperlink ref="C116" r:id="rId86" xr:uid="{2BFBB140-C2F5-457F-93D8-C2BE28A0383A}"/>
+    <hyperlink ref="B116" r:id="rId87" display="mailto:er20230207@sva.edu.eg" xr:uid="{C01FEC9E-E627-4D47-B1DE-6D09B3D11E41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -3102,17 +3116,17 @@
       <selection activeCell="D3" sqref="D3:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -3142,7 +3156,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -3155,7 +3169,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -3168,7 +3182,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -3181,7 +3195,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -3194,7 +3208,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -3207,7 +3221,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -3220,7 +3234,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -3233,7 +3247,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -3246,7 +3260,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -3259,7 +3273,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -3272,7 +3286,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -3285,7 +3299,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -3298,7 +3312,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -3311,7 +3325,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -3324,7 +3338,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -3337,7 +3351,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -3350,7 +3364,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -3361,7 +3375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -3374,7 +3388,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -3387,7 +3401,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -3400,7 +3414,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -3413,7 +3427,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -3426,7 +3440,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -3439,7 +3453,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -3452,7 +3466,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -3465,7 +3479,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -3478,7 +3492,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -3491,7 +3505,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -3504,7 +3518,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -3517,7 +3531,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -3530,7 +3544,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -3543,7 +3557,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -3556,7 +3570,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -3569,7 +3583,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -3582,7 +3596,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -3595,7 +3609,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -3608,7 +3622,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -3621,7 +3635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -3634,7 +3648,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -3647,7 +3661,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -3660,7 +3674,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -3673,7 +3687,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -3686,7 +3700,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -3699,7 +3713,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -3712,7 +3726,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -3725,7 +3739,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -3738,7 +3752,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -3751,7 +3765,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -3764,7 +3778,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -3777,7 +3791,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -3790,7 +3804,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -3803,7 +3817,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -3816,7 +3830,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -3829,7 +3843,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -3842,7 +3856,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -3855,7 +3869,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -3868,7 +3882,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -3881,7 +3895,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -3894,7 +3908,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -3907,7 +3921,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -3920,7 +3934,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -3933,7 +3947,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -3946,7 +3960,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -3959,7 +3973,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -3972,7 +3986,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -3985,7 +3999,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -3998,7 +4012,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -4011,7 +4025,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -4024,7 +4038,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -4037,7 +4051,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -4050,7 +4064,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -4063,7 +4077,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -4076,7 +4090,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -4089,7 +4103,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -4102,7 +4116,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -4115,7 +4129,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -4128,7 +4142,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -4141,7 +4155,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -4154,7 +4168,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -4167,7 +4181,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -4180,7 +4194,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -4193,7 +4207,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -4206,7 +4220,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -4219,7 +4233,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -4232,7 +4246,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -4245,7 +4259,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -4258,7 +4272,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -4271,7 +4285,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -4284,7 +4298,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -4297,7 +4311,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -4310,7 +4324,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -4323,7 +4337,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -4336,7 +4350,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -4349,7 +4363,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -4362,7 +4376,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -4375,7 +4389,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -4388,7 +4402,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -4401,7 +4415,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -4414,7 +4428,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -4427,7 +4441,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -4440,7 +4454,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -4453,7 +4467,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -4466,7 +4480,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -4479,7 +4493,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -4492,7 +4506,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -4505,7 +4519,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -4518,7 +4532,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -4531,7 +4545,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -4544,7 +4558,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -4557,7 +4571,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -4570,7 +4584,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -4583,7 +4597,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -4596,7 +4610,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -4609,7 +4623,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -4622,7 +4636,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -4635,7 +4649,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -4648,7 +4662,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -4661,7 +4675,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -4674,7 +4688,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -4687,7 +4701,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -4700,7 +4714,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
@@ -4713,7 +4727,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
@@ -4726,7 +4740,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
@@ -4739,7 +4753,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
@@ -4752,7 +4766,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
@@ -4765,7 +4779,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
@@ -4778,7 +4792,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
@@ -4791,7 +4805,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
@@ -4804,7 +4818,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
@@ -4817,7 +4831,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
@@ -4830,7 +4844,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC5643-A54C-4CEE-AA9D-A354CF82E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B140C-A53B-6D4B-9105-6E5C240BEB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
   <si>
     <t>Timestamp</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>er20230207@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamed55249.github.io/my-page-html/</t>
+  </si>
+  <si>
+    <t>mk20233227@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1194,7 +1200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1300,7 +1306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1442,7 +1448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1456,16 +1462,16 @@
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -1495,7 +1501,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -1508,7 +1514,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -1534,7 +1540,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -1547,7 +1553,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -1573,7 +1579,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -1586,7 +1592,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -1599,7 +1605,7 @@
       <c r="D10" s="50"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -1612,7 +1618,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -1623,7 +1629,7 @@
       <c r="D12" s="50"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -1636,7 +1642,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="D14" s="50"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -1662,7 +1668,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -1675,7 +1681,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -1688,7 +1694,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -1701,7 +1707,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -1714,7 +1720,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -1727,7 +1733,7 @@
       <c r="D20" s="50"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -1740,7 +1746,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -1753,7 +1759,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -1766,7 +1772,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -1779,7 +1785,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -1792,7 +1798,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -1805,7 +1811,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -1818,7 +1824,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -1831,7 +1837,7 @@
       <c r="D28" s="50"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -1844,7 +1850,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -1857,7 +1863,7 @@
       <c r="D30" s="50"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -1883,7 +1889,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -1896,7 +1902,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -1909,7 +1915,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -1922,7 +1928,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -1935,7 +1941,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -1948,7 +1954,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -1961,7 +1967,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -1974,7 +1980,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -1987,7 +1993,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -2000,7 +2006,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -2013,7 +2019,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -2026,7 +2032,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -2039,7 +2045,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -2052,7 +2058,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -2065,7 +2071,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -2078,7 +2084,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -2091,7 +2097,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -2104,7 +2110,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -2117,7 +2123,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -2130,7 +2136,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -2156,7 +2162,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -2169,7 +2175,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -2182,7 +2188,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -2195,7 +2201,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -2208,7 +2214,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -2221,7 +2227,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -2234,7 +2240,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -2247,7 +2253,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -2260,7 +2266,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -2273,7 +2279,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -2286,7 +2292,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -2299,7 +2305,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -2312,7 +2318,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -2325,7 +2331,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -2338,7 +2344,7 @@
       <c r="D67" s="54"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -2351,7 +2357,7 @@
       <c r="D68" s="50"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -2364,7 +2370,7 @@
       <c r="D69" s="54"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -2377,7 +2383,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -2390,7 +2396,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -2403,7 +2409,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -2416,7 +2422,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -2429,7 +2435,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -2442,7 +2448,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -2455,7 +2461,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -2468,7 +2474,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -2481,7 +2487,7 @@
       <c r="D78" s="50"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -2494,7 +2500,7 @@
       <c r="D79" s="54"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -2507,7 +2513,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -2520,7 +2526,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -2533,7 +2539,7 @@
       <c r="D82" s="50"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -2546,7 +2552,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -2559,7 +2565,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -2572,7 +2578,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -2585,7 +2591,7 @@
       <c r="D86" s="50"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -2598,7 +2604,7 @@
       <c r="D87" s="48"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -2611,7 +2617,7 @@
       <c r="D88" s="49"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -2624,7 +2630,7 @@
       <c r="D89" s="48"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -2637,7 +2643,7 @@
       <c r="D90" s="49"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -2650,7 +2656,7 @@
       <c r="D91" s="48"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -2663,7 +2669,7 @@
       <c r="D92" s="49"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -2676,7 +2682,7 @@
       <c r="D93" s="48"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -2689,7 +2695,7 @@
       <c r="D94" s="49"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -2702,7 +2708,7 @@
       <c r="D95" s="48"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -2715,7 +2721,7 @@
       <c r="D96" s="49"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="D97" s="48"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -2741,7 +2747,7 @@
       <c r="D98" s="49"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="D99" s="48"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -2767,7 +2773,7 @@
       <c r="D100" s="49"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -2780,7 +2786,7 @@
       <c r="D101" s="48"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -2793,7 +2799,7 @@
       <c r="D102" s="49"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -2806,7 +2812,7 @@
       <c r="D103" s="48"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -2819,7 +2825,7 @@
       <c r="D104" s="49"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -2832,7 +2838,7 @@
       <c r="D105" s="48"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -2845,7 +2851,7 @@
       <c r="D106" s="49"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -2858,7 +2864,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -2871,7 +2877,7 @@
       <c r="D108" s="49"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -2884,7 +2890,7 @@
       <c r="D109" s="48"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -2897,7 +2903,7 @@
       <c r="D110" s="49"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -2910,7 +2916,7 @@
       <c r="D111" s="48"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -2923,7 +2929,7 @@
       <c r="D112" s="49"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -2935,7 +2941,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -2947,7 +2953,7 @@
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -2959,7 +2965,7 @@
       </c>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -2971,43 +2977,49 @@
       </c>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
+      <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
+        <v>215</v>
+      </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -3116,17 +3128,17 @@
       <selection activeCell="D3" sqref="D3:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -3156,7 +3168,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -3169,7 +3181,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -3182,7 +3194,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -3195,7 +3207,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -3208,7 +3220,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -3221,7 +3233,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -3234,7 +3246,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -3247,7 +3259,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -3260,7 +3272,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -3273,7 +3285,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -3286,7 +3298,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -3299,7 +3311,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -3312,7 +3324,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -3325,7 +3337,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -3338,7 +3350,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -3351,7 +3363,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -3364,7 +3376,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -3375,7 +3387,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -3388,7 +3400,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -3401,7 +3413,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -3414,7 +3426,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -3427,7 +3439,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -3440,7 +3452,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -3453,7 +3465,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -3466,7 +3478,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -3479,7 +3491,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -3492,7 +3504,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -3505,7 +3517,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -3518,7 +3530,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -3544,7 +3556,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -3557,7 +3569,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -3570,7 +3582,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -3583,7 +3595,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -3596,7 +3608,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -3609,7 +3621,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -3622,7 +3634,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -3635,7 +3647,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -3648,7 +3660,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -3661,7 +3673,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -3674,7 +3686,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -3687,7 +3699,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -3700,7 +3712,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -3713,7 +3725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -3726,7 +3738,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -3739,7 +3751,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -3752,7 +3764,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -3765,7 +3777,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -3778,7 +3790,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -3791,7 +3803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -3804,7 +3816,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -3817,7 +3829,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -3830,7 +3842,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -3843,7 +3855,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -3856,7 +3868,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -3869,7 +3881,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -3895,7 +3907,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -3908,7 +3920,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -3921,7 +3933,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -3934,7 +3946,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -3947,7 +3959,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -3960,7 +3972,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -3973,7 +3985,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -3986,7 +3998,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -3999,7 +4011,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -4012,7 +4024,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -4025,7 +4037,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -4038,7 +4050,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -4051,7 +4063,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -4064,7 +4076,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -4077,7 +4089,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -4090,7 +4102,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -4103,7 +4115,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -4116,7 +4128,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -4129,7 +4141,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -4142,7 +4154,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -4168,7 +4180,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -4181,7 +4193,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -4194,7 +4206,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -4207,7 +4219,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -4220,7 +4232,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -4233,7 +4245,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -4246,7 +4258,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -4259,7 +4271,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -4272,7 +4284,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -4285,7 +4297,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -4298,7 +4310,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -4311,7 +4323,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -4324,7 +4336,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -4337,7 +4349,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -4350,7 +4362,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -4363,7 +4375,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -4376,7 +4388,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -4389,7 +4401,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -4402,7 +4414,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -4415,7 +4427,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -4428,7 +4440,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -4441,7 +4453,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -4454,7 +4466,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -4467,7 +4479,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -4480,7 +4492,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -4493,7 +4505,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -4506,7 +4518,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -4519,7 +4531,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -4532,7 +4544,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -4545,7 +4557,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -4558,7 +4570,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -4571,7 +4583,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -4584,7 +4596,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -4597,7 +4609,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -4610,7 +4622,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -4623,7 +4635,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -4636,7 +4648,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -4649,7 +4661,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -4662,7 +4674,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -4675,7 +4687,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -4688,7 +4700,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -4701,7 +4713,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -4714,7 +4726,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
@@ -4727,7 +4739,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
@@ -4753,7 +4765,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
@@ -4766,7 +4778,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
@@ -4779,7 +4791,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
@@ -4792,7 +4804,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
@@ -4805,7 +4817,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
@@ -4818,7 +4830,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
@@ -4831,7 +4843,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
@@ -4844,7 +4856,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B140C-A53B-6D4B-9105-6E5C240BEB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74A16BD-86CD-BA47-BB02-3F2B7103D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
   <si>
     <t>Timestamp</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>mk20233227@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://basmala390.github.io/bosy66/</t>
+  </si>
+  <si>
+    <t>bn20231355@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://abdelhalem22.github.io/my-web-page/</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1468,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2993,11 +3002,23 @@
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" t="s">
+        <v>217</v>
+      </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" t="s">
+        <v>219</v>
       </c>
       <c r="E119" s="9"/>
     </row>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74A16BD-86CD-BA47-BB02-3F2B7103D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C100F27-B76C-574C-A597-5FA1D1D8DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="222">
   <si>
     <t>Timestamp</t>
   </si>
@@ -689,6 +689,12 @@
   </si>
   <si>
     <t>https://abdelhalem22.github.io/my-web-page/</t>
+  </si>
+  <si>
+    <t>za20230341@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://thedarkestone1.github.io/My-wabe-bage/</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1474,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3025,6 +3031,12 @@
     <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
+      </c>
+      <c r="B120" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" t="s">
+        <v>221</v>
       </c>
       <c r="E120" s="6"/>
     </row>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C100F27-B76C-574C-A597-5FA1D1D8DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E706A6E-27B8-C049-9438-4E2113E51DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
   <si>
     <t>Timestamp</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>https://thedarkestone1.github.io/My-wabe-bage/</t>
+  </si>
+  <si>
+    <t>km20231353@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://karimmohammed5.github.io/KMPage/</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1480,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3043,6 +3049,12 @@
     <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
+      </c>
+      <c r="B121" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" t="s">
+        <v>223</v>
       </c>
       <c r="E121" s="9"/>
     </row>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC5643-A54C-4CEE-AA9D-A354CF82E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62F124-FB46-40B5-A286-DEA862B121C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="301">
   <si>
     <t>Timestamp</t>
   </si>
@@ -674,6 +674,268 @@
   </si>
   <si>
     <t>er20230207@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://abdelhalem22.github.io/my-web-page/</t>
+  </si>
+  <si>
+    <t>https://abdullahmahmoud20234326.github.io/ElsafwaWeb/</t>
+  </si>
+  <si>
+    <t>bn20231355@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://basmala390.github.io/bosy66/</t>
+  </si>
+  <si>
+    <t>mk20233227@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamed55249.github.io/my-page-html/</t>
+  </si>
+  <si>
+    <t>https://hazem362.github.io/My-first-page/</t>
+  </si>
+  <si>
+    <t>em20234278@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>file:///D:/html/index-html.html</t>
+  </si>
+  <si>
+    <t>nk20232211@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>نورهان خليل احمد</t>
+  </si>
+  <si>
+    <t>محمد سعيد عبيد محمد</t>
+  </si>
+  <si>
+    <t>na20233322@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>صفحه html</t>
+  </si>
+  <si>
+    <t>ma20233362@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mabdo1907.github.io/MyFirstWebPage/</t>
+  </si>
+  <si>
+    <t>sn20230254@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://search.app/2bG1H9VsPfDX2mFB7</t>
+  </si>
+  <si>
+    <t>ma20233286@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>محمود عبدالعزيز حامد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a
+</t>
+  </si>
+  <si>
+    <t>https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a</t>
+  </si>
+  <si>
+    <t>https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a
+حبيبه عبدالكريم محمد</t>
+  </si>
+  <si>
+    <t>ho20232357@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/hassanosama900</t>
+  </si>
+  <si>
+    <t>تم الارسال</t>
+  </si>
+  <si>
+    <t>am20231261@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/ayamohsen900</t>
+  </si>
+  <si>
+    <t>my20234259@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>Mohamed yahia</t>
+  </si>
+  <si>
+    <t>ma20222236@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/Moham753/mohamed-/tree/9e2c42403543d6582357648ac8f3eade2a2fadcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ra20232378@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>aw20233381@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://abdelrhman-waleed.github.io/boda/</t>
+  </si>
+  <si>
+    <t>https://memoxx19.github.io/calculator/</t>
+  </si>
+  <si>
+    <t>km20231353@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://karimmohammed5.github.io/KMPage/</t>
+  </si>
+  <si>
+    <t>ef20233313@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>mt20231389@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>mh20230243@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mh20230243.github.io/simple-html-page/</t>
+  </si>
+  <si>
+    <t>ky20231346@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://khaled20fa.github.io/fantastic-striker/</t>
+  </si>
+  <si>
+    <t>https://github.com/yousifahmed2011/First-project-.git</t>
+  </si>
+  <si>
+    <t>hm20233310@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>yy20231347@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://joo20ma.github.io/Defence-rock/</t>
+  </si>
+  <si>
+    <t>ah20232386@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/elmag3k/Elsqr.git</t>
+  </si>
+  <si>
+    <t>https://github.com/elmag3k/</t>
+  </si>
+  <si>
+    <t>https://mariem55345.github.io/mariem/</t>
+  </si>
+  <si>
+    <t>https://github.com/elmag3k/my-page.git</t>
+  </si>
+  <si>
+    <t>nm20231304@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>حاضر</t>
+  </si>
+  <si>
+    <t>https://nouracodes.github.io/nada/</t>
+  </si>
+  <si>
+    <t>nm20231251@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nouracodes.github.io/nouracodes-.github-.io/</t>
+  </si>
+  <si>
+    <t>mk20230339@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/memo200001/html1/blob/01b7a352d7fe471391e088275a9ac3be6dfee9be/mrwan.html</t>
+  </si>
+  <si>
+    <t>sa20230330@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/sa20230330/html/blob/1a1a65347940c0c402fb845b313944d296908f69/20230330.html</t>
+  </si>
+  <si>
+    <t>mk20230386@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/bebo56438/html1/blob/f1e004b6f48840293112132cb819462a0a94d9af/bebo.html</t>
+  </si>
+  <si>
+    <t>ff20232234@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://fahd20051.github.io/Fa/</t>
+  </si>
+  <si>
+    <t>https://sandy596.github.io/my-page/
+Last deployed by @sandy596 sandy596 37 minutes ago</t>
+  </si>
+  <si>
+    <t>https://bosy2030.github.io/-/</t>
+  </si>
+  <si>
+    <t>km20231340@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://kareem01234.github.io/My-first-webage/</t>
+  </si>
+  <si>
+    <t>aa20231393@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://aida581.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>ya20232327@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://el-kofix.github.io/assa/</t>
+  </si>
+  <si>
+    <t>sf20231256@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://shroukfayez1.github.io/My-First-Webpage/</t>
+  </si>
+  <si>
+    <t>rh20232342@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://reham56389.github.io/My-First-webpage-/</t>
+  </si>
+  <si>
+    <t>https://rahmacode767.github.io/my_website-/</t>
+  </si>
+  <si>
+    <t>https://abdullahmahmoud20234326.github.io/Summary/</t>
+  </si>
+  <si>
+    <t>https://rokaabobakr.github.io/New/</t>
+  </si>
+  <si>
+    <t>rh20230275@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://reemht.github.io/mypage/</t>
+  </si>
+  <si>
+    <t>ag20233285@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ag202332855.github.io/myfirstpage/</t>
   </si>
 </sst>
 </file>
@@ -739,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -981,12 +1243,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1133,6 +1425,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B117" sqref="B117:C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,43 +3276,1987 @@
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
+      <c r="B117" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
+      <c r="B118" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
+      <c r="B119" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="18">
+        <v>30509051400865</v>
+      </c>
       <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
+      <c r="B120" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
+      <c r="B121" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
+      <c r="B122" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
+      <c r="B123" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="18">
+        <v>20233360</v>
+      </c>
       <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="56"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="16">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="18">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C249" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C251" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C255" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C257" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C259" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C261" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C263" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C265" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C269" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C273" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C287" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C289" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C293" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C295" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C297" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C298" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C299" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C301" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C303" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C306" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C307" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C309" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C310" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C311" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C313" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C315" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C317" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C321" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C325" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C327" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C329" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C331" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C333" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C335" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C336" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C337" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C340" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C341" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C342" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C343" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C345" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C351" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C353" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C355" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C357" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C359" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C360" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="C361" s="58" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3102,9 +5347,197 @@
     <hyperlink ref="B114" r:id="rId85" xr:uid="{6FBA24ED-D5EE-4DC7-82FE-AA3F9E64E9AC}"/>
     <hyperlink ref="C116" r:id="rId86" xr:uid="{2BFBB140-C2F5-457F-93D8-C2BE28A0383A}"/>
     <hyperlink ref="B116" r:id="rId87" display="mailto:er20230207@sva.edu.eg" xr:uid="{C01FEC9E-E627-4D47-B1DE-6D09B3D11E41}"/>
+    <hyperlink ref="C117" r:id="rId88" xr:uid="{14A4325C-47F3-4168-A395-8BE9709B074A}"/>
+    <hyperlink ref="C120" r:id="rId89" xr:uid="{7524A8EF-C162-4D06-A3FB-8F08D5032DC5}"/>
+    <hyperlink ref="C124" r:id="rId90" xr:uid="{3337AA22-E355-4A1B-8DC0-1B1F206668B7}"/>
+    <hyperlink ref="C126" r:id="rId91" xr:uid="{EEEF7FBA-36EB-48C1-AE5C-B51ED1416646}"/>
+    <hyperlink ref="C127" r:id="rId92" xr:uid="{7569ABC2-A007-4E10-8ACE-A8D1F8CF8714}"/>
+    <hyperlink ref="C133" r:id="rId93" xr:uid="{99F213DA-BEB6-435E-95D4-A8D458F1669F}"/>
+    <hyperlink ref="C135" r:id="rId94" xr:uid="{9FFB953F-D624-4980-8C5B-C77FA1354D1F}"/>
+    <hyperlink ref="C139" r:id="rId95" xr:uid="{C6748820-BFB9-4742-B6E0-54580632D7DA}"/>
+    <hyperlink ref="C140" r:id="rId96" xr:uid="{F32DEA81-D8FD-40A5-BC04-7699CB5C9AD4}"/>
+    <hyperlink ref="C141" r:id="rId97" xr:uid="{72CBAB86-DEF1-451F-8605-BF4F7E33F847}"/>
+    <hyperlink ref="C142" r:id="rId98" xr:uid="{985D608E-9978-4636-B026-0B4E5439EEB9}"/>
+    <hyperlink ref="C143" r:id="rId99" xr:uid="{39EE0084-CE5F-4227-A3B6-B4E031928A86}"/>
+    <hyperlink ref="C144" r:id="rId100" xr:uid="{28767AC1-D833-4D50-B078-444939574DC8}"/>
+    <hyperlink ref="C145" r:id="rId101" xr:uid="{F74B902F-4179-43E2-B89F-F965AE828B2A}"/>
+    <hyperlink ref="C146" r:id="rId102" xr:uid="{931824A7-B3E5-4D8E-B78E-D65476AE0732}"/>
+    <hyperlink ref="C147" r:id="rId103" xr:uid="{8026087D-4D41-4627-B0B1-CBD5D541B861}"/>
+    <hyperlink ref="C150" r:id="rId104" xr:uid="{87D11334-3CA9-4DCF-A433-4DA2EE7532BB}"/>
+    <hyperlink ref="C151" r:id="rId105" xr:uid="{0B68492C-35EF-4557-8109-D046ADD91D80}"/>
+    <hyperlink ref="C152" r:id="rId106" xr:uid="{D60E9BB5-A920-46E3-BE55-9FCA4D3D33EC}"/>
+    <hyperlink ref="C153" r:id="rId107" xr:uid="{09B8F860-2DAB-4AA0-AD18-A0A654695405}"/>
+    <hyperlink ref="C154" r:id="rId108" xr:uid="{1F64DAEB-E2FB-4C6D-BF82-84FD88AB569A}"/>
+    <hyperlink ref="C157" r:id="rId109" xr:uid="{E5260262-97C0-4D3A-96CE-C1B05F388376}"/>
+    <hyperlink ref="C159" r:id="rId110" xr:uid="{4DD13A65-17BB-4614-8A59-E599A9670F6A}"/>
+    <hyperlink ref="C161" r:id="rId111" xr:uid="{19BA3404-DB3A-462E-A450-E2AB7688E3B5}"/>
+    <hyperlink ref="C162" r:id="rId112" xr:uid="{C0E5EB1B-E28C-4DDB-AAD4-4CB7AA6DEC11}"/>
+    <hyperlink ref="C164" r:id="rId113" xr:uid="{593BD03D-6216-461F-BC69-DD7EBBCE38F9}"/>
+    <hyperlink ref="C165" r:id="rId114" xr:uid="{9DA67024-A954-49E2-8469-56D85475AF38}"/>
+    <hyperlink ref="C167" r:id="rId115" xr:uid="{4F1C68ED-FB07-4AD7-95AF-A9B729353A2C}"/>
+    <hyperlink ref="C168" r:id="rId116" xr:uid="{EE7C0DAB-381F-4874-833A-43377F62C74E}"/>
+    <hyperlink ref="C169" r:id="rId117" xr:uid="{EC2FC519-D071-451A-9DE2-7776D34AAE2C}"/>
+    <hyperlink ref="C170" r:id="rId118" xr:uid="{D678A6F1-2396-4A57-A8AE-5AB6E428186F}"/>
+    <hyperlink ref="C172" r:id="rId119" xr:uid="{8BC18078-2E71-4913-928B-B001D50D0CA2}"/>
+    <hyperlink ref="C174" r:id="rId120" xr:uid="{CC2A65CA-74F3-48B7-8CD4-3AE72D628DDD}"/>
+    <hyperlink ref="C175" r:id="rId121" xr:uid="{C49CA1A3-A746-4FF2-B998-913730A32E9A}"/>
+    <hyperlink ref="C177" r:id="rId122" xr:uid="{7BB64B5D-776A-4B95-B2EE-0BF4D193F7B5}"/>
+    <hyperlink ref="C178" r:id="rId123" xr:uid="{FF0BADCB-8CE5-4649-9DFA-BFADE9DCEEB4}"/>
+    <hyperlink ref="C179" r:id="rId124" xr:uid="{86FAF8F1-1BDF-4C2D-AE99-F02B251BE49D}"/>
+    <hyperlink ref="C180" r:id="rId125" xr:uid="{D24BFFB2-50D0-4A59-A49D-A40F907BF89B}"/>
+    <hyperlink ref="C181" r:id="rId126" xr:uid="{9E2C7CA6-4D61-4DA4-BA53-6CF5CA056442}"/>
+    <hyperlink ref="C182" r:id="rId127" xr:uid="{245A0213-0569-47CC-9BBE-5055ED5C9214}"/>
+    <hyperlink ref="C185" r:id="rId128" xr:uid="{629FF9EA-80EF-470E-91E9-8E59C958311E}"/>
+    <hyperlink ref="C186" r:id="rId129" xr:uid="{5EE513CC-3937-47A1-80C4-741F6ABB79B4}"/>
+    <hyperlink ref="C187" r:id="rId130" xr:uid="{6C93BEA8-EA52-4BB7-B4E6-691685261022}"/>
+    <hyperlink ref="C188" r:id="rId131" xr:uid="{E47F603E-3148-4DF7-9DEC-849D7F03BCDC}"/>
+    <hyperlink ref="C189" r:id="rId132" xr:uid="{2B31B018-1230-410E-9EE6-1B08412097AE}"/>
+    <hyperlink ref="C191" r:id="rId133" display="https://rahma5555.github.io/roro00/" xr:uid="{D5D13B2F-3484-4258-A799-4651FB5291DC}"/>
+    <hyperlink ref="C192" r:id="rId134" xr:uid="{D591CD17-B45D-4F6A-8354-EE2079C68BAE}"/>
+    <hyperlink ref="C193" r:id="rId135" xr:uid="{2163AC45-88BC-43CB-BAC7-C5AC18CA12C0}"/>
+    <hyperlink ref="C194" r:id="rId136" xr:uid="{667C4DC3-4E61-4F75-A778-96F5ED2401FC}"/>
+    <hyperlink ref="C195" r:id="rId137" xr:uid="{82A87890-896C-4697-858D-44BF3F050A01}"/>
+    <hyperlink ref="C196" r:id="rId138" xr:uid="{B8000F4A-D946-47A4-B872-1AB29072E1A0}"/>
+    <hyperlink ref="C197" r:id="rId139" xr:uid="{FEC61DCA-8AA6-49B8-92DE-31C7715C158E}"/>
+    <hyperlink ref="C201" r:id="rId140" xr:uid="{930475FA-6BEF-4F8E-98DE-A1D076A48097}"/>
+    <hyperlink ref="C202" r:id="rId141" xr:uid="{1A305AF6-2514-4C5C-8AAD-5A84C6A03CC1}"/>
+    <hyperlink ref="C203" r:id="rId142" xr:uid="{6C837E1D-561A-40F9-8809-66741B82ED78}"/>
+    <hyperlink ref="C204" r:id="rId143" xr:uid="{110C56B2-5650-46E8-8776-C7E2376BB29B}"/>
+    <hyperlink ref="C205" r:id="rId144" display="https://loloah20.githup.io/sva20/" xr:uid="{9D331CF2-24B5-4054-9F21-7F83577D2E83}"/>
+    <hyperlink ref="C207" r:id="rId145" xr:uid="{EBF6A95E-59F9-4B70-A8AC-FE09C297A7D4}"/>
+    <hyperlink ref="C208" r:id="rId146" xr:uid="{F072D538-BBEA-475A-95A4-7EBDA5253941}"/>
+    <hyperlink ref="C209" r:id="rId147" xr:uid="{ECE6F5CE-0926-437E-8C8C-842997A05C90}"/>
+    <hyperlink ref="C211" r:id="rId148" xr:uid="{82D320EE-BE39-4E5F-B851-CEDF134129F2}"/>
+    <hyperlink ref="C212" r:id="rId149" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{ABA7BD25-F1D8-4628-975D-B039FC09E19B}"/>
+    <hyperlink ref="C213" r:id="rId150" xr:uid="{DF595F22-78CD-4900-B7C0-BFC9C0862CB5}"/>
+    <hyperlink ref="C214" r:id="rId151" xr:uid="{ED54C341-5573-4AED-B66A-B512DAC29582}"/>
+    <hyperlink ref="C215" r:id="rId152" xr:uid="{9F5D32EC-9DD8-4B11-A374-2EE15EEA44FF}"/>
+    <hyperlink ref="C216" r:id="rId153" xr:uid="{8A0700BA-A977-4650-9F53-A9083E039545}"/>
+    <hyperlink ref="C217" r:id="rId154" xr:uid="{11B07A7D-33E1-4F13-8722-F5F828BBE71E}"/>
+    <hyperlink ref="C218" r:id="rId155" xr:uid="{4DAC1DC0-04DD-4DAA-BE13-27C9565D5D27}"/>
+    <hyperlink ref="C219" r:id="rId156" display="https://basant1512006.github.io/basant-walid/" xr:uid="{B9B395CD-BD4F-4301-93A4-256AAD7DF326}"/>
+    <hyperlink ref="C220" r:id="rId157" xr:uid="{3B149E10-61D3-433C-BCAD-DEBE14B4629E}"/>
+    <hyperlink ref="C221" r:id="rId158" xr:uid="{19065541-552F-4E74-ACA1-2C62FDD07284}"/>
+    <hyperlink ref="C222" r:id="rId159" xr:uid="{AB7DC74B-D90D-4E2D-9BE8-E04324DF1E6C}"/>
+    <hyperlink ref="C224" r:id="rId160" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{DAAC6B67-31C9-4C58-838B-CAFB888CEB33}"/>
+    <hyperlink ref="C225" r:id="rId161" xr:uid="{8E3E4C64-C8EF-475D-8915-8C570FB17DED}"/>
+    <hyperlink ref="C226" r:id="rId162" xr:uid="{F84629ED-87FD-40D5-9AA6-91475F0C1811}"/>
+    <hyperlink ref="C227" r:id="rId163" xr:uid="{9C4C884E-EF61-4B92-B2D0-96698B889396}"/>
+    <hyperlink ref="C228" r:id="rId164" xr:uid="{16F80AF9-B144-4D04-8FB6-EC649DBD5FCD}"/>
+    <hyperlink ref="C229" r:id="rId165" xr:uid="{75B4B42E-718C-45D4-B964-DD680BD3699A}"/>
+    <hyperlink ref="C230" r:id="rId166" xr:uid="{9FC8A1DB-DAB8-4959-AB0F-55721DF85E47}"/>
+    <hyperlink ref="C231" r:id="rId167" xr:uid="{56B4780E-A52C-4E88-9C59-ADBDAF905983}"/>
+    <hyperlink ref="C232" r:id="rId168" xr:uid="{6FF0996F-81C2-4E57-8F25-A7ADDAFEA705}"/>
+    <hyperlink ref="C233" r:id="rId169" xr:uid="{4E2D7983-1803-400F-B978-D3236BB434BF}"/>
+    <hyperlink ref="C234" r:id="rId170" xr:uid="{43DCC6C9-37A7-449C-9197-0435273AFCC6}"/>
+    <hyperlink ref="C235" r:id="rId171" xr:uid="{75B4B7F1-E996-4954-9C8F-13C0CF1A961D}"/>
+    <hyperlink ref="C236" r:id="rId172" xr:uid="{6F8CDB64-DD79-41FF-9CB4-A838C248CC78}"/>
+    <hyperlink ref="C238" r:id="rId173" xr:uid="{342B6739-DCE8-4795-B31A-AEF36CCDFED3}"/>
+    <hyperlink ref="C239" r:id="rId174" xr:uid="{366C2062-1325-44C1-8998-9F3075CEEEBF}"/>
+    <hyperlink ref="C240" r:id="rId175" xr:uid="{367FE7A8-8CB3-469A-84BF-4564718141DC}"/>
+    <hyperlink ref="C241" r:id="rId176" xr:uid="{65D1514C-E41B-4BBD-9DE0-25721E1C069E}"/>
+    <hyperlink ref="C242" r:id="rId177" xr:uid="{617C9080-14B4-49CA-9AAC-AAB8C23470B9}"/>
+    <hyperlink ref="C243" r:id="rId178" xr:uid="{6B483462-2F4D-4867-9AC9-37F15A51C7DD}"/>
+    <hyperlink ref="C244" r:id="rId179" xr:uid="{D702C809-89B4-4721-87EC-344111FD6D49}"/>
+    <hyperlink ref="C245" r:id="rId180" xr:uid="{4D1D9976-7586-4017-8A38-151D41702186}"/>
+    <hyperlink ref="C246" r:id="rId181" xr:uid="{35E1F7AB-F5CE-4787-B3EB-5400CCCE9018}"/>
+    <hyperlink ref="C247" r:id="rId182" xr:uid="{CB0EF3C0-DA2E-434A-8F19-4682D6F5B97C}"/>
+    <hyperlink ref="C248" r:id="rId183" xr:uid="{23B02279-0A40-463D-82AF-C9E8743B94C7}"/>
+    <hyperlink ref="C249" r:id="rId184" xr:uid="{0A33A6DE-2BB1-4C4F-9C2F-DC5B1526DC71}"/>
+    <hyperlink ref="C250" r:id="rId185" xr:uid="{77DC9B29-5FD1-46E1-A0BE-5F155BCC6E33}"/>
+    <hyperlink ref="C251" r:id="rId186" xr:uid="{65C455CA-E398-48BB-9C16-ABAEADB61438}"/>
+    <hyperlink ref="C252" r:id="rId187" xr:uid="{E44535F0-221D-4676-9534-187A5A15837A}"/>
+    <hyperlink ref="C254" r:id="rId188" xr:uid="{EE6A312B-E0D6-4726-A7B0-A1510F48E00D}"/>
+    <hyperlink ref="C255" r:id="rId189" xr:uid="{26F67E2B-5014-48CC-8933-237266FDDD35}"/>
+    <hyperlink ref="C256" r:id="rId190" xr:uid="{219F1FF6-9204-4B43-8B2B-A381E87D71AA}"/>
+    <hyperlink ref="C257" r:id="rId191" xr:uid="{207D8157-85F7-4BD5-B29C-8A1E3C5A83A8}"/>
+    <hyperlink ref="C258" r:id="rId192" xr:uid="{8976F0A8-8133-40B7-A763-FE1CE3D13AE8}"/>
+    <hyperlink ref="C259" r:id="rId193" xr:uid="{5337B612-2F6D-445F-AA58-C37C3D33CC6C}"/>
+    <hyperlink ref="C260" r:id="rId194" xr:uid="{63D09A61-D23C-4CD9-99C4-82C4CB7C5EAF}"/>
+    <hyperlink ref="C261" r:id="rId195" xr:uid="{739897AF-134C-4228-B293-60A096563729}"/>
+    <hyperlink ref="C262" r:id="rId196" xr:uid="{C0A71285-0DCD-4942-9379-B16F9180F772}"/>
+    <hyperlink ref="C263" r:id="rId197" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{51A8E325-9ED8-4A6B-B492-16EFDE933020}"/>
+    <hyperlink ref="C264" r:id="rId198" xr:uid="{278EE160-4DAC-42ED-86CE-14CCF1E4ECBC}"/>
+    <hyperlink ref="C265" r:id="rId199" xr:uid="{40870473-18D3-4F40-86E3-1F1BBA0633FF}"/>
+    <hyperlink ref="C267" r:id="rId200" xr:uid="{4050F4DD-FC3A-4E98-8EDB-8B9008092C0E}"/>
+    <hyperlink ref="C268" r:id="rId201" xr:uid="{1A837CDF-DE06-4E04-9BD2-AA85BA8A966B}"/>
+    <hyperlink ref="C269" r:id="rId202" xr:uid="{07C1FA89-A4A9-4D60-BAAA-901E902ACDE9}"/>
+    <hyperlink ref="C270" r:id="rId203" xr:uid="{99221B05-418F-40C6-90EF-246AABE49876}"/>
+    <hyperlink ref="C271" r:id="rId204" xr:uid="{731F22C1-442F-438B-AE5D-DF91D3D5BB63}"/>
+    <hyperlink ref="C272" r:id="rId205" xr:uid="{F0794642-3157-4D34-B557-CE1F6A59FA1F}"/>
+    <hyperlink ref="C273" r:id="rId206" xr:uid="{1A5AA713-6B13-4746-A315-08AF758554BD}"/>
+    <hyperlink ref="C274" r:id="rId207" xr:uid="{220EA885-0DC9-42EA-9577-03B557E058E1}"/>
+    <hyperlink ref="C275" r:id="rId208" xr:uid="{CE868FDE-0CB9-4A65-8E16-EDEF7034E48E}"/>
+    <hyperlink ref="C276" r:id="rId209" xr:uid="{AF44E60F-04DB-47A4-A1FB-CA6E8D90D11B}"/>
+    <hyperlink ref="C282" r:id="rId210" xr:uid="{6786754C-9D76-4797-862E-BC1116D06220}"/>
+    <hyperlink ref="C283" r:id="rId211" xr:uid="{3B1B0213-65CB-46A5-A8E2-D9E662B9D470}"/>
+    <hyperlink ref="C284" r:id="rId212" xr:uid="{C6488098-F7BF-4A70-A705-220F7BBCD7DA}"/>
+    <hyperlink ref="C285" r:id="rId213" xr:uid="{297A8CAE-9739-496E-8A52-249ABA2FAC46}"/>
+    <hyperlink ref="C286" r:id="rId214" xr:uid="{E19BE705-E4C7-4B3E-AF94-CA4363FA0A12}"/>
+    <hyperlink ref="C287" r:id="rId215" xr:uid="{0B22C47A-5A86-4C9F-BE83-C939C064EEF9}"/>
+    <hyperlink ref="C289" r:id="rId216" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{4C8D4158-4CF4-43FE-BD8C-785FE252C6F7}"/>
+    <hyperlink ref="C290" r:id="rId217" xr:uid="{13985F51-2B5B-4B7D-A896-C9AC6DEA8915}"/>
+    <hyperlink ref="C293" r:id="rId218" xr:uid="{4D194405-97BB-4CAB-A24F-9DB70129FB9D}"/>
+    <hyperlink ref="C294" r:id="rId219" xr:uid="{509B9D4B-9ED1-4F25-9709-587AF7A7FEB7}"/>
+    <hyperlink ref="C295" r:id="rId220" xr:uid="{75B4B854-D7EF-4DF3-BFC8-66A69F375BD8}"/>
+    <hyperlink ref="C297" r:id="rId221" xr:uid="{1C700EE3-6BA6-47C9-9DAE-D8BAE1AD5087}"/>
+    <hyperlink ref="C298" r:id="rId222" xr:uid="{05FDB6AA-ABFB-42F7-B157-21948F615E58}"/>
+    <hyperlink ref="C299" r:id="rId223" xr:uid="{BFEB3750-31DD-4D4E-B6D3-0310236E89BB}"/>
+    <hyperlink ref="C301" r:id="rId224" xr:uid="{4A90CAA3-E88A-4E4E-925C-B43E51E281E2}"/>
+    <hyperlink ref="C302" r:id="rId225" xr:uid="{35B4ED30-D52D-40BB-B871-8AEEABF7A789}"/>
+    <hyperlink ref="C303" r:id="rId226" xr:uid="{8B2EB790-2B2E-441A-A060-E3E7E3A48C41}"/>
+    <hyperlink ref="C306" r:id="rId227" xr:uid="{0FB9BD64-4863-4982-89B4-0E2304055EE7}"/>
+    <hyperlink ref="C307" r:id="rId228" xr:uid="{45A3CA2F-DC37-4014-AC6A-EB4199150CC5}"/>
+    <hyperlink ref="C308" r:id="rId229" xr:uid="{90DC3E68-6CAA-4CD2-84DA-FAFD51B6B8A7}"/>
+    <hyperlink ref="C309" r:id="rId230" xr:uid="{45777D8D-032B-46CD-B3DD-3D13C486B48D}"/>
+    <hyperlink ref="C310" r:id="rId231" xr:uid="{130CFB4A-92E3-46C3-A094-2CD998A95580}"/>
+    <hyperlink ref="C311" r:id="rId232" xr:uid="{BA1963B1-AF90-4EAE-BDF6-12AC1765DE28}"/>
+    <hyperlink ref="C312" r:id="rId233" xr:uid="{2B84E9CB-7BD5-481A-B5F9-F1C974A0BC2B}"/>
+    <hyperlink ref="C317" r:id="rId234" xr:uid="{21BB83E1-78E9-4448-99DE-B3AE27780243}"/>
+    <hyperlink ref="C318" r:id="rId235" xr:uid="{B420CAE3-0FC4-4955-94CB-B4A65D7B7E86}"/>
+    <hyperlink ref="C319" r:id="rId236" xr:uid="{47B9C89D-D1EC-4494-B1E4-47255C7CE373}"/>
+    <hyperlink ref="C320" r:id="rId237" xr:uid="{B1E328BF-CEA9-4E6F-9F90-AE04F65025DE}"/>
+    <hyperlink ref="C321" r:id="rId238" xr:uid="{D4F82C25-0B4A-4185-8E35-157977D70606}"/>
+    <hyperlink ref="C322" r:id="rId239" xr:uid="{3205DEFE-CD55-4725-9A3D-86CFF0FDFA30}"/>
+    <hyperlink ref="C323" r:id="rId240" xr:uid="{40FA74BA-B820-4136-B392-F9F8F504267B}"/>
+    <hyperlink ref="C324" r:id="rId241" xr:uid="{FAE50917-BF6F-4234-9280-10A7FBBA0FC9}"/>
+    <hyperlink ref="C325" r:id="rId242" xr:uid="{7047B996-6932-4D6A-A9A5-C39E3C50AE27}"/>
+    <hyperlink ref="C326" r:id="rId243" xr:uid="{9C37E5AE-7959-4EE5-9D61-8F14465476DE}"/>
+    <hyperlink ref="C327" r:id="rId244" xr:uid="{C3D24463-4065-49C6-9F70-BBE3EA16AA50}"/>
+    <hyperlink ref="C328" r:id="rId245" xr:uid="{C76425DE-06DD-422F-8C35-53F228C52C10}"/>
+    <hyperlink ref="C329" r:id="rId246" xr:uid="{39C00367-46CD-4DA0-845A-E6E2E094BC9F}"/>
+    <hyperlink ref="C330" r:id="rId247" xr:uid="{6315BD74-1D0F-439C-A78F-78CC49BA4250}"/>
+    <hyperlink ref="C331" r:id="rId248" xr:uid="{96E8AA18-2E4C-4ED1-B230-12E35AF652A2}"/>
+    <hyperlink ref="C332" r:id="rId249" xr:uid="{46175E80-242F-46B9-833C-AE016E398644}"/>
+    <hyperlink ref="C333" r:id="rId250" xr:uid="{FE7F5923-0554-4215-ADEE-3663D2EE1418}"/>
+    <hyperlink ref="C334" r:id="rId251" xr:uid="{2B481716-4EA3-43CF-8FE1-D6424ECE463F}"/>
+    <hyperlink ref="C336" r:id="rId252" xr:uid="{E01CBDF6-C64B-4C0A-9190-77862567100D}"/>
+    <hyperlink ref="C337" r:id="rId253" xr:uid="{30006401-7162-4E07-A8D9-D47569486DFA}"/>
+    <hyperlink ref="C338" r:id="rId254" xr:uid="{524DAEB3-C2AA-4BB4-95C2-121896D9CA15}"/>
+    <hyperlink ref="C339" r:id="rId255" xr:uid="{B658B02D-B70E-4066-B14F-BAC83596CFCF}"/>
+    <hyperlink ref="C340" r:id="rId256" xr:uid="{33629FAD-2029-470E-97F5-E15399739662}"/>
+    <hyperlink ref="C341" r:id="rId257" xr:uid="{EFD89737-4964-48C5-8A3D-55E631020DD9}"/>
+    <hyperlink ref="C342" r:id="rId258" xr:uid="{70562AF4-6C29-44D9-858A-99971BDE00DE}"/>
+    <hyperlink ref="C343" r:id="rId259" xr:uid="{44DB672C-66B3-475C-BD43-3B0392EA3D39}"/>
+    <hyperlink ref="C344" r:id="rId260" xr:uid="{C0590949-F4F6-4C6E-8526-134E7AF54106}"/>
+    <hyperlink ref="C347" r:id="rId261" xr:uid="{56D2FD7A-99DA-4857-A954-6A261A53C47A}"/>
+    <hyperlink ref="C348" r:id="rId262" xr:uid="{2FA36A81-6D02-4254-8051-ED4DCC14D1A1}"/>
+    <hyperlink ref="C349" r:id="rId263" xr:uid="{81EE34B0-A16B-4824-8E0E-0D415ED5AC1C}"/>
+    <hyperlink ref="C350" r:id="rId264" xr:uid="{6E62A7CA-1D6E-461E-8DA4-F429AECA3F40}"/>
+    <hyperlink ref="C351" r:id="rId265" xr:uid="{88187ED4-524D-4550-BC01-F4863E9F84A0}"/>
+    <hyperlink ref="C352" r:id="rId266" xr:uid="{EA969F9F-F582-4FFC-A198-E59B528A5614}"/>
+    <hyperlink ref="C353" r:id="rId267" xr:uid="{6E8591C8-A674-4BCB-8409-F046C48EF62C}"/>
+    <hyperlink ref="C354" r:id="rId268" xr:uid="{9CDB14F9-6208-4561-9A46-46AF4F7C8778}"/>
+    <hyperlink ref="C355" r:id="rId269" xr:uid="{35D3EEBD-9F40-42D0-8C35-A47DBDFCA548}"/>
+    <hyperlink ref="C356" r:id="rId270" xr:uid="{1D81803B-04B8-4473-81FB-155D33D9F17D}"/>
+    <hyperlink ref="C357" r:id="rId271" xr:uid="{9C861BE1-47E2-4059-8889-602FFBA94D7F}"/>
+    <hyperlink ref="C358" r:id="rId272" xr:uid="{D67BE581-F019-4A92-9FE0-EA5E5D486751}"/>
+    <hyperlink ref="C359" r:id="rId273" xr:uid="{BB9118D2-7A12-4D9C-BB43-960B7CB87CA0}"/>
+    <hyperlink ref="C360" r:id="rId274" xr:uid="{43AA3472-A880-4FE4-B898-3AA1F2E429F1}"/>
+    <hyperlink ref="C361" r:id="rId275" xr:uid="{0625BB18-ECDB-47CB-9CFF-DD07210D21DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId276"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62F124-FB46-40B5-A286-DEA862B121C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA6B66-4F5E-4E6B-8BF2-724B07975C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="303">
   <si>
     <t>Timestamp</t>
   </si>
@@ -936,6 +936,12 @@
   </si>
   <si>
     <t>https://ag202332855.github.io/myfirstpage/</t>
+  </si>
+  <si>
+    <t>eg20230327@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://enjy123456.github.io/My-first-webpage/</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1273,12 +1279,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1434,6 +1470,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1751,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:C361"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362:C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,6 +5298,14 @@
       </c>
       <c r="C361" s="58" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C362" s="60" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5535,9 +5585,10 @@
     <hyperlink ref="C359" r:id="rId273" xr:uid="{BB9118D2-7A12-4D9C-BB43-960B7CB87CA0}"/>
     <hyperlink ref="C360" r:id="rId274" xr:uid="{43AA3472-A880-4FE4-B898-3AA1F2E429F1}"/>
     <hyperlink ref="C361" r:id="rId275" xr:uid="{0625BB18-ECDB-47CB-9CFF-DD07210D21DF}"/>
+    <hyperlink ref="C362" r:id="rId276" xr:uid="{4FB63479-51EE-400D-94E0-9471AF25D9DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId276"/>
+  <pageSetup orientation="portrait" r:id="rId277"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6537CE-A754-654C-BF77-86D434A6F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13278165-DDE9-844D-AD89-612DCE58642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3120" yWindow="1300" windowWidth="21440" windowHeight="11160" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="429">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1303,6 +1303,24 @@
   </si>
   <si>
     <t>https://mohamed55249.github.io/page2/</t>
+  </si>
+  <si>
+    <t>ra20230338@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>om20230295@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mora2811.github.io/My-first-webege/</t>
+  </si>
+  <si>
+    <t>kh20232232@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://karimhamedo.github.io/My-first-webpage-/</t>
+  </si>
+  <si>
+    <t>https://rahma44446.github.io/Rahma/</t>
   </si>
 </sst>
 </file>
@@ -2087,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:C493"/>
+    <sheetView tabSelected="1" topLeftCell="B862" workbookViewId="0">
+      <selection activeCell="B870" sqref="B870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6648,6 +6666,3028 @@
       </c>
       <c r="C493" s="23" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" t="s">
+        <v>307</v>
+      </c>
+      <c r="C494" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C496" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" s="56">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C498" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C500" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C501" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C502" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B503" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C503" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B504" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C504" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B506" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C506" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B507" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C507" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B508" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B509" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C509" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C510" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B512" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C512" s="57"/>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B513" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C513" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C514" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C515" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B516" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C516" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C517" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B518" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C518" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C519" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C520" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B521" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C521" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B522" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C522" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B523" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C523" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B524" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C524" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C525" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C526" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C527" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C529" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C530" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C531" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C532" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C533" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C534" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C535" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C536" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C537" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C538" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C540" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C541" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C542" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C543" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C544" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B545" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C545" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C546" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C548" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C549" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C550" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C552" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C553" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C554" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C555" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C556" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C557" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C558" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C559" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C561" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C562" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C563" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B564" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C564" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B565" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C565" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C566" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B567" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C567" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C568" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B569" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C569" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C570" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B571" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C571" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B572" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C572" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B573" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C573" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C574" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B575" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C575" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B576" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C576" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B577" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C577" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B578" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C578" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B579" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C579" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B580" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C580" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B581" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C581" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B582" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C582" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B583" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C583" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B584" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C584" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B585" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C585" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B586" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C586" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B587" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C587" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B588" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C588" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B589" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C589" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B590" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C590" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B591" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C591" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B592" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C592" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C593" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C594" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B595" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C595" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B596" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C596" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B597" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C597" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B598" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C598" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C599" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B600" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C600" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B601" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C601" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B602" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C602" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B603" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C603" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B604" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C604" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B605" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B606" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C606" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C607" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B608" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B609" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C609" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B610" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C610" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B611" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C611" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B612" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C612" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B613" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C613" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B614" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C614" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B615" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C615" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="616" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B616" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C616" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="617" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B617" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C617" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="618" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B618" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C618" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="619" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B619" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C619" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B620" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C620" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="621" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B621" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C621" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B622" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C622" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="623" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B623" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C623" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="624" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B624" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C624" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B625" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C625" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B626" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C626" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B627" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C627" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B628" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C628" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B629" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C629" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B630" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C630" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B631" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C631" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B632" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C632" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B633" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C633" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B634" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C634" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B635" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C635" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B636" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C636" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B637" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C637" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B638" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C638" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B639" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C639" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B640" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C640" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B641" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C641" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B642" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C642" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B643" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C643" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B644" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C644" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B645" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C645" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B646" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C646" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B647" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C647" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B648" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C648" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B649" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C649" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B650" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C650" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B651" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C651" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B652" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C652" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B653" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C653" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B654" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C654" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B655" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C655" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B656" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C656" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B657" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C657" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B658" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C658" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="659" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B659" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C659" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B660" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C660" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B661" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C661" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B662" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C662" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B663" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C663" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="664" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B664" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C664" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="665" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B665" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C665" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="666" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B666" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C666" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="667" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B667" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C667" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="668" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B668" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C668" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="669" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B669" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C669" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="670" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B670" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C670" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="671" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B671" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C671" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="672" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B672" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C672" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B673" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C673" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="674" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B674" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C674" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="675" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B675" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C675" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="676" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B676" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C676" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="677" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B677" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C677" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="678" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B678" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C678" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="679" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B679" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C679" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="680" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B680" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C680" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B681" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C681" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="682" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B682" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C682" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="683" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B683" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C683" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="684" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B684" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C684" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B685" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C685" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B686" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C686" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B687" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C687" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="688" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B688" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C688" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B689" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C689" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="690" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B690" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C690" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="691" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B691" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C691" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="692" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B692" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C692" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="693" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B693" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C693" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="694" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B694" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C694" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="695" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B695" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C695" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="696" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B696" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C696" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="697" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B697" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C697" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="698" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B698" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C698" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="699" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B699" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C699" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="700" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B700" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C700" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="701" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B701" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C701" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="702" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B702" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C702" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="703" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B703" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C703" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="704" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B704" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C704" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="705" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B705" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C705" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B706" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C706" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="707" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B707" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C707" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="708" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B708" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C708" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="709" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B709" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C709" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B710" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C710" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="711" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B711" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C711" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="712" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B712" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C712" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="713" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B713" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C713" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="714" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B714" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C714" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="715" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B715" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C715" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="716" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B716" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C716" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="717" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B717" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C717" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B718" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C718" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="719" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B719" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C719" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="720" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B720" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C720" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="721" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B721" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C721" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="722" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B722" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C722" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="723" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B723" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C723" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="724" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B724" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C724" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="725" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B725" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C725" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="726" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B726" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C726" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="727" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B727" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C727" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="728" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B728" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C728" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="729" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B729" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C729" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="730" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B730" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C730" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="731" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B731" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C731" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="732" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B732" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C732" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="733" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B733" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C733" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="734" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B734" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C734" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="735" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B735" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C735" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="736" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B736" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C736" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B737" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C737" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="738" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B738" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C738" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B739" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C739" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B740" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C740" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B741" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C741" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B742" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C742" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B743" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C743" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B744" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C744" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B745" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C745" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B746" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C746" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B747" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C747" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B748" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C748" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B749" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C749" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B750" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C750" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B751" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C751" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B752" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C752" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="753" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B753" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C753" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="754" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B754" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C754" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="755" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B755" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C755" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="756" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B756" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C756" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="757" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B757" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C757" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="758" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B758" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C758" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="759" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B759" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C759" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="760" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B760" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C760" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="761" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B761" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C761" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="762" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B762" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C762" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="763" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B763" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C763" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="764" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B764" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C764" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="765" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B765" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C765" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="766" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B766" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C766" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="767" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B767" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C767" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="768" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B768" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C768" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="769" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B769" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C769" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="770" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B770" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C770" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="771" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B771" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C771" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="772" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B772" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C772" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="773" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B773" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C773" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="774" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B774" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C774" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="775" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B775" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C775" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="776" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B776" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C776" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="777" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B777" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C777" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="778" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B778" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C778" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="779" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B779" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C779" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="780" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B780" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C780" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="781" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B781" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C781" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="782" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B782" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C782" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="783" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B783" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C783" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="784" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B784" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C784" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="785" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B785" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C785" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="786" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B786" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C786" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="787" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B787" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C787" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="788" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B788" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C788" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="789" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B789" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C789" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="790" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B790" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C790" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="791" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B791" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C791" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="792" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B792" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C792" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="793" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B793" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C793" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="794" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B794" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C794" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="795" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B795" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C795" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="796" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B796" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C796" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="797" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B797" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C797" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="798" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B798" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C798" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="799" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B799" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C799" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="800" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B800" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C800" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="801" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B801" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C801" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="802" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B802" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C802" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="803" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B803" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C803" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="804" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B804" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C804" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="805" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B805" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C805" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="806" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B806" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C806" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="807" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B807" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C807" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="808" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B808" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C808" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="809" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B809" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C809" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="810" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B810" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C810" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="811" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B811" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C811" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="812" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B812" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C812" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="813" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B813" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C813" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="814" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B814" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C814" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="815" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B815" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C815" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="816" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B816" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C816" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="817" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B817" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C817" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="818" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B818" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C818" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B819" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C819" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B820" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C820" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B821" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C821" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="822" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B822" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C822" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="823" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B823" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C823" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="824" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B824" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C824" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="825" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B825" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C825" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="826" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B826" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C826" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="827" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B827" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C827" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="828" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B828" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C828" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="829" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B829" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C829" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="830" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B830" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C830" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="831" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B831" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C831" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="832" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B832" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C832" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="833" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B833" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C833" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="834" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B834" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C834" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="835" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B835" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C835" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="836" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B836" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C836" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="837" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B837" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C837" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="838" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B838" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C838" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="839" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B839" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C839" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="840" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B840" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C840" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="841" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B841" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C841" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="842" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B842" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C842" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="843" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B843" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C843" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="844" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B844" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C844" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="845" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B845" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C845" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="846" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B846" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C846" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="847" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B847" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C847" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="848" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B848" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C848" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="849" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B849" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C849" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="850" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B850" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C850" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="851" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B851" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C851" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="852" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B852" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C852" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="853" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B853" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C853" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="854" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B854" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C854" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="855" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B855" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C855" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="856" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B856" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C856" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="857" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B857" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C857" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="858" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B858" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C858" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="859" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B859" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C859" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="860" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B860" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C860" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="861" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B861" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C861" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="862" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B862" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C862" s="59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="863" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B863" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C863" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="864" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B864" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C864" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="865" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B865" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C865" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="866" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B866" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C866" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="867" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B867" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C867" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="868" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B868" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C868" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="869" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B869" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C869" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="870" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B870" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C870" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="871" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B871" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C871" s="23" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -7049,9 +10089,324 @@
     <hyperlink ref="C491" r:id="rId395" xr:uid="{18CE9324-6D58-1345-8F56-737A5BA93ED7}"/>
     <hyperlink ref="C492" r:id="rId396" xr:uid="{9246A089-E93A-2E4B-8017-DE5EAAAAD0AF}"/>
     <hyperlink ref="C493" r:id="rId397" xr:uid="{4841BBD6-E32C-1243-8B97-D7807446CEBF}"/>
+    <hyperlink ref="C495" r:id="rId398" xr:uid="{74B13ED3-06C1-8B45-8AE1-AEDF8842414B}"/>
+    <hyperlink ref="C498" r:id="rId399" xr:uid="{B999DDD4-A023-914F-A53D-5241CE6E5BDD}"/>
+    <hyperlink ref="C502" r:id="rId400" xr:uid="{F95E3FA3-B2B0-3646-B854-F3ACD07B609B}"/>
+    <hyperlink ref="C504" r:id="rId401" xr:uid="{F084B8DD-00D6-BE4D-A67A-D93CAD7E8DC0}"/>
+    <hyperlink ref="C505" r:id="rId402" xr:uid="{3C1BA226-9336-6348-BC88-D67710DAC8FC}"/>
+    <hyperlink ref="C511" r:id="rId403" xr:uid="{A2BB6890-53D1-F241-8031-B84BF45A0F97}"/>
+    <hyperlink ref="C513" r:id="rId404" xr:uid="{9C7B2DFE-C876-AA4D-BA4F-63370F7779E0}"/>
+    <hyperlink ref="C517" r:id="rId405" xr:uid="{F19FB894-92A0-964F-BCDE-6613B8043CB1}"/>
+    <hyperlink ref="C518" r:id="rId406" xr:uid="{1EE352EF-0394-B54E-85C1-A9204EE84CE8}"/>
+    <hyperlink ref="C519" r:id="rId407" xr:uid="{A40CB117-948B-9B41-A27A-7FED70B4A522}"/>
+    <hyperlink ref="C520" r:id="rId408" xr:uid="{CB6B29D9-DE0F-9847-ABE2-CCB9E87E1DD2}"/>
+    <hyperlink ref="C521" r:id="rId409" xr:uid="{1D773804-46F1-0E42-99D8-8FFA748DDCF2}"/>
+    <hyperlink ref="C522" r:id="rId410" xr:uid="{426E6F98-33EB-B646-A99B-0C677F23E044}"/>
+    <hyperlink ref="C523" r:id="rId411" xr:uid="{9DC7E02E-2F35-F745-A6F7-44A093F51E47}"/>
+    <hyperlink ref="C524" r:id="rId412" xr:uid="{0E938912-EC9E-7D4B-9453-6540087CB518}"/>
+    <hyperlink ref="C525" r:id="rId413" xr:uid="{8C0BD2F2-C5BC-EA4B-AA23-F606DB01F6E7}"/>
+    <hyperlink ref="C528" r:id="rId414" xr:uid="{2D9290A8-7F43-A841-B74E-C71EC1E49A99}"/>
+    <hyperlink ref="C529" r:id="rId415" xr:uid="{2A39C0AB-E132-3740-8C6F-E532D15448A4}"/>
+    <hyperlink ref="C530" r:id="rId416" xr:uid="{669358E4-D95B-544F-814C-ED433558D9AA}"/>
+    <hyperlink ref="C531" r:id="rId417" xr:uid="{5C80651D-3166-9043-B290-53095D815D4B}"/>
+    <hyperlink ref="C532" r:id="rId418" xr:uid="{20D82660-B21D-D14F-ACDF-A6D341AE8DD3}"/>
+    <hyperlink ref="C535" r:id="rId419" xr:uid="{8B98AAF6-26F4-4B43-9FB9-C36BD540773D}"/>
+    <hyperlink ref="C537" r:id="rId420" xr:uid="{767893E7-28A0-C84B-A9AF-F8065B06C2FA}"/>
+    <hyperlink ref="C539" r:id="rId421" xr:uid="{C730F8D5-067C-C248-9799-1F5378345166}"/>
+    <hyperlink ref="C540" r:id="rId422" xr:uid="{0E88649C-76B0-4C40-A240-48804E3191DF}"/>
+    <hyperlink ref="C542" r:id="rId423" xr:uid="{1AC9C7B3-5760-DD43-9A19-C5C249DB432C}"/>
+    <hyperlink ref="C543" r:id="rId424" xr:uid="{55F28C17-ACCC-A64B-B94B-25A7A9BD98BD}"/>
+    <hyperlink ref="C545" r:id="rId425" xr:uid="{9CCCD11C-B663-004F-B606-FEEF93576529}"/>
+    <hyperlink ref="C546" r:id="rId426" xr:uid="{FAE16C0F-0D46-F149-8360-0462BE852A9E}"/>
+    <hyperlink ref="C547" r:id="rId427" xr:uid="{1B1F30DC-F2D5-0748-8EEE-FF93AC08DCCD}"/>
+    <hyperlink ref="C548" r:id="rId428" xr:uid="{A53A4C09-784F-154B-A3CB-6AD1FCA57857}"/>
+    <hyperlink ref="C550" r:id="rId429" xr:uid="{7C6C069E-22DA-7047-9318-0AA17B9542E6}"/>
+    <hyperlink ref="C552" r:id="rId430" xr:uid="{6B7F5815-FD76-6B4F-AE02-7B8D363C0879}"/>
+    <hyperlink ref="C553" r:id="rId431" xr:uid="{865499CE-6D45-C344-8D24-CB5CF92B1680}"/>
+    <hyperlink ref="C555" r:id="rId432" xr:uid="{AC170FD0-D6BF-2F49-8607-626A7198C291}"/>
+    <hyperlink ref="C556" r:id="rId433" xr:uid="{1DE04D15-4397-B94F-A342-3A7203FE837D}"/>
+    <hyperlink ref="C557" r:id="rId434" xr:uid="{9D0BADFF-AB63-BA43-95B0-C9CC4EECB54E}"/>
+    <hyperlink ref="C558" r:id="rId435" xr:uid="{3807964D-6AA7-124C-A55E-B47676541CC3}"/>
+    <hyperlink ref="C559" r:id="rId436" xr:uid="{34D8C654-5559-2048-A243-84F35C160885}"/>
+    <hyperlink ref="C560" r:id="rId437" xr:uid="{4C9969D8-0804-DF40-A1D5-D257D9421B3C}"/>
+    <hyperlink ref="C563" r:id="rId438" xr:uid="{8AC53242-875B-D94A-B754-172AF26187E4}"/>
+    <hyperlink ref="C564" r:id="rId439" xr:uid="{A834F86A-A761-D041-846E-FFB5970AFD80}"/>
+    <hyperlink ref="C565" r:id="rId440" xr:uid="{10D945E1-DE2D-8245-BE5D-B8FBF12ED528}"/>
+    <hyperlink ref="C566" r:id="rId441" xr:uid="{51F95FF4-6B18-B544-B6F7-ED7763B8368E}"/>
+    <hyperlink ref="C567" r:id="rId442" xr:uid="{68FB4278-3011-554E-A187-A9F2C2BE4FA2}"/>
+    <hyperlink ref="C569" r:id="rId443" display="https://rahma5555.github.io/roro00/" xr:uid="{4608D915-8811-A941-9344-CCA77DDECCBA}"/>
+    <hyperlink ref="C570" r:id="rId444" xr:uid="{46D128D8-F6AB-B545-B465-448F8D63908F}"/>
+    <hyperlink ref="C571" r:id="rId445" xr:uid="{E8087904-B42D-7F4E-AAE1-C013AB2F3315}"/>
+    <hyperlink ref="C572" r:id="rId446" xr:uid="{29C7BEC6-CCD3-BD46-BA39-174F305FC4E5}"/>
+    <hyperlink ref="C573" r:id="rId447" xr:uid="{B6E935DD-4CFC-F84D-8AEE-25D5A5758295}"/>
+    <hyperlink ref="C574" r:id="rId448" xr:uid="{D20A79B0-E49C-6443-B5DC-4893A101EE7C}"/>
+    <hyperlink ref="C575" r:id="rId449" xr:uid="{D548D43C-563F-B147-BBF2-8BB54E0EAAF0}"/>
+    <hyperlink ref="C579" r:id="rId450" xr:uid="{99B3688B-1594-4B4E-9F5D-07FD929A141D}"/>
+    <hyperlink ref="C580" r:id="rId451" xr:uid="{9E23F0DF-E4AB-DA43-98F9-6A52737A153F}"/>
+    <hyperlink ref="C581" r:id="rId452" xr:uid="{CC819CFF-049C-894F-8026-00CE280C4232}"/>
+    <hyperlink ref="C582" r:id="rId453" xr:uid="{07528D65-23AE-9340-9E26-D3B4087C24DE}"/>
+    <hyperlink ref="C583" r:id="rId454" display="https://loloah20.githup.io/sva20/" xr:uid="{95699704-A4D4-C548-85CD-01DE7A0BF758}"/>
+    <hyperlink ref="C585" r:id="rId455" xr:uid="{E53E3F0D-B242-FC49-A30B-F2733D7518EB}"/>
+    <hyperlink ref="C586" r:id="rId456" xr:uid="{FA223E66-A729-5E47-944B-1D0EAD10C52F}"/>
+    <hyperlink ref="C587" r:id="rId457" xr:uid="{19CFEAD6-1417-0441-8260-30D8D35C33E5}"/>
+    <hyperlink ref="C589" r:id="rId458" xr:uid="{0D42C9A8-E8E9-AF44-9F50-70A9F17A9EB1}"/>
+    <hyperlink ref="C590" r:id="rId459" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{FAE4F01F-1D20-BA46-97C4-A4E6D526B0F1}"/>
+    <hyperlink ref="C591" r:id="rId460" xr:uid="{A903D984-A05E-6446-B8EC-E994A720CB29}"/>
+    <hyperlink ref="C592" r:id="rId461" xr:uid="{C90D8028-A625-2246-9C1C-D9AFD78DF1E7}"/>
+    <hyperlink ref="C593" r:id="rId462" xr:uid="{66D3753C-7FE4-2843-8E2B-96DC452442AB}"/>
+    <hyperlink ref="C594" r:id="rId463" xr:uid="{1C6657F5-DD75-CA49-B72C-4B3601EE87F6}"/>
+    <hyperlink ref="C595" r:id="rId464" xr:uid="{B96202F8-235F-6341-87B6-0FB2D94CBEB6}"/>
+    <hyperlink ref="C596" r:id="rId465" xr:uid="{6F0FCADB-0935-C946-9A1E-B507F4BA00D4}"/>
+    <hyperlink ref="C597" r:id="rId466" display="https://basant1512006.github.io/basant-walid/" xr:uid="{D9E7BCB4-CED4-4B47-8B7F-6BD5B8EED424}"/>
+    <hyperlink ref="C598" r:id="rId467" xr:uid="{A8F758D5-9DBF-7143-8EF4-73A084CB3B5E}"/>
+    <hyperlink ref="C599" r:id="rId468" xr:uid="{B1E13EBA-FF43-B745-92B4-326AC307DE5B}"/>
+    <hyperlink ref="C600" r:id="rId469" xr:uid="{62ADA45B-90C2-1147-86E8-E99D11B28FC4}"/>
+    <hyperlink ref="C602" r:id="rId470" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{99C2B5BC-947A-6B4E-AAD9-C031F986D196}"/>
+    <hyperlink ref="C603" r:id="rId471" xr:uid="{6F33BC03-9C92-4543-9EDB-4FB85A17B9CE}"/>
+    <hyperlink ref="C604" r:id="rId472" xr:uid="{2A0ECEEB-D7B5-0A47-A4B9-066C42230E0D}"/>
+    <hyperlink ref="C605" r:id="rId473" xr:uid="{C00FB4DC-28DC-0E4E-B0D6-0C16FF85A289}"/>
+    <hyperlink ref="C606" r:id="rId474" xr:uid="{07169B71-50A5-7040-BF62-BF01F2E52633}"/>
+    <hyperlink ref="C607" r:id="rId475" xr:uid="{94B6584A-5DF4-8042-BE63-CE5E1C3932E1}"/>
+    <hyperlink ref="C608" r:id="rId476" xr:uid="{421280A5-AE62-CC4A-A491-736042C27DA1}"/>
+    <hyperlink ref="C609" r:id="rId477" xr:uid="{07E1B226-3F01-4845-931B-1460CEF9C6CB}"/>
+    <hyperlink ref="C610" r:id="rId478" xr:uid="{99765F3D-C2CA-CD49-B0EE-9B7E1C77B856}"/>
+    <hyperlink ref="C611" r:id="rId479" xr:uid="{7AAC5BCD-16F5-9541-9924-66D90DCF4DF7}"/>
+    <hyperlink ref="C612" r:id="rId480" xr:uid="{A4DA64B8-1095-864B-9EC1-4348C5A1EF7B}"/>
+    <hyperlink ref="C613" r:id="rId481" xr:uid="{EF9EDA53-9CF0-FF4B-A3DE-C75F4E5B66EF}"/>
+    <hyperlink ref="C614" r:id="rId482" xr:uid="{BE842D8B-F878-3440-84E6-C5C342617470}"/>
+    <hyperlink ref="C616" r:id="rId483" xr:uid="{A6DAD94E-C3FA-644F-A792-88E7F3696977}"/>
+    <hyperlink ref="C617" r:id="rId484" xr:uid="{360DE190-FEDF-C14E-8E49-7C515FADF98E}"/>
+    <hyperlink ref="C618" r:id="rId485" xr:uid="{1E9BA229-B0E0-3D42-89C0-EF3000C0BE66}"/>
+    <hyperlink ref="C619" r:id="rId486" xr:uid="{1C5A431A-EA02-6644-AF7C-01C737E54302}"/>
+    <hyperlink ref="C620" r:id="rId487" xr:uid="{0E9D11D9-E8F9-534B-9AC7-D049D61E290C}"/>
+    <hyperlink ref="C621" r:id="rId488" xr:uid="{9F2FC8FE-132F-3045-8F2F-3219FD332AB0}"/>
+    <hyperlink ref="C622" r:id="rId489" xr:uid="{42F9104E-6D0E-F94B-B0C0-769C10CE9C5C}"/>
+    <hyperlink ref="C623" r:id="rId490" xr:uid="{2F0AC334-7A27-9943-A6FC-284F63144CF5}"/>
+    <hyperlink ref="C624" r:id="rId491" xr:uid="{56A96B49-6324-044B-B684-CB69E77A6FD7}"/>
+    <hyperlink ref="C625" r:id="rId492" xr:uid="{010976A4-74F4-1048-A575-BFED03EDFD48}"/>
+    <hyperlink ref="C626" r:id="rId493" xr:uid="{E535A717-5907-FB40-91E8-FEE954F741C3}"/>
+    <hyperlink ref="C627" r:id="rId494" xr:uid="{34D2CE9D-6504-7E44-8BCD-4BF22EA84187}"/>
+    <hyperlink ref="C628" r:id="rId495" xr:uid="{70A7011B-21FC-BE4F-97C0-17647FD8B7BE}"/>
+    <hyperlink ref="C629" r:id="rId496" xr:uid="{9537FB2A-F238-1C45-8508-486BF00FF629}"/>
+    <hyperlink ref="C630" r:id="rId497" xr:uid="{42907CFD-C57A-AC4D-9341-80174F2CE35F}"/>
+    <hyperlink ref="C632" r:id="rId498" xr:uid="{92BF5CA2-0B04-E64D-8681-C3B2A7693CA1}"/>
+    <hyperlink ref="C633" r:id="rId499" xr:uid="{E61630FB-1BD8-E044-AD67-4EF7BB01B4A4}"/>
+    <hyperlink ref="C634" r:id="rId500" xr:uid="{9F232E90-2E94-4D43-969A-A31BD5C2ABCD}"/>
+    <hyperlink ref="C635" r:id="rId501" xr:uid="{B95D975F-5212-964A-9314-0476A734F07A}"/>
+    <hyperlink ref="C636" r:id="rId502" xr:uid="{F7A6AD9B-1243-FF40-BDC5-70A3AF01CC79}"/>
+    <hyperlink ref="C637" r:id="rId503" xr:uid="{EB54CBBC-4A23-394B-BB82-326AAB2CA37D}"/>
+    <hyperlink ref="C638" r:id="rId504" xr:uid="{D6C06F01-5186-2C4C-AA4F-538A5EA3917C}"/>
+    <hyperlink ref="C639" r:id="rId505" xr:uid="{7CF9FA6D-2669-574E-9153-0F0066DC5E7F}"/>
+    <hyperlink ref="C640" r:id="rId506" xr:uid="{06DC990B-D93B-544B-B749-FF14B951BD95}"/>
+    <hyperlink ref="C641" r:id="rId507" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{1B950E9F-400A-4245-834A-37AB02DCF2A6}"/>
+    <hyperlink ref="C642" r:id="rId508" xr:uid="{546C6622-52D3-024A-90B4-656439354B7E}"/>
+    <hyperlink ref="C643" r:id="rId509" xr:uid="{397045AF-66A5-0445-9C6F-FFE63F5445BF}"/>
+    <hyperlink ref="C645" r:id="rId510" xr:uid="{5D051C5C-1697-0045-B783-1B6F41C7F983}"/>
+    <hyperlink ref="C646" r:id="rId511" xr:uid="{93A21C07-E05B-614A-95F8-540912305298}"/>
+    <hyperlink ref="C647" r:id="rId512" xr:uid="{3164D400-435B-F541-A9E8-FB16989148B7}"/>
+    <hyperlink ref="C648" r:id="rId513" xr:uid="{02C514A8-68E1-1344-9B7C-1D457B402F8C}"/>
+    <hyperlink ref="C649" r:id="rId514" xr:uid="{F5511C12-9E8C-614E-BBA5-445320BE9A4D}"/>
+    <hyperlink ref="C650" r:id="rId515" xr:uid="{EB6FD2E1-7901-B14B-9429-B369621AAEDB}"/>
+    <hyperlink ref="C651" r:id="rId516" xr:uid="{D898AE95-96BC-B547-8B4B-391B3FA3DA97}"/>
+    <hyperlink ref="C652" r:id="rId517" xr:uid="{C0242A23-799E-3F46-91F1-65C22E682C6D}"/>
+    <hyperlink ref="C653" r:id="rId518" xr:uid="{7DA48774-21B1-F84F-A421-C6ED3D3C124A}"/>
+    <hyperlink ref="C654" r:id="rId519" xr:uid="{F825023B-AE64-A442-A2F4-755758BA4366}"/>
+    <hyperlink ref="C660" r:id="rId520" xr:uid="{1772A079-1DA3-8D4B-899F-8A0B2424F48B}"/>
+    <hyperlink ref="C661" r:id="rId521" xr:uid="{E7D08885-463F-4842-801B-8FE4400E425F}"/>
+    <hyperlink ref="C662" r:id="rId522" xr:uid="{9697D7EF-4192-9D4C-BD14-72E6C50EE682}"/>
+    <hyperlink ref="C663" r:id="rId523" xr:uid="{1B5A074C-9A25-064C-B90E-265F2FF7D13B}"/>
+    <hyperlink ref="C664" r:id="rId524" xr:uid="{9E5031B1-8605-B44F-B462-4DEF06D96127}"/>
+    <hyperlink ref="C665" r:id="rId525" xr:uid="{7CFB6358-9066-4641-BC16-C7F5BF80F956}"/>
+    <hyperlink ref="C667" r:id="rId526" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{9449EB26-9DDA-7449-8C68-B05CF743EA09}"/>
+    <hyperlink ref="C668" r:id="rId527" xr:uid="{63FC5909-0D20-4542-A974-C80702C10C12}"/>
+    <hyperlink ref="C671" r:id="rId528" xr:uid="{52DC8160-71CE-E143-8F54-370F9AC7A316}"/>
+    <hyperlink ref="C672" r:id="rId529" xr:uid="{6481206E-231F-CE44-AC21-A790AE02DFB1}"/>
+    <hyperlink ref="C673" r:id="rId530" xr:uid="{5DC8299D-0CE8-C14A-95D8-B7F39050F989}"/>
+    <hyperlink ref="C675" r:id="rId531" xr:uid="{CB83CB9A-C162-024E-A942-16A66ABF3C94}"/>
+    <hyperlink ref="C676" r:id="rId532" xr:uid="{9509CB9E-4DA5-FE4B-994C-AD3DD4180DC6}"/>
+    <hyperlink ref="C677" r:id="rId533" xr:uid="{D3CDC369-CE94-4048-BD01-6A6B00964AE2}"/>
+    <hyperlink ref="C679" r:id="rId534" xr:uid="{1293E651-19D5-1C4F-8E95-B9C550CD2F74}"/>
+    <hyperlink ref="C680" r:id="rId535" xr:uid="{BE1222CD-F93E-7344-8A64-DF192DBEB80E}"/>
+    <hyperlink ref="C681" r:id="rId536" xr:uid="{3C84D04C-1E18-794F-A0A9-435094544843}"/>
+    <hyperlink ref="C684" r:id="rId537" xr:uid="{5874852F-1391-F94D-B196-CFF7A9BC1127}"/>
+    <hyperlink ref="C685" r:id="rId538" xr:uid="{C93F354A-CF7F-B549-9845-3449C7F4F57E}"/>
+    <hyperlink ref="C686" r:id="rId539" xr:uid="{5180B39F-45A5-5240-9248-377E6521C632}"/>
+    <hyperlink ref="C687" r:id="rId540" xr:uid="{0F2BB159-0D41-0049-BC5B-350F902FC72C}"/>
+    <hyperlink ref="C688" r:id="rId541" xr:uid="{79207127-D10F-7048-994C-BBE132FE7D4D}"/>
+    <hyperlink ref="C689" r:id="rId542" xr:uid="{81B9571D-363E-3943-A6FD-0A117606E3D1}"/>
+    <hyperlink ref="C690" r:id="rId543" xr:uid="{B2E60C71-8DD0-FA43-8E66-BC671BC52089}"/>
+    <hyperlink ref="C695" r:id="rId544" xr:uid="{21DA4044-A0A6-214A-8358-7896FE801F17}"/>
+    <hyperlink ref="C696" r:id="rId545" xr:uid="{C6D08A37-834B-7A47-BD11-2B278040F2DB}"/>
+    <hyperlink ref="C697" r:id="rId546" xr:uid="{F7B50169-1DF6-724A-9519-59048D4CC678}"/>
+    <hyperlink ref="C698" r:id="rId547" xr:uid="{294A31B8-F3B6-A041-AE66-9DDD22675226}"/>
+    <hyperlink ref="C699" r:id="rId548" xr:uid="{32E9E1FD-53D0-E54A-9963-34FFA31AC50E}"/>
+    <hyperlink ref="C700" r:id="rId549" xr:uid="{3F6675FD-FE2F-F74A-8C8C-9121BB8A664E}"/>
+    <hyperlink ref="C701" r:id="rId550" xr:uid="{BCCEEC92-E1B8-B049-A1E8-BBFDD71AB2C8}"/>
+    <hyperlink ref="C702" r:id="rId551" xr:uid="{F7B08891-A005-8649-906E-925C2ACE108C}"/>
+    <hyperlink ref="C703" r:id="rId552" xr:uid="{A0ADC8ED-32FD-7740-B2FA-305F148F8901}"/>
+    <hyperlink ref="C704" r:id="rId553" xr:uid="{77C9E54D-5AB3-4642-812F-2526B3A55C50}"/>
+    <hyperlink ref="C705" r:id="rId554" xr:uid="{8969ECF3-CD15-D74A-B166-3ED01339683A}"/>
+    <hyperlink ref="C706" r:id="rId555" xr:uid="{6E096BF0-FFB7-514C-B216-74291652D250}"/>
+    <hyperlink ref="C707" r:id="rId556" xr:uid="{D27BCE8C-7547-9249-94D6-CD572085B33A}"/>
+    <hyperlink ref="C708" r:id="rId557" xr:uid="{8698A33A-8593-B146-B092-A21C73F68EDE}"/>
+    <hyperlink ref="C709" r:id="rId558" xr:uid="{053F1021-D082-1A4F-AB5A-0ECD96160334}"/>
+    <hyperlink ref="C710" r:id="rId559" xr:uid="{7BA2C067-9D93-AC44-8D32-C9399AA025CA}"/>
+    <hyperlink ref="C711" r:id="rId560" xr:uid="{ADF62103-F7FE-A84A-9058-7B4DE66E85DE}"/>
+    <hyperlink ref="C712" r:id="rId561" xr:uid="{015AE466-DFC9-B348-A4D2-7EECC59C6F94}"/>
+    <hyperlink ref="C714" r:id="rId562" xr:uid="{4D60765C-10AA-944C-A269-1E3AEE5CB619}"/>
+    <hyperlink ref="C715" r:id="rId563" xr:uid="{0FA545B2-C3E2-9240-9B50-F3757500DDF1}"/>
+    <hyperlink ref="C716" r:id="rId564" xr:uid="{6C897CF9-7652-E747-9AE1-DCDE24DBBAFB}"/>
+    <hyperlink ref="C717" r:id="rId565" xr:uid="{91D7A241-DB5F-6C4E-BC09-BAD5A918545A}"/>
+    <hyperlink ref="C718" r:id="rId566" xr:uid="{31893514-6803-B746-B4D8-CDDB07BA88E2}"/>
+    <hyperlink ref="C719" r:id="rId567" xr:uid="{CDDDF940-FEF1-FA4E-97FE-83CCE6A29C86}"/>
+    <hyperlink ref="C720" r:id="rId568" xr:uid="{AD2FBA2F-F81E-CD44-BE01-D10C685B1F94}"/>
+    <hyperlink ref="C721" r:id="rId569" xr:uid="{AB11106A-B7A3-214A-ADD4-8D442F37970E}"/>
+    <hyperlink ref="C722" r:id="rId570" xr:uid="{08E2C97A-16AD-E84E-95D4-C007B6106934}"/>
+    <hyperlink ref="C725" r:id="rId571" xr:uid="{2C12D48F-5E06-A246-8667-85E15BD6A14D}"/>
+    <hyperlink ref="C726" r:id="rId572" xr:uid="{FCAC32B6-CBCA-0D41-89FB-1074A2052566}"/>
+    <hyperlink ref="C727" r:id="rId573" xr:uid="{23D6980A-A8F4-A849-863E-0AE63C44FA74}"/>
+    <hyperlink ref="C728" r:id="rId574" xr:uid="{D30625FC-0061-0549-AEDA-FCE8D03DD08D}"/>
+    <hyperlink ref="C729" r:id="rId575" xr:uid="{B4EC82B5-EE20-2140-8250-219BE9A59FFC}"/>
+    <hyperlink ref="C730" r:id="rId576" xr:uid="{B53071DE-6521-DB4E-A707-1975D0E96A43}"/>
+    <hyperlink ref="C731" r:id="rId577" xr:uid="{4C5DCE47-EE33-FB4C-B726-BB831644E1C3}"/>
+    <hyperlink ref="C732" r:id="rId578" xr:uid="{6D4C4F6D-0087-6641-B914-B22A9E21989C}"/>
+    <hyperlink ref="C733" r:id="rId579" xr:uid="{5665C920-7C84-F44B-86AF-FA9CE676A0B3}"/>
+    <hyperlink ref="C734" r:id="rId580" xr:uid="{DBAA54A9-BF36-594F-A622-A3ADEAA5F65C}"/>
+    <hyperlink ref="C735" r:id="rId581" xr:uid="{6A363366-D191-EC4D-AAA1-939EA8EBFBD3}"/>
+    <hyperlink ref="C736" r:id="rId582" xr:uid="{83969096-6099-9144-849A-5442BBE17D5E}"/>
+    <hyperlink ref="C737" r:id="rId583" xr:uid="{3CFA5D9F-6274-FA44-BEFD-F44F79056145}"/>
+    <hyperlink ref="C738" r:id="rId584" xr:uid="{31E6E083-6941-4D43-B7E6-313F8F1F6F39}"/>
+    <hyperlink ref="C739" r:id="rId585" xr:uid="{9BA4938B-AEAA-674B-A16F-D7929DDFB3D5}"/>
+    <hyperlink ref="C740" r:id="rId586" xr:uid="{42E59BBE-E9AB-6947-BBB7-5B0048DCB51F}"/>
+    <hyperlink ref="C741" r:id="rId587" xr:uid="{3D7BD484-B68A-F643-AA42-B12C29141C30}"/>
+    <hyperlink ref="C742" r:id="rId588" xr:uid="{6953F737-55F5-9340-92DE-DDBE60C8B483}"/>
+    <hyperlink ref="C743" r:id="rId589" xr:uid="{D6C6DBCF-E780-FE4E-9824-1D84BD0A4448}"/>
+    <hyperlink ref="C744" r:id="rId590" xr:uid="{D2AFCB3C-0475-5D4A-B7C4-10A5D8E21184}"/>
+    <hyperlink ref="C745" r:id="rId591" xr:uid="{85A92635-BBAE-8A4E-AE11-389BB0305955}"/>
+    <hyperlink ref="C746" r:id="rId592" xr:uid="{B5C93DD0-1531-C648-8BAD-3C694B2E63EF}"/>
+    <hyperlink ref="C747" r:id="rId593" xr:uid="{D93B2389-435E-3F4C-9608-8B125A0BA592}"/>
+    <hyperlink ref="C748" r:id="rId594" xr:uid="{6DB02C3D-0F2E-5843-938B-F65DC68332FD}"/>
+    <hyperlink ref="C749" r:id="rId595" xr:uid="{D28E7876-16BF-0C49-A0AE-F8E45B8EEEA8}"/>
+    <hyperlink ref="C750" r:id="rId596" xr:uid="{B5A3BE3B-2002-8644-B402-3AF1BC5779DC}"/>
+    <hyperlink ref="C751" r:id="rId597" xr:uid="{F15E0144-56EB-464E-BE1C-087BDCB2F75B}"/>
+    <hyperlink ref="C752" r:id="rId598" xr:uid="{ECE95D3C-9F21-404A-8B4D-2E748F743FC1}"/>
+    <hyperlink ref="C754" r:id="rId599" xr:uid="{2DA3ED68-668A-7A47-BE79-335B637A4A0A}"/>
+    <hyperlink ref="C755" r:id="rId600" xr:uid="{C01F99D4-C330-AD44-859E-3EFFD54B361B}"/>
+    <hyperlink ref="C756" r:id="rId601" xr:uid="{7BDBA33E-C48A-414C-BBDB-BC56171080FF}"/>
+    <hyperlink ref="C757" r:id="rId602" xr:uid="{A7080806-7EAF-424D-886C-358E7AD7B253}"/>
+    <hyperlink ref="C758" r:id="rId603" xr:uid="{284751D0-E4C2-7C46-B704-2E52C565C98C}"/>
+    <hyperlink ref="C759" r:id="rId604" xr:uid="{7D55AF15-19D4-5241-A54E-3D68C1605710}"/>
+    <hyperlink ref="C760" r:id="rId605" xr:uid="{2EC8AE24-C306-6449-B238-54996E51D9E5}"/>
+    <hyperlink ref="C761" r:id="rId606" xr:uid="{F2323B29-276E-7243-89AC-C908982EC3F4}"/>
+    <hyperlink ref="C762" r:id="rId607" xr:uid="{E7B273F7-F858-1340-85F0-91F6E4223294}"/>
+    <hyperlink ref="C763" r:id="rId608" xr:uid="{3FCA25FC-E1D5-844A-B9D2-4FC1B5B878B9}"/>
+    <hyperlink ref="C764" r:id="rId609" xr:uid="{51DB095A-7C44-4A46-B3BC-5D846ECC52D3}"/>
+    <hyperlink ref="C765" r:id="rId610" xr:uid="{2D6B1CCF-640C-234A-B03A-76FE2C947E24}"/>
+    <hyperlink ref="C766" r:id="rId611" xr:uid="{2089FAE2-D1EB-7142-9EBC-D4211840B323}"/>
+    <hyperlink ref="C767" r:id="rId612" xr:uid="{428DD8F9-3E29-FC47-815F-8E84B90CDEC5}"/>
+    <hyperlink ref="C768" r:id="rId613" xr:uid="{E3ABDCE8-2321-5342-B8F2-CD4A948F1113}"/>
+    <hyperlink ref="C769" r:id="rId614" xr:uid="{DB0D4ADE-CEEF-684D-94AF-6DFB8597A7BC}"/>
+    <hyperlink ref="C770" r:id="rId615" xr:uid="{B44CAC56-6453-ED45-8EEC-18C5A473B0D4}"/>
+    <hyperlink ref="C771" r:id="rId616" xr:uid="{6E8A5E35-452A-5A49-AA8B-B4215C8D445E}"/>
+    <hyperlink ref="C772" r:id="rId617" xr:uid="{228783F3-092A-9D45-A5A8-C421154CFEBC}"/>
+    <hyperlink ref="C773" r:id="rId618" xr:uid="{20476EF3-9E14-8245-A4DC-CEB5780A529D}"/>
+    <hyperlink ref="C774" r:id="rId619" xr:uid="{8ABE4E4C-D10F-1544-9ABE-15C1B124EEE8}"/>
+    <hyperlink ref="C775" r:id="rId620" xr:uid="{365908D1-2BF4-324C-AE6E-C4D29B7B2FBB}"/>
+    <hyperlink ref="C776" r:id="rId621" xr:uid="{659A6103-0907-AF40-A6EE-6A881772A472}"/>
+    <hyperlink ref="C777" r:id="rId622" xr:uid="{86400A19-03FE-5E41-8F68-A00F43D5FB96}"/>
+    <hyperlink ref="C778" r:id="rId623" xr:uid="{337E134B-20D4-0C4C-ADCB-BB35B18C406C}"/>
+    <hyperlink ref="C779" r:id="rId624" xr:uid="{96624EEA-ACCC-D742-A392-39CF5C83A48A}"/>
+    <hyperlink ref="C780" r:id="rId625" xr:uid="{8E578044-F202-6648-8005-B7C4C5F240F5}"/>
+    <hyperlink ref="C781" r:id="rId626" xr:uid="{0162014A-6CC1-C04C-8BA6-405A14C0221E}"/>
+    <hyperlink ref="C782" r:id="rId627" xr:uid="{3E75EC0E-ECED-204E-BCDE-A593B8C56777}"/>
+    <hyperlink ref="C783" r:id="rId628" xr:uid="{312AEDCF-BE6D-9345-B277-95031EF2DEEF}"/>
+    <hyperlink ref="C784" r:id="rId629" xr:uid="{47ACF67E-622E-BB43-A1FA-F40AF2708B5F}"/>
+    <hyperlink ref="C785" r:id="rId630" xr:uid="{A54247A1-06F9-EA4A-9DF4-1461C44BDB15}"/>
+    <hyperlink ref="C786" r:id="rId631" xr:uid="{7A0EC9F8-B271-BB4D-8181-56BF924B12E8}"/>
+    <hyperlink ref="C787" r:id="rId632" xr:uid="{5D8C2139-55A5-324D-BE1E-56158D007C4B}"/>
+    <hyperlink ref="C788" r:id="rId633" xr:uid="{298C30F5-25C6-0441-829C-24C695CD085D}"/>
+    <hyperlink ref="C789" r:id="rId634" xr:uid="{47D7881A-6401-B748-ADF8-237D4CC4AA9E}"/>
+    <hyperlink ref="C790" r:id="rId635" xr:uid="{6D7364A8-D972-B84A-B16E-D507FAB605E1}"/>
+    <hyperlink ref="C791" r:id="rId636" xr:uid="{ABA6875B-39F7-7C4B-8035-7D670878EC71}"/>
+    <hyperlink ref="C793" r:id="rId637" xr:uid="{6356C75F-1A0A-E84E-B78F-23BA4FD4FDB8}"/>
+    <hyperlink ref="C794" r:id="rId638" xr:uid="{49DF494D-529D-A449-8B83-C67277337E7F}"/>
+    <hyperlink ref="C795" r:id="rId639" xr:uid="{B7C46D40-3840-4E48-B02A-90A5072108F1}"/>
+    <hyperlink ref="C796" r:id="rId640" xr:uid="{8A666991-9F80-0F44-958C-C4C289EEEC72}"/>
+    <hyperlink ref="C797" r:id="rId641" xr:uid="{54ADEA4D-EC25-8F47-BD68-899A08DA9A27}"/>
+    <hyperlink ref="C798" r:id="rId642" xr:uid="{4604F4AD-E539-FF4C-8502-763EB87ECD9D}"/>
+    <hyperlink ref="C799" r:id="rId643" xr:uid="{1E0028C2-406C-034D-B7B7-AE172D79EB49}"/>
+    <hyperlink ref="C800" r:id="rId644" xr:uid="{12D52E12-9652-F544-AF2E-491A744A94D0}"/>
+    <hyperlink ref="C801" r:id="rId645" xr:uid="{A7916DEB-CC1F-134F-BACA-8E480DF8D2F4}"/>
+    <hyperlink ref="C802" r:id="rId646" xr:uid="{8EE5C433-5040-4041-8F9E-FB6B30425D6F}"/>
+    <hyperlink ref="C803" r:id="rId647" xr:uid="{708D4B87-6405-1B4C-9C22-DFC0DDA1F560}"/>
+    <hyperlink ref="C804" r:id="rId648" xr:uid="{776A2D7A-7B7A-2949-B7A5-07925FB9CB12}"/>
+    <hyperlink ref="C805" r:id="rId649" xr:uid="{8B0B9F4C-4965-DA4D-A7AA-0170BCD99411}"/>
+    <hyperlink ref="C806" r:id="rId650" xr:uid="{006354C3-9260-694C-AE83-EA6BC27F0450}"/>
+    <hyperlink ref="C807" r:id="rId651" xr:uid="{0B0F4EB2-F887-2E40-AA79-8F642655658C}"/>
+    <hyperlink ref="C808" r:id="rId652" xr:uid="{B6EDC821-2818-C944-908C-CD89E00EBD04}"/>
+    <hyperlink ref="C809" r:id="rId653" xr:uid="{BD05DAA9-7969-2D49-BD8F-07CBD2F59F0C}"/>
+    <hyperlink ref="C810" r:id="rId654" xr:uid="{8E9B822A-7D65-5340-BB86-E99EC96B6646}"/>
+    <hyperlink ref="C811" r:id="rId655" xr:uid="{9DE883C5-7A37-8B4D-9C39-493AE580D615}"/>
+    <hyperlink ref="C812" r:id="rId656" xr:uid="{D95AD4E7-6C58-7147-9F11-1E1A6CDA015A}"/>
+    <hyperlink ref="C813" r:id="rId657" xr:uid="{24D8A17E-792C-A242-9665-A080FC7979D0}"/>
+    <hyperlink ref="C814" r:id="rId658" xr:uid="{6AB2146E-84AD-FC49-92B7-3B6C5686FBBB}"/>
+    <hyperlink ref="C815" r:id="rId659" xr:uid="{248D7C18-9AA2-2C4E-A8B8-B2B6A845E6A9}"/>
+    <hyperlink ref="C816" r:id="rId660" xr:uid="{EBD2CC4E-3936-4A46-8617-ADC8EA1E912B}"/>
+    <hyperlink ref="C817" r:id="rId661" xr:uid="{F1AEEA50-C58B-0246-AB36-D0165207801D}"/>
+    <hyperlink ref="C818" r:id="rId662" xr:uid="{4C1CA8DC-9EB8-644A-B1DB-C1D28D32369A}"/>
+    <hyperlink ref="C819" r:id="rId663" xr:uid="{D44A16D6-6166-624B-AB08-D6AD1F800B05}"/>
+    <hyperlink ref="C820" r:id="rId664" xr:uid="{E326BC3D-D854-5747-91BC-69CDF0904455}"/>
+    <hyperlink ref="C821" r:id="rId665" xr:uid="{EF242E2B-6BFA-A645-A91E-A99740D21360}"/>
+    <hyperlink ref="C822" r:id="rId666" xr:uid="{88F376D4-1139-0941-BCEB-BBBA77060688}"/>
+    <hyperlink ref="C823" r:id="rId667" xr:uid="{77A02597-EF31-424D-846F-148F7826E372}"/>
+    <hyperlink ref="C824" r:id="rId668" xr:uid="{CE39AE48-E8FC-9C40-B5DA-DBB3773B37DB}"/>
+    <hyperlink ref="C825" r:id="rId669" xr:uid="{A18DEA10-7625-484A-885B-D44FA0F52045}"/>
+    <hyperlink ref="C826" r:id="rId670" xr:uid="{0A6A5841-6E81-404B-9B66-D63ED8F869D7}"/>
+    <hyperlink ref="C827" r:id="rId671" xr:uid="{8CDE6720-D3F0-3644-AF32-3CE9F3E811F4}"/>
+    <hyperlink ref="C828" r:id="rId672" xr:uid="{F7CF70B9-99CC-BD4A-9D40-CF58A49F5F89}"/>
+    <hyperlink ref="C829" r:id="rId673" xr:uid="{EC178E09-A803-1B4B-850F-9D2569573234}"/>
+    <hyperlink ref="C830" r:id="rId674" xr:uid="{14A1931A-72E3-2842-9B73-CE2547F81BAE}"/>
+    <hyperlink ref="C831" r:id="rId675" xr:uid="{91049622-A83F-BF44-AFD4-E225231C887D}"/>
+    <hyperlink ref="C832" r:id="rId676" xr:uid="{00DFB8E1-F5A4-484C-8A67-70A7D650C00B}"/>
+    <hyperlink ref="C833" r:id="rId677" xr:uid="{211911ED-9BFE-924A-98A2-04B6086AC2E6}"/>
+    <hyperlink ref="C834" r:id="rId678" xr:uid="{C249D954-76AB-0142-AEE4-5E98E41ACE6A}"/>
+    <hyperlink ref="C835" r:id="rId679" xr:uid="{B514B0A4-CBAC-1E4D-9AEB-F705C7C3A139}"/>
+    <hyperlink ref="C836" r:id="rId680" xr:uid="{7974E396-7477-864E-BCF8-054B01E0DEAB}"/>
+    <hyperlink ref="C837" r:id="rId681" xr:uid="{093FE06E-4E7A-6940-B550-8C5E78472B35}"/>
+    <hyperlink ref="C838" r:id="rId682" xr:uid="{1EAD9FB6-2E8C-0D45-B676-3F2DBDB61324}"/>
+    <hyperlink ref="C839" r:id="rId683" xr:uid="{519ED2F2-5207-674F-A229-5A82FF8EDC71}"/>
+    <hyperlink ref="C840" r:id="rId684" xr:uid="{CED8C53E-B125-2049-8A42-36EC64D6FC3D}"/>
+    <hyperlink ref="C841" r:id="rId685" xr:uid="{6980D498-3BDD-2C4A-9180-8D7FAA218310}"/>
+    <hyperlink ref="C842" r:id="rId686" xr:uid="{AD3831FF-CFCC-BF40-9C53-6C95A8993409}"/>
+    <hyperlink ref="C843" r:id="rId687" xr:uid="{50571100-A022-FF4A-B88E-CBADA5A13D49}"/>
+    <hyperlink ref="C844" r:id="rId688" xr:uid="{5308147B-5E96-4743-BDAC-0D262A8B3FB5}"/>
+    <hyperlink ref="C845" r:id="rId689" xr:uid="{B2E4EA28-3EBF-9347-A6BD-87F4A872A8F7}"/>
+    <hyperlink ref="C846" r:id="rId690" xr:uid="{94028DB4-4663-2944-B7EA-DD07D69E6140}"/>
+    <hyperlink ref="C849" r:id="rId691" xr:uid="{669EA3A0-965E-8642-B155-63B2A3BEDCC2}"/>
+    <hyperlink ref="C850" r:id="rId692" xr:uid="{A8E831EC-EBC6-C140-9F57-6E459B5AF16C}"/>
+    <hyperlink ref="C851" r:id="rId693" xr:uid="{E1080F04-143E-6E48-9702-CD7FC9AF7BA5}"/>
+    <hyperlink ref="C852" r:id="rId694" xr:uid="{AACD9785-938E-CD4E-A331-569FABDAB377}"/>
+    <hyperlink ref="C853" r:id="rId695" xr:uid="{5180A525-D6C9-9A4E-9ECF-30DAB4B47CFA}"/>
+    <hyperlink ref="C854" r:id="rId696" xr:uid="{AB8FCA6A-CA0A-EC45-9B5D-F86E5C177025}"/>
+    <hyperlink ref="C855" r:id="rId697" xr:uid="{50C1A808-B1BF-E442-9D46-592FF51C4167}"/>
+    <hyperlink ref="C856" r:id="rId698" xr:uid="{DD7F5014-7A12-3540-B00C-3BA6AE720BF7}"/>
+    <hyperlink ref="C857" r:id="rId699" xr:uid="{174F3E9B-8813-C149-A78F-50F3B4513AFD}"/>
+    <hyperlink ref="C858" r:id="rId700" xr:uid="{E4BEAF03-6559-9E44-8E7C-616E2CD6FF2F}"/>
+    <hyperlink ref="C859" r:id="rId701" xr:uid="{7CF34FB6-72D9-4443-A8F5-74AFF5EE5AA0}"/>
+    <hyperlink ref="C860" r:id="rId702" xr:uid="{1EBF139D-3A3C-6945-85BF-C799B4E29277}"/>
+    <hyperlink ref="C861" r:id="rId703" xr:uid="{F5BFC42A-0D80-3740-A941-3DD82AE952A2}"/>
+    <hyperlink ref="C863" r:id="rId704" xr:uid="{E9500909-97C0-D745-8BB5-D5FDF22981B0}"/>
+    <hyperlink ref="C864" r:id="rId705" xr:uid="{34959A6F-5013-BB43-8767-2F177277DD56}"/>
+    <hyperlink ref="C865" r:id="rId706" xr:uid="{B9F6DA57-421F-9B4B-9925-4D71155A4A4F}"/>
+    <hyperlink ref="C866" r:id="rId707" xr:uid="{DA294ED8-7BE7-1E4F-9D9D-71B1083EDCA5}"/>
+    <hyperlink ref="C867" r:id="rId708" xr:uid="{8A6AD81C-DC41-D94B-913D-3A97D5DD88CD}"/>
+    <hyperlink ref="C868" r:id="rId709" xr:uid="{82CBE310-1D4F-9544-8031-6CD6298C9BE7}"/>
+    <hyperlink ref="C869" r:id="rId710" xr:uid="{5E891B94-138E-4444-8CD6-68435B069467}"/>
+    <hyperlink ref="C870" r:id="rId711" xr:uid="{513E84C7-44D4-2C4C-9D75-B252FD883FE1}"/>
+    <hyperlink ref="C871" r:id="rId712" xr:uid="{4A9AC148-F48B-934C-A2FF-843F490DCF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId398"/>
+  <pageSetup orientation="portrait" r:id="rId713"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13278165-DDE9-844D-AD89-612DCE58642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BD566-D318-BF44-A69E-CE571D945AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1300" windowWidth="21440" windowHeight="11160" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="430">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t>https://rahma44446.github.io/Rahma/</t>
+  </si>
+  <si>
+    <t>https://manar-mohsen66666666.github.io/My-frist-webpage-/</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
   <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B862" workbookViewId="0">
-      <selection activeCell="B870" sqref="B870"/>
+    <sheetView tabSelected="1" topLeftCell="B765" workbookViewId="0">
+      <selection activeCell="C774" sqref="C774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8911,7 +8914,7 @@
         <v>329</v>
       </c>
       <c r="C774" s="23" t="s">
-        <v>330</v>
+        <v>429</v>
       </c>
     </row>
     <row r="775" spans="2:3" x14ac:dyDescent="0.2">
@@ -10310,103 +10313,102 @@
     <hyperlink ref="C771" r:id="rId616" xr:uid="{6E8A5E35-452A-5A49-AA8B-B4215C8D445E}"/>
     <hyperlink ref="C772" r:id="rId617" xr:uid="{228783F3-092A-9D45-A5A8-C421154CFEBC}"/>
     <hyperlink ref="C773" r:id="rId618" xr:uid="{20476EF3-9E14-8245-A4DC-CEB5780A529D}"/>
-    <hyperlink ref="C774" r:id="rId619" xr:uid="{8ABE4E4C-D10F-1544-9ABE-15C1B124EEE8}"/>
-    <hyperlink ref="C775" r:id="rId620" xr:uid="{365908D1-2BF4-324C-AE6E-C4D29B7B2FBB}"/>
-    <hyperlink ref="C776" r:id="rId621" xr:uid="{659A6103-0907-AF40-A6EE-6A881772A472}"/>
-    <hyperlink ref="C777" r:id="rId622" xr:uid="{86400A19-03FE-5E41-8F68-A00F43D5FB96}"/>
-    <hyperlink ref="C778" r:id="rId623" xr:uid="{337E134B-20D4-0C4C-ADCB-BB35B18C406C}"/>
-    <hyperlink ref="C779" r:id="rId624" xr:uid="{96624EEA-ACCC-D742-A392-39CF5C83A48A}"/>
-    <hyperlink ref="C780" r:id="rId625" xr:uid="{8E578044-F202-6648-8005-B7C4C5F240F5}"/>
-    <hyperlink ref="C781" r:id="rId626" xr:uid="{0162014A-6CC1-C04C-8BA6-405A14C0221E}"/>
-    <hyperlink ref="C782" r:id="rId627" xr:uid="{3E75EC0E-ECED-204E-BCDE-A593B8C56777}"/>
-    <hyperlink ref="C783" r:id="rId628" xr:uid="{312AEDCF-BE6D-9345-B277-95031EF2DEEF}"/>
-    <hyperlink ref="C784" r:id="rId629" xr:uid="{47ACF67E-622E-BB43-A1FA-F40AF2708B5F}"/>
-    <hyperlink ref="C785" r:id="rId630" xr:uid="{A54247A1-06F9-EA4A-9DF4-1461C44BDB15}"/>
-    <hyperlink ref="C786" r:id="rId631" xr:uid="{7A0EC9F8-B271-BB4D-8181-56BF924B12E8}"/>
-    <hyperlink ref="C787" r:id="rId632" xr:uid="{5D8C2139-55A5-324D-BE1E-56158D007C4B}"/>
-    <hyperlink ref="C788" r:id="rId633" xr:uid="{298C30F5-25C6-0441-829C-24C695CD085D}"/>
-    <hyperlink ref="C789" r:id="rId634" xr:uid="{47D7881A-6401-B748-ADF8-237D4CC4AA9E}"/>
-    <hyperlink ref="C790" r:id="rId635" xr:uid="{6D7364A8-D972-B84A-B16E-D507FAB605E1}"/>
-    <hyperlink ref="C791" r:id="rId636" xr:uid="{ABA6875B-39F7-7C4B-8035-7D670878EC71}"/>
-    <hyperlink ref="C793" r:id="rId637" xr:uid="{6356C75F-1A0A-E84E-B78F-23BA4FD4FDB8}"/>
-    <hyperlink ref="C794" r:id="rId638" xr:uid="{49DF494D-529D-A449-8B83-C67277337E7F}"/>
-    <hyperlink ref="C795" r:id="rId639" xr:uid="{B7C46D40-3840-4E48-B02A-90A5072108F1}"/>
-    <hyperlink ref="C796" r:id="rId640" xr:uid="{8A666991-9F80-0F44-958C-C4C289EEEC72}"/>
-    <hyperlink ref="C797" r:id="rId641" xr:uid="{54ADEA4D-EC25-8F47-BD68-899A08DA9A27}"/>
-    <hyperlink ref="C798" r:id="rId642" xr:uid="{4604F4AD-E539-FF4C-8502-763EB87ECD9D}"/>
-    <hyperlink ref="C799" r:id="rId643" xr:uid="{1E0028C2-406C-034D-B7B7-AE172D79EB49}"/>
-    <hyperlink ref="C800" r:id="rId644" xr:uid="{12D52E12-9652-F544-AF2E-491A744A94D0}"/>
-    <hyperlink ref="C801" r:id="rId645" xr:uid="{A7916DEB-CC1F-134F-BACA-8E480DF8D2F4}"/>
-    <hyperlink ref="C802" r:id="rId646" xr:uid="{8EE5C433-5040-4041-8F9E-FB6B30425D6F}"/>
-    <hyperlink ref="C803" r:id="rId647" xr:uid="{708D4B87-6405-1B4C-9C22-DFC0DDA1F560}"/>
-    <hyperlink ref="C804" r:id="rId648" xr:uid="{776A2D7A-7B7A-2949-B7A5-07925FB9CB12}"/>
-    <hyperlink ref="C805" r:id="rId649" xr:uid="{8B0B9F4C-4965-DA4D-A7AA-0170BCD99411}"/>
-    <hyperlink ref="C806" r:id="rId650" xr:uid="{006354C3-9260-694C-AE83-EA6BC27F0450}"/>
-    <hyperlink ref="C807" r:id="rId651" xr:uid="{0B0F4EB2-F887-2E40-AA79-8F642655658C}"/>
-    <hyperlink ref="C808" r:id="rId652" xr:uid="{B6EDC821-2818-C944-908C-CD89E00EBD04}"/>
-    <hyperlink ref="C809" r:id="rId653" xr:uid="{BD05DAA9-7969-2D49-BD8F-07CBD2F59F0C}"/>
-    <hyperlink ref="C810" r:id="rId654" xr:uid="{8E9B822A-7D65-5340-BB86-E99EC96B6646}"/>
-    <hyperlink ref="C811" r:id="rId655" xr:uid="{9DE883C5-7A37-8B4D-9C39-493AE580D615}"/>
-    <hyperlink ref="C812" r:id="rId656" xr:uid="{D95AD4E7-6C58-7147-9F11-1E1A6CDA015A}"/>
-    <hyperlink ref="C813" r:id="rId657" xr:uid="{24D8A17E-792C-A242-9665-A080FC7979D0}"/>
-    <hyperlink ref="C814" r:id="rId658" xr:uid="{6AB2146E-84AD-FC49-92B7-3B6C5686FBBB}"/>
-    <hyperlink ref="C815" r:id="rId659" xr:uid="{248D7C18-9AA2-2C4E-A8B8-B2B6A845E6A9}"/>
-    <hyperlink ref="C816" r:id="rId660" xr:uid="{EBD2CC4E-3936-4A46-8617-ADC8EA1E912B}"/>
-    <hyperlink ref="C817" r:id="rId661" xr:uid="{F1AEEA50-C58B-0246-AB36-D0165207801D}"/>
-    <hyperlink ref="C818" r:id="rId662" xr:uid="{4C1CA8DC-9EB8-644A-B1DB-C1D28D32369A}"/>
-    <hyperlink ref="C819" r:id="rId663" xr:uid="{D44A16D6-6166-624B-AB08-D6AD1F800B05}"/>
-    <hyperlink ref="C820" r:id="rId664" xr:uid="{E326BC3D-D854-5747-91BC-69CDF0904455}"/>
-    <hyperlink ref="C821" r:id="rId665" xr:uid="{EF242E2B-6BFA-A645-A91E-A99740D21360}"/>
-    <hyperlink ref="C822" r:id="rId666" xr:uid="{88F376D4-1139-0941-BCEB-BBBA77060688}"/>
-    <hyperlink ref="C823" r:id="rId667" xr:uid="{77A02597-EF31-424D-846F-148F7826E372}"/>
-    <hyperlink ref="C824" r:id="rId668" xr:uid="{CE39AE48-E8FC-9C40-B5DA-DBB3773B37DB}"/>
-    <hyperlink ref="C825" r:id="rId669" xr:uid="{A18DEA10-7625-484A-885B-D44FA0F52045}"/>
-    <hyperlink ref="C826" r:id="rId670" xr:uid="{0A6A5841-6E81-404B-9B66-D63ED8F869D7}"/>
-    <hyperlink ref="C827" r:id="rId671" xr:uid="{8CDE6720-D3F0-3644-AF32-3CE9F3E811F4}"/>
-    <hyperlink ref="C828" r:id="rId672" xr:uid="{F7CF70B9-99CC-BD4A-9D40-CF58A49F5F89}"/>
-    <hyperlink ref="C829" r:id="rId673" xr:uid="{EC178E09-A803-1B4B-850F-9D2569573234}"/>
-    <hyperlink ref="C830" r:id="rId674" xr:uid="{14A1931A-72E3-2842-9B73-CE2547F81BAE}"/>
-    <hyperlink ref="C831" r:id="rId675" xr:uid="{91049622-A83F-BF44-AFD4-E225231C887D}"/>
-    <hyperlink ref="C832" r:id="rId676" xr:uid="{00DFB8E1-F5A4-484C-8A67-70A7D650C00B}"/>
-    <hyperlink ref="C833" r:id="rId677" xr:uid="{211911ED-9BFE-924A-98A2-04B6086AC2E6}"/>
-    <hyperlink ref="C834" r:id="rId678" xr:uid="{C249D954-76AB-0142-AEE4-5E98E41ACE6A}"/>
-    <hyperlink ref="C835" r:id="rId679" xr:uid="{B514B0A4-CBAC-1E4D-9AEB-F705C7C3A139}"/>
-    <hyperlink ref="C836" r:id="rId680" xr:uid="{7974E396-7477-864E-BCF8-054B01E0DEAB}"/>
-    <hyperlink ref="C837" r:id="rId681" xr:uid="{093FE06E-4E7A-6940-B550-8C5E78472B35}"/>
-    <hyperlink ref="C838" r:id="rId682" xr:uid="{1EAD9FB6-2E8C-0D45-B676-3F2DBDB61324}"/>
-    <hyperlink ref="C839" r:id="rId683" xr:uid="{519ED2F2-5207-674F-A229-5A82FF8EDC71}"/>
-    <hyperlink ref="C840" r:id="rId684" xr:uid="{CED8C53E-B125-2049-8A42-36EC64D6FC3D}"/>
-    <hyperlink ref="C841" r:id="rId685" xr:uid="{6980D498-3BDD-2C4A-9180-8D7FAA218310}"/>
-    <hyperlink ref="C842" r:id="rId686" xr:uid="{AD3831FF-CFCC-BF40-9C53-6C95A8993409}"/>
-    <hyperlink ref="C843" r:id="rId687" xr:uid="{50571100-A022-FF4A-B88E-CBADA5A13D49}"/>
-    <hyperlink ref="C844" r:id="rId688" xr:uid="{5308147B-5E96-4743-BDAC-0D262A8B3FB5}"/>
-    <hyperlink ref="C845" r:id="rId689" xr:uid="{B2E4EA28-3EBF-9347-A6BD-87F4A872A8F7}"/>
-    <hyperlink ref="C846" r:id="rId690" xr:uid="{94028DB4-4663-2944-B7EA-DD07D69E6140}"/>
-    <hyperlink ref="C849" r:id="rId691" xr:uid="{669EA3A0-965E-8642-B155-63B2A3BEDCC2}"/>
-    <hyperlink ref="C850" r:id="rId692" xr:uid="{A8E831EC-EBC6-C140-9F57-6E459B5AF16C}"/>
-    <hyperlink ref="C851" r:id="rId693" xr:uid="{E1080F04-143E-6E48-9702-CD7FC9AF7BA5}"/>
-    <hyperlink ref="C852" r:id="rId694" xr:uid="{AACD9785-938E-CD4E-A331-569FABDAB377}"/>
-    <hyperlink ref="C853" r:id="rId695" xr:uid="{5180A525-D6C9-9A4E-9ECF-30DAB4B47CFA}"/>
-    <hyperlink ref="C854" r:id="rId696" xr:uid="{AB8FCA6A-CA0A-EC45-9B5D-F86E5C177025}"/>
-    <hyperlink ref="C855" r:id="rId697" xr:uid="{50C1A808-B1BF-E442-9D46-592FF51C4167}"/>
-    <hyperlink ref="C856" r:id="rId698" xr:uid="{DD7F5014-7A12-3540-B00C-3BA6AE720BF7}"/>
-    <hyperlink ref="C857" r:id="rId699" xr:uid="{174F3E9B-8813-C149-A78F-50F3B4513AFD}"/>
-    <hyperlink ref="C858" r:id="rId700" xr:uid="{E4BEAF03-6559-9E44-8E7C-616E2CD6FF2F}"/>
-    <hyperlink ref="C859" r:id="rId701" xr:uid="{7CF34FB6-72D9-4443-A8F5-74AFF5EE5AA0}"/>
-    <hyperlink ref="C860" r:id="rId702" xr:uid="{1EBF139D-3A3C-6945-85BF-C799B4E29277}"/>
-    <hyperlink ref="C861" r:id="rId703" xr:uid="{F5BFC42A-0D80-3740-A941-3DD82AE952A2}"/>
-    <hyperlink ref="C863" r:id="rId704" xr:uid="{E9500909-97C0-D745-8BB5-D5FDF22981B0}"/>
-    <hyperlink ref="C864" r:id="rId705" xr:uid="{34959A6F-5013-BB43-8767-2F177277DD56}"/>
-    <hyperlink ref="C865" r:id="rId706" xr:uid="{B9F6DA57-421F-9B4B-9925-4D71155A4A4F}"/>
-    <hyperlink ref="C866" r:id="rId707" xr:uid="{DA294ED8-7BE7-1E4F-9D9D-71B1083EDCA5}"/>
-    <hyperlink ref="C867" r:id="rId708" xr:uid="{8A6AD81C-DC41-D94B-913D-3A97D5DD88CD}"/>
-    <hyperlink ref="C868" r:id="rId709" xr:uid="{82CBE310-1D4F-9544-8031-6CD6298C9BE7}"/>
-    <hyperlink ref="C869" r:id="rId710" xr:uid="{5E891B94-138E-4444-8CD6-68435B069467}"/>
-    <hyperlink ref="C870" r:id="rId711" xr:uid="{513E84C7-44D4-2C4C-9D75-B252FD883FE1}"/>
-    <hyperlink ref="C871" r:id="rId712" xr:uid="{4A9AC148-F48B-934C-A2FF-843F490DCF80}"/>
+    <hyperlink ref="C775" r:id="rId619" xr:uid="{365908D1-2BF4-324C-AE6E-C4D29B7B2FBB}"/>
+    <hyperlink ref="C776" r:id="rId620" xr:uid="{659A6103-0907-AF40-A6EE-6A881772A472}"/>
+    <hyperlink ref="C777" r:id="rId621" xr:uid="{86400A19-03FE-5E41-8F68-A00F43D5FB96}"/>
+    <hyperlink ref="C778" r:id="rId622" xr:uid="{337E134B-20D4-0C4C-ADCB-BB35B18C406C}"/>
+    <hyperlink ref="C779" r:id="rId623" xr:uid="{96624EEA-ACCC-D742-A392-39CF5C83A48A}"/>
+    <hyperlink ref="C780" r:id="rId624" xr:uid="{8E578044-F202-6648-8005-B7C4C5F240F5}"/>
+    <hyperlink ref="C781" r:id="rId625" xr:uid="{0162014A-6CC1-C04C-8BA6-405A14C0221E}"/>
+    <hyperlink ref="C782" r:id="rId626" xr:uid="{3E75EC0E-ECED-204E-BCDE-A593B8C56777}"/>
+    <hyperlink ref="C783" r:id="rId627" xr:uid="{312AEDCF-BE6D-9345-B277-95031EF2DEEF}"/>
+    <hyperlink ref="C784" r:id="rId628" xr:uid="{47ACF67E-622E-BB43-A1FA-F40AF2708B5F}"/>
+    <hyperlink ref="C785" r:id="rId629" xr:uid="{A54247A1-06F9-EA4A-9DF4-1461C44BDB15}"/>
+    <hyperlink ref="C786" r:id="rId630" xr:uid="{7A0EC9F8-B271-BB4D-8181-56BF924B12E8}"/>
+    <hyperlink ref="C787" r:id="rId631" xr:uid="{5D8C2139-55A5-324D-BE1E-56158D007C4B}"/>
+    <hyperlink ref="C788" r:id="rId632" xr:uid="{298C30F5-25C6-0441-829C-24C695CD085D}"/>
+    <hyperlink ref="C789" r:id="rId633" xr:uid="{47D7881A-6401-B748-ADF8-237D4CC4AA9E}"/>
+    <hyperlink ref="C790" r:id="rId634" xr:uid="{6D7364A8-D972-B84A-B16E-D507FAB605E1}"/>
+    <hyperlink ref="C791" r:id="rId635" xr:uid="{ABA6875B-39F7-7C4B-8035-7D670878EC71}"/>
+    <hyperlink ref="C793" r:id="rId636" xr:uid="{6356C75F-1A0A-E84E-B78F-23BA4FD4FDB8}"/>
+    <hyperlink ref="C794" r:id="rId637" xr:uid="{49DF494D-529D-A449-8B83-C67277337E7F}"/>
+    <hyperlink ref="C795" r:id="rId638" xr:uid="{B7C46D40-3840-4E48-B02A-90A5072108F1}"/>
+    <hyperlink ref="C796" r:id="rId639" xr:uid="{8A666991-9F80-0F44-958C-C4C289EEEC72}"/>
+    <hyperlink ref="C797" r:id="rId640" xr:uid="{54ADEA4D-EC25-8F47-BD68-899A08DA9A27}"/>
+    <hyperlink ref="C798" r:id="rId641" xr:uid="{4604F4AD-E539-FF4C-8502-763EB87ECD9D}"/>
+    <hyperlink ref="C799" r:id="rId642" xr:uid="{1E0028C2-406C-034D-B7B7-AE172D79EB49}"/>
+    <hyperlink ref="C800" r:id="rId643" xr:uid="{12D52E12-9652-F544-AF2E-491A744A94D0}"/>
+    <hyperlink ref="C801" r:id="rId644" xr:uid="{A7916DEB-CC1F-134F-BACA-8E480DF8D2F4}"/>
+    <hyperlink ref="C802" r:id="rId645" xr:uid="{8EE5C433-5040-4041-8F9E-FB6B30425D6F}"/>
+    <hyperlink ref="C803" r:id="rId646" xr:uid="{708D4B87-6405-1B4C-9C22-DFC0DDA1F560}"/>
+    <hyperlink ref="C804" r:id="rId647" xr:uid="{776A2D7A-7B7A-2949-B7A5-07925FB9CB12}"/>
+    <hyperlink ref="C805" r:id="rId648" xr:uid="{8B0B9F4C-4965-DA4D-A7AA-0170BCD99411}"/>
+    <hyperlink ref="C806" r:id="rId649" xr:uid="{006354C3-9260-694C-AE83-EA6BC27F0450}"/>
+    <hyperlink ref="C807" r:id="rId650" xr:uid="{0B0F4EB2-F887-2E40-AA79-8F642655658C}"/>
+    <hyperlink ref="C808" r:id="rId651" xr:uid="{B6EDC821-2818-C944-908C-CD89E00EBD04}"/>
+    <hyperlink ref="C809" r:id="rId652" xr:uid="{BD05DAA9-7969-2D49-BD8F-07CBD2F59F0C}"/>
+    <hyperlink ref="C810" r:id="rId653" xr:uid="{8E9B822A-7D65-5340-BB86-E99EC96B6646}"/>
+    <hyperlink ref="C811" r:id="rId654" xr:uid="{9DE883C5-7A37-8B4D-9C39-493AE580D615}"/>
+    <hyperlink ref="C812" r:id="rId655" xr:uid="{D95AD4E7-6C58-7147-9F11-1E1A6CDA015A}"/>
+    <hyperlink ref="C813" r:id="rId656" xr:uid="{24D8A17E-792C-A242-9665-A080FC7979D0}"/>
+    <hyperlink ref="C814" r:id="rId657" xr:uid="{6AB2146E-84AD-FC49-92B7-3B6C5686FBBB}"/>
+    <hyperlink ref="C815" r:id="rId658" xr:uid="{248D7C18-9AA2-2C4E-A8B8-B2B6A845E6A9}"/>
+    <hyperlink ref="C816" r:id="rId659" xr:uid="{EBD2CC4E-3936-4A46-8617-ADC8EA1E912B}"/>
+    <hyperlink ref="C817" r:id="rId660" xr:uid="{F1AEEA50-C58B-0246-AB36-D0165207801D}"/>
+    <hyperlink ref="C818" r:id="rId661" xr:uid="{4C1CA8DC-9EB8-644A-B1DB-C1D28D32369A}"/>
+    <hyperlink ref="C819" r:id="rId662" xr:uid="{D44A16D6-6166-624B-AB08-D6AD1F800B05}"/>
+    <hyperlink ref="C820" r:id="rId663" xr:uid="{E326BC3D-D854-5747-91BC-69CDF0904455}"/>
+    <hyperlink ref="C821" r:id="rId664" xr:uid="{EF242E2B-6BFA-A645-A91E-A99740D21360}"/>
+    <hyperlink ref="C822" r:id="rId665" xr:uid="{88F376D4-1139-0941-BCEB-BBBA77060688}"/>
+    <hyperlink ref="C823" r:id="rId666" xr:uid="{77A02597-EF31-424D-846F-148F7826E372}"/>
+    <hyperlink ref="C824" r:id="rId667" xr:uid="{CE39AE48-E8FC-9C40-B5DA-DBB3773B37DB}"/>
+    <hyperlink ref="C825" r:id="rId668" xr:uid="{A18DEA10-7625-484A-885B-D44FA0F52045}"/>
+    <hyperlink ref="C826" r:id="rId669" xr:uid="{0A6A5841-6E81-404B-9B66-D63ED8F869D7}"/>
+    <hyperlink ref="C827" r:id="rId670" xr:uid="{8CDE6720-D3F0-3644-AF32-3CE9F3E811F4}"/>
+    <hyperlink ref="C828" r:id="rId671" xr:uid="{F7CF70B9-99CC-BD4A-9D40-CF58A49F5F89}"/>
+    <hyperlink ref="C829" r:id="rId672" xr:uid="{EC178E09-A803-1B4B-850F-9D2569573234}"/>
+    <hyperlink ref="C830" r:id="rId673" xr:uid="{14A1931A-72E3-2842-9B73-CE2547F81BAE}"/>
+    <hyperlink ref="C831" r:id="rId674" xr:uid="{91049622-A83F-BF44-AFD4-E225231C887D}"/>
+    <hyperlink ref="C832" r:id="rId675" xr:uid="{00DFB8E1-F5A4-484C-8A67-70A7D650C00B}"/>
+    <hyperlink ref="C833" r:id="rId676" xr:uid="{211911ED-9BFE-924A-98A2-04B6086AC2E6}"/>
+    <hyperlink ref="C834" r:id="rId677" xr:uid="{C249D954-76AB-0142-AEE4-5E98E41ACE6A}"/>
+    <hyperlink ref="C835" r:id="rId678" xr:uid="{B514B0A4-CBAC-1E4D-9AEB-F705C7C3A139}"/>
+    <hyperlink ref="C836" r:id="rId679" xr:uid="{7974E396-7477-864E-BCF8-054B01E0DEAB}"/>
+    <hyperlink ref="C837" r:id="rId680" xr:uid="{093FE06E-4E7A-6940-B550-8C5E78472B35}"/>
+    <hyperlink ref="C838" r:id="rId681" xr:uid="{1EAD9FB6-2E8C-0D45-B676-3F2DBDB61324}"/>
+    <hyperlink ref="C839" r:id="rId682" xr:uid="{519ED2F2-5207-674F-A229-5A82FF8EDC71}"/>
+    <hyperlink ref="C840" r:id="rId683" xr:uid="{CED8C53E-B125-2049-8A42-36EC64D6FC3D}"/>
+    <hyperlink ref="C841" r:id="rId684" xr:uid="{6980D498-3BDD-2C4A-9180-8D7FAA218310}"/>
+    <hyperlink ref="C842" r:id="rId685" xr:uid="{AD3831FF-CFCC-BF40-9C53-6C95A8993409}"/>
+    <hyperlink ref="C843" r:id="rId686" xr:uid="{50571100-A022-FF4A-B88E-CBADA5A13D49}"/>
+    <hyperlink ref="C844" r:id="rId687" xr:uid="{5308147B-5E96-4743-BDAC-0D262A8B3FB5}"/>
+    <hyperlink ref="C845" r:id="rId688" xr:uid="{B2E4EA28-3EBF-9347-A6BD-87F4A872A8F7}"/>
+    <hyperlink ref="C846" r:id="rId689" xr:uid="{94028DB4-4663-2944-B7EA-DD07D69E6140}"/>
+    <hyperlink ref="C849" r:id="rId690" xr:uid="{669EA3A0-965E-8642-B155-63B2A3BEDCC2}"/>
+    <hyperlink ref="C850" r:id="rId691" xr:uid="{A8E831EC-EBC6-C140-9F57-6E459B5AF16C}"/>
+    <hyperlink ref="C851" r:id="rId692" xr:uid="{E1080F04-143E-6E48-9702-CD7FC9AF7BA5}"/>
+    <hyperlink ref="C852" r:id="rId693" xr:uid="{AACD9785-938E-CD4E-A331-569FABDAB377}"/>
+    <hyperlink ref="C853" r:id="rId694" xr:uid="{5180A525-D6C9-9A4E-9ECF-30DAB4B47CFA}"/>
+    <hyperlink ref="C854" r:id="rId695" xr:uid="{AB8FCA6A-CA0A-EC45-9B5D-F86E5C177025}"/>
+    <hyperlink ref="C855" r:id="rId696" xr:uid="{50C1A808-B1BF-E442-9D46-592FF51C4167}"/>
+    <hyperlink ref="C856" r:id="rId697" xr:uid="{DD7F5014-7A12-3540-B00C-3BA6AE720BF7}"/>
+    <hyperlink ref="C857" r:id="rId698" xr:uid="{174F3E9B-8813-C149-A78F-50F3B4513AFD}"/>
+    <hyperlink ref="C858" r:id="rId699" xr:uid="{E4BEAF03-6559-9E44-8E7C-616E2CD6FF2F}"/>
+    <hyperlink ref="C859" r:id="rId700" xr:uid="{7CF34FB6-72D9-4443-A8F5-74AFF5EE5AA0}"/>
+    <hyperlink ref="C860" r:id="rId701" xr:uid="{1EBF139D-3A3C-6945-85BF-C799B4E29277}"/>
+    <hyperlink ref="C861" r:id="rId702" xr:uid="{F5BFC42A-0D80-3740-A941-3DD82AE952A2}"/>
+    <hyperlink ref="C863" r:id="rId703" xr:uid="{E9500909-97C0-D745-8BB5-D5FDF22981B0}"/>
+    <hyperlink ref="C864" r:id="rId704" xr:uid="{34959A6F-5013-BB43-8767-2F177277DD56}"/>
+    <hyperlink ref="C865" r:id="rId705" xr:uid="{B9F6DA57-421F-9B4B-9925-4D71155A4A4F}"/>
+    <hyperlink ref="C866" r:id="rId706" xr:uid="{DA294ED8-7BE7-1E4F-9D9D-71B1083EDCA5}"/>
+    <hyperlink ref="C867" r:id="rId707" xr:uid="{8A6AD81C-DC41-D94B-913D-3A97D5DD88CD}"/>
+    <hyperlink ref="C868" r:id="rId708" xr:uid="{82CBE310-1D4F-9544-8031-6CD6298C9BE7}"/>
+    <hyperlink ref="C869" r:id="rId709" xr:uid="{5E891B94-138E-4444-8CD6-68435B069467}"/>
+    <hyperlink ref="C870" r:id="rId710" xr:uid="{513E84C7-44D4-2C4C-9D75-B252FD883FE1}"/>
+    <hyperlink ref="C871" r:id="rId711" xr:uid="{4A9AC148-F48B-934C-A2FF-843F490DCF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId713"/>
+  <pageSetup orientation="portrait" r:id="rId712"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BD566-D318-BF44-A69E-CE571D945AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377A019-D221-D144-B359-5E71CDBE4C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1300" windowWidth="21440" windowHeight="11160" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="433">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1324,6 +1324,15 @@
   </si>
   <si>
     <t>https://manar-mohsen66666666.github.io/My-frist-webpage-/</t>
+  </si>
+  <si>
+    <t>https://aya1572005.github.io/Aya-waleed-/</t>
+  </si>
+  <si>
+    <t>https://memoxxx19.github.io/STORE/</t>
+  </si>
+  <si>
+    <t>aw20230271@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -2108,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E871"/>
+  <dimension ref="A1:E1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B765" workbookViewId="0">
-      <selection activeCell="C774" sqref="C774"/>
+    <sheetView tabSelected="1" topLeftCell="B866" workbookViewId="0">
+      <selection activeCell="B872" sqref="B872:C1252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9691,6 +9700,3052 @@
       </c>
       <c r="C871" s="23" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="872" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B872" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C872" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="873" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B873" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C873" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B874" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C874" s="56">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="875" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B875" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C875" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="876" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B876" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C876" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="877" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B877" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C877" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="878" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B878" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C878" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="879" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B879" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C879" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="880" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B880" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C880" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="881" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B881" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C881" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="882" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B882" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C882" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="883" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B883" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C883" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="884" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B884" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C884" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="885" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B885" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C885" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="886" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B886" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C886" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="887" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B887" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C887" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B888" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C888" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B889" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C889" s="57"/>
+    </row>
+    <row r="890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B890" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C890" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B891" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C891" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="892" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B892" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C892" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="893" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B893" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C893" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="894" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B894" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C894" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="895" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B895" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C895" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="896" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B896" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C896" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="897" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B897" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C897" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="898" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B898" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C898" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="899" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B899" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C899" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="900" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B900" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C900" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="901" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B901" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C901" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="902" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B902" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C902" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="903" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B903" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C903" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="904" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B904" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C904" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="905" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B905" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C905" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="906" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B906" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C906" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="907" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B907" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C907" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="908" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B908" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C908" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="909" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B909" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C909" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="910" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B910" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C910" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="911" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B911" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C911" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="912" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B912" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C912" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="913" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B913" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C913" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="914" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B914" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C914" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="915" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B915" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C915" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="916" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B916" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C916" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="917" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B917" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C917" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="918" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B918" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C918" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="919" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B919" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C919" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="920" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B920" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C920" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="921" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B921" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C921" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="922" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B922" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C922" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="923" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B923" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C923" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="924" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B924" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C924" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="925" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B925" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C925" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="926" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B926" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C926" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="927" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B927" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C927" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="928" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B928" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C928" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="929" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B929" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C929" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="930" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B930" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C930" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="931" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B931" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C931" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="932" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B932" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C932" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="933" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B933" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C933" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="934" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B934" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C934" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="935" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B935" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C935" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="936" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B936" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C936" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="937" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B937" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C937" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="938" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B938" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C938" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="939" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B939" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C939" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="940" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B940" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C940" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="941" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B941" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C941" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="942" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B942" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C942" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="943" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B943" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C943" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="944" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B944" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C944" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="945" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B945" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C945" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="946" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B946" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C946" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="947" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B947" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C947" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="948" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B948" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C948" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="949" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B949" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C949" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="950" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B950" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C950" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="951" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B951" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C951" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="952" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B952" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C952" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="953" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B953" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C953" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="954" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B954" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C954" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="955" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B955" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C955" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="956" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B956" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C956" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="957" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B957" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C957" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="958" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B958" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C958" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="959" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B959" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C959" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="960" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B960" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C960" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="961" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B961" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C961" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="962" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B962" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C962" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="963" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B963" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C963" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="964" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B964" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C964" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="965" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B965" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C965" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="966" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B966" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C966" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="967" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B967" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C967" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="968" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B968" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C968" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="969" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B969" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C969" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="970" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B970" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C970" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="971" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B971" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C971" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="972" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B972" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C972" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="973" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B973" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C973" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="974" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B974" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C974" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="975" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B975" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C975" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="976" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B976" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C976" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="977" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B977" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C977" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="978" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B978" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C978" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="979" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B979" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C979" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="980" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B980" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C980" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="981" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B981" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C981" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="982" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B982" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C982" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="983" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B983" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C983" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="984" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B984" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C984" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="985" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B985" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C985" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="986" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B986" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C986" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="987" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B987" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C987" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="988" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B988" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C988" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="989" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B989" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C989" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="990" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B990" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C990" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="991" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B991" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C991" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="992" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B992" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C992" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="993" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B993" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C993" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="994" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B994" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C994" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="995" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B995" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C995" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="996" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B996" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C996" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="997" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B997" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C997" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="998" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B998" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C998" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="999" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B999" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C999" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1000" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1000" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1001" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1001" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1002" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1002" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1003" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1003" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1004" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1004" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1005" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1005" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1006" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1006" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1007" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1007" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1008" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1008" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1009" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1009" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1010" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1010" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1011" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1011" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1012" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1012" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1013" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1013" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1014" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1014" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1015" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1015" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1016" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1016" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1017" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1017" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1018" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1018" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1019" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1019" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1020" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1020" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1021" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1021" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1022" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1022" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1023" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1023" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1024" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1024" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1025" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1025" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1026" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1026" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1027" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1027" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1028" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1028" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1029" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1029" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1030" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1030" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1031" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1031" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1032" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1032" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1033" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1033" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1034" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1034" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1035" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1035" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1036" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1036" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1037" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1037" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1038" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1038" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1039" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1039" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1040" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1040" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1041" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1041" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1042" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1042" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1043" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1043" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1044" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1044" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1045" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1045" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1046" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1046" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1047" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1047" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1048" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1048" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1049" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1049" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1050" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1050" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1051" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1051" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1052" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1052" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1053" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1053" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1054" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1054" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1055" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1055" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1056" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1056" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1057" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1057" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1058" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1058" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1059" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1059" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1060" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1060" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1061" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1061" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1062" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1062" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1063" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1063" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1064" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1064" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1065" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1065" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1066" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1066" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1067" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1067" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1068" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1068" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1069" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1069" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1070" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1070" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1071" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1071" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1072" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1072" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1073" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1073" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1074" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1074" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1075" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1075" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1076" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1076" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1077" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1077" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1078" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1078" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1079" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1079" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1080" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1080" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1081" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1081" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1082" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1082" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1083" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1083" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1084" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1084" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1085" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1085" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1086" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1086" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1087" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1087" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1088" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1088" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1089" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1089" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1090" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1090" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1091" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1091" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1092" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1092" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1093" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1093" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1094" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1094" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1095" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1095" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1096" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1096" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1097" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1097" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1098" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1098" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1099" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1099" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1100" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1100" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1101" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1101" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1102" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1102" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1103" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1103" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1104" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1104" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1105" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1105" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1106" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1106" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1107" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1107" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1108" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1108" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1109" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1109" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1110" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1110" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1111" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1111" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1112" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1112" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1113" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1113" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1114" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1114" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1115" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1115" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1116" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1116" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1117" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1117" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1118" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1118" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1119" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1119" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1120" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1120" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1121" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1121" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1122" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1122" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1123" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1123" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1124" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1124" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1125" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1125" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1126" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1126" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1127" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1127" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1128" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1128" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1129" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1129" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1130" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1130" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1131" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1131" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1132" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1132" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1133" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1133" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1134" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1134" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1135" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1135" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1136" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1136" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1137" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1137" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1138" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1138" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1139" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1139" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1140" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1140" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1141" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1141" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1142" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1142" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1143" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1143" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1144" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1144" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1145" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1145" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1146" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1146" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1147" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1147" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1148" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1148" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1149" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1149" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1150" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1150" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1151" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1151" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1152" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1152" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1153" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1153" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1154" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1154" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1155" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1155" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1156" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1156" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1157" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1157" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1158" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1158" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1159" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1159" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1160" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1160" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1161" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1161" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1162" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1162" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1163" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1163" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1164" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1164" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1165" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1165" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1166" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1166" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1167" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1167" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1168" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1168" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1169" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1169" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1170" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1170" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1171" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1171" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1172" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1172" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1173" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1173" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1174" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1174" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1175" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1175" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1176" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1176" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1177" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1177" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1178" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1178" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1179" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1179" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1180" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1180" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1181" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1181" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1182" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1182" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1183" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1183" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1184" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1184" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1185" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1185" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1186" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1186" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1187" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1187" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1188" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1188" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1189" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1189" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1190" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1190" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1191" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1191" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1192" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1192" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1193" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1193" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1194" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1194" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1195" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1195" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1196" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1196" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1197" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1197" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1198" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1198" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1199" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1199" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1200" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1200" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1201" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1201" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1202" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1202" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1203" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1203" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1204" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1204" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1205" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1205" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1206" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1206" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1207" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1207" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1208" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1208" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1209" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1209" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1210" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1210" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1211" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1211" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1212" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1212" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1213" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1213" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1214" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1214" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1215" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1215" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1216" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1216" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1217" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1217" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1218" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1218" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1219" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1219" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1220" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1220" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1221" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1221" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1222" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1222" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1223" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1223" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1224" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1224" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1225" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1225" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1226" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1226" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1227" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1227" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1228" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1228" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1229" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1229" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1230" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1230" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1231" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1231" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1232" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1232" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1233" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1233" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1234" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1234" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1235" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1235" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1236" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1236" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1237" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1237" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1238" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1238" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1239" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1239" s="59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1240" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1240" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1241" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1241" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1242" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1242" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1243" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1243" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1244" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1244" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1245" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1245" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1246" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1246" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1247" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1247" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1248" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1248" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1249" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1249" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1250" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1250" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1251" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1251" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1252" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1252" s="23" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -10406,9 +13461,328 @@
     <hyperlink ref="C869" r:id="rId709" xr:uid="{5E891B94-138E-4444-8CD6-68435B069467}"/>
     <hyperlink ref="C870" r:id="rId710" xr:uid="{513E84C7-44D4-2C4C-9D75-B252FD883FE1}"/>
     <hyperlink ref="C871" r:id="rId711" xr:uid="{4A9AC148-F48B-934C-A2FF-843F490DCF80}"/>
+    <hyperlink ref="C872" r:id="rId712" xr:uid="{B9AA79FC-0D0D-CB40-B522-9F93A840787A}"/>
+    <hyperlink ref="C875" r:id="rId713" xr:uid="{015EC865-92E5-4249-862F-7EF1BDF7B0D1}"/>
+    <hyperlink ref="C879" r:id="rId714" xr:uid="{BA4FC7F1-4F0A-0241-9922-7E450720659D}"/>
+    <hyperlink ref="C881" r:id="rId715" xr:uid="{BBB052F9-7EC7-C545-AFB0-7FE19E049E8B}"/>
+    <hyperlink ref="C882" r:id="rId716" xr:uid="{5339724D-9617-814D-AD7C-BE29436CC0B6}"/>
+    <hyperlink ref="C888" r:id="rId717" xr:uid="{02B1DC3F-5A46-8D49-9E93-8DB8B39EA43C}"/>
+    <hyperlink ref="C890" r:id="rId718" xr:uid="{945A3068-8842-4243-A4CB-C353EC2253BE}"/>
+    <hyperlink ref="C894" r:id="rId719" xr:uid="{BDAA6A92-E14B-AD44-9119-EF666F761317}"/>
+    <hyperlink ref="C895" r:id="rId720" xr:uid="{21280693-1B5A-E841-AB37-AA3046A4E50C}"/>
+    <hyperlink ref="C896" r:id="rId721" xr:uid="{64B3119E-5D2E-024B-A7D6-FB1BC5F3CB7C}"/>
+    <hyperlink ref="C897" r:id="rId722" xr:uid="{4009F31D-B1FD-6347-AD8E-E807DE33D98C}"/>
+    <hyperlink ref="C898" r:id="rId723" xr:uid="{5D98C2BF-6D12-5442-9AA8-E8B2AD19752F}"/>
+    <hyperlink ref="C899" r:id="rId724" xr:uid="{205CDDC0-C244-4341-BBC7-254DED1F87DB}"/>
+    <hyperlink ref="C900" r:id="rId725" xr:uid="{A8CDA01E-AB96-9D41-8988-298C7F5DDE13}"/>
+    <hyperlink ref="C901" r:id="rId726" xr:uid="{0FFBC90E-0555-184E-9C97-318B92902D89}"/>
+    <hyperlink ref="C902" r:id="rId727" xr:uid="{35A3AED0-021B-9F47-AEBA-E4D388F350C9}"/>
+    <hyperlink ref="C905" r:id="rId728" xr:uid="{3C097F79-F5D9-9741-B32A-141986A79CF9}"/>
+    <hyperlink ref="C906" r:id="rId729" xr:uid="{9408EA4D-4ECA-2442-9AD7-E19E68885103}"/>
+    <hyperlink ref="C907" r:id="rId730" xr:uid="{E317D7CB-C742-5A44-85AD-002DF7F81AA9}"/>
+    <hyperlink ref="C908" r:id="rId731" xr:uid="{D57E2585-B2D0-3A4A-B31D-D906F23D747A}"/>
+    <hyperlink ref="C909" r:id="rId732" xr:uid="{EDC7827D-3DBD-9249-97F8-ECE09820AE76}"/>
+    <hyperlink ref="C912" r:id="rId733" xr:uid="{C71829A3-4EC5-9148-80F7-857918ECED7A}"/>
+    <hyperlink ref="C914" r:id="rId734" xr:uid="{CCD88FC1-786D-6D4A-9995-94E5C9A41C5F}"/>
+    <hyperlink ref="C916" r:id="rId735" xr:uid="{CE1061D8-CE08-1445-BA28-113A33653D84}"/>
+    <hyperlink ref="C917" r:id="rId736" xr:uid="{7AEEEEE8-C067-FE48-8032-BF376E377C54}"/>
+    <hyperlink ref="C919" r:id="rId737" xr:uid="{7D4D52DE-D706-F345-B04A-9DD4984E2C79}"/>
+    <hyperlink ref="C920" r:id="rId738" xr:uid="{3E8FBFDB-B913-8940-9018-23D1AA4AFAD9}"/>
+    <hyperlink ref="C922" r:id="rId739" xr:uid="{99AEB5A3-11B9-034C-8577-C22E38C0822E}"/>
+    <hyperlink ref="C923" r:id="rId740" xr:uid="{8E40F67F-A4AF-2E47-A936-340423ACC9C1}"/>
+    <hyperlink ref="C924" r:id="rId741" xr:uid="{A79D79F7-6EFF-864C-89F4-19AFB1EFDA97}"/>
+    <hyperlink ref="C925" r:id="rId742" xr:uid="{33300372-A114-8B4C-85AB-7B9DD951FDE1}"/>
+    <hyperlink ref="C927" r:id="rId743" xr:uid="{7124445B-8F22-304C-A092-F1D0F05248E4}"/>
+    <hyperlink ref="C929" r:id="rId744" xr:uid="{BC21C001-84E2-FF49-843E-DBB302D34F80}"/>
+    <hyperlink ref="C930" r:id="rId745" xr:uid="{946C476B-D2B8-1743-B254-ED7B4F744539}"/>
+    <hyperlink ref="C932" r:id="rId746" xr:uid="{19DB89F7-A685-6D40-8C80-FD9B6647520B}"/>
+    <hyperlink ref="C933" r:id="rId747" xr:uid="{18DFBE95-DDE7-7742-A7FB-0EED8C8410D5}"/>
+    <hyperlink ref="C934" r:id="rId748" xr:uid="{60976CAF-CF38-4F4D-99F6-EF92AB893969}"/>
+    <hyperlink ref="C935" r:id="rId749" xr:uid="{FCAD629B-5960-EC47-AC40-046B7890C9B6}"/>
+    <hyperlink ref="C936" r:id="rId750" xr:uid="{14BCAB9D-8771-F549-AD21-03FBBD73A963}"/>
+    <hyperlink ref="C937" r:id="rId751" xr:uid="{4B2C39D7-4791-EE4F-8145-6B5F063BF4E4}"/>
+    <hyperlink ref="C940" r:id="rId752" xr:uid="{29BC098E-D913-1D49-9DF0-653530F00EB7}"/>
+    <hyperlink ref="C941" r:id="rId753" xr:uid="{2550A8A9-4D5C-F74E-8F7D-1641CEFFB195}"/>
+    <hyperlink ref="C942" r:id="rId754" xr:uid="{915FAE25-6C27-9441-84CA-15E5E2F78464}"/>
+    <hyperlink ref="C943" r:id="rId755" xr:uid="{936D595E-438B-2145-8A1A-37497BBF5196}"/>
+    <hyperlink ref="C944" r:id="rId756" xr:uid="{26750696-8C20-3143-97EB-35E50E7BFD12}"/>
+    <hyperlink ref="C946" r:id="rId757" display="https://rahma5555.github.io/roro00/" xr:uid="{620A1B04-93DB-3946-B557-000B0662AD9C}"/>
+    <hyperlink ref="C947" r:id="rId758" xr:uid="{46D82CFC-ED64-0D45-A4CD-ABAAB0E1ABD3}"/>
+    <hyperlink ref="C948" r:id="rId759" xr:uid="{53541758-0567-6540-8D30-C128E32F29F8}"/>
+    <hyperlink ref="C949" r:id="rId760" xr:uid="{2E4A606F-5C21-2F4D-B843-4CAF3023D659}"/>
+    <hyperlink ref="C950" r:id="rId761" xr:uid="{4D5EBF0A-E815-D846-9650-DD3C714047CB}"/>
+    <hyperlink ref="C951" r:id="rId762" xr:uid="{15FA6BF8-B928-C544-97D3-C5BCE3AAE63B}"/>
+    <hyperlink ref="C952" r:id="rId763" xr:uid="{B646C272-FF43-C549-8A44-7DB4746441AA}"/>
+    <hyperlink ref="C956" r:id="rId764" xr:uid="{0253C680-6B8D-0445-86CB-332503A71BE0}"/>
+    <hyperlink ref="C957" r:id="rId765" xr:uid="{487CFDC8-9B57-0040-9FB4-6AD027D0D203}"/>
+    <hyperlink ref="C958" r:id="rId766" xr:uid="{0AC8EA2A-997F-FE4B-B8A9-E95358A514D5}"/>
+    <hyperlink ref="C959" r:id="rId767" xr:uid="{0A3A49CF-D414-5043-B036-E399240D3AB6}"/>
+    <hyperlink ref="C960" r:id="rId768" display="https://loloah20.githup.io/sva20/" xr:uid="{5DA27041-95C6-1841-8D26-E6D344A543BD}"/>
+    <hyperlink ref="C962" r:id="rId769" xr:uid="{B7D67B34-57EC-1740-946A-43390330E60C}"/>
+    <hyperlink ref="C963" r:id="rId770" xr:uid="{B0C20168-2D67-E640-A282-84D726A3CD15}"/>
+    <hyperlink ref="C964" r:id="rId771" xr:uid="{5B2F783E-C7FF-A543-A262-436863BB1ADE}"/>
+    <hyperlink ref="C966" r:id="rId772" xr:uid="{9B055F7C-48F8-644D-99D6-D09C693EF023}"/>
+    <hyperlink ref="C967" r:id="rId773" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{40A910AD-405B-5C41-AFF9-3A4ECB562072}"/>
+    <hyperlink ref="C968" r:id="rId774" xr:uid="{72050256-EDD5-D443-B9B0-062B6402808F}"/>
+    <hyperlink ref="C969" r:id="rId775" xr:uid="{F4CFC390-7C12-934A-B3AF-274A5A011940}"/>
+    <hyperlink ref="C970" r:id="rId776" xr:uid="{E3826790-855E-6241-9B95-61208714E633}"/>
+    <hyperlink ref="C971" r:id="rId777" xr:uid="{51081F0D-F546-1A4D-894E-AE3EF32124BE}"/>
+    <hyperlink ref="C972" r:id="rId778" xr:uid="{F945A5B4-61B0-D846-8411-629BD7463564}"/>
+    <hyperlink ref="C973" r:id="rId779" xr:uid="{06D69C09-D033-5A46-A8C8-73D437F1D946}"/>
+    <hyperlink ref="C974" r:id="rId780" display="https://basant1512006.github.io/basant-walid/" xr:uid="{6BEDD8EF-0C1D-F641-882E-252ACA2C0D74}"/>
+    <hyperlink ref="C975" r:id="rId781" xr:uid="{6A446359-2D4B-024F-AF38-7A051E89C23F}"/>
+    <hyperlink ref="C976" r:id="rId782" xr:uid="{7E774A04-5B11-F24B-83B8-1EF9160DADC3}"/>
+    <hyperlink ref="C977" r:id="rId783" xr:uid="{C6AC1E43-7E26-5B48-92C9-C8489549BF52}"/>
+    <hyperlink ref="C979" r:id="rId784" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{3B910FCC-C3C0-4745-B1B8-D8F630FBCE3B}"/>
+    <hyperlink ref="C980" r:id="rId785" xr:uid="{8985B223-4EBD-B64A-BD3F-5E8AFA0FB169}"/>
+    <hyperlink ref="C981" r:id="rId786" xr:uid="{EBCC774B-CEB8-C94A-B325-80199FF1F161}"/>
+    <hyperlink ref="C982" r:id="rId787" xr:uid="{6ACA7902-6E9C-D64C-A553-2E79A0206AAE}"/>
+    <hyperlink ref="C983" r:id="rId788" xr:uid="{E4ED3871-92E2-7B4A-9CAB-6103CB63B283}"/>
+    <hyperlink ref="C984" r:id="rId789" xr:uid="{B173829A-360A-9B45-B651-9163D48A28F2}"/>
+    <hyperlink ref="C985" r:id="rId790" xr:uid="{BB000C15-C2A5-594E-8FC8-3FD47124AB72}"/>
+    <hyperlink ref="C986" r:id="rId791" xr:uid="{4266F22A-DC6F-F442-8B1A-0ADDBC10F9E3}"/>
+    <hyperlink ref="C987" r:id="rId792" xr:uid="{3954928C-20E7-7941-87C4-E6D54E43367C}"/>
+    <hyperlink ref="C988" r:id="rId793" xr:uid="{DD9B11CA-970C-424B-B071-A87D2A1CBDFB}"/>
+    <hyperlink ref="C989" r:id="rId794" xr:uid="{67DEC2EF-4C8D-D345-A323-229A12C825A4}"/>
+    <hyperlink ref="C990" r:id="rId795" xr:uid="{4E6FEC18-98BE-CA4B-9EB2-4631D83D5B35}"/>
+    <hyperlink ref="C991" r:id="rId796" xr:uid="{C08123AD-F500-8442-BBE1-AF5C41F43194}"/>
+    <hyperlink ref="C993" r:id="rId797" xr:uid="{D211D3BD-35C8-3B4F-AC1E-FF0CE9147F9F}"/>
+    <hyperlink ref="C994" r:id="rId798" xr:uid="{F753BE95-4B8A-6E4D-87AC-122BF6F700BF}"/>
+    <hyperlink ref="C995" r:id="rId799" xr:uid="{F61B0F8A-1417-7542-BA2D-ACE9BB07F949}"/>
+    <hyperlink ref="C996" r:id="rId800" xr:uid="{AB0E9654-5762-8D4A-8673-C9B8DD5F55FD}"/>
+    <hyperlink ref="C997" r:id="rId801" xr:uid="{6460C827-6BEB-724A-852B-734DC9942B13}"/>
+    <hyperlink ref="C998" r:id="rId802" xr:uid="{79425C67-D635-BF4B-A8C3-4F406E35BBBA}"/>
+    <hyperlink ref="C999" r:id="rId803" xr:uid="{452C3722-0CDE-CC49-AA24-CED3CEEB517D}"/>
+    <hyperlink ref="C1000" r:id="rId804" xr:uid="{AFADEB63-E829-7C41-B513-4EDC21AF36EB}"/>
+    <hyperlink ref="C1001" r:id="rId805" xr:uid="{C6D8D216-B3F1-624D-93B5-008DFD53117B}"/>
+    <hyperlink ref="C1002" r:id="rId806" xr:uid="{8B64C3FE-1878-5447-A746-90E9DC50A2E7}"/>
+    <hyperlink ref="C1003" r:id="rId807" xr:uid="{46482667-FEC3-0B4A-ACE2-4BEDAB73C577}"/>
+    <hyperlink ref="C1004" r:id="rId808" xr:uid="{061A5202-D983-314D-AC2B-241792C8932C}"/>
+    <hyperlink ref="C1005" r:id="rId809" xr:uid="{7CFE4527-A132-9E4D-9608-FAA2E2A9CD04}"/>
+    <hyperlink ref="C1006" r:id="rId810" xr:uid="{E23E1118-4766-0941-870C-CA5DF4DBF3F4}"/>
+    <hyperlink ref="C1007" r:id="rId811" xr:uid="{1D99C507-0BAA-DA4D-9D15-98E796A28500}"/>
+    <hyperlink ref="C1009" r:id="rId812" xr:uid="{3A8532AD-0C7B-1E47-97D2-5A992BCA9FA8}"/>
+    <hyperlink ref="C1010" r:id="rId813" xr:uid="{5F3B5BAF-04C7-2949-A0E1-670E943C6289}"/>
+    <hyperlink ref="C1011" r:id="rId814" xr:uid="{D037FC7C-46C0-A147-9C7B-1EDBFD28CC6D}"/>
+    <hyperlink ref="C1012" r:id="rId815" xr:uid="{2AC571CD-E6CA-974C-A21F-9A851402D73B}"/>
+    <hyperlink ref="C1013" r:id="rId816" xr:uid="{C4902052-894B-1A4A-B4A2-5E3969BB4F92}"/>
+    <hyperlink ref="C1014" r:id="rId817" xr:uid="{FBB721CD-4C64-8348-92E1-5433BA428AFC}"/>
+    <hyperlink ref="C1015" r:id="rId818" xr:uid="{AF6930AB-33C7-DA44-9DC4-AEF36E23D400}"/>
+    <hyperlink ref="C1016" r:id="rId819" xr:uid="{A1C74645-05F9-5249-A23B-CD25C52A58A4}"/>
+    <hyperlink ref="C1017" r:id="rId820" xr:uid="{8416E63B-F169-BB40-B896-7FEC86FCD494}"/>
+    <hyperlink ref="C1018" r:id="rId821" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{CADCCD4B-EF57-7C49-9C28-67CE1C43D2BA}"/>
+    <hyperlink ref="C1019" r:id="rId822" xr:uid="{4D76F175-6BA3-B046-A6C5-AF99B316500D}"/>
+    <hyperlink ref="C1020" r:id="rId823" xr:uid="{3D81DBD4-6B71-494E-89EB-46A3E8E26292}"/>
+    <hyperlink ref="C1022" r:id="rId824" xr:uid="{C9D5C099-116A-314E-8177-D5EBFF241519}"/>
+    <hyperlink ref="C1023" r:id="rId825" xr:uid="{429281A0-DCFB-5B49-80A2-B9B4014C5FF1}"/>
+    <hyperlink ref="C1024" r:id="rId826" xr:uid="{3B46EB03-3C3E-5F40-A9BA-C34E48E824D7}"/>
+    <hyperlink ref="C1025" r:id="rId827" xr:uid="{0C90D3AA-3C67-1345-99F6-46CD38DD3AD0}"/>
+    <hyperlink ref="C1026" r:id="rId828" xr:uid="{606E83EE-63A2-F246-B696-6117AFED93ED}"/>
+    <hyperlink ref="C1027" r:id="rId829" xr:uid="{79335609-AF91-F240-A68D-B3E97D03C89D}"/>
+    <hyperlink ref="C1028" r:id="rId830" xr:uid="{08A2BE0C-2C74-0C4C-B8AF-B635CC2CB1CD}"/>
+    <hyperlink ref="C1029" r:id="rId831" xr:uid="{B3C0C269-DF90-574F-8A82-36CB36DDE91E}"/>
+    <hyperlink ref="C1030" r:id="rId832" xr:uid="{0005A8D3-B59D-7642-8182-68DBF6F68AAE}"/>
+    <hyperlink ref="C1031" r:id="rId833" xr:uid="{97328432-E3FE-1548-8695-F6E2476D18FB}"/>
+    <hyperlink ref="C1037" r:id="rId834" xr:uid="{48315BEE-72DC-B240-B796-1A79BF56023B}"/>
+    <hyperlink ref="C1038" r:id="rId835" xr:uid="{017AE80A-4E7F-EF41-B541-3C2E21E02A3D}"/>
+    <hyperlink ref="C1039" r:id="rId836" xr:uid="{9CA73206-BD8F-F74C-BC5F-ABAF527F2213}"/>
+    <hyperlink ref="C1040" r:id="rId837" xr:uid="{BF607EFC-6801-A146-90B9-A6C43D4CB26E}"/>
+    <hyperlink ref="C1041" r:id="rId838" xr:uid="{6CED64CC-5690-D84B-A429-992BF6F463CD}"/>
+    <hyperlink ref="C1042" r:id="rId839" xr:uid="{CFD48354-AD6F-4046-A7D6-472D9FCAFD55}"/>
+    <hyperlink ref="C1044" r:id="rId840" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{E93A012B-C1AB-D642-8618-DA0566BF3E29}"/>
+    <hyperlink ref="C1045" r:id="rId841" xr:uid="{7F92FBB2-70C5-C247-B3E2-F833D7E638D4}"/>
+    <hyperlink ref="C1048" r:id="rId842" xr:uid="{36E99082-F753-8346-890C-5C749F710931}"/>
+    <hyperlink ref="C1049" r:id="rId843" xr:uid="{21DAD78A-2CE8-254B-AD8E-58373CF164A8}"/>
+    <hyperlink ref="C1050" r:id="rId844" xr:uid="{B41E3D06-33E1-D145-95BB-B9B45E00BA3C}"/>
+    <hyperlink ref="C1052" r:id="rId845" xr:uid="{209DF8E9-82E7-B54F-9C88-78823CAE43DB}"/>
+    <hyperlink ref="C1053" r:id="rId846" xr:uid="{E15325A4-1E4B-2C4F-9C43-58D052AAFC21}"/>
+    <hyperlink ref="C1054" r:id="rId847" xr:uid="{B5CF7E35-A8FF-9C49-95A3-A7F303C07725}"/>
+    <hyperlink ref="C1056" r:id="rId848" xr:uid="{181B4974-9801-504B-A32C-8C67D02D7961}"/>
+    <hyperlink ref="C1057" r:id="rId849" xr:uid="{126DE240-D496-5044-B92E-C7A9B774E849}"/>
+    <hyperlink ref="C1058" r:id="rId850" xr:uid="{7B4652CE-EF1E-3641-8D79-44AE7C156E60}"/>
+    <hyperlink ref="C1061" r:id="rId851" xr:uid="{3F0739BA-66B7-FC47-8BA9-CE2532010067}"/>
+    <hyperlink ref="C1062" r:id="rId852" xr:uid="{A52C672B-629C-A542-AA08-217D449A2AA2}"/>
+    <hyperlink ref="C1063" r:id="rId853" xr:uid="{51A2E35D-ACDC-4245-8C0D-25F161E2DCD2}"/>
+    <hyperlink ref="C1064" r:id="rId854" xr:uid="{16703A92-F3DF-6546-8D7D-2D86D720A91B}"/>
+    <hyperlink ref="C1065" r:id="rId855" xr:uid="{21830B99-D400-A444-AB50-2035024252CD}"/>
+    <hyperlink ref="C1066" r:id="rId856" xr:uid="{1E9309E5-1516-BA4F-B2DE-84139E895419}"/>
+    <hyperlink ref="C1067" r:id="rId857" xr:uid="{47F86E5B-3DB4-1C45-B0FD-A0D69AAD8E9B}"/>
+    <hyperlink ref="C1072" r:id="rId858" xr:uid="{A28D017A-99ED-A845-A185-9D1CE072783F}"/>
+    <hyperlink ref="C1073" r:id="rId859" xr:uid="{4F8E6357-66DC-0B44-8B4A-E7816B47D561}"/>
+    <hyperlink ref="C1074" r:id="rId860" xr:uid="{0A4FE784-22FC-5E41-8475-C8135BB725E2}"/>
+    <hyperlink ref="C1075" r:id="rId861" xr:uid="{004C433F-74D9-AC43-8B13-0DA3A52F4DCA}"/>
+    <hyperlink ref="C1076" r:id="rId862" xr:uid="{75F052E3-148C-3D4D-A285-044C82B81158}"/>
+    <hyperlink ref="C1077" r:id="rId863" xr:uid="{AF177F66-411B-BF48-8F47-2CFFB11B92C4}"/>
+    <hyperlink ref="C1078" r:id="rId864" xr:uid="{4CCED98D-59AD-0140-B6E4-9F6E5C3F0CBD}"/>
+    <hyperlink ref="C1079" r:id="rId865" xr:uid="{2B06AB54-E76E-4C4D-9C7A-B8BB38CACF79}"/>
+    <hyperlink ref="C1080" r:id="rId866" xr:uid="{9BF04946-E507-7D4A-9BBB-9AC1A2E27E42}"/>
+    <hyperlink ref="C1081" r:id="rId867" xr:uid="{ECC18BC7-8BEE-F543-B3BC-1B819A08182F}"/>
+    <hyperlink ref="C1082" r:id="rId868" xr:uid="{0864C338-9C05-ED44-9FC4-C4B979BFE7D6}"/>
+    <hyperlink ref="C1083" r:id="rId869" xr:uid="{CD949D80-1C39-1341-BA33-901A8CC6034C}"/>
+    <hyperlink ref="C1084" r:id="rId870" xr:uid="{DC1CE76C-33A6-E24E-B57C-7DBB49E2B1D5}"/>
+    <hyperlink ref="C1085" r:id="rId871" xr:uid="{9458B10B-10EF-C541-91F2-CD28C88AFF79}"/>
+    <hyperlink ref="C1086" r:id="rId872" xr:uid="{E4A96AB2-004D-DC4C-AC07-F434AD02C48C}"/>
+    <hyperlink ref="C1087" r:id="rId873" xr:uid="{92F0686F-BFB5-284B-90D4-DFEE8922C1CF}"/>
+    <hyperlink ref="C1088" r:id="rId874" xr:uid="{4AF39076-FC34-CF45-98A7-36A90D383545}"/>
+    <hyperlink ref="C1089" r:id="rId875" xr:uid="{0E3B4DBA-C728-0A4A-A13D-F23EC9348872}"/>
+    <hyperlink ref="C1091" r:id="rId876" xr:uid="{68183717-FD2D-F64B-B7D0-646C7BB1F68A}"/>
+    <hyperlink ref="C1092" r:id="rId877" xr:uid="{88E17053-A53E-7242-9AEC-D2A1626F74A0}"/>
+    <hyperlink ref="C1093" r:id="rId878" xr:uid="{C99F4C96-A1F3-594C-9E3D-660CE9C35E69}"/>
+    <hyperlink ref="C1094" r:id="rId879" xr:uid="{27C22B04-784C-F946-B7D6-8516AC5C806A}"/>
+    <hyperlink ref="C1095" r:id="rId880" xr:uid="{78F9A2B6-0839-3D49-B584-B41817925B63}"/>
+    <hyperlink ref="C1096" r:id="rId881" xr:uid="{E15719C1-0F4D-A54C-BF55-AC2A06DBCF1F}"/>
+    <hyperlink ref="C1097" r:id="rId882" xr:uid="{E05E2014-CB6A-8B41-8B1E-D2B63658E78E}"/>
+    <hyperlink ref="C1098" r:id="rId883" xr:uid="{1FD374A0-049A-9A47-9F4B-018FDB28A22D}"/>
+    <hyperlink ref="C1099" r:id="rId884" xr:uid="{710D31AE-1EBB-0C49-990A-DA328B55C23A}"/>
+    <hyperlink ref="C1102" r:id="rId885" xr:uid="{D14EA6F8-33CC-2B4A-9839-9B46521F2A4D}"/>
+    <hyperlink ref="C1103" r:id="rId886" xr:uid="{B0A3720F-3DCF-234C-AEAA-776B19D8A8F9}"/>
+    <hyperlink ref="C1104" r:id="rId887" xr:uid="{7E0B0C12-0A20-644F-8988-FCA7BCFB77CC}"/>
+    <hyperlink ref="C1105" r:id="rId888" xr:uid="{593713F6-8212-284D-A3AA-E3372422C5A4}"/>
+    <hyperlink ref="C1106" r:id="rId889" xr:uid="{4BFE3F01-AD42-4E42-8C21-53C52B238CC8}"/>
+    <hyperlink ref="C1107" r:id="rId890" xr:uid="{FE400BD9-0A90-3D4C-90AA-251306C748B2}"/>
+    <hyperlink ref="C1108" r:id="rId891" xr:uid="{0137C66E-26D7-4745-B408-6DDD40B31EAF}"/>
+    <hyperlink ref="C1109" r:id="rId892" xr:uid="{690F6389-C441-B849-9D38-A8E8C63332D3}"/>
+    <hyperlink ref="C1110" r:id="rId893" xr:uid="{3F54E3A3-5482-1F45-9DFF-A9B75B0A2634}"/>
+    <hyperlink ref="C1111" r:id="rId894" xr:uid="{69B8E1AE-8417-2043-A5A0-BD33E894001B}"/>
+    <hyperlink ref="C1112" r:id="rId895" xr:uid="{39E44F9E-CF8B-014C-8331-0DF144EDCA7A}"/>
+    <hyperlink ref="C1113" r:id="rId896" xr:uid="{E4CF98E0-2205-E947-BA49-C7E13ECE494C}"/>
+    <hyperlink ref="C1114" r:id="rId897" xr:uid="{73895D4A-5A30-1F42-A225-301FF3880D1C}"/>
+    <hyperlink ref="C1115" r:id="rId898" xr:uid="{D7570249-D0ED-4148-AEA0-D9824E1F51EB}"/>
+    <hyperlink ref="C1116" r:id="rId899" xr:uid="{950DD1F1-80E4-B844-97A0-1892BB0B5DEB}"/>
+    <hyperlink ref="C1117" r:id="rId900" xr:uid="{E70D5B01-87CC-0846-B768-E37895910EA5}"/>
+    <hyperlink ref="C1118" r:id="rId901" xr:uid="{6CDD2810-D86E-E24C-BF8D-5E7048CCC93D}"/>
+    <hyperlink ref="C1119" r:id="rId902" xr:uid="{7BD7C8C7-5223-C04D-8BDE-7354C0393D8A}"/>
+    <hyperlink ref="C1120" r:id="rId903" xr:uid="{45A69E81-ECB1-3642-AA24-4C33AFBAA721}"/>
+    <hyperlink ref="C1121" r:id="rId904" xr:uid="{363E742D-67DA-B944-863D-F73B7C3928DF}"/>
+    <hyperlink ref="C1122" r:id="rId905" xr:uid="{BFEF2E10-2F41-FD43-AB82-3FF0414CEE43}"/>
+    <hyperlink ref="C1123" r:id="rId906" xr:uid="{228B7040-7358-AC4C-8585-36BE98A4850B}"/>
+    <hyperlink ref="C1124" r:id="rId907" xr:uid="{B8C6B7E2-0CB7-B942-81A2-2354A34BB98E}"/>
+    <hyperlink ref="C1125" r:id="rId908" xr:uid="{76B73CCA-E9CA-AC4C-A2D1-ECD8E25DD755}"/>
+    <hyperlink ref="C1126" r:id="rId909" xr:uid="{45BAFE4E-4D3E-2442-AB02-42BBC334A027}"/>
+    <hyperlink ref="C1127" r:id="rId910" xr:uid="{EBF1737F-B21B-C24A-8C18-EF84A7A2A7CB}"/>
+    <hyperlink ref="C1128" r:id="rId911" xr:uid="{6A7BB6F6-0859-5344-A2CA-48E265D4FFE1}"/>
+    <hyperlink ref="C1129" r:id="rId912" xr:uid="{CFF57C57-50C7-B14D-90BA-6C4F7C19EF39}"/>
+    <hyperlink ref="C1131" r:id="rId913" xr:uid="{DE6285BF-A57B-AA47-80DA-5DF7A3A5864B}"/>
+    <hyperlink ref="C1132" r:id="rId914" xr:uid="{10EEC4B4-B23C-5C45-83AA-405103F037B2}"/>
+    <hyperlink ref="C1133" r:id="rId915" xr:uid="{F9BF808C-4B8F-5342-8EC8-6F8A9A03BB02}"/>
+    <hyperlink ref="C1134" r:id="rId916" xr:uid="{A9BD0BD1-24C8-EF47-B1EC-53157A75A65A}"/>
+    <hyperlink ref="C1135" r:id="rId917" xr:uid="{AC19E6BA-CC82-154B-9373-C6ADE81E19E4}"/>
+    <hyperlink ref="C1136" r:id="rId918" xr:uid="{EB680DC8-1968-6944-B560-0CEC467BDA3B}"/>
+    <hyperlink ref="C1137" r:id="rId919" xr:uid="{FDBCA00F-2C6C-AC4A-BA73-38CF0DB4EEB4}"/>
+    <hyperlink ref="C1138" r:id="rId920" xr:uid="{05DEA59D-1DF7-9C48-BEF0-BC5A73814B57}"/>
+    <hyperlink ref="C1139" r:id="rId921" xr:uid="{4BBA56BF-B00F-DB41-9B86-8B405F9025F7}"/>
+    <hyperlink ref="C1140" r:id="rId922" xr:uid="{21F069CF-1729-0642-AADA-FE9B1D4AEBDF}"/>
+    <hyperlink ref="C1141" r:id="rId923" xr:uid="{881876CC-3047-3B4E-A650-F4E560308728}"/>
+    <hyperlink ref="C1142" r:id="rId924" xr:uid="{FE39A6CE-B60F-0440-8DCA-CB1209350446}"/>
+    <hyperlink ref="C1143" r:id="rId925" xr:uid="{1C7A12EC-AD7D-6140-8E6C-62458A0721D2}"/>
+    <hyperlink ref="C1144" r:id="rId926" xr:uid="{B3904BA1-8002-9247-ABF4-86DED5C24B77}"/>
+    <hyperlink ref="C1145" r:id="rId927" xr:uid="{79468387-1D15-F14E-9E4A-A7372F7C264B}"/>
+    <hyperlink ref="C1146" r:id="rId928" xr:uid="{FBE417E5-23F5-4E43-A933-0E939E679FB1}"/>
+    <hyperlink ref="C1147" r:id="rId929" xr:uid="{3EF17916-F3A4-8B49-BF7D-C11B5D67D533}"/>
+    <hyperlink ref="C1148" r:id="rId930" xr:uid="{5A7BB126-FC1B-374A-8D8F-F569BA957C44}"/>
+    <hyperlink ref="C1149" r:id="rId931" xr:uid="{6516E586-8A5A-D448-A7AE-7F74E08D7C73}"/>
+    <hyperlink ref="C1150" r:id="rId932" xr:uid="{C8C1DA63-AD38-7C42-91F9-EF9D16691DB9}"/>
+    <hyperlink ref="C1151" r:id="rId933" xr:uid="{CD42A772-A465-FC49-829B-5C86EC89F8B2}"/>
+    <hyperlink ref="C1152" r:id="rId934" xr:uid="{39DD71F8-897E-0046-BDCB-8761A2A18120}"/>
+    <hyperlink ref="C1153" r:id="rId935" xr:uid="{EEA4C258-09AD-9640-89DA-1A1456F12077}"/>
+    <hyperlink ref="C1154" r:id="rId936" xr:uid="{88D53DB5-84E3-3142-8C0C-EF8991DE263E}"/>
+    <hyperlink ref="C1155" r:id="rId937" xr:uid="{2B161581-2C95-0A45-92AD-C7F9E11DF417}"/>
+    <hyperlink ref="C1156" r:id="rId938" xr:uid="{D2CE425F-31A8-7C41-B4B3-A75F4D8A79DF}"/>
+    <hyperlink ref="C1157" r:id="rId939" xr:uid="{47A16AB8-700C-6641-9287-E9B4158F4F35}"/>
+    <hyperlink ref="C1158" r:id="rId940" xr:uid="{3DAED464-B0E8-8447-B000-3A4C5761A5C4}"/>
+    <hyperlink ref="C1159" r:id="rId941" xr:uid="{EC83B631-8CFF-5449-8E0E-4F815D082454}"/>
+    <hyperlink ref="C1160" r:id="rId942" xr:uid="{E2ABA2AD-6A6D-694E-9662-0E6274C63FA3}"/>
+    <hyperlink ref="C1161" r:id="rId943" xr:uid="{BBA11A09-4E53-0544-AF0A-68BD86DD16BC}"/>
+    <hyperlink ref="C1162" r:id="rId944" xr:uid="{6A4A042F-7288-9C47-B381-6864AE4002B6}"/>
+    <hyperlink ref="C1163" r:id="rId945" xr:uid="{E96554FA-9811-B345-B3CE-BD2601CCB6EF}"/>
+    <hyperlink ref="C1164" r:id="rId946" xr:uid="{BDF99544-3378-6547-A35E-46819B257338}"/>
+    <hyperlink ref="C1165" r:id="rId947" xr:uid="{A8576696-DCB1-E64C-A148-255A3C76F8F0}"/>
+    <hyperlink ref="C1166" r:id="rId948" xr:uid="{88339667-1D10-9E49-B48A-3F00059BDC11}"/>
+    <hyperlink ref="C1167" r:id="rId949" xr:uid="{9744466A-DCD6-9F47-B670-F29555DC01BF}"/>
+    <hyperlink ref="C1168" r:id="rId950" xr:uid="{B0364D13-D162-6E4B-95A8-E5F4CFD0E186}"/>
+    <hyperlink ref="C1170" r:id="rId951" xr:uid="{D3297C42-78D5-C048-9A55-A5532AAF9434}"/>
+    <hyperlink ref="C1171" r:id="rId952" xr:uid="{06142F6B-F7D7-CB4C-8DDA-B24D5F7936A8}"/>
+    <hyperlink ref="C1172" r:id="rId953" xr:uid="{DB4CDD85-B19F-3D43-9C20-D0A05B7BA98E}"/>
+    <hyperlink ref="C1173" r:id="rId954" xr:uid="{8D25AF54-6262-6D47-8088-B8AC087E54D0}"/>
+    <hyperlink ref="C1174" r:id="rId955" xr:uid="{20844BCE-ADFA-7F40-AC7F-11EF947A6244}"/>
+    <hyperlink ref="C1175" r:id="rId956" xr:uid="{48D04241-75B1-6E40-9268-0B206C379C0E}"/>
+    <hyperlink ref="C1176" r:id="rId957" xr:uid="{9AD6C8B7-D045-4745-9537-E39AD1E2327D}"/>
+    <hyperlink ref="C1177" r:id="rId958" xr:uid="{DA5D8415-3D13-6F4B-B9A6-B7C0A4CF8774}"/>
+    <hyperlink ref="C1178" r:id="rId959" xr:uid="{1D277171-6868-A642-834B-B91A109ECF29}"/>
+    <hyperlink ref="C1179" r:id="rId960" xr:uid="{5A067F32-4BFD-5C48-A751-E63DB70D2C27}"/>
+    <hyperlink ref="C1180" r:id="rId961" xr:uid="{10CAE5D0-B5EA-FE4D-841E-CF441C627448}"/>
+    <hyperlink ref="C1181" r:id="rId962" xr:uid="{D7FABE54-5ACB-3445-9605-CCBC5C3AE7EE}"/>
+    <hyperlink ref="C1182" r:id="rId963" xr:uid="{5C6CC394-7D1E-9A41-8405-17B3E78915D8}"/>
+    <hyperlink ref="C1183" r:id="rId964" xr:uid="{1325BFB1-AD9D-9645-8EC5-C92C915E0F1A}"/>
+    <hyperlink ref="C1184" r:id="rId965" xr:uid="{42EE89EE-E685-9D4D-9900-4A238A484D74}"/>
+    <hyperlink ref="C1185" r:id="rId966" xr:uid="{F0DD5EB4-B8E3-064E-8999-A47B54BA2479}"/>
+    <hyperlink ref="C1186" r:id="rId967" xr:uid="{1E9BFBEB-0B66-FB49-86F4-52302ADCD507}"/>
+    <hyperlink ref="C1187" r:id="rId968" xr:uid="{EA87927A-28DC-7E4C-A412-0C32CCA3C202}"/>
+    <hyperlink ref="C1188" r:id="rId969" xr:uid="{488F09C2-5F8D-8E4B-95CB-94FFCA9AE877}"/>
+    <hyperlink ref="C1189" r:id="rId970" xr:uid="{B2A1C4E3-F4FC-DE46-98A1-3754959D3598}"/>
+    <hyperlink ref="C1190" r:id="rId971" xr:uid="{E4678A8E-F013-664C-99EB-6EB1F5CD832D}"/>
+    <hyperlink ref="C1191" r:id="rId972" xr:uid="{E3B5A40E-12A4-494C-A56F-3B3A6AD4604C}"/>
+    <hyperlink ref="C1192" r:id="rId973" xr:uid="{E8543BEC-2830-4B40-9B2B-05467CAB884E}"/>
+    <hyperlink ref="C1193" r:id="rId974" xr:uid="{03964119-EF5C-6245-A0B9-EB08ED969E6A}"/>
+    <hyperlink ref="C1194" r:id="rId975" xr:uid="{744F6A0A-3071-584C-B649-B04717845A5D}"/>
+    <hyperlink ref="C1195" r:id="rId976" xr:uid="{FA701246-EAFC-984D-BF20-1C18C8F2FED7}"/>
+    <hyperlink ref="C1196" r:id="rId977" xr:uid="{74E82B81-B530-294F-B4FF-F692E5706621}"/>
+    <hyperlink ref="C1197" r:id="rId978" xr:uid="{EBB0141C-656F-B545-B1B9-8CB3AD126C84}"/>
+    <hyperlink ref="C1198" r:id="rId979" xr:uid="{A248EE79-95DD-0E48-AAC5-3663C9D5399F}"/>
+    <hyperlink ref="C1199" r:id="rId980" xr:uid="{CF22A47C-B446-3D43-B4D8-412D5BE140EF}"/>
+    <hyperlink ref="C1200" r:id="rId981" xr:uid="{46D26395-C382-F440-A358-4618B12D90F1}"/>
+    <hyperlink ref="C1201" r:id="rId982" xr:uid="{238F4412-E8D3-B14E-843C-D0650D029599}"/>
+    <hyperlink ref="C1202" r:id="rId983" xr:uid="{1DC4FEFD-45CA-444C-BC1F-24CD1A989D01}"/>
+    <hyperlink ref="C1203" r:id="rId984" xr:uid="{A773A822-8F01-0845-B71E-1EA8567A3BAD}"/>
+    <hyperlink ref="C1204" r:id="rId985" xr:uid="{51D09358-5FE4-E349-9D6E-F01554883809}"/>
+    <hyperlink ref="C1205" r:id="rId986" xr:uid="{96F5AC0A-68D4-5443-B380-E4AD9AE17003}"/>
+    <hyperlink ref="C1206" r:id="rId987" xr:uid="{9D474752-F1CD-4F40-B698-355A6D894D22}"/>
+    <hyperlink ref="C1207" r:id="rId988" xr:uid="{C7A55F18-3AC0-DB4A-98D2-0662BBB531DD}"/>
+    <hyperlink ref="C1208" r:id="rId989" xr:uid="{347E962B-5E5E-AB43-BEEF-DFF856EB3A7E}"/>
+    <hyperlink ref="C1209" r:id="rId990" xr:uid="{AF03AB39-B8F6-5346-8EDB-CE00B2340637}"/>
+    <hyperlink ref="C1210" r:id="rId991" xr:uid="{5C5B166A-25D3-9548-B7E6-6EAD3C405E37}"/>
+    <hyperlink ref="C1211" r:id="rId992" xr:uid="{6F6D717D-DA33-3D46-B213-17E32203D286}"/>
+    <hyperlink ref="C1212" r:id="rId993" xr:uid="{57D484F8-8CB9-5948-9F07-D04840CC2C4D}"/>
+    <hyperlink ref="C1213" r:id="rId994" xr:uid="{93495EAC-8CE0-1644-86D9-7B80BDD84BF8}"/>
+    <hyperlink ref="C1214" r:id="rId995" xr:uid="{F70FEBF3-1863-444F-B37D-8E649DC0B759}"/>
+    <hyperlink ref="C1215" r:id="rId996" xr:uid="{8D5F3680-6738-9E41-B9DC-AD04D8EF238D}"/>
+    <hyperlink ref="C1216" r:id="rId997" xr:uid="{275367F9-FC41-0C43-8D85-1A862DA3C92A}"/>
+    <hyperlink ref="C1217" r:id="rId998" xr:uid="{1C39093F-2F42-6D4D-ACCE-1B839E5D71A0}"/>
+    <hyperlink ref="C1218" r:id="rId999" xr:uid="{3F1C1212-F9D6-D84F-8F9B-64E36924A654}"/>
+    <hyperlink ref="C1219" r:id="rId1000" xr:uid="{82CF08DE-A4AF-B146-A97B-26A5552CA589}"/>
+    <hyperlink ref="C1220" r:id="rId1001" xr:uid="{BF61290D-98D6-F54B-B110-E96B636BB9BB}"/>
+    <hyperlink ref="C1221" r:id="rId1002" xr:uid="{855CBE06-CD53-E845-8FA3-59BB158BFD43}"/>
+    <hyperlink ref="C1222" r:id="rId1003" xr:uid="{979B602A-44D2-894F-98A2-EF5DDDDEDCDA}"/>
+    <hyperlink ref="C1223" r:id="rId1004" xr:uid="{38E270CC-86E4-EB40-80C4-08860F244EB3}"/>
+    <hyperlink ref="C1226" r:id="rId1005" xr:uid="{F89071A5-D80F-6747-957D-6D112CA59705}"/>
+    <hyperlink ref="C1227" r:id="rId1006" xr:uid="{34A48195-CFC8-5347-BA36-04D092CE14C8}"/>
+    <hyperlink ref="C1228" r:id="rId1007" xr:uid="{B6473C6A-069F-A84A-BC18-7B974D83A9C3}"/>
+    <hyperlink ref="C1229" r:id="rId1008" xr:uid="{40C12604-2497-B74D-B97A-5904B1C35886}"/>
+    <hyperlink ref="C1230" r:id="rId1009" xr:uid="{55AAA2A9-F1C2-164F-8FE4-8453369CDE18}"/>
+    <hyperlink ref="C1231" r:id="rId1010" xr:uid="{4E895018-E0BC-1E4A-BE32-BF806786E242}"/>
+    <hyperlink ref="C1232" r:id="rId1011" xr:uid="{8FFFB7FC-846E-F14A-9442-744E3F11EE8D}"/>
+    <hyperlink ref="C1233" r:id="rId1012" xr:uid="{35786CF4-753B-7249-83A9-72E0BF9D109C}"/>
+    <hyperlink ref="C1234" r:id="rId1013" xr:uid="{E5C9C495-CA2E-B345-A086-2A4A971D240A}"/>
+    <hyperlink ref="C1235" r:id="rId1014" xr:uid="{4545C43E-2B2A-5D45-9CCB-678B117263BC}"/>
+    <hyperlink ref="C1236" r:id="rId1015" xr:uid="{62E495C9-9401-4E4A-9F21-10553B7BD81B}"/>
+    <hyperlink ref="C1237" r:id="rId1016" xr:uid="{CE2F5670-B444-E740-B15A-6E2EDD0D8041}"/>
+    <hyperlink ref="C1238" r:id="rId1017" xr:uid="{73443C40-8002-0645-897B-8E12E2171938}"/>
+    <hyperlink ref="C1240" r:id="rId1018" xr:uid="{68320B18-C26D-A649-83DA-D4756FDD574C}"/>
+    <hyperlink ref="C1241" r:id="rId1019" xr:uid="{AB7DD2EF-B62E-F24E-805C-99A2C1EE0C48}"/>
+    <hyperlink ref="C1242" r:id="rId1020" xr:uid="{E4C4D91B-1B10-C94C-80CE-8B8DB5F7789E}"/>
+    <hyperlink ref="C1243" r:id="rId1021" xr:uid="{9124A3F0-96A7-1F42-821C-2A7C2CF77AA5}"/>
+    <hyperlink ref="C1244" r:id="rId1022" xr:uid="{02177C22-674C-F549-B1D8-CDBD8E6C26AB}"/>
+    <hyperlink ref="C1245" r:id="rId1023" xr:uid="{A469E11E-32AB-B94B-A223-F2994062B862}"/>
+    <hyperlink ref="C1246" r:id="rId1024" xr:uid="{52732CF3-7988-CA4C-BDD4-5AC413F8EC2A}"/>
+    <hyperlink ref="C1247" r:id="rId1025" xr:uid="{E01C361B-5A77-DF44-9D72-9663714DA757}"/>
+    <hyperlink ref="C1248" r:id="rId1026" xr:uid="{E108426B-90C8-094A-B9DE-3EFDD727F89F}"/>
+    <hyperlink ref="C1249" r:id="rId1027" xr:uid="{BF1075BB-E12A-D244-AEBC-BE0E8BC2D714}"/>
+    <hyperlink ref="C1250" r:id="rId1028" xr:uid="{02986E16-3350-FE49-8C13-2519E5245784}"/>
+    <hyperlink ref="C1251" r:id="rId1029" xr:uid="{CF33237F-50CD-9E44-A81E-8B996B221AA6}"/>
+    <hyperlink ref="C1252" r:id="rId1030" xr:uid="{83351F65-6090-964A-BAA4-AD8CFB692708}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId712"/>
+  <pageSetup orientation="portrait" r:id="rId1031"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377A019-D221-D144-B359-5E71CDBE4C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69749D-25CE-5849-BF74-432546E8239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1300" windowWidth="21440" windowHeight="11160" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="451">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1333,6 +1333,60 @@
   </si>
   <si>
     <t>aw20230271@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>ms20230314@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mona563.github.io/MY-First-webpage-/</t>
+  </si>
+  <si>
+    <t>ma20234286@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamedahmedkedr.github.io/ma20234268/</t>
+  </si>
+  <si>
+    <t>ta20231385@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://tahia536.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>gs20231285@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ghada574.github.io/-My-first-webpage-/</t>
+  </si>
+  <si>
+    <t>ms20232337@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mai123263.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>https://mohamedahmedkedr.github.io/ma20234286/</t>
+  </si>
+  <si>
+    <t>se20230377@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://21223asddd.github.io/My-first-web-page-/</t>
+  </si>
+  <si>
+    <t>bh20231332@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://basmala874.github.io/MYProject/</t>
+  </si>
+  <si>
+    <t>aa20234378@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://bebo0103373.github.io/mybebo/</t>
+  </si>
+  <si>
+    <t>Rh20230275@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E1252"/>
+  <dimension ref="A1:E1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B866" workbookViewId="0">
-      <selection activeCell="B872" sqref="B872:C1252"/>
+    <sheetView tabSelected="1" topLeftCell="B1236" workbookViewId="0">
+      <selection activeCell="B1253" sqref="B1253:C1653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12746,6 +12800,3212 @@
       </c>
       <c r="C1252" s="23" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1253" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1253" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1254" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1254" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1255" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1255" s="56">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1256" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1256" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1257" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1257" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1258" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1258" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1259" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1259" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1260" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1260" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1261" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1261" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1262" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1262" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1263" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1263" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1264" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1264" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1265" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1265" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1266" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1266" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1267" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1267" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1268" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1268" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1269" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1269" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1270" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1270" s="57"/>
+    </row>
+    <row r="1271" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1271" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1271" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1272" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1272" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1273" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1273" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1274" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1274" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1275" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1275" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1276" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1276" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1277" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1277" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1278" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1278" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1279" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1279" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1280" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1280" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1281" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1281" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1282" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1282" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1283" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1283" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1284" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1284" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1285" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1285" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1286" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1286" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1287" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1287" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1288" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1288" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1289" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1289" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1290" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1290" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1291" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1291" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1292" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1292" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1293" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1293" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1294" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1294" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1295" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1295" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1296" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1296" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1297" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1297" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1298" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1298" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1299" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1299" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1300" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1300" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1301" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1301" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1302" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1302" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1303" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1303" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1304" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1304" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1305" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1305" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1306" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1306" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1307" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1307" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1308" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1308" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1309" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1309" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1310" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1310" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1311" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1311" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1312" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1312" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1313" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1313" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1314" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1314" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1315" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1315" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1316" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1316" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1317" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1317" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1318" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1318" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1319" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1319" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1320" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1320" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1321" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1321" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1322" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1322" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1323" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1323" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1324" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1324" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1325" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1325" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1326" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1326" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1327" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1327" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1328" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1328" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1329" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1329" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1330" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1330" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1331" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1331" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1332" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1332" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1333" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1333" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1334" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1334" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1335" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1335" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1336" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1336" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1337" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1337" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1338" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1338" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1339" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1339" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1340" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1340" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1341" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1341" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1342" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1342" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1343" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1343" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1344" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1344" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1345" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1345" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1346" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1346" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1347" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1347" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1348" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1348" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1349" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1349" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1350" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1350" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1351" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1351" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1352" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1352" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1353" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1353" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1354" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1354" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1355" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1355" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1356" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1356" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1357" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1357" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1358" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1358" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1359" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1359" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1360" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1360" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1361" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1361" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1362" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1362" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1363" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1363" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1364" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1364" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1365" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1365" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1366" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1366" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1367" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1367" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1368" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1368" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1369" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1369" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1370" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1370" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1371" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1371" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1372" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1372" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1373" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1373" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1374" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1374" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1375" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1375" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1376" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1376" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1377" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1377" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1378" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1378" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1379" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1379" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1380" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1380" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1381" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1381" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1382" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1382" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1383" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1383" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1384" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1384" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1385" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1385" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1386" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1386" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1387" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1387" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1388" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1388" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1389" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1389" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1390" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1390" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1391" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1391" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1392" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1392" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1393" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1393" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1394" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1394" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1395" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1395" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1396" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1396" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1397" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1397" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1398" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1398" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1399" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1399" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1400" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1400" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1401" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1401" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1402" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1402" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1403" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1403" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1404" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1404" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1404" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1405" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1405" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1405" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1406" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1406" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1407" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1407" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1408" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1408" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1409" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1409" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1410" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1410" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1411" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1411" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1412" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1412" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1413" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1413" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1414" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1414" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1415" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1415" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1416" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1416" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1417" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1417" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1418" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1418" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1419" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1419" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1420" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1420" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1421" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1421" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1422" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1422" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1423" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1423" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1424" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1424" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1425" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1425" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1425" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1426" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1426" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1427" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1427" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1428" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1428" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1429" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1429" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1430" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1430" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1430" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1431" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1431" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1432" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1432" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1433" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1433" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1434" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1434" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1435" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1435" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1436" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1436" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1437" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1437" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1438" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1438" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1439" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1439" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1440" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1440" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1441" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1441" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1442" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1442" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1443" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1443" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1444" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1444" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1445" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1445" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1446" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1446" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1447" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1447" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1448" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1448" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1449" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1449" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1450" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1450" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1451" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1451" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1452" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1452" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1453" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1453" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1454" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1454" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1455" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1455" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1456" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1456" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1457" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1457" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1458" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1458" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1459" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1459" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1460" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1460" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1461" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1461" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1462" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1462" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1463" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1463" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1464" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1464" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1465" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1465" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1466" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1466" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1467" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1467" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1468" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1468" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1469" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1469" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1470" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1470" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1471" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1471" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1472" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1472" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1473" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1473" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1474" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1474" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1475" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1475" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1476" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1476" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1477" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1477" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1478" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1478" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1479" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1479" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1480" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1480" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1481" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1481" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1482" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1482" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1483" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1483" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1484" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1484" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1485" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1485" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1486" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1486" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1487" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1487" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1488" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1488" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1489" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1489" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1490" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1490" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1491" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1491" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1492" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1492" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1493" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1493" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1494" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1494" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1495" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1495" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1496" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1496" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1497" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1497" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1498" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1498" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1499" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1499" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1500" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1500" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1501" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1501" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1502" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1502" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1503" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1503" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1504" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1504" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1505" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1505" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1506" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1506" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1507" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1507" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1508" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1508" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1509" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1509" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1510" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1510" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1511" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1511" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1512" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1512" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1513" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1513" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1514" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1514" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1515" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1515" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1516" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1516" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1517" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1517" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1518" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1518" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1519" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1519" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1520" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1520" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1521" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1521" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1522" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1522" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1523" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1523" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1524" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1524" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1525" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1525" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1526" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1526" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1527" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1527" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1528" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1528" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1529" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1529" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1530" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1530" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1531" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1531" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1532" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1532" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1533" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1533" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1534" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1534" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1535" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1535" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1536" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1536" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1537" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1537" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1538" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1538" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1539" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1539" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1540" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1540" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1541" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1541" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1542" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1542" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1543" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1543" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1544" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1544" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1545" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1545" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1546" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1546" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1547" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1547" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1548" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1548" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1549" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1549" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1550" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1550" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1551" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1551" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1552" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1552" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1553" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1553" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1554" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1554" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1555" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1555" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1556" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1556" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1557" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1557" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1558" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1558" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1559" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1559" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1560" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1560" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1561" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1561" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1562" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1562" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1563" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1563" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1564" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1564" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1565" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1565" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1566" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1566" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1567" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1567" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1568" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1568" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1569" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1569" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1570" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1570" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1571" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1571" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1572" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1572" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1573" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1573" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1574" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1574" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1575" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1575" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1576" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1576" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1577" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1577" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1578" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1578" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1579" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1579" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1580" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1580" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1581" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1581" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1582" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1582" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1583" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1583" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1584" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1584" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1585" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1585" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1586" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1586" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1587" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1587" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1588" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1588" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1589" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1589" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1590" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1590" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1591" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1591" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1592" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1592" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1593" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1593" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1594" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1594" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1595" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1595" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1596" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1596" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1597" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1597" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1598" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1598" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1599" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1599" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1600" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1600" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1601" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1601" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1602" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1602" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1603" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1603" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1604" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1604" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1605" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1605" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1606" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1606" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1607" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1607" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1608" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1608" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1609" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1609" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1610" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1610" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1611" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1611" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1612" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1612" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1613" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1613" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1614" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1614" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1615" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1615" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1616" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1616" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1617" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1617" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1618" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1618" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1619" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1619" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1620" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1620" s="59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1621" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1621" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1622" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1622" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1623" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1623" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1624" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1624" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1625" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1625" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1626" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1626" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1627" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1627" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1628" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1628" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1629" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1629" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1630" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1630" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1631" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1631" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1632" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1632" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1633" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1633" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1634" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1634" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1635" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1635" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1636" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1636" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1637" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1637" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1638" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1638" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1639" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1639" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1640" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1640" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1641" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1641" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1642" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1642" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1643" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1643" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1644" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1644" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1645" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1645" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1646" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1646" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1647" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1647" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1648" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1648" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1649" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1649" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1650" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1650" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1651" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1651" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1652" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1652" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1653" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1653" s="56" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -13780,9 +17040,347 @@
     <hyperlink ref="C1250" r:id="rId1028" xr:uid="{02986E16-3350-FE49-8C13-2519E5245784}"/>
     <hyperlink ref="C1251" r:id="rId1029" xr:uid="{CF33237F-50CD-9E44-A81E-8B996B221AA6}"/>
     <hyperlink ref="C1252" r:id="rId1030" xr:uid="{83351F65-6090-964A-BAA4-AD8CFB692708}"/>
+    <hyperlink ref="C1253" r:id="rId1031" xr:uid="{2103410A-C0A7-6544-97ED-9366A55217D3}"/>
+    <hyperlink ref="C1256" r:id="rId1032" xr:uid="{C67B3442-736D-B34A-A3EA-A3C47B8DC6FE}"/>
+    <hyperlink ref="C1260" r:id="rId1033" xr:uid="{B7DC7080-427F-0244-8C39-ED500ABFF84F}"/>
+    <hyperlink ref="C1262" r:id="rId1034" xr:uid="{0CAC9483-8064-2A43-818C-8B0080D39950}"/>
+    <hyperlink ref="C1263" r:id="rId1035" xr:uid="{4D13D8BD-D6C7-9542-8C2B-8D17C2500D6D}"/>
+    <hyperlink ref="C1269" r:id="rId1036" xr:uid="{005447C0-16FD-214B-B121-CE9C9BA3DCEE}"/>
+    <hyperlink ref="C1271" r:id="rId1037" xr:uid="{D0BAACB5-7A92-A741-A6A2-D86AA9426C91}"/>
+    <hyperlink ref="C1275" r:id="rId1038" xr:uid="{DC38BD0E-D665-3C42-9293-F5557FA3CB5C}"/>
+    <hyperlink ref="C1276" r:id="rId1039" xr:uid="{279CEFEE-FA95-EC4C-94D6-5D5DD652C9CD}"/>
+    <hyperlink ref="C1277" r:id="rId1040" xr:uid="{9F8B6743-15C2-B948-8B9C-2929E2CDC321}"/>
+    <hyperlink ref="C1278" r:id="rId1041" xr:uid="{5F11F4B8-76EE-E044-AAE8-4B6659E684FC}"/>
+    <hyperlink ref="C1279" r:id="rId1042" xr:uid="{C010F08C-1062-3A49-9931-643BA34BA6EE}"/>
+    <hyperlink ref="C1280" r:id="rId1043" xr:uid="{7E366133-8FA1-3646-868B-CA4468F0C5A2}"/>
+    <hyperlink ref="C1281" r:id="rId1044" xr:uid="{9837046C-0F00-8248-B717-3354D36E96F8}"/>
+    <hyperlink ref="C1282" r:id="rId1045" xr:uid="{9D56D067-0E84-8644-B094-547379FB31CB}"/>
+    <hyperlink ref="C1283" r:id="rId1046" xr:uid="{90454AA8-AE5D-CD4E-B8BD-2924E592A1D4}"/>
+    <hyperlink ref="C1286" r:id="rId1047" xr:uid="{01534922-66B7-B741-8BC4-CDC9AA3F7E92}"/>
+    <hyperlink ref="C1287" r:id="rId1048" xr:uid="{F6425B63-584F-E24E-943E-51349D022C68}"/>
+    <hyperlink ref="C1288" r:id="rId1049" xr:uid="{36130F02-80E0-A445-B73F-7F4B98281E29}"/>
+    <hyperlink ref="C1289" r:id="rId1050" xr:uid="{31B89A6F-76C4-B546-82F2-B6833B630BF3}"/>
+    <hyperlink ref="C1290" r:id="rId1051" xr:uid="{A2102172-4B83-0848-9C93-E798A4D17D1D}"/>
+    <hyperlink ref="C1293" r:id="rId1052" xr:uid="{43DF552E-3372-714A-907D-931BEA284A9C}"/>
+    <hyperlink ref="C1295" r:id="rId1053" xr:uid="{88745B74-D823-994A-ABA4-C314F4A4B8FF}"/>
+    <hyperlink ref="C1297" r:id="rId1054" xr:uid="{DD8641DD-DEA0-9A48-BB31-459890E03178}"/>
+    <hyperlink ref="C1298" r:id="rId1055" xr:uid="{95676850-C170-6C4B-BA6B-C5F18765B8AB}"/>
+    <hyperlink ref="C1300" r:id="rId1056" xr:uid="{1C4DAA01-F66D-DB4E-B598-D99774226E73}"/>
+    <hyperlink ref="C1301" r:id="rId1057" xr:uid="{A1CB6894-7E45-624C-9B16-FDCFA4AFC1E1}"/>
+    <hyperlink ref="C1303" r:id="rId1058" xr:uid="{2F57353B-46E6-EB41-8A63-AB84DD822BC4}"/>
+    <hyperlink ref="C1304" r:id="rId1059" xr:uid="{FFB77B25-79B7-7540-A521-2A67AB783B5B}"/>
+    <hyperlink ref="C1305" r:id="rId1060" xr:uid="{51DEBE18-717E-444F-8761-6627EEC61ABC}"/>
+    <hyperlink ref="C1306" r:id="rId1061" xr:uid="{D32B9EFF-D843-F64B-A4A3-95A7B837C8DC}"/>
+    <hyperlink ref="C1308" r:id="rId1062" xr:uid="{F773846D-0FB9-4B48-AEAD-0C1F0C0FB355}"/>
+    <hyperlink ref="C1310" r:id="rId1063" xr:uid="{B0B84E74-7184-8A47-A307-EB2A708A59BE}"/>
+    <hyperlink ref="C1311" r:id="rId1064" xr:uid="{0665C95E-EE61-B647-89EC-EE83F9DDE56D}"/>
+    <hyperlink ref="C1313" r:id="rId1065" xr:uid="{B7A4F751-229C-F347-929B-BE2A2A668D45}"/>
+    <hyperlink ref="C1314" r:id="rId1066" xr:uid="{B8ED990C-18A7-C346-AE0A-E2E41DDDE617}"/>
+    <hyperlink ref="C1315" r:id="rId1067" xr:uid="{1AAB4F1C-0B11-444A-BFE0-65A3C32BFD76}"/>
+    <hyperlink ref="C1316" r:id="rId1068" xr:uid="{6F714614-1417-C549-9C3A-399AD5F21567}"/>
+    <hyperlink ref="C1317" r:id="rId1069" xr:uid="{38EF8F91-B6A1-E346-BC68-4688FD6AC30D}"/>
+    <hyperlink ref="C1318" r:id="rId1070" xr:uid="{5896AB20-8C5F-DA4A-860E-78BB787B9855}"/>
+    <hyperlink ref="C1321" r:id="rId1071" xr:uid="{5C70C99F-03D7-E044-8B85-BB197B90759E}"/>
+    <hyperlink ref="C1322" r:id="rId1072" xr:uid="{55D43D15-4C34-BE43-AC74-81194594913E}"/>
+    <hyperlink ref="C1323" r:id="rId1073" xr:uid="{AD945721-8F7D-6A43-A3DD-BFA2455E9992}"/>
+    <hyperlink ref="C1324" r:id="rId1074" xr:uid="{3B9A6DFB-19B6-D64F-85E7-C1FB9DD64576}"/>
+    <hyperlink ref="C1325" r:id="rId1075" xr:uid="{9720C76B-FD40-E642-A361-08728BAA293F}"/>
+    <hyperlink ref="C1327" r:id="rId1076" display="https://rahma5555.github.io/roro00/" xr:uid="{34273740-C690-7343-A624-C0F3CD37D81B}"/>
+    <hyperlink ref="C1328" r:id="rId1077" xr:uid="{E3A3072C-8BDD-A143-BE4E-E05B5992F59B}"/>
+    <hyperlink ref="C1329" r:id="rId1078" xr:uid="{067D7759-87C4-3846-9386-6A2873AF2B88}"/>
+    <hyperlink ref="C1330" r:id="rId1079" xr:uid="{DE6D1454-2A68-BB4B-9EB2-69C4FFF50097}"/>
+    <hyperlink ref="C1331" r:id="rId1080" xr:uid="{DA9D1D93-FA8E-724C-84A2-A168C454DA3F}"/>
+    <hyperlink ref="C1332" r:id="rId1081" xr:uid="{C80A357D-7BD8-4447-9BED-4A8609537C92}"/>
+    <hyperlink ref="C1333" r:id="rId1082" xr:uid="{279E5644-90B1-884E-A144-2BF590B30AFE}"/>
+    <hyperlink ref="C1337" r:id="rId1083" xr:uid="{F0D65478-3F87-814C-941C-1532991BD7AC}"/>
+    <hyperlink ref="C1338" r:id="rId1084" xr:uid="{F54339A8-958A-B74C-858C-27B805064D15}"/>
+    <hyperlink ref="C1339" r:id="rId1085" xr:uid="{20A97C45-AD27-2C45-AF20-2A16EE8457A0}"/>
+    <hyperlink ref="C1340" r:id="rId1086" xr:uid="{F61DF71C-BC9F-2849-B5AE-98714BF4B570}"/>
+    <hyperlink ref="C1341" r:id="rId1087" display="https://loloah20.githup.io/sva20/" xr:uid="{C0F8617C-B8DE-B947-AB3E-2316A7C6555F}"/>
+    <hyperlink ref="C1343" r:id="rId1088" xr:uid="{3163D7F9-33BF-684E-83C3-F0161EEEBC3B}"/>
+    <hyperlink ref="C1344" r:id="rId1089" xr:uid="{A8A2CB2B-1BE5-2F4C-A33D-6D5AC69684AB}"/>
+    <hyperlink ref="C1345" r:id="rId1090" xr:uid="{44BA4A10-B620-9945-B804-555747676422}"/>
+    <hyperlink ref="C1347" r:id="rId1091" xr:uid="{F378F4FE-F4B5-B349-9A41-4D09C79597D6}"/>
+    <hyperlink ref="C1348" r:id="rId1092" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{F6FDE4D8-BE4A-6D4B-A8BF-DEFEC60FD890}"/>
+    <hyperlink ref="C1349" r:id="rId1093" xr:uid="{08512564-398F-DC4E-8363-636626A63A03}"/>
+    <hyperlink ref="C1350" r:id="rId1094" xr:uid="{EFC11C96-D5ED-B04E-99A0-3D5BA95B8409}"/>
+    <hyperlink ref="C1351" r:id="rId1095" xr:uid="{867CCB6C-C89C-D248-9C0F-2921CBFD9C2B}"/>
+    <hyperlink ref="C1352" r:id="rId1096" xr:uid="{D0C7ED87-2603-864B-83DB-E6D467A37142}"/>
+    <hyperlink ref="C1353" r:id="rId1097" xr:uid="{1C193FD8-AD9A-4443-974A-CF01966281A2}"/>
+    <hyperlink ref="C1354" r:id="rId1098" xr:uid="{80FF2B15-51D3-6348-BCFF-3765BBAFB5CC}"/>
+    <hyperlink ref="C1355" r:id="rId1099" display="https://basant1512006.github.io/basant-walid/" xr:uid="{F2F3D7BC-16CE-D846-8F89-645DDAB44F28}"/>
+    <hyperlink ref="C1356" r:id="rId1100" xr:uid="{0F9918F2-4619-7B4F-B857-87285BF1AAA1}"/>
+    <hyperlink ref="C1357" r:id="rId1101" xr:uid="{F56C6497-1395-5F4E-AFDC-1BFD01D9E2BA}"/>
+    <hyperlink ref="C1358" r:id="rId1102" xr:uid="{AB293086-399A-B147-B4F7-F342CFE4F444}"/>
+    <hyperlink ref="C1360" r:id="rId1103" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{CE929A32-FB63-A44E-8BE3-EE7B8968DB88}"/>
+    <hyperlink ref="C1361" r:id="rId1104" xr:uid="{2E14DA29-AF2A-BA42-A62C-13AC64C275F4}"/>
+    <hyperlink ref="C1362" r:id="rId1105" xr:uid="{5F8C8807-2B91-C944-8E89-0A8AA090B0F7}"/>
+    <hyperlink ref="C1363" r:id="rId1106" xr:uid="{F9ADFC93-ADDF-F84B-B325-B5B512BF60C8}"/>
+    <hyperlink ref="C1364" r:id="rId1107" xr:uid="{7D12CD3D-6903-984C-9266-D6978B7EFA91}"/>
+    <hyperlink ref="C1365" r:id="rId1108" xr:uid="{B958D326-BB0C-4943-81BF-6AFBEF48B323}"/>
+    <hyperlink ref="C1366" r:id="rId1109" xr:uid="{2B030280-443B-4446-817C-F2D3FD00F1A6}"/>
+    <hyperlink ref="C1367" r:id="rId1110" xr:uid="{FFAA7895-B1FC-3C49-BBC7-71600E5039D5}"/>
+    <hyperlink ref="C1368" r:id="rId1111" xr:uid="{1C85FA7D-B912-3845-B1F7-1478F89C3BEA}"/>
+    <hyperlink ref="C1369" r:id="rId1112" xr:uid="{8AF48CF8-FCA6-1544-B88A-2D7AB8770BD7}"/>
+    <hyperlink ref="C1370" r:id="rId1113" xr:uid="{BB3417F3-898F-E543-8631-F327B346D273}"/>
+    <hyperlink ref="C1371" r:id="rId1114" xr:uid="{82098293-18C2-0543-8F87-996AAF2F5BAB}"/>
+    <hyperlink ref="C1372" r:id="rId1115" xr:uid="{903FC174-B1F1-F245-90D7-D129A3090418}"/>
+    <hyperlink ref="C1374" r:id="rId1116" xr:uid="{E73A9072-C2D3-DF4D-A98E-4EBD4CB6BC21}"/>
+    <hyperlink ref="C1375" r:id="rId1117" xr:uid="{BEBE153F-F0C9-B84B-9F4C-A5FACEB1C6AB}"/>
+    <hyperlink ref="C1376" r:id="rId1118" xr:uid="{A8CCE695-C9FC-C247-BB75-C8F3668CF887}"/>
+    <hyperlink ref="C1377" r:id="rId1119" xr:uid="{BC3D980E-E014-CF46-A3E9-768C6EA4679F}"/>
+    <hyperlink ref="C1378" r:id="rId1120" xr:uid="{E796B72B-553B-9A4F-A675-05C36680DE7C}"/>
+    <hyperlink ref="C1379" r:id="rId1121" xr:uid="{7DBC54D6-B855-E540-AEAE-3577CDCB3B01}"/>
+    <hyperlink ref="C1380" r:id="rId1122" xr:uid="{F8D7DB3C-A379-324E-A6C6-23C92FF404F9}"/>
+    <hyperlink ref="C1381" r:id="rId1123" xr:uid="{2B7E4899-68DC-4D4C-A2A8-49B9553617A9}"/>
+    <hyperlink ref="C1382" r:id="rId1124" xr:uid="{A2B74B30-4900-2B4F-AF60-78E2777FE1F0}"/>
+    <hyperlink ref="C1383" r:id="rId1125" xr:uid="{976EBB48-B91F-9B46-9131-13F42BD18EB3}"/>
+    <hyperlink ref="C1384" r:id="rId1126" xr:uid="{56467A43-5EE4-CD44-B7F4-56310013FFF8}"/>
+    <hyperlink ref="C1385" r:id="rId1127" xr:uid="{28B7B648-6A6A-4F47-8354-B33EDA88C006}"/>
+    <hyperlink ref="C1386" r:id="rId1128" xr:uid="{059A47D0-71F8-3348-9664-78CB2E8789CF}"/>
+    <hyperlink ref="C1387" r:id="rId1129" xr:uid="{1AA79DD9-D78A-8348-A6C8-FF1EC78DC2BE}"/>
+    <hyperlink ref="C1388" r:id="rId1130" xr:uid="{DD1FB815-E24E-594E-8F03-4478454F6204}"/>
+    <hyperlink ref="C1390" r:id="rId1131" xr:uid="{739DCBE1-EE84-314F-89E2-F3F2D1003128}"/>
+    <hyperlink ref="C1391" r:id="rId1132" xr:uid="{90C20057-8E74-704E-9557-AD343CBA0D68}"/>
+    <hyperlink ref="C1392" r:id="rId1133" xr:uid="{A28B5100-1489-C941-9B89-E64B7F62DFF1}"/>
+    <hyperlink ref="C1393" r:id="rId1134" xr:uid="{919394A3-5CF8-2A4D-B62E-BBB0B0701690}"/>
+    <hyperlink ref="C1394" r:id="rId1135" xr:uid="{4A48B893-4E84-3B41-8011-160D7AB46D78}"/>
+    <hyperlink ref="C1395" r:id="rId1136" xr:uid="{560C50C6-4440-F244-9934-EE41CF7ABA6D}"/>
+    <hyperlink ref="C1396" r:id="rId1137" xr:uid="{B8A99F4D-5C1D-954B-8197-BA3F88464E56}"/>
+    <hyperlink ref="C1397" r:id="rId1138" xr:uid="{B64570C8-2FA1-E14C-985B-B9F973B05FB5}"/>
+    <hyperlink ref="C1398" r:id="rId1139" xr:uid="{025C6DB7-BB7F-9B49-8255-3B3775BA9B89}"/>
+    <hyperlink ref="C1399" r:id="rId1140" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{5742AC5F-E416-DE4B-9DD2-BFFAB6FB801C}"/>
+    <hyperlink ref="C1400" r:id="rId1141" xr:uid="{14AF04CA-9009-5E48-9151-7B94FA0832B6}"/>
+    <hyperlink ref="C1401" r:id="rId1142" xr:uid="{9187531A-8DE9-324B-B49F-9C24F48763AC}"/>
+    <hyperlink ref="C1403" r:id="rId1143" xr:uid="{A0E561D3-9833-9D41-8FC7-1D863CCACED2}"/>
+    <hyperlink ref="C1404" r:id="rId1144" xr:uid="{5AB98DBA-9DB2-0D41-93ED-CEA803256955}"/>
+    <hyperlink ref="C1405" r:id="rId1145" xr:uid="{3E36558C-8C3E-5746-8EA4-5B524EE02094}"/>
+    <hyperlink ref="C1406" r:id="rId1146" xr:uid="{6A2135E6-E4D7-2246-B624-6644A6DFC3A2}"/>
+    <hyperlink ref="C1407" r:id="rId1147" xr:uid="{300E9A53-E0D2-054D-BE66-B76416076A7C}"/>
+    <hyperlink ref="C1408" r:id="rId1148" xr:uid="{6C9496DE-2E35-6541-9E57-183B84D7123E}"/>
+    <hyperlink ref="C1409" r:id="rId1149" xr:uid="{C643F86E-C79C-1843-B73E-66A4A02437EE}"/>
+    <hyperlink ref="C1410" r:id="rId1150" xr:uid="{6D7102F9-8C0F-DA4A-A0FF-1B97A44B7288}"/>
+    <hyperlink ref="C1411" r:id="rId1151" xr:uid="{5E6C6750-8941-C747-94E4-E73A7C127A5A}"/>
+    <hyperlink ref="C1412" r:id="rId1152" xr:uid="{08ADB5EE-1782-E540-8BB7-ED9D09AC9C46}"/>
+    <hyperlink ref="C1418" r:id="rId1153" xr:uid="{434E3E60-6DAB-D046-84F7-94A5F14E98BC}"/>
+    <hyperlink ref="C1419" r:id="rId1154" xr:uid="{2B8368FB-5E73-F742-B523-8010DEA3C9A1}"/>
+    <hyperlink ref="C1420" r:id="rId1155" xr:uid="{A520CDE8-16C5-F144-9DF0-24622D19F8B4}"/>
+    <hyperlink ref="C1421" r:id="rId1156" xr:uid="{54163929-772A-D34C-BFCB-CC83EB652BB9}"/>
+    <hyperlink ref="C1422" r:id="rId1157" xr:uid="{3EC79F4A-C4A3-ED41-9147-03F7793D282D}"/>
+    <hyperlink ref="C1423" r:id="rId1158" xr:uid="{1F8D4FBB-C746-5C4F-BBEE-715B6FDC44FC}"/>
+    <hyperlink ref="C1425" r:id="rId1159" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{42A8D69E-37D5-BC4A-A968-AB82C398F842}"/>
+    <hyperlink ref="C1426" r:id="rId1160" xr:uid="{0ABAA3A2-F9C0-954C-A740-993630F522D9}"/>
+    <hyperlink ref="C1429" r:id="rId1161" xr:uid="{F2113174-B409-DF4B-8374-A72BA5682BC9}"/>
+    <hyperlink ref="C1430" r:id="rId1162" xr:uid="{F2DDFE16-F345-7B48-9789-E278ED2CB10F}"/>
+    <hyperlink ref="C1431" r:id="rId1163" xr:uid="{ECBBBB03-4DBA-FE40-B71C-9B67F3BDCB6A}"/>
+    <hyperlink ref="C1433" r:id="rId1164" xr:uid="{1B54E74B-0AB1-7D4C-A28A-2BD6142466C0}"/>
+    <hyperlink ref="C1434" r:id="rId1165" xr:uid="{AA91D5A7-54E5-C944-B5B6-13D87AA9E22A}"/>
+    <hyperlink ref="C1435" r:id="rId1166" xr:uid="{0E8B8374-7004-BC4C-8BCA-C6A7D1B4E91F}"/>
+    <hyperlink ref="C1437" r:id="rId1167" xr:uid="{2F758786-0DDC-9045-A93A-B009FC9FA5ED}"/>
+    <hyperlink ref="C1438" r:id="rId1168" xr:uid="{0FB4FBA3-0C47-9F45-8035-6F419AC4961E}"/>
+    <hyperlink ref="C1439" r:id="rId1169" xr:uid="{FCCA2296-3909-D845-843D-F1588F1BC4E7}"/>
+    <hyperlink ref="C1442" r:id="rId1170" xr:uid="{56939FC5-2A08-2247-88F1-D42A2563E686}"/>
+    <hyperlink ref="C1443" r:id="rId1171" xr:uid="{DF0BCBC0-806B-164A-B7AD-CE0E71459912}"/>
+    <hyperlink ref="C1444" r:id="rId1172" xr:uid="{B04F4E1C-8489-6A49-9CFC-E60EEDD72655}"/>
+    <hyperlink ref="C1445" r:id="rId1173" xr:uid="{04110337-EBAD-5C43-896A-CFF0F951D387}"/>
+    <hyperlink ref="C1446" r:id="rId1174" xr:uid="{3B39C47F-4E45-AA40-9C08-DD97C15A97DC}"/>
+    <hyperlink ref="C1447" r:id="rId1175" xr:uid="{8BF1FD5B-A2A7-3D4B-B129-D12D077E60A0}"/>
+    <hyperlink ref="C1448" r:id="rId1176" xr:uid="{1189AB9B-3253-4246-AE97-4F4AF2EDC0AB}"/>
+    <hyperlink ref="C1453" r:id="rId1177" xr:uid="{FEB9B773-D9B5-8142-AD66-CD949EE08E91}"/>
+    <hyperlink ref="C1454" r:id="rId1178" xr:uid="{745E707D-70C0-314C-BD92-67B63BD79500}"/>
+    <hyperlink ref="C1455" r:id="rId1179" xr:uid="{B80CA062-F651-4D42-BCFF-0DD529E9BAAC}"/>
+    <hyperlink ref="C1456" r:id="rId1180" xr:uid="{AF5C9C55-F94E-3749-80D3-9CFA6AF43E93}"/>
+    <hyperlink ref="C1457" r:id="rId1181" xr:uid="{2812983E-72AF-E94C-A60D-7E79A9A7C3B2}"/>
+    <hyperlink ref="C1458" r:id="rId1182" xr:uid="{9CA7B973-75C4-E747-8846-C7E4F546B23D}"/>
+    <hyperlink ref="C1459" r:id="rId1183" xr:uid="{23F0E24A-5990-9044-8644-998400C61A2E}"/>
+    <hyperlink ref="C1460" r:id="rId1184" xr:uid="{7123C275-22F1-2F4C-9B55-949825B7D7AD}"/>
+    <hyperlink ref="C1461" r:id="rId1185" xr:uid="{AB2107F8-CDCE-3749-A209-D8B46ECF9962}"/>
+    <hyperlink ref="C1462" r:id="rId1186" xr:uid="{F4D94F05-A294-1C41-8106-416D3B1DA138}"/>
+    <hyperlink ref="C1463" r:id="rId1187" xr:uid="{98821843-E4B4-D043-BABE-CF62751CE507}"/>
+    <hyperlink ref="C1464" r:id="rId1188" xr:uid="{DF3044B2-5D65-504D-BEE5-DA92D53215DD}"/>
+    <hyperlink ref="C1465" r:id="rId1189" xr:uid="{0BF62876-C321-4B48-8237-FAA152980E3C}"/>
+    <hyperlink ref="C1466" r:id="rId1190" xr:uid="{2035ECA3-6054-EB49-8E49-04E8A16026CA}"/>
+    <hyperlink ref="C1467" r:id="rId1191" xr:uid="{5B3E0116-968D-C149-ACC8-9C19E16C1B2D}"/>
+    <hyperlink ref="C1468" r:id="rId1192" xr:uid="{15C6D674-A0F1-2744-BA1C-67F6545833AD}"/>
+    <hyperlink ref="C1469" r:id="rId1193" xr:uid="{C47FC35E-C7D1-8747-B6C3-2B18EA6F390E}"/>
+    <hyperlink ref="C1470" r:id="rId1194" xr:uid="{0A6B4679-58DD-A949-91A7-85D8D576C41A}"/>
+    <hyperlink ref="C1472" r:id="rId1195" xr:uid="{48076243-6E6E-A246-BD4B-71F58E449E0E}"/>
+    <hyperlink ref="C1473" r:id="rId1196" xr:uid="{6D7546C9-3143-8A49-995A-A75196A98686}"/>
+    <hyperlink ref="C1474" r:id="rId1197" xr:uid="{C372DD29-A695-744D-9FA2-58E74C6ADECF}"/>
+    <hyperlink ref="C1475" r:id="rId1198" xr:uid="{BC178233-71FB-234B-B571-B2CEECBCBB71}"/>
+    <hyperlink ref="C1476" r:id="rId1199" xr:uid="{91D23325-4ECF-C24C-8DBE-2A52110EA286}"/>
+    <hyperlink ref="C1477" r:id="rId1200" xr:uid="{3F1C8256-4F5E-BF44-BE41-050EDC455DB1}"/>
+    <hyperlink ref="C1478" r:id="rId1201" xr:uid="{DB95CFA9-0313-7A48-903F-4C49F4E3CBA3}"/>
+    <hyperlink ref="C1479" r:id="rId1202" xr:uid="{2D65F5C9-CB94-B845-9245-DD298F9EEE5E}"/>
+    <hyperlink ref="C1480" r:id="rId1203" xr:uid="{4570F4E7-D7D4-CC44-B394-08C678F837B8}"/>
+    <hyperlink ref="C1483" r:id="rId1204" xr:uid="{B5E7A0EB-8561-5B4B-A78C-B4770F37C605}"/>
+    <hyperlink ref="C1484" r:id="rId1205" xr:uid="{54CC5584-3A47-B244-81A6-18A009F9196D}"/>
+    <hyperlink ref="C1485" r:id="rId1206" xr:uid="{39680182-65D4-C14E-8550-6C49D30A0F40}"/>
+    <hyperlink ref="C1486" r:id="rId1207" xr:uid="{0EB4E5F9-3BA8-4F48-895D-32F1CB3E5630}"/>
+    <hyperlink ref="C1487" r:id="rId1208" xr:uid="{1D2FDF44-2393-1D40-A2C0-B1EA2665CB96}"/>
+    <hyperlink ref="C1488" r:id="rId1209" xr:uid="{C5C5B633-98FF-1843-B26E-1361541C4F51}"/>
+    <hyperlink ref="C1489" r:id="rId1210" xr:uid="{063B83EC-BD3F-9D42-911D-6FEB9DD2EBBC}"/>
+    <hyperlink ref="C1490" r:id="rId1211" xr:uid="{07D8ADFE-9E2B-D44F-B4C0-63ED0289EB73}"/>
+    <hyperlink ref="C1491" r:id="rId1212" xr:uid="{F5BAE6BE-C4F1-CC4F-B8F5-801217898182}"/>
+    <hyperlink ref="C1492" r:id="rId1213" xr:uid="{9BECFC85-5446-1D45-B888-5724DFF6D8D8}"/>
+    <hyperlink ref="C1493" r:id="rId1214" xr:uid="{012CE07A-F7CF-A24C-9BB3-C91E98FD5D24}"/>
+    <hyperlink ref="C1494" r:id="rId1215" xr:uid="{E9D65EE7-AD95-B04B-AC65-0ADA2675A8BB}"/>
+    <hyperlink ref="C1495" r:id="rId1216" xr:uid="{E99BAA9F-8131-FB4E-8650-96F139B674FE}"/>
+    <hyperlink ref="C1496" r:id="rId1217" xr:uid="{E18617D1-D531-6249-A291-F211D15B2DA5}"/>
+    <hyperlink ref="C1497" r:id="rId1218" xr:uid="{5D1C2B7C-246D-0644-9019-1F8F7D541715}"/>
+    <hyperlink ref="C1498" r:id="rId1219" xr:uid="{945A4197-01DB-394F-9BBC-DCCB7C14D8E1}"/>
+    <hyperlink ref="C1499" r:id="rId1220" xr:uid="{A13AEE47-5CEE-D84C-AD17-B1591A5D057B}"/>
+    <hyperlink ref="C1500" r:id="rId1221" xr:uid="{29F55764-8D4A-C749-80DF-AD46D9593AAF}"/>
+    <hyperlink ref="C1501" r:id="rId1222" xr:uid="{C1837B66-80A4-0F4D-8FB4-52CA0C228751}"/>
+    <hyperlink ref="C1502" r:id="rId1223" xr:uid="{73D43072-CA64-DC44-9920-1E2FD4BC0F5C}"/>
+    <hyperlink ref="C1503" r:id="rId1224" xr:uid="{F5685B13-8F29-3E4C-AFD7-4FD818352FB9}"/>
+    <hyperlink ref="C1504" r:id="rId1225" xr:uid="{532C2AFE-1DD9-9349-9DD5-BB520D8E892F}"/>
+    <hyperlink ref="C1505" r:id="rId1226" xr:uid="{C4217AA7-111F-9046-88F6-E4CC9E7F052B}"/>
+    <hyperlink ref="C1506" r:id="rId1227" xr:uid="{CEFE07DE-E894-BE4D-A2FD-4D7DBF71C84F}"/>
+    <hyperlink ref="C1507" r:id="rId1228" xr:uid="{B2F07937-EB16-F645-AF8F-8461194A3105}"/>
+    <hyperlink ref="C1508" r:id="rId1229" xr:uid="{7565FCD7-558F-A248-AEBD-FCB2E8F2B038}"/>
+    <hyperlink ref="C1509" r:id="rId1230" xr:uid="{FEDE87DD-3CDD-E14B-B962-50FC6E0A85E3}"/>
+    <hyperlink ref="C1510" r:id="rId1231" xr:uid="{EA180576-A840-C042-9312-70E8AA3CDBE5}"/>
+    <hyperlink ref="C1512" r:id="rId1232" xr:uid="{7BBD9D5B-CE31-D249-BBD3-9114BD11CA29}"/>
+    <hyperlink ref="C1513" r:id="rId1233" xr:uid="{5038B1D8-8AEC-3147-AF33-542AC4BF2B70}"/>
+    <hyperlink ref="C1514" r:id="rId1234" xr:uid="{4B8D2F72-A58C-3948-B055-8E27A7CE74A4}"/>
+    <hyperlink ref="C1515" r:id="rId1235" xr:uid="{6913D94F-DD5C-7B42-9AB6-B06B6FB43ED5}"/>
+    <hyperlink ref="C1516" r:id="rId1236" xr:uid="{5FA5981F-408A-5946-9C75-9F7A9A76A15D}"/>
+    <hyperlink ref="C1517" r:id="rId1237" xr:uid="{201D8A33-A8C3-A046-855F-F0960CDB3BFA}"/>
+    <hyperlink ref="C1518" r:id="rId1238" xr:uid="{5B63C969-C9A6-1B4F-AFF5-5E8EA46647F2}"/>
+    <hyperlink ref="C1519" r:id="rId1239" xr:uid="{11F86EB3-37AA-7A49-A22E-53CB4FB44F5B}"/>
+    <hyperlink ref="C1520" r:id="rId1240" xr:uid="{D62FB44D-705F-B74C-A598-D13E1A8B6DA8}"/>
+    <hyperlink ref="C1521" r:id="rId1241" xr:uid="{1FAED081-A70F-5F46-B393-C601BFCE6FAC}"/>
+    <hyperlink ref="C1522" r:id="rId1242" xr:uid="{8B923FE6-0894-A741-9AA7-0FE7876064E8}"/>
+    <hyperlink ref="C1523" r:id="rId1243" xr:uid="{F59FD8F5-5357-F346-B591-F51F35B74794}"/>
+    <hyperlink ref="C1524" r:id="rId1244" xr:uid="{B9A36884-56EA-D34B-A763-B0C7EBFBE077}"/>
+    <hyperlink ref="C1525" r:id="rId1245" xr:uid="{90BC9A3D-F37D-DA4B-B621-819795F760CB}"/>
+    <hyperlink ref="C1526" r:id="rId1246" xr:uid="{1C0EFD97-E483-3B47-9379-A99F3056C7D4}"/>
+    <hyperlink ref="C1527" r:id="rId1247" xr:uid="{BFE7A633-7E3D-1F4F-964F-44D3A524A3D6}"/>
+    <hyperlink ref="C1528" r:id="rId1248" xr:uid="{33B5123C-C107-7648-A9D0-06B298E4AFEB}"/>
+    <hyperlink ref="C1529" r:id="rId1249" xr:uid="{71A0B128-31A1-8842-9692-B8026AFEB09F}"/>
+    <hyperlink ref="C1530" r:id="rId1250" xr:uid="{7DA0D1A5-5257-F141-8ACE-C458DDA9BC9C}"/>
+    <hyperlink ref="C1531" r:id="rId1251" xr:uid="{2F49EF2D-0C5D-E34B-9A15-30B46C1E06EF}"/>
+    <hyperlink ref="C1532" r:id="rId1252" xr:uid="{48A9288C-77EA-CD48-847B-70D581A29DEB}"/>
+    <hyperlink ref="C1533" r:id="rId1253" xr:uid="{A579295F-93B0-D04A-9737-AFA7366F7B57}"/>
+    <hyperlink ref="C1534" r:id="rId1254" xr:uid="{FCF01BC6-9181-2240-946D-3371F1F03CE0}"/>
+    <hyperlink ref="C1535" r:id="rId1255" xr:uid="{E777DF77-AA3B-2743-8C38-700F69FE1A8E}"/>
+    <hyperlink ref="C1536" r:id="rId1256" xr:uid="{6DC0DEBB-B8B4-B246-8858-E35B6DD3A453}"/>
+    <hyperlink ref="C1537" r:id="rId1257" xr:uid="{B2F62C8E-48C7-DB40-85D7-1CBD0AA572B7}"/>
+    <hyperlink ref="C1538" r:id="rId1258" xr:uid="{2274A8B0-7717-4340-828D-1B392803E4CD}"/>
+    <hyperlink ref="C1539" r:id="rId1259" xr:uid="{F8A365C4-B9E8-E84C-BFD0-7113867FD978}"/>
+    <hyperlink ref="C1540" r:id="rId1260" xr:uid="{7312B3CC-14B2-1A40-AA20-86DC0FC73722}"/>
+    <hyperlink ref="C1541" r:id="rId1261" xr:uid="{D64F2236-C79A-4046-909F-9B5E6695BB9C}"/>
+    <hyperlink ref="C1542" r:id="rId1262" xr:uid="{5C98E802-5FBF-954B-904A-585741E0876F}"/>
+    <hyperlink ref="C1543" r:id="rId1263" xr:uid="{DEECEC82-E2CF-344A-8D5A-78261B23EE68}"/>
+    <hyperlink ref="C1544" r:id="rId1264" xr:uid="{BF59B454-6E95-224B-8619-70BA7BF457C1}"/>
+    <hyperlink ref="C1545" r:id="rId1265" xr:uid="{C772A5B4-6D67-2147-9ED2-5127D0C77720}"/>
+    <hyperlink ref="C1546" r:id="rId1266" xr:uid="{B16DCA3C-49B4-A34E-95EC-1356B70D835A}"/>
+    <hyperlink ref="C1547" r:id="rId1267" xr:uid="{53E417AB-8AC7-F24B-B65F-E4E34B569DEA}"/>
+    <hyperlink ref="C1548" r:id="rId1268" xr:uid="{30CAD14B-D01B-3E45-8001-9AE85364DFD9}"/>
+    <hyperlink ref="C1549" r:id="rId1269" xr:uid="{6AA6D9CF-C8A5-4A47-B8ED-9DB86AABA876}"/>
+    <hyperlink ref="C1551" r:id="rId1270" xr:uid="{41FA577A-62AB-B44B-A72C-55419E3F200A}"/>
+    <hyperlink ref="C1552" r:id="rId1271" xr:uid="{77EA1122-AFEF-DA44-89FC-97BE2A97D457}"/>
+    <hyperlink ref="C1553" r:id="rId1272" xr:uid="{B724FDA9-449A-BC41-94A5-F6A1680963B4}"/>
+    <hyperlink ref="C1554" r:id="rId1273" xr:uid="{FF4F0647-F172-5040-BCC1-D79789B23844}"/>
+    <hyperlink ref="C1555" r:id="rId1274" xr:uid="{89632236-6625-484A-AE29-9F4E87230FA3}"/>
+    <hyperlink ref="C1556" r:id="rId1275" xr:uid="{92F0AE30-B439-0F4F-B853-91A7D836BF14}"/>
+    <hyperlink ref="C1557" r:id="rId1276" xr:uid="{7DA2EB31-93B6-3E4B-8309-CBA42AAA50D3}"/>
+    <hyperlink ref="C1558" r:id="rId1277" xr:uid="{B0B8E5F7-34CC-9244-A938-C670E62015F5}"/>
+    <hyperlink ref="C1559" r:id="rId1278" xr:uid="{0BAF701D-2099-D242-8815-98F9E012CD53}"/>
+    <hyperlink ref="C1560" r:id="rId1279" xr:uid="{33E1E300-8B44-6048-B3B3-4C56DFEA76E1}"/>
+    <hyperlink ref="C1561" r:id="rId1280" xr:uid="{8A40C0AB-D7D8-BB4E-9DBA-1A22F4432710}"/>
+    <hyperlink ref="C1562" r:id="rId1281" xr:uid="{9DB55318-08EF-834F-AD95-B180A845A95C}"/>
+    <hyperlink ref="C1563" r:id="rId1282" xr:uid="{1FE9FDC4-F9D9-2F42-891D-7FF15CF3B32D}"/>
+    <hyperlink ref="C1564" r:id="rId1283" xr:uid="{2B99775E-105C-0041-A30A-172AEE09EA7D}"/>
+    <hyperlink ref="C1565" r:id="rId1284" xr:uid="{3BC98E1C-326B-8742-B9BB-64EF3BB06667}"/>
+    <hyperlink ref="C1566" r:id="rId1285" xr:uid="{42186325-3CEC-DE4C-BAB9-F93D92CF61FB}"/>
+    <hyperlink ref="C1567" r:id="rId1286" xr:uid="{EF63C0B2-78B4-6D41-8F2C-BDDA969CACFB}"/>
+    <hyperlink ref="C1568" r:id="rId1287" xr:uid="{E349D143-23DA-B448-A426-F0814B878BA5}"/>
+    <hyperlink ref="C1569" r:id="rId1288" xr:uid="{37F96944-0F74-EE46-A4B9-84604C854F0C}"/>
+    <hyperlink ref="C1570" r:id="rId1289" xr:uid="{07732AF7-B193-654E-9C17-3D1360289932}"/>
+    <hyperlink ref="C1571" r:id="rId1290" xr:uid="{8C14FA7E-0143-EC47-A9A5-EDC820C64CC9}"/>
+    <hyperlink ref="C1572" r:id="rId1291" xr:uid="{9AC7CDDE-66ED-A04B-B83B-18C93A68A692}"/>
+    <hyperlink ref="C1573" r:id="rId1292" xr:uid="{641B5A05-31C1-DF4B-9935-44628806724D}"/>
+    <hyperlink ref="C1574" r:id="rId1293" xr:uid="{41BBC7DC-C9A1-4045-8CC2-4DAEA6F78BF4}"/>
+    <hyperlink ref="C1575" r:id="rId1294" xr:uid="{EE099C27-1104-174E-9021-D96D19EEE2D8}"/>
+    <hyperlink ref="C1576" r:id="rId1295" xr:uid="{32575E29-599F-444C-8977-C53C55788390}"/>
+    <hyperlink ref="C1577" r:id="rId1296" xr:uid="{2A02CC16-5AC3-E74A-B94F-CE61A6BFF2F7}"/>
+    <hyperlink ref="C1578" r:id="rId1297" xr:uid="{4D66C75B-473D-4343-95FE-12BE248069AE}"/>
+    <hyperlink ref="C1579" r:id="rId1298" xr:uid="{A5EDF561-3BF9-3D45-B624-31A5F9318628}"/>
+    <hyperlink ref="C1580" r:id="rId1299" xr:uid="{C7443561-B7AB-8646-ADDE-2B6718E41448}"/>
+    <hyperlink ref="C1581" r:id="rId1300" xr:uid="{026F770F-D0B2-9A4C-9922-6FBD523B61C1}"/>
+    <hyperlink ref="C1582" r:id="rId1301" xr:uid="{C53025F7-FE52-5A41-BB20-224895562B00}"/>
+    <hyperlink ref="C1583" r:id="rId1302" xr:uid="{3E6EDEE6-88AD-D44E-BFE4-636D73CAF5F5}"/>
+    <hyperlink ref="C1584" r:id="rId1303" xr:uid="{B9393084-6847-3542-9E05-0AE387B552B4}"/>
+    <hyperlink ref="C1585" r:id="rId1304" xr:uid="{C639F3B1-9DF6-3D40-B3AB-F09DD2A3D375}"/>
+    <hyperlink ref="C1586" r:id="rId1305" xr:uid="{E323299D-5365-2946-9EEC-06880F07B7CD}"/>
+    <hyperlink ref="C1587" r:id="rId1306" xr:uid="{A9586664-83DB-B14D-8B82-444399570F15}"/>
+    <hyperlink ref="C1588" r:id="rId1307" xr:uid="{DD7F7E59-E91C-6A49-8988-26EF4BCE16F5}"/>
+    <hyperlink ref="C1589" r:id="rId1308" xr:uid="{0E7D8B58-9F2D-4F42-989B-8EA7C9F8D503}"/>
+    <hyperlink ref="C1590" r:id="rId1309" xr:uid="{8A73086B-0EE2-2344-9706-AB3140F62F5C}"/>
+    <hyperlink ref="C1591" r:id="rId1310" xr:uid="{7C2BC7CA-A3A4-1447-A482-AA79CA2D01A3}"/>
+    <hyperlink ref="C1592" r:id="rId1311" xr:uid="{B5DD00C0-79FA-0742-B25C-23B1E91F4244}"/>
+    <hyperlink ref="C1593" r:id="rId1312" xr:uid="{AF160028-190F-2042-A415-C18C215C6559}"/>
+    <hyperlink ref="C1594" r:id="rId1313" xr:uid="{1AE4A1C5-4B56-AF41-9CC7-E829B9725A30}"/>
+    <hyperlink ref="C1595" r:id="rId1314" xr:uid="{B9B8F3B5-E8EB-034A-9F93-2303364D21EA}"/>
+    <hyperlink ref="C1596" r:id="rId1315" xr:uid="{26251246-D6A1-D242-BB28-5A3DCD6317DE}"/>
+    <hyperlink ref="C1597" r:id="rId1316" xr:uid="{C9435B20-A399-7941-A67F-0E25D9994A50}"/>
+    <hyperlink ref="C1598" r:id="rId1317" xr:uid="{7039E7B1-8E44-F94A-AC14-5070DCA37164}"/>
+    <hyperlink ref="C1599" r:id="rId1318" xr:uid="{320312ED-5D91-7343-AC5E-3B074FA798E7}"/>
+    <hyperlink ref="C1600" r:id="rId1319" xr:uid="{6B813ADE-2315-6648-B4AB-53D05E713AFA}"/>
+    <hyperlink ref="C1601" r:id="rId1320" xr:uid="{29B8A23C-B44E-FD4E-8A7E-4AF6C57FF49A}"/>
+    <hyperlink ref="C1602" r:id="rId1321" xr:uid="{B54059B6-04ED-2940-98CC-3C4D2C127546}"/>
+    <hyperlink ref="C1603" r:id="rId1322" xr:uid="{95D0EA44-8C1D-0945-BDA3-24F032FD5A08}"/>
+    <hyperlink ref="C1604" r:id="rId1323" xr:uid="{2F48F64A-B10B-A64F-A34A-09297344DA7E}"/>
+    <hyperlink ref="C1607" r:id="rId1324" xr:uid="{5334AF1D-8EC7-0842-9EBD-45F66B6EBF98}"/>
+    <hyperlink ref="C1608" r:id="rId1325" xr:uid="{5C9965DB-EABA-D44C-873D-77D2D099F6C7}"/>
+    <hyperlink ref="C1609" r:id="rId1326" xr:uid="{B0416170-DF8D-1D4A-B0F6-EA087864B2E4}"/>
+    <hyperlink ref="C1610" r:id="rId1327" xr:uid="{1205BAA0-11AE-F349-95F3-4817837E5474}"/>
+    <hyperlink ref="C1611" r:id="rId1328" xr:uid="{202E64D9-2CB9-9642-A3EA-CE25A03A7A88}"/>
+    <hyperlink ref="C1612" r:id="rId1329" xr:uid="{6227E7C9-6B32-C040-AD7F-83CE7B3BA618}"/>
+    <hyperlink ref="C1613" r:id="rId1330" xr:uid="{4657FA24-C3EE-2342-8B43-D140FDEB35D7}"/>
+    <hyperlink ref="C1614" r:id="rId1331" xr:uid="{ADAA702E-FF92-514E-B1B5-197C27F5AA91}"/>
+    <hyperlink ref="C1615" r:id="rId1332" xr:uid="{6DE5204C-9952-5F46-8E8D-93CFF163EA3C}"/>
+    <hyperlink ref="C1616" r:id="rId1333" xr:uid="{C4DC18EB-337E-F24A-B118-52DE282C6900}"/>
+    <hyperlink ref="C1617" r:id="rId1334" xr:uid="{8258FC91-E621-E142-A700-000D4F6BE5DA}"/>
+    <hyperlink ref="C1618" r:id="rId1335" xr:uid="{50CA1E9E-EF1A-F34C-BA96-D2916C5D3A7E}"/>
+    <hyperlink ref="C1619" r:id="rId1336" xr:uid="{CE100E1A-97FB-F040-B147-B80E770E2164}"/>
+    <hyperlink ref="C1621" r:id="rId1337" xr:uid="{17A737DF-5F17-B047-822B-95DA0981BD4B}"/>
+    <hyperlink ref="C1622" r:id="rId1338" xr:uid="{7AEA3E74-12B3-1D46-B0F4-76689574B496}"/>
+    <hyperlink ref="C1623" r:id="rId1339" xr:uid="{ACE43941-24BC-A449-8733-B8F13493DF0D}"/>
+    <hyperlink ref="C1624" r:id="rId1340" xr:uid="{EB2D6BC3-C918-4843-AB86-5500996C13D3}"/>
+    <hyperlink ref="C1625" r:id="rId1341" xr:uid="{A57E900E-20E8-D444-B2AB-D0792D8AA80C}"/>
+    <hyperlink ref="C1626" r:id="rId1342" xr:uid="{E0649627-B77C-B24E-9F54-670E2308E2A8}"/>
+    <hyperlink ref="C1627" r:id="rId1343" xr:uid="{8520F2AF-35EB-554E-BFDB-8EFDA9E1E3B4}"/>
+    <hyperlink ref="C1628" r:id="rId1344" xr:uid="{DA25D769-98E6-F54A-9B97-B57F61B20019}"/>
+    <hyperlink ref="C1629" r:id="rId1345" xr:uid="{A1ABEFBD-5F83-4B4F-8501-755A94FFB4D2}"/>
+    <hyperlink ref="C1630" r:id="rId1346" xr:uid="{D612ED35-6099-9049-B96E-F7CCA3A06F11}"/>
+    <hyperlink ref="C1631" r:id="rId1347" xr:uid="{97662E45-899C-5D4E-9D56-55526739013C}"/>
+    <hyperlink ref="C1632" r:id="rId1348" xr:uid="{C4600CCE-BB87-F147-98C0-D1E955585786}"/>
+    <hyperlink ref="C1633" r:id="rId1349" xr:uid="{74EBB31D-BBF5-8D45-86E8-9ABD38263EDB}"/>
+    <hyperlink ref="C1634" r:id="rId1350" xr:uid="{EFD56D80-F2EC-D348-A966-0845AA5027F2}"/>
+    <hyperlink ref="C1635" r:id="rId1351" xr:uid="{4E872572-286B-0943-8D8E-5EB331566C51}"/>
+    <hyperlink ref="C1636" r:id="rId1352" xr:uid="{0D2B98CF-8714-0440-A9E2-A811924443A2}"/>
+    <hyperlink ref="C1637" r:id="rId1353" xr:uid="{44EA8DB1-2728-D042-B05C-065F5E83F56E}"/>
+    <hyperlink ref="C1638" r:id="rId1354" xr:uid="{FE9BD999-560F-874B-A6FA-8019654633EF}"/>
+    <hyperlink ref="C1639" r:id="rId1355" xr:uid="{FF1EDD9E-9DA3-514A-8E3C-435B77721C7E}"/>
+    <hyperlink ref="C1640" r:id="rId1356" xr:uid="{45BC0F11-1986-3B48-91EC-3A76D08D8ECD}"/>
+    <hyperlink ref="C1641" r:id="rId1357" xr:uid="{E510F3FD-FCD7-FB49-A839-714A51EEDE48}"/>
+    <hyperlink ref="C1642" r:id="rId1358" xr:uid="{7B658F0C-62D2-9A4C-8D6C-3EC6F88D8105}"/>
+    <hyperlink ref="C1643" r:id="rId1359" xr:uid="{FB194929-E13F-3E42-B76C-4398F65C851C}"/>
+    <hyperlink ref="C1644" r:id="rId1360" xr:uid="{0166AD38-B475-4F49-8217-131B2B53944D}"/>
+    <hyperlink ref="C1645" r:id="rId1361" xr:uid="{71774984-2AB6-5C4C-9796-17DA1906856B}"/>
+    <hyperlink ref="C1646" r:id="rId1362" xr:uid="{80AF8EBF-952A-C34F-B0E8-9D49BE2A43F0}"/>
+    <hyperlink ref="C1647" r:id="rId1363" xr:uid="{9D768A8C-AFD6-9049-98C1-256A670246A9}"/>
+    <hyperlink ref="C1648" r:id="rId1364" xr:uid="{806361B3-B2BF-3748-8DBD-DC2B92B40B3A}"/>
+    <hyperlink ref="C1649" r:id="rId1365" xr:uid="{A7223B17-D7C8-2E43-9C45-F07E6B887F17}"/>
+    <hyperlink ref="C1650" r:id="rId1366" xr:uid="{09666417-54B6-414F-8473-CD71F29F0393}"/>
+    <hyperlink ref="C1651" r:id="rId1367" xr:uid="{7CB67395-5404-354C-AB2C-AF710DA45D78}"/>
+    <hyperlink ref="C1652" r:id="rId1368" xr:uid="{B8D02676-0074-3B4C-8BAF-1A39D781FF95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1031"/>
+  <pageSetup orientation="portrait" r:id="rId1369"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69749D-25CE-5849-BF74-432546E8239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB836ED-F6F9-144F-A45F-9FC0DB283F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1300" windowWidth="21440" windowHeight="11160" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="489">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1387,6 +1387,122 @@
   </si>
   <si>
     <t>Rh20230275@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>aa20234370@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://adel2005281.github.io/Adel-Ahmed2/</t>
+  </si>
+  <si>
+    <t>https://darderyy12.github.io/my/</t>
+  </si>
+  <si>
+    <t>yh20230249@sva.edu.eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mandoxl.github.io/youssef/
+</t>
+  </si>
+  <si>
+    <t>mn20232230@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/Mazen512958/My-first-webpage/issues/1</t>
+  </si>
+  <si>
+    <t>sa20230315@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/shahdaboshanab/My-first-WebPage</t>
+  </si>
+  <si>
+    <t>sh20231373@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ag202332855.github.io/myfirstpage00/</t>
+  </si>
+  <si>
+    <t>na20232317@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nancyali2004.github.io/my-first-wep-padge/</t>
+  </si>
+  <si>
+    <t>me20232383@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://el-tayyeb.github.io/end/</t>
+  </si>
+  <si>
+    <t>https://mai6789.github.io/my-first-page/</t>
+  </si>
+  <si>
+    <t>nt20234219@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nesreen56389.github.io/My-First-webpage/</t>
+  </si>
+  <si>
+    <t>mg20232325@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamed2310.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>am20231397@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamed55249.github.io/html-my-page/</t>
+  </si>
+  <si>
+    <t>https://basant-2005.github.io/my_simple_page/
+https://basant-2005.github.io/basant-walid2005/</t>
+  </si>
+  <si>
+    <t>ma20230213@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://moi-svg.github.io/Mypage/</t>
+  </si>
+  <si>
+    <t>ma20233382@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mostafa20233382.github.io/mypage/</t>
+  </si>
+  <si>
+    <t>https://shahdaboshanab.github.io/My-first-WebPage/</t>
+  </si>
+  <si>
+    <t>se20232380@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://se202323.github.io/Index.html/</t>
+  </si>
+  <si>
+    <t>sm20234249@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://shahdmohamed7.github.io/Mypage/</t>
+  </si>
+  <si>
+    <t>ww20233221@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/WalaaWaell</t>
+  </si>
+  <si>
+    <t>ms20234382@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamedsamy20234382.github.io/mypage/</t>
+  </si>
+  <si>
+    <t>sm20232238@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://seif1920.github.io/My-first-webpage/</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E1653"/>
+  <dimension ref="A1:E2078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1236" workbookViewId="0">
-      <selection activeCell="B1253" sqref="B1253:C1653"/>
+    <sheetView tabSelected="1" topLeftCell="A1636" workbookViewId="0">
+      <selection activeCell="B1654" sqref="B1654:C2078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12707,7 +12823,7 @@
       </c>
     </row>
     <row r="1241" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1241" s="56" t="s">
+      <c r="B1241" s="23" t="s">
         <v>419</v>
       </c>
       <c r="C1241" s="23" t="s">
@@ -16006,6 +16122,3404 @@
       </c>
       <c r="C1653" s="56" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1654" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1654" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1655" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1655" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1656" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1656" s="56">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1657" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1657" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1658" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1658" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1659" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1659" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1660" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1660" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1661" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1661" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1662" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1662" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1663" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1663" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1664" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1664" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1665" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1665" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1666" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1666" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1667" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1667" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1668" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1668" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1669" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1669" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1670" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1670" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1671" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1671" s="57"/>
+    </row>
+    <row r="1672" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1672" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1672" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1673" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1673" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1674" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1674" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1675" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1675" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1676" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1676" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1677" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1677" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1678" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1678" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1679" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1679" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1680" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1680" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1681" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1681" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1682" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1682" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1683" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1683" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1684" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1684" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1685" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1685" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1686" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1686" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1687" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1687" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1688" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1688" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1689" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1689" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1690" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1690" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1691" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1691" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1692" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1692" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1693" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1693" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1694" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1694" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1695" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1695" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1696" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1696" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1697" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1697" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1698" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1698" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1699" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1699" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1700" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1700" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1701" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1701" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1702" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1702" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1703" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1703" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1704" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1704" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1705" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1705" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1706" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1706" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1707" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1707" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1708" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1708" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1709" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1709" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1710" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1710" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1711" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1711" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1712" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1712" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1713" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1713" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1714" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1714" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1715" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1715" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1715" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1716" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1716" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1717" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1717" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1718" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1718" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1719" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1719" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1720" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1720" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1720" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1721" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1721" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1722" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1722" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1723" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1723" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1724" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1724" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1725" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1725" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1725" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1726" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1726" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1727" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1727" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1727" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1728" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1728" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1729" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1729" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1730" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1730" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1731" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1731" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1732" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1732" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1733" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1733" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1734" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1734" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1735" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1735" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1736" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1736" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1737" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1737" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1738" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1738" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1739" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1739" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1740" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1740" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1741" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1741" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1742" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1742" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1743" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1743" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1744" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1744" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1745" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1745" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1746" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1746" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1747" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1747" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1748" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1748" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1749" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1749" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1750" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1750" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1751" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1751" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1752" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1752" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1753" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1753" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1754" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1754" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1755" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1755" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1756" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1756" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1757" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1757" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1758" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1758" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1759" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1759" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1760" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1760" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1761" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1761" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1761" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1762" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1762" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1763" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1763" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1764" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1764" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1765" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1765" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1766" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1766" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1767" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1767" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1768" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1768" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1769" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1769" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1769" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1770" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1770" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1771" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1771" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1772" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1772" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1773" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1773" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1773" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1774" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1774" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1774" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1775" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1775" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1776" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1776" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1777" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1777" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1778" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1778" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1779" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1779" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1780" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1780" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1781" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1781" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1782" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1782" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1783" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1783" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1784" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1784" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1785" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1785" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1786" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1786" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1787" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1787" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1788" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1788" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1789" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1789" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1790" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1790" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1790" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1791" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1791" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1792" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1792" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1793" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1793" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1794" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1794" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1795" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1795" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1796" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1796" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1797" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1797" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1798" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1798" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1799" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1799" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1800" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1800" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1801" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1801" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1802" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1802" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1803" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1803" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1804" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1804" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1805" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1805" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1806" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1806" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1806" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1807" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1807" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1808" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1808" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1809" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1809" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1810" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1810" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1811" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1811" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1811" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1812" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1812" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1812" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1813" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1813" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1813" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1814" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1814" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1814" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1815" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1815" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1815" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1816" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1816" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1816" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1817" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1817" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1817" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1818" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1818" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1818" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1819" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1819" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1820" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1820" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1821" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1821" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1822" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1822" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1822" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1823" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1823" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1823" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1824" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1824" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1824" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1825" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1825" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1825" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1826" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1826" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1826" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1827" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1827" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1827" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1828" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1828" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1828" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1829" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1829" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1829" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1830" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1830" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1830" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1831" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1831" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1831" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1832" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1832" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1832" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1833" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1833" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1833" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1834" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1834" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1834" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1835" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1835" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1835" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1836" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1836" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1836" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1837" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1837" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1837" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1838" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1838" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1838" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1839" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1839" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1839" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1840" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1840" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1840" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1841" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1841" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1841" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1842" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1842" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1842" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1843" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1843" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1843" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1844" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1844" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1844" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1845" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1845" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1845" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1846" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1846" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1846" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1847" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1847" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1847" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1848" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1848" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1848" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1849" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1849" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1849" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1850" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1850" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1850" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1851" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1851" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1851" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1852" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1852" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1852" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1853" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1853" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1853" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1854" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1854" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1854" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1855" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1855" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1855" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1856" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1856" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1856" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1857" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1857" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1857" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1858" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1858" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1858" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1859" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1859" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1859" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1860" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1860" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1860" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1861" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1861" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1861" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1862" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1862" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1862" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1863" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1863" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1863" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1864" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1864" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1864" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1865" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1865" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1865" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1866" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1866" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1866" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1867" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1867" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1867" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1868" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1868" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1868" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1869" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1869" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1869" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1870" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1870" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1870" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1871" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1871" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1871" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1872" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1872" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1872" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1873" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1873" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1873" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1874" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1874" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1874" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1875" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1875" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1875" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1876" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1876" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1876" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1877" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1877" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1877" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1878" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1878" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1878" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1879" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1879" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1879" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1880" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1880" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1880" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1881" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1881" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1881" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1882" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1882" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1882" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1883" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1883" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1883" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1884" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1884" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1884" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1885" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1885" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1885" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1886" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1886" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1886" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1887" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1887" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1887" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1888" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1888" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1888" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1889" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1889" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1890" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1890" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1891" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1891" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1892" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1892" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1892" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1893" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1893" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1893" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1894" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1894" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1894" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1895" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1895" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1895" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1896" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1896" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1896" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1897" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1897" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1897" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1898" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1898" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1898" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1899" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1899" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1899" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1900" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1900" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1900" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1901" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1901" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1901" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1902" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1902" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1902" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1903" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1903" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1903" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1904" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1904" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1904" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1905" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1905" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1905" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1906" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1906" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1906" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1907" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1907" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1907" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1908" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1908" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1908" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1909" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1909" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1909" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1910" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1910" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1910" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1911" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1911" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1911" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1912" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1912" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1912" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="1913" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1913" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1913" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1914" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1914" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1914" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1915" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1915" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1915" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1916" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1916" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1916" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1917" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1917" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1917" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1918" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1918" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1918" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1919" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1919" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1919" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1920" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1920" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1920" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1921" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1921" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1921" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1922" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1922" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1922" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1923" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1923" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1923" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1924" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1924" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1924" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1925" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1925" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1925" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1926" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1926" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1926" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1927" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1927" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1927" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1928" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1928" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1928" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1929" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1929" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1929" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1930" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1930" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1930" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1931" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1931" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1931" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1932" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1932" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1932" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1933" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1933" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1933" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1934" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1934" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1934" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1935" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1935" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1935" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1936" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1936" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1936" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1937" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1937" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1937" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1938" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1938" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1938" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1939" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1939" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1939" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1940" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1940" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1940" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1941" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1941" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1941" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1942" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1942" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1942" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1943" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1943" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1943" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1944" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1944" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1944" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1945" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1945" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1945" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1946" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1946" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1946" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1947" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1947" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1947" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1948" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1948" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1948" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1949" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1949" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1949" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1950" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1950" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1950" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1951" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1951" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1951" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1952" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1952" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1952" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1953" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1953" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1953" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1954" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1954" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1954" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1955" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1955" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1955" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1956" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1956" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1956" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1957" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1957" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1957" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1958" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1958" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1958" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1959" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1959" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1959" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1960" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1960" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1960" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1961" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1961" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1961" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1962" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1962" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1962" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1963" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1963" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1963" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1964" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1964" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1964" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1965" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1965" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1965" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1966" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1966" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1966" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1967" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1967" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1967" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1968" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1968" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1968" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1969" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1969" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1969" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1970" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1970" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1970" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1971" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1971" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1971" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1972" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1972" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1972" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1973" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1973" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1973" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1974" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1974" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1974" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1975" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1975" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1975" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1976" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1976" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1976" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1977" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1977" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1977" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1978" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1978" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1978" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1979" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1979" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1979" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1980" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1980" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1980" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1981" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1981" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1981" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1982" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1982" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1982" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1983" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1983" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1983" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1984" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1984" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1984" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1985" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1985" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1985" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1986" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1986" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1986" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1987" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1987" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1987" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1988" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1988" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1988" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1989" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1989" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1989" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1990" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1990" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1990" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1991" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1991" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1991" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1992" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1992" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1992" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1993" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1993" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1993" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1994" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1994" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1994" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1995" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1995" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1995" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1996" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1996" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1996" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1997" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1997" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1997" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1998" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1998" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1998" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1999" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1999" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1999" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2000" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2000" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2000" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2001" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2001" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2001" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2002" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2002" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2002" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2003" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2003" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2003" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2004" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2004" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2004" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2005" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2005" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2005" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2006" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2006" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2006" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2007" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2007" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2007" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2008" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2008" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2008" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2009" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2009" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2009" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2010" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2010" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2010" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2011" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2011" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2011" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2012" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2012" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2012" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2013" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2013" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2013" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2014" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2014" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2014" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2015" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2015" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2015" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2016" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2016" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2016" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2017" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2017" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2017" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2018" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2018" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2018" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2019" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2019" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2019" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2020" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2020" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2020" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2021" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B2021" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2021" s="59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2022" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2022" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2022" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2023" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2023" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2023" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2024" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2024" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2024" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2025" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2025" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2025" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2026" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2026" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2026" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2027" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2027" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2027" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2028" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2028" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2028" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2029" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2029" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2029" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2030" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2030" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2030" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2031" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2031" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2031" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2032" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2032" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2032" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2033" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2033" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2033" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2034" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2034" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2034" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2035" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2035" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2035" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2036" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2036" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2036" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2037" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2037" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2037" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2038" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2038" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2038" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2039" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2039" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2039" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2040" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2040" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2040" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2041" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2041" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2041" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2042" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2042" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2042" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2043" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2043" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2043" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2044" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2044" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2044" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2045" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2045" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2045" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2046" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2046" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2046" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2047" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2047" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2047" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2048" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2048" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2048" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2049" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2049" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2049" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2050" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2050" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2050" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2051" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2051" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2051" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2052" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2052" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2052" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2053" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2053" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2053" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2054" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2054" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2054" s="56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2055" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2055" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2055" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2056" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2056" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2056" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2057" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B2057" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2057" s="58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2058" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2058" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2058" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2059" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2059" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2059" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2060" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2060" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2060" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2061" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2061" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2061" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2062" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2062" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2062" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2063" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2063" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2063" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2064" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2064" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2064" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2065" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2065" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2065" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2066" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2066" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2066" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2067" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2067" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2067" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2068" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2068" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2068" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2069" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2069" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2069" s="23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2070" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B2070" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2070" s="59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2071" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2071" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2071" s="23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2072" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2072" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2072" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2073" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2073" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2073" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2074" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2074" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2074" s="23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2075" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2075" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2075" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2076" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2076" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2076" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2077" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2077" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2077" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2078" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2078" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2078" s="23" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -17378,9 +20892,371 @@
     <hyperlink ref="C1650" r:id="rId1366" xr:uid="{09666417-54B6-414F-8473-CD71F29F0393}"/>
     <hyperlink ref="C1651" r:id="rId1367" xr:uid="{7CB67395-5404-354C-AB2C-AF710DA45D78}"/>
     <hyperlink ref="C1652" r:id="rId1368" xr:uid="{B8D02676-0074-3B4C-8BAF-1A39D781FF95}"/>
+    <hyperlink ref="B1241" r:id="rId1369" xr:uid="{F46CCA1F-90D7-5349-A26A-64AB72924F94}"/>
+    <hyperlink ref="C1654" r:id="rId1370" xr:uid="{EF0EF926-83C9-DA45-851C-E8D5EBF3B294}"/>
+    <hyperlink ref="C1657" r:id="rId1371" xr:uid="{DAF01643-0C7A-B144-9123-EB488D8DB32C}"/>
+    <hyperlink ref="C1661" r:id="rId1372" xr:uid="{6FD48479-77A3-5947-A0F6-261F69501BAA}"/>
+    <hyperlink ref="C1663" r:id="rId1373" xr:uid="{9DB0E529-2E4D-8948-B7A1-348382C92AF1}"/>
+    <hyperlink ref="C1664" r:id="rId1374" xr:uid="{EE368621-A14B-8445-941F-87C046A4A73C}"/>
+    <hyperlink ref="C1670" r:id="rId1375" xr:uid="{123A697B-7056-444F-871B-CAB5CD4623FF}"/>
+    <hyperlink ref="C1672" r:id="rId1376" xr:uid="{F7188C88-9CF2-6148-A84F-E6A0A645E857}"/>
+    <hyperlink ref="C1676" r:id="rId1377" xr:uid="{701DF437-2CA5-CE49-852C-06A63A875F54}"/>
+    <hyperlink ref="C1677" r:id="rId1378" xr:uid="{604FEB59-F1AB-2C44-8629-B4EF65CC8C53}"/>
+    <hyperlink ref="C1678" r:id="rId1379" xr:uid="{D47FA31E-7A21-AB48-8901-D0A668BDFD5D}"/>
+    <hyperlink ref="C1679" r:id="rId1380" xr:uid="{F45EBDE1-D786-E04E-8537-30B1C378387A}"/>
+    <hyperlink ref="C1680" r:id="rId1381" xr:uid="{DE5392B7-1370-5744-BDB3-B28482BED2A2}"/>
+    <hyperlink ref="C1681" r:id="rId1382" xr:uid="{8D0DB968-6C1B-6D4F-8E94-8C2AB2A59344}"/>
+    <hyperlink ref="C1682" r:id="rId1383" xr:uid="{B0FB5C36-7AB7-FA4E-A100-72B98FC1C519}"/>
+    <hyperlink ref="C1683" r:id="rId1384" xr:uid="{E32667FD-8C5E-0A4B-A8DC-CECF1CE5A27C}"/>
+    <hyperlink ref="C1684" r:id="rId1385" xr:uid="{CA019928-2776-C849-9B11-9EC85E78E219}"/>
+    <hyperlink ref="C1687" r:id="rId1386" xr:uid="{46B08A70-168B-4348-A04D-2CD0D9DA5C83}"/>
+    <hyperlink ref="C1688" r:id="rId1387" xr:uid="{420A4DA6-B1EB-5A48-AB35-2C5770257DC3}"/>
+    <hyperlink ref="C1689" r:id="rId1388" xr:uid="{7A271083-828B-C34E-A8EE-1102FD91BCC3}"/>
+    <hyperlink ref="C1690" r:id="rId1389" xr:uid="{B80F18BC-7CF7-A243-A5A6-0C503C91F715}"/>
+    <hyperlink ref="C1691" r:id="rId1390" xr:uid="{8EE1471D-9248-6C4E-BB3E-879E7DAA9019}"/>
+    <hyperlink ref="C1694" r:id="rId1391" xr:uid="{CD610C11-298C-1B46-9EC6-8D003B220987}"/>
+    <hyperlink ref="C1696" r:id="rId1392" xr:uid="{A32FC33E-0D50-0F4C-B435-DEFF9F1C207D}"/>
+    <hyperlink ref="C1698" r:id="rId1393" xr:uid="{00B886D3-9B3D-C445-87A5-5361C30BCFE3}"/>
+    <hyperlink ref="C1699" r:id="rId1394" xr:uid="{A3BD4E1F-A4FC-FD4D-980C-D7608407CEF9}"/>
+    <hyperlink ref="C1701" r:id="rId1395" xr:uid="{0A0C7AB6-8A06-C549-A2A7-205EC48E1B7D}"/>
+    <hyperlink ref="C1702" r:id="rId1396" xr:uid="{3B7BDC19-6B93-7241-B3FF-AA48319385C6}"/>
+    <hyperlink ref="C1704" r:id="rId1397" xr:uid="{0A6815AA-291E-2D46-B475-C1078F522BB7}"/>
+    <hyperlink ref="C1705" r:id="rId1398" xr:uid="{7C35AF2B-2838-E541-9ACC-0BEA52B8F204}"/>
+    <hyperlink ref="C1706" r:id="rId1399" xr:uid="{164C796E-E7E0-5044-A543-B6D8C76B97C4}"/>
+    <hyperlink ref="C1707" r:id="rId1400" xr:uid="{C8A31C2C-E57D-B847-8EF8-CE7D0CEBCBAE}"/>
+    <hyperlink ref="C1709" r:id="rId1401" xr:uid="{5B293990-F3D8-AB40-89DF-660777671EFB}"/>
+    <hyperlink ref="C1711" r:id="rId1402" xr:uid="{B4444C4E-8D2D-1F42-93CD-3D501DEBC0FB}"/>
+    <hyperlink ref="C1712" r:id="rId1403" xr:uid="{38111EAC-5782-4346-B79F-22A19FACAC45}"/>
+    <hyperlink ref="C1714" r:id="rId1404" xr:uid="{B4969DE4-EA07-5544-BC60-555BFCA6D3DE}"/>
+    <hyperlink ref="C1715" r:id="rId1405" xr:uid="{28A7AC82-5010-9443-8930-B17471E4A143}"/>
+    <hyperlink ref="C1716" r:id="rId1406" xr:uid="{F88073F9-7284-3D44-9520-673F53F2D77B}"/>
+    <hyperlink ref="C1717" r:id="rId1407" xr:uid="{643B0613-9358-1D4C-A953-24FFBF9F6617}"/>
+    <hyperlink ref="C1718" r:id="rId1408" xr:uid="{455D0880-014C-6245-95B6-77C9C51D9ADF}"/>
+    <hyperlink ref="C1719" r:id="rId1409" xr:uid="{A003B67D-6276-724A-B0CC-7B0FF36F81D7}"/>
+    <hyperlink ref="C1722" r:id="rId1410" xr:uid="{5454BF02-5166-A540-8EF3-29CE7283E9DE}"/>
+    <hyperlink ref="C1723" r:id="rId1411" xr:uid="{9174442C-0683-2F44-BE2A-5D35A68116FF}"/>
+    <hyperlink ref="C1724" r:id="rId1412" xr:uid="{63727D97-4CB6-A34B-AB5D-B1504E954BB5}"/>
+    <hyperlink ref="C1725" r:id="rId1413" xr:uid="{AEEDF152-DCA7-AF43-B3EC-0171063C86EF}"/>
+    <hyperlink ref="C1726" r:id="rId1414" xr:uid="{379EF679-F30B-1840-BF06-409BB395A6BA}"/>
+    <hyperlink ref="C1728" r:id="rId1415" display="https://rahma5555.github.io/roro00/" xr:uid="{22BC652A-1084-C049-AC99-5C04466AC20D}"/>
+    <hyperlink ref="C1729" r:id="rId1416" xr:uid="{408FD053-B89C-F843-A6F4-59B8E4A1B859}"/>
+    <hyperlink ref="C1730" r:id="rId1417" xr:uid="{4D591B9A-E71E-804C-A817-152E376E7ED1}"/>
+    <hyperlink ref="C1731" r:id="rId1418" xr:uid="{65555E12-9F51-ED4C-A45B-CB4EFBEBED00}"/>
+    <hyperlink ref="C1732" r:id="rId1419" xr:uid="{F507374F-C3B5-7C41-98C6-6CF2D70572D9}"/>
+    <hyperlink ref="C1733" r:id="rId1420" xr:uid="{08E610A2-B68D-974B-87D3-8DE1B9C41D47}"/>
+    <hyperlink ref="C1734" r:id="rId1421" xr:uid="{C45EA987-22DE-C143-A218-5FB632A45F6F}"/>
+    <hyperlink ref="C1738" r:id="rId1422" xr:uid="{9575A972-EE3F-E243-8AF4-8368FCA4307D}"/>
+    <hyperlink ref="C1739" r:id="rId1423" xr:uid="{D4EFDD48-4F8C-3C46-924E-8C6EE702D5A7}"/>
+    <hyperlink ref="C1740" r:id="rId1424" xr:uid="{12D016A5-E672-E546-BF7F-3DE469FAB613}"/>
+    <hyperlink ref="C1741" r:id="rId1425" xr:uid="{C9778598-0E2C-DC43-885C-6C17C6E80A21}"/>
+    <hyperlink ref="C1742" r:id="rId1426" display="https://loloah20.githup.io/sva20/" xr:uid="{90294443-2F45-EE47-8834-6B1E0A5E73F8}"/>
+    <hyperlink ref="C1744" r:id="rId1427" xr:uid="{8FB4A509-1457-7143-B16F-2A4F1A29884C}"/>
+    <hyperlink ref="C1745" r:id="rId1428" xr:uid="{F10E8044-BC46-3B42-95B6-0F49421A5381}"/>
+    <hyperlink ref="C1746" r:id="rId1429" xr:uid="{F203998B-E226-0541-A1AB-0B3AEEEE8D8F}"/>
+    <hyperlink ref="C1748" r:id="rId1430" xr:uid="{18683006-D603-9C42-ACD3-39563EBF6EF1}"/>
+    <hyperlink ref="C1749" r:id="rId1431" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{FEF3E7B4-0D3E-8841-AC66-D1B6695E99CA}"/>
+    <hyperlink ref="C1750" r:id="rId1432" xr:uid="{8B7C1207-FC94-F549-8D5A-7F4FF8545F1A}"/>
+    <hyperlink ref="C1751" r:id="rId1433" xr:uid="{AC706F3D-5D65-6448-B183-0588CEF4CDCB}"/>
+    <hyperlink ref="C1752" r:id="rId1434" xr:uid="{9E58BD24-DB31-0547-AC98-6664A10DD2AA}"/>
+    <hyperlink ref="C1753" r:id="rId1435" xr:uid="{D03EFB48-E7BC-4B44-AC3D-794C2CC625EA}"/>
+    <hyperlink ref="C1754" r:id="rId1436" xr:uid="{3492517B-822F-BB44-8DF1-03388589616E}"/>
+    <hyperlink ref="C1755" r:id="rId1437" xr:uid="{C98ABAB4-C7F5-E54D-B960-EBBB2260E033}"/>
+    <hyperlink ref="C1756" r:id="rId1438" display="https://basant1512006.github.io/basant-walid/" xr:uid="{1DEA13F8-5F01-2D4D-B0E1-486DD794E577}"/>
+    <hyperlink ref="C1757" r:id="rId1439" xr:uid="{C22BCD33-03FE-BF43-8E16-99E2E2914D54}"/>
+    <hyperlink ref="C1758" r:id="rId1440" xr:uid="{4641A660-2DC9-1648-B3EF-0597F82E6694}"/>
+    <hyperlink ref="C1759" r:id="rId1441" xr:uid="{D042F1AA-1774-3E46-A812-F96C20032FD5}"/>
+    <hyperlink ref="C1761" r:id="rId1442" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{24D042A9-F33C-7A4E-B81E-39303BE0BDE2}"/>
+    <hyperlink ref="C1762" r:id="rId1443" xr:uid="{287DB611-E360-9B4F-AE88-F1124317CED2}"/>
+    <hyperlink ref="C1763" r:id="rId1444" xr:uid="{9F4AA719-14AF-C541-B1B0-5F3A40CF9D16}"/>
+    <hyperlink ref="C1764" r:id="rId1445" xr:uid="{72FBC16B-559D-384A-8400-0D0ED013264A}"/>
+    <hyperlink ref="C1765" r:id="rId1446" xr:uid="{765BF56C-7243-9D40-B783-685A34BEF9F8}"/>
+    <hyperlink ref="C1766" r:id="rId1447" xr:uid="{481DD222-B8A2-7A45-BC67-7ECE666C56BF}"/>
+    <hyperlink ref="C1767" r:id="rId1448" xr:uid="{724467B2-A0B0-CE44-B913-69A392051DDD}"/>
+    <hyperlink ref="C1768" r:id="rId1449" xr:uid="{E231FDCB-C6F8-A745-9627-8CC680B50B63}"/>
+    <hyperlink ref="C1769" r:id="rId1450" xr:uid="{C03CDEE3-FC0F-384E-9BFD-7B44F43E738E}"/>
+    <hyperlink ref="C1770" r:id="rId1451" xr:uid="{A7FCC715-C0FA-0E46-ABF1-14FE6E7D0065}"/>
+    <hyperlink ref="C1771" r:id="rId1452" xr:uid="{7E4587AE-0CE5-564E-B8AA-9CAC4246E3BA}"/>
+    <hyperlink ref="C1772" r:id="rId1453" xr:uid="{57CCE3A7-C228-7D46-93FF-4A6897FD93D9}"/>
+    <hyperlink ref="C1773" r:id="rId1454" xr:uid="{C4F169AB-F3D6-3D41-8424-A7824A49057F}"/>
+    <hyperlink ref="C1775" r:id="rId1455" xr:uid="{5812EBC8-FE49-9E40-9AEF-FBEA1745776B}"/>
+    <hyperlink ref="C1776" r:id="rId1456" xr:uid="{F950136E-6449-9E4E-9AD6-545EE5D68C1F}"/>
+    <hyperlink ref="C1777" r:id="rId1457" xr:uid="{6CBB48B2-69C5-5340-969A-64EE72795542}"/>
+    <hyperlink ref="C1778" r:id="rId1458" xr:uid="{6B7C47B4-EEAA-5840-A698-D3BB723590DD}"/>
+    <hyperlink ref="C1779" r:id="rId1459" xr:uid="{75503A40-919C-C14C-90A0-17A1CEF88768}"/>
+    <hyperlink ref="C1780" r:id="rId1460" xr:uid="{9A338AD1-9EBE-2745-8679-96187E03FDD8}"/>
+    <hyperlink ref="C1781" r:id="rId1461" xr:uid="{82469432-512D-524F-9104-59639623F833}"/>
+    <hyperlink ref="C1782" r:id="rId1462" xr:uid="{86309975-E2A5-F74A-9658-AFE9FCF5FCFE}"/>
+    <hyperlink ref="C1783" r:id="rId1463" xr:uid="{B68FE104-2F33-2A4C-B18F-4E90C55E3D7C}"/>
+    <hyperlink ref="C1784" r:id="rId1464" xr:uid="{250EC9B6-8DAB-4F4D-A6DB-811B7AF4B859}"/>
+    <hyperlink ref="C1785" r:id="rId1465" xr:uid="{A883FD0F-8DEE-514E-BCD4-0A63E63AACA4}"/>
+    <hyperlink ref="C1786" r:id="rId1466" xr:uid="{532D81EF-D530-1447-A0BA-B02550B0768A}"/>
+    <hyperlink ref="C1787" r:id="rId1467" xr:uid="{649879F1-6D7A-F946-9E99-B7A623445408}"/>
+    <hyperlink ref="C1788" r:id="rId1468" xr:uid="{60198F26-F802-164E-8154-09B6DBD966A0}"/>
+    <hyperlink ref="C1789" r:id="rId1469" xr:uid="{2FDA3D2B-5EB2-4843-A369-F86955F330DC}"/>
+    <hyperlink ref="C1791" r:id="rId1470" xr:uid="{F6385AEB-5C32-D64C-8F27-C03DC88CD172}"/>
+    <hyperlink ref="C1792" r:id="rId1471" xr:uid="{786FB905-58DC-0F46-A77E-C07D6377D6A3}"/>
+    <hyperlink ref="C1793" r:id="rId1472" xr:uid="{42AC5AA3-9F34-C146-B02A-D7F7EEA60E95}"/>
+    <hyperlink ref="C1794" r:id="rId1473" xr:uid="{091ACCAF-F3BD-404A-AAE5-3B40D5C2C75F}"/>
+    <hyperlink ref="C1795" r:id="rId1474" xr:uid="{C35C960A-5803-814B-99D6-55602FF9A50F}"/>
+    <hyperlink ref="C1796" r:id="rId1475" xr:uid="{9B5B4597-D671-6D40-944F-CF4C8A77F878}"/>
+    <hyperlink ref="C1797" r:id="rId1476" xr:uid="{311AEE41-2086-9C47-A72B-A8AF3C1B0BA1}"/>
+    <hyperlink ref="C1798" r:id="rId1477" xr:uid="{D48A0368-070C-D94C-9034-5E24E910F440}"/>
+    <hyperlink ref="C1799" r:id="rId1478" xr:uid="{053DE629-4F19-4043-A41E-712D5C5DC1E0}"/>
+    <hyperlink ref="C1800" r:id="rId1479" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{C3C870D8-C647-F143-989D-91439002E851}"/>
+    <hyperlink ref="C1801" r:id="rId1480" xr:uid="{CAF8EBA2-D49C-5C4E-A59E-9350C3F4348C}"/>
+    <hyperlink ref="C1802" r:id="rId1481" xr:uid="{F141EFF3-550E-8043-B7FC-CB9211581FD1}"/>
+    <hyperlink ref="C1804" r:id="rId1482" xr:uid="{B78B4E0C-92B6-1F44-BA4B-C98EEF8F94A5}"/>
+    <hyperlink ref="C1805" r:id="rId1483" xr:uid="{B49E35C2-D287-5C42-BF2B-0035F814E4B9}"/>
+    <hyperlink ref="C1806" r:id="rId1484" xr:uid="{8E7AAD6D-08D9-2343-984A-9D2FCF81F551}"/>
+    <hyperlink ref="C1807" r:id="rId1485" xr:uid="{9B92DBF8-A2E8-F440-899C-C3B4C323871A}"/>
+    <hyperlink ref="C1808" r:id="rId1486" xr:uid="{DC73B930-D81C-9C41-8D57-BEAAF6CC44F6}"/>
+    <hyperlink ref="C1809" r:id="rId1487" xr:uid="{35A2354E-AE10-6342-92EF-03C4DE8A6941}"/>
+    <hyperlink ref="C1810" r:id="rId1488" xr:uid="{5E47BCCC-5BB5-4648-A9B2-BF9E2497EBFE}"/>
+    <hyperlink ref="C1811" r:id="rId1489" xr:uid="{00A7120C-D872-294A-918F-D9021C70D6E0}"/>
+    <hyperlink ref="C1812" r:id="rId1490" xr:uid="{6D3CFFF1-A537-6046-8BBA-41850ED03FA4}"/>
+    <hyperlink ref="C1813" r:id="rId1491" xr:uid="{2AD09559-54E2-F449-9E32-E2D8F3C6F547}"/>
+    <hyperlink ref="C1819" r:id="rId1492" xr:uid="{17FFCF1C-8E92-9D48-AB12-7E1AD9103E2F}"/>
+    <hyperlink ref="C1820" r:id="rId1493" xr:uid="{A642975A-F6EE-0547-9A08-A8D944E2AC8E}"/>
+    <hyperlink ref="C1821" r:id="rId1494" xr:uid="{716C0369-9744-7D4D-95BB-F5084455F333}"/>
+    <hyperlink ref="C1822" r:id="rId1495" xr:uid="{D42BA262-1CAD-6946-A6CA-3F63CCD94E55}"/>
+    <hyperlink ref="C1823" r:id="rId1496" xr:uid="{953DD52D-7756-254D-8039-AE5C3B7C6F2A}"/>
+    <hyperlink ref="C1824" r:id="rId1497" xr:uid="{3CF63325-52F5-1C4B-BDDA-2F4DCD36E534}"/>
+    <hyperlink ref="C1826" r:id="rId1498" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{D04FCB9A-7199-B040-A75D-8A269E3FE43A}"/>
+    <hyperlink ref="C1827" r:id="rId1499" xr:uid="{6D479088-BC00-664B-88A3-9F4B85B75FDA}"/>
+    <hyperlink ref="C1830" r:id="rId1500" xr:uid="{23074395-DD4B-D74C-B8F3-5F06DCA03C75}"/>
+    <hyperlink ref="C1831" r:id="rId1501" xr:uid="{A009E3BD-9A37-1F4E-A5AE-8D223FD8C1D7}"/>
+    <hyperlink ref="C1832" r:id="rId1502" xr:uid="{0696ACDD-BEFE-D749-B6D3-013C33D12056}"/>
+    <hyperlink ref="C1834" r:id="rId1503" xr:uid="{CEA52F09-8655-C84E-A3EF-D0C05E5BFD66}"/>
+    <hyperlink ref="C1835" r:id="rId1504" xr:uid="{5E3BCCF6-D08D-CC4F-88EE-FC8E3AAFBAD9}"/>
+    <hyperlink ref="C1836" r:id="rId1505" xr:uid="{50F92315-161B-E74F-992D-89F752B69EDC}"/>
+    <hyperlink ref="C1838" r:id="rId1506" xr:uid="{4558844F-BE90-1D42-86E9-77FC82612D56}"/>
+    <hyperlink ref="C1839" r:id="rId1507" xr:uid="{F9B56882-BCA2-A043-882B-E6D8C7FF6090}"/>
+    <hyperlink ref="C1840" r:id="rId1508" xr:uid="{110149FD-AED5-6242-B5B1-6B8FFB18C544}"/>
+    <hyperlink ref="C1843" r:id="rId1509" xr:uid="{7E7E7957-FBE9-174B-AC5D-9BF18B2A1F7C}"/>
+    <hyperlink ref="C1844" r:id="rId1510" xr:uid="{EC6269DE-F6DB-BF49-A4F5-48337F78517D}"/>
+    <hyperlink ref="C1845" r:id="rId1511" xr:uid="{3D42F39E-AD98-4147-8B92-2ABACCF698A4}"/>
+    <hyperlink ref="C1846" r:id="rId1512" xr:uid="{5086BDA6-999C-7B49-A68B-1620BECDE8B3}"/>
+    <hyperlink ref="C1847" r:id="rId1513" xr:uid="{0E70F9A1-CE36-1149-AA08-0EF1C80297B1}"/>
+    <hyperlink ref="C1848" r:id="rId1514" xr:uid="{0BA49D87-E483-624D-9D36-77F09C56F314}"/>
+    <hyperlink ref="C1849" r:id="rId1515" xr:uid="{B9B5888B-766C-CC41-B2CC-A338A6D4BD58}"/>
+    <hyperlink ref="C1854" r:id="rId1516" xr:uid="{2F1FE4AE-7A8B-8047-B8FA-92B5553FD553}"/>
+    <hyperlink ref="C1855" r:id="rId1517" xr:uid="{B6FB028E-EE24-7243-AC50-C138816A98AD}"/>
+    <hyperlink ref="C1856" r:id="rId1518" xr:uid="{BAAE9D58-9100-6B43-91CC-F93174E0B151}"/>
+    <hyperlink ref="C1857" r:id="rId1519" xr:uid="{2514B782-1699-314C-A873-53B156C60A39}"/>
+    <hyperlink ref="C1858" r:id="rId1520" xr:uid="{8B9DD79E-E717-7941-90A1-63CC5524FA32}"/>
+    <hyperlink ref="C1859" r:id="rId1521" xr:uid="{D19B6FE3-B77E-834D-A24F-5026F0EBF236}"/>
+    <hyperlink ref="C1860" r:id="rId1522" xr:uid="{C0ADE7C3-94C6-8746-BABE-24B79072762F}"/>
+    <hyperlink ref="C1861" r:id="rId1523" xr:uid="{BCC64D79-C7F1-6C4B-8CF3-C75E2AC54C18}"/>
+    <hyperlink ref="C1862" r:id="rId1524" xr:uid="{DD6647C7-D861-554A-8536-4EF5F233E01A}"/>
+    <hyperlink ref="C1863" r:id="rId1525" xr:uid="{A2D24A63-2C92-824E-95AF-CED52A17E09F}"/>
+    <hyperlink ref="C1864" r:id="rId1526" xr:uid="{683B34DB-7975-FF4C-9918-76083963F822}"/>
+    <hyperlink ref="C1865" r:id="rId1527" xr:uid="{DE9EFF93-4D7B-0F4D-9D6B-22CCB06B0B67}"/>
+    <hyperlink ref="C1866" r:id="rId1528" xr:uid="{5E9C626D-8D49-2B4E-B208-21968EC6159A}"/>
+    <hyperlink ref="C1867" r:id="rId1529" xr:uid="{643AF32F-16B3-7E4A-A61C-3C12031DB92F}"/>
+    <hyperlink ref="C1868" r:id="rId1530" xr:uid="{F6CA4F49-39E0-EC4C-896C-50081E83CC74}"/>
+    <hyperlink ref="C1869" r:id="rId1531" xr:uid="{10E50A66-5014-BA48-8956-304718EC5763}"/>
+    <hyperlink ref="C1870" r:id="rId1532" xr:uid="{046A8925-FD8D-E142-BD3F-8642D1F677FB}"/>
+    <hyperlink ref="C1871" r:id="rId1533" xr:uid="{CC35F569-300E-0B46-8580-0D1C169E5FEE}"/>
+    <hyperlink ref="C1873" r:id="rId1534" xr:uid="{182DDD84-9522-204D-9F60-93DFCCD17CE0}"/>
+    <hyperlink ref="C1874" r:id="rId1535" xr:uid="{2DA824EB-F8AE-D247-97D0-240BC66DD1BF}"/>
+    <hyperlink ref="C1875" r:id="rId1536" xr:uid="{C1EE24FD-2702-7041-AA1F-E088798CD7D5}"/>
+    <hyperlink ref="C1876" r:id="rId1537" xr:uid="{4EE50B02-5C6A-ED46-AA91-F918CA5C9363}"/>
+    <hyperlink ref="C1877" r:id="rId1538" xr:uid="{1DE17E09-2DDE-1A4E-BA30-2659E65E7DE3}"/>
+    <hyperlink ref="C1878" r:id="rId1539" xr:uid="{E22609BC-D52D-E44E-A405-92A265CE135A}"/>
+    <hyperlink ref="C1879" r:id="rId1540" xr:uid="{8AFF2A7E-6917-2646-804E-F94188BD6F7D}"/>
+    <hyperlink ref="C1880" r:id="rId1541" xr:uid="{81AD4FDA-7DE2-CF46-BD0F-A7F5B901BECB}"/>
+    <hyperlink ref="C1881" r:id="rId1542" xr:uid="{359015C8-8765-C74A-8DE9-17A546484D23}"/>
+    <hyperlink ref="C1884" r:id="rId1543" xr:uid="{DCB3CD44-0E87-F541-81EA-A93608C7B271}"/>
+    <hyperlink ref="C1885" r:id="rId1544" xr:uid="{9E795A23-6FD0-3A42-97E4-2113EEA2549F}"/>
+    <hyperlink ref="C1886" r:id="rId1545" xr:uid="{7095A907-4594-684B-90F2-BFDBAB2954AD}"/>
+    <hyperlink ref="C1887" r:id="rId1546" xr:uid="{AB59954F-EB85-E14B-96AB-566B1EE811E7}"/>
+    <hyperlink ref="C1888" r:id="rId1547" xr:uid="{0293760A-30BA-D445-8A1E-F394E5C1E80B}"/>
+    <hyperlink ref="C1889" r:id="rId1548" xr:uid="{9495C112-374F-444E-BB2C-34D2FEB46DBD}"/>
+    <hyperlink ref="C1890" r:id="rId1549" xr:uid="{AA9AE997-88FA-AB49-BE86-D2B8B187E728}"/>
+    <hyperlink ref="C1891" r:id="rId1550" xr:uid="{8C6C161D-70DA-C744-8911-2AF310D2313C}"/>
+    <hyperlink ref="C1892" r:id="rId1551" xr:uid="{FC989B6A-EA6E-3A42-818A-FA1B2E707531}"/>
+    <hyperlink ref="C1893" r:id="rId1552" xr:uid="{59DDEEB4-5C12-FD45-A21F-EC44F04806CF}"/>
+    <hyperlink ref="C1894" r:id="rId1553" xr:uid="{988E16FE-2A1E-7640-8022-B47A4309AA64}"/>
+    <hyperlink ref="C1895" r:id="rId1554" xr:uid="{FE2AA4E6-3882-434B-9E1E-FE61ADBC3E95}"/>
+    <hyperlink ref="C1896" r:id="rId1555" xr:uid="{E625086C-ACE4-EA4F-9470-38529D9AB7BF}"/>
+    <hyperlink ref="C1897" r:id="rId1556" xr:uid="{BE4734C7-3067-2745-89FB-C467DBFFA1D5}"/>
+    <hyperlink ref="C1898" r:id="rId1557" xr:uid="{20EF8901-1F7F-894E-ACDC-EA4280A0E349}"/>
+    <hyperlink ref="C1899" r:id="rId1558" xr:uid="{8C745640-3C1A-6B44-855F-DD34EA59221D}"/>
+    <hyperlink ref="C1900" r:id="rId1559" xr:uid="{0876984D-9CD8-EF4D-852C-8023D94310D6}"/>
+    <hyperlink ref="C1901" r:id="rId1560" xr:uid="{837A57D0-2F14-ED4C-9A16-A8EBCA161CB2}"/>
+    <hyperlink ref="C1902" r:id="rId1561" xr:uid="{9CADD7A7-CD20-F046-BD53-7B2F62A4C6CA}"/>
+    <hyperlink ref="C1903" r:id="rId1562" xr:uid="{E6EE72B1-CF45-0941-AE84-6708E11490DE}"/>
+    <hyperlink ref="C1904" r:id="rId1563" xr:uid="{AE979654-6F92-4F4B-8F1D-03A3787AB10B}"/>
+    <hyperlink ref="C1905" r:id="rId1564" xr:uid="{F4AD475C-AC9B-BF4C-9FBB-B5E065C54A86}"/>
+    <hyperlink ref="C1906" r:id="rId1565" xr:uid="{2D3A485D-4B52-7C48-B2F9-1ED847EDB37F}"/>
+    <hyperlink ref="C1907" r:id="rId1566" xr:uid="{0ECDC93E-F7A3-4A44-8484-65F66A34460D}"/>
+    <hyperlink ref="C1908" r:id="rId1567" xr:uid="{2EFC5492-50B0-4E47-ADD0-D31B2AD7F8F3}"/>
+    <hyperlink ref="C1909" r:id="rId1568" xr:uid="{4C972D3F-118F-9D44-8068-89A626BC1FAC}"/>
+    <hyperlink ref="C1910" r:id="rId1569" xr:uid="{D1ED7271-30EF-7E49-9CD8-A7CF246DC8AA}"/>
+    <hyperlink ref="C1911" r:id="rId1570" xr:uid="{3825237F-98DA-0745-8DF2-60CE2F9049D3}"/>
+    <hyperlink ref="C1913" r:id="rId1571" xr:uid="{F1C6FDC6-B064-9942-9F9C-4565C3746193}"/>
+    <hyperlink ref="C1914" r:id="rId1572" xr:uid="{AD346842-DEAA-184C-B611-598B37E4CB13}"/>
+    <hyperlink ref="C1915" r:id="rId1573" xr:uid="{C589311D-05DD-4F46-929B-3558DB16CDBA}"/>
+    <hyperlink ref="C1916" r:id="rId1574" xr:uid="{2B4D89AC-D0DE-FC46-A4C0-025A9A7E17CC}"/>
+    <hyperlink ref="C1917" r:id="rId1575" xr:uid="{FA48511F-C01A-3245-B05D-288C497B42FF}"/>
+    <hyperlink ref="C1918" r:id="rId1576" xr:uid="{E62BE727-CF26-FF4C-BC07-7FCB28958715}"/>
+    <hyperlink ref="C1919" r:id="rId1577" xr:uid="{95F65D70-E897-0547-9AF0-0D519C17FAEB}"/>
+    <hyperlink ref="C1920" r:id="rId1578" xr:uid="{E9E25D5A-4A9F-1B44-928F-BEC776EACA6A}"/>
+    <hyperlink ref="C1921" r:id="rId1579" xr:uid="{F1D669CD-74AF-E548-B40D-21E0C92113AB}"/>
+    <hyperlink ref="C1922" r:id="rId1580" xr:uid="{D7984AF8-573F-0E4D-A1EB-4655746706BD}"/>
+    <hyperlink ref="C1923" r:id="rId1581" xr:uid="{39665296-80F4-A54A-92A5-90477DA4BED6}"/>
+    <hyperlink ref="C1924" r:id="rId1582" xr:uid="{8E28B443-6F96-2F40-990F-F3FD538BA456}"/>
+    <hyperlink ref="C1925" r:id="rId1583" xr:uid="{4879067B-AECA-2748-A6E0-5D1819635707}"/>
+    <hyperlink ref="C1926" r:id="rId1584" xr:uid="{602969B1-C0AA-A44E-A4F7-89675664124D}"/>
+    <hyperlink ref="C1927" r:id="rId1585" xr:uid="{9D62A2F0-2775-D54D-BCFA-99D0AAAA151F}"/>
+    <hyperlink ref="C1928" r:id="rId1586" xr:uid="{B35C251B-E14C-AB4D-A974-BAC76887948C}"/>
+    <hyperlink ref="C1929" r:id="rId1587" xr:uid="{47E5B451-4CA4-F943-8F36-3632BB50F067}"/>
+    <hyperlink ref="C1930" r:id="rId1588" xr:uid="{159096A5-A2C9-6147-9C07-A60E46B696CB}"/>
+    <hyperlink ref="C1931" r:id="rId1589" xr:uid="{DE00025F-50D8-FC48-AD5C-BDDE7D894BF5}"/>
+    <hyperlink ref="C1932" r:id="rId1590" xr:uid="{38A86B16-AE64-544A-9F53-1BC80B3BDD00}"/>
+    <hyperlink ref="C1933" r:id="rId1591" xr:uid="{41A6A28D-611B-A64B-8565-DCD67CF3EA1B}"/>
+    <hyperlink ref="C1934" r:id="rId1592" xr:uid="{B7183EAD-CA99-1944-91D3-51A3869F8924}"/>
+    <hyperlink ref="C1935" r:id="rId1593" xr:uid="{D248CC4A-E0AF-644F-BFFE-EA6250875CFF}"/>
+    <hyperlink ref="C1936" r:id="rId1594" xr:uid="{15B85F1D-0409-9344-B7D7-81F4FB6045F2}"/>
+    <hyperlink ref="C1937" r:id="rId1595" xr:uid="{F4184ED5-F5F6-0247-89E2-2DD924B1C265}"/>
+    <hyperlink ref="C1938" r:id="rId1596" xr:uid="{9992D22A-0490-9E4D-B1B4-235A425FD756}"/>
+    <hyperlink ref="C1939" r:id="rId1597" xr:uid="{767BB1A0-6502-A04A-B1E3-32A6ADD2D10F}"/>
+    <hyperlink ref="C1940" r:id="rId1598" xr:uid="{644D55B5-1A18-3B40-99C0-CA797E38DDE8}"/>
+    <hyperlink ref="C1941" r:id="rId1599" xr:uid="{96413987-B9A5-3A48-8E40-184CF4E4BDE6}"/>
+    <hyperlink ref="C1942" r:id="rId1600" xr:uid="{A5C43341-3EE0-024A-A29E-F552389A967C}"/>
+    <hyperlink ref="C1943" r:id="rId1601" xr:uid="{4B16C669-E011-DC4B-A4D9-9BF9D86582A8}"/>
+    <hyperlink ref="C1944" r:id="rId1602" xr:uid="{20322C07-F00F-8649-B2C1-DB52C3AF4331}"/>
+    <hyperlink ref="C1945" r:id="rId1603" xr:uid="{D4BB5A72-D51E-B24A-9BE6-0DDA8C2F4EBA}"/>
+    <hyperlink ref="C1946" r:id="rId1604" xr:uid="{E1A9F574-47ED-BB49-B1F6-AE0721EFFB9B}"/>
+    <hyperlink ref="C1947" r:id="rId1605" xr:uid="{0D84F7A3-6FAA-204D-B3C6-FB0DF705E433}"/>
+    <hyperlink ref="C1948" r:id="rId1606" xr:uid="{BA57A03D-35DD-AE41-96FA-B857017082C6}"/>
+    <hyperlink ref="C1949" r:id="rId1607" xr:uid="{14466058-9B97-684F-8C27-B550E7029275}"/>
+    <hyperlink ref="C1950" r:id="rId1608" xr:uid="{2099A3AE-D506-8748-A8E7-E4BCC2EFE79E}"/>
+    <hyperlink ref="C1952" r:id="rId1609" xr:uid="{42B21D05-E167-384D-ADC8-FF3B4F5597F3}"/>
+    <hyperlink ref="C1953" r:id="rId1610" xr:uid="{30E6C70C-937A-094E-8D04-67A6241E60B9}"/>
+    <hyperlink ref="C1954" r:id="rId1611" xr:uid="{D9409511-D0FB-7E41-B45F-801832A5BAB7}"/>
+    <hyperlink ref="C1955" r:id="rId1612" xr:uid="{3B7D05BB-3A54-3E4B-9CD6-0FE79ACA79E1}"/>
+    <hyperlink ref="C1956" r:id="rId1613" xr:uid="{5AB4625C-B8D5-474A-9E32-53A1CAC45298}"/>
+    <hyperlink ref="C1957" r:id="rId1614" xr:uid="{724B6DB5-506C-4A4A-A0A0-8343D6A97896}"/>
+    <hyperlink ref="C1958" r:id="rId1615" xr:uid="{32BE45A2-A568-274F-9698-F550EB812CC3}"/>
+    <hyperlink ref="C1959" r:id="rId1616" xr:uid="{14278453-E2F2-D34F-A555-1CB8B528465C}"/>
+    <hyperlink ref="C1960" r:id="rId1617" xr:uid="{AE73E325-09BC-2242-BE60-82C448163798}"/>
+    <hyperlink ref="C1961" r:id="rId1618" xr:uid="{B7AEF7AA-CB17-2341-84DA-F73CC225A5FE}"/>
+    <hyperlink ref="C1962" r:id="rId1619" xr:uid="{7CA2A6FD-70CD-9342-A472-D628F71C1486}"/>
+    <hyperlink ref="C1963" r:id="rId1620" xr:uid="{4AFE1966-F998-684E-AE7B-E8B437C34995}"/>
+    <hyperlink ref="C1964" r:id="rId1621" xr:uid="{53296CC5-552F-8940-BA1F-1D8F8C4D4748}"/>
+    <hyperlink ref="C1965" r:id="rId1622" xr:uid="{0CCF9633-A5CF-7D44-A7EC-8A066C7EDD20}"/>
+    <hyperlink ref="C1966" r:id="rId1623" xr:uid="{36F2DCC3-09E8-5C45-9AF5-8BA9EABDC199}"/>
+    <hyperlink ref="C1967" r:id="rId1624" xr:uid="{FA9F0E9E-7839-3A48-880D-A7FD294565B4}"/>
+    <hyperlink ref="C1968" r:id="rId1625" xr:uid="{9C687C03-F6A9-7840-8B38-757A0D4EF2B5}"/>
+    <hyperlink ref="C1969" r:id="rId1626" xr:uid="{F7959F3A-F51B-9B4D-88C9-9073BE20C2CB}"/>
+    <hyperlink ref="C1970" r:id="rId1627" xr:uid="{02A05679-F729-1E4C-B832-7ADEE054948E}"/>
+    <hyperlink ref="C1971" r:id="rId1628" xr:uid="{36B4A5C3-C4CE-B54E-8E18-A8D60079EB17}"/>
+    <hyperlink ref="C1972" r:id="rId1629" xr:uid="{0BD6F874-45B9-8D4B-8D97-5274C8DA26A2}"/>
+    <hyperlink ref="C1973" r:id="rId1630" xr:uid="{34EF4361-5450-5444-A8F7-427D8940FAD8}"/>
+    <hyperlink ref="C1974" r:id="rId1631" xr:uid="{602C8A4D-0FB7-1645-9A97-194C67CCF6B2}"/>
+    <hyperlink ref="C1975" r:id="rId1632" xr:uid="{2CECBCE6-F102-DB49-AC7E-6883E043DE55}"/>
+    <hyperlink ref="C1976" r:id="rId1633" xr:uid="{F8535951-3DE8-F74D-904E-3E5F19AA04BE}"/>
+    <hyperlink ref="C1977" r:id="rId1634" xr:uid="{8CE46A27-FDA2-4845-91CD-3532483B0386}"/>
+    <hyperlink ref="C1978" r:id="rId1635" xr:uid="{60BBC19D-1C88-744F-A74A-09686D661518}"/>
+    <hyperlink ref="C1979" r:id="rId1636" xr:uid="{4127BA96-0BEF-504F-8C3C-0C3DF5389E36}"/>
+    <hyperlink ref="C1980" r:id="rId1637" xr:uid="{CE01942C-3863-3043-AEF5-8D09EA270CFE}"/>
+    <hyperlink ref="C1981" r:id="rId1638" xr:uid="{F67178E7-2B52-4F45-8020-87054B1CE563}"/>
+    <hyperlink ref="C1982" r:id="rId1639" xr:uid="{D73BB9D2-A9C0-2243-BFDD-0BAF531E26B0}"/>
+    <hyperlink ref="C1983" r:id="rId1640" xr:uid="{1F382FA1-D6B8-AE43-BD76-9EE364EE3AD1}"/>
+    <hyperlink ref="C1984" r:id="rId1641" xr:uid="{58328528-E4F7-FE4A-8F4D-3DB41293212F}"/>
+    <hyperlink ref="C1985" r:id="rId1642" xr:uid="{4E89B50C-48FD-AC4F-88AD-98245B607007}"/>
+    <hyperlink ref="C1986" r:id="rId1643" xr:uid="{8065FE36-2809-F94B-9A90-D4A9C7F6228B}"/>
+    <hyperlink ref="C1987" r:id="rId1644" xr:uid="{38CA9A60-C745-1840-9D19-C526F487EEA3}"/>
+    <hyperlink ref="C1988" r:id="rId1645" xr:uid="{08EC4371-63C8-E644-965F-38E73A742941}"/>
+    <hyperlink ref="C1989" r:id="rId1646" xr:uid="{3C94BE22-1346-E348-AE06-5733816F32FC}"/>
+    <hyperlink ref="C1990" r:id="rId1647" xr:uid="{6AFCE7E4-88E5-6249-93F1-DA8792D9ED09}"/>
+    <hyperlink ref="C1991" r:id="rId1648" xr:uid="{2249A29C-870D-0C42-B61B-EE109F883202}"/>
+    <hyperlink ref="C1992" r:id="rId1649" xr:uid="{BD8A29E7-901D-0244-9924-E39F3FFEA3A9}"/>
+    <hyperlink ref="C1993" r:id="rId1650" xr:uid="{A0A82E67-7D8B-4D42-87E5-E9045B4D7853}"/>
+    <hyperlink ref="C1994" r:id="rId1651" xr:uid="{2AC9F5FF-BACE-FE41-BDDC-8F96009605E7}"/>
+    <hyperlink ref="C1995" r:id="rId1652" xr:uid="{0017C398-CD31-F746-B468-4AE54491781C}"/>
+    <hyperlink ref="C1996" r:id="rId1653" xr:uid="{81FEEBD8-F442-3949-A679-319B6F6BCCE9}"/>
+    <hyperlink ref="C1997" r:id="rId1654" xr:uid="{45148246-3A13-1E45-BA99-DA701DD32B42}"/>
+    <hyperlink ref="C1998" r:id="rId1655" xr:uid="{E0354EE0-ECAD-594A-8F2F-4B5C9CB1F8F6}"/>
+    <hyperlink ref="C1999" r:id="rId1656" xr:uid="{7C267945-7899-624A-A19F-2FC3412C03EB}"/>
+    <hyperlink ref="C2000" r:id="rId1657" xr:uid="{58F9BA19-0986-544F-97CD-31E3FF85514A}"/>
+    <hyperlink ref="C2001" r:id="rId1658" xr:uid="{98284AFD-4BC0-3243-9538-DEA2D84817F6}"/>
+    <hyperlink ref="C2002" r:id="rId1659" xr:uid="{A431CEF6-109C-EC45-A407-96A67F6156B2}"/>
+    <hyperlink ref="C2003" r:id="rId1660" xr:uid="{FA83A579-EE0D-134D-8222-DC5CF489E40D}"/>
+    <hyperlink ref="C2004" r:id="rId1661" xr:uid="{27E1EF8E-1B31-CD49-9535-2CAC1089B2CA}"/>
+    <hyperlink ref="C2005" r:id="rId1662" xr:uid="{9A2D1C0B-2FA6-834D-96ED-6F5E49FC29BA}"/>
+    <hyperlink ref="C2008" r:id="rId1663" xr:uid="{4BB0F831-C7D1-AF4A-B917-AF14B3A0A58D}"/>
+    <hyperlink ref="C2009" r:id="rId1664" xr:uid="{C16AD677-0E09-0648-ADAC-695DE818FE3B}"/>
+    <hyperlink ref="C2010" r:id="rId1665" xr:uid="{8A8B1B87-A555-8D40-92A4-74BF742BF01E}"/>
+    <hyperlink ref="C2011" r:id="rId1666" xr:uid="{AA9E72B1-0243-4648-95ED-3E7AFAF9A96B}"/>
+    <hyperlink ref="C2012" r:id="rId1667" xr:uid="{30E3A1AF-12F4-9047-AB28-0813A4153B1D}"/>
+    <hyperlink ref="C2013" r:id="rId1668" xr:uid="{848FFC91-27E3-DC49-8FEB-EC13E62013AE}"/>
+    <hyperlink ref="C2014" r:id="rId1669" xr:uid="{1581DC5A-5E7C-5348-9E3E-8A04FE43B251}"/>
+    <hyperlink ref="C2015" r:id="rId1670" xr:uid="{C89C5A07-D6A9-C840-A91C-8405696A14E8}"/>
+    <hyperlink ref="C2016" r:id="rId1671" xr:uid="{9847FEEC-8945-F44F-BF45-65967B425F33}"/>
+    <hyperlink ref="C2017" r:id="rId1672" xr:uid="{3125A3CE-8F9F-0143-9855-658973DD7265}"/>
+    <hyperlink ref="C2018" r:id="rId1673" xr:uid="{C2C52CC3-782E-324E-BEF7-BAEF353C8A43}"/>
+    <hyperlink ref="C2019" r:id="rId1674" xr:uid="{92F786E6-DF1A-5E4B-A245-D2C255B56EC9}"/>
+    <hyperlink ref="C2020" r:id="rId1675" xr:uid="{9E8B3CC6-C8BF-D24D-AAD0-30DBD18173EE}"/>
+    <hyperlink ref="C2022" r:id="rId1676" xr:uid="{58BB9879-8C2B-284B-8974-D5AD9596A328}"/>
+    <hyperlink ref="C2023" r:id="rId1677" xr:uid="{E05834E7-1FDB-E547-B6F9-60B7109AABBE}"/>
+    <hyperlink ref="C2024" r:id="rId1678" xr:uid="{7183325E-0067-4E4E-9C3B-F014E0AC61EC}"/>
+    <hyperlink ref="C2025" r:id="rId1679" xr:uid="{4C25E589-EEBD-8C41-BE3D-14FE91FD82E2}"/>
+    <hyperlink ref="C2026" r:id="rId1680" xr:uid="{4A0304A0-52BB-9940-A3D2-FD7FCE4E27B0}"/>
+    <hyperlink ref="C2027" r:id="rId1681" xr:uid="{9C1AEBDF-88C3-DB42-B759-7FAF04823C94}"/>
+    <hyperlink ref="C2028" r:id="rId1682" xr:uid="{1D13A1F2-6D81-734F-A4D8-FE11541CA748}"/>
+    <hyperlink ref="C2029" r:id="rId1683" xr:uid="{08F0B1AE-8923-C041-AD36-13A70E51738D}"/>
+    <hyperlink ref="C2030" r:id="rId1684" xr:uid="{11537D67-44EA-2041-AE75-1E884B76BF9C}"/>
+    <hyperlink ref="C2031" r:id="rId1685" xr:uid="{5BA93702-8CEE-C949-8B60-A48FA9DC8D94}"/>
+    <hyperlink ref="C2032" r:id="rId1686" xr:uid="{A730B7D2-260D-DF47-BD1F-73DAD4EF6232}"/>
+    <hyperlink ref="C2033" r:id="rId1687" xr:uid="{63A43B94-042C-FD4A-A672-C7E493569673}"/>
+    <hyperlink ref="C2034" r:id="rId1688" xr:uid="{CE5D953F-CD1F-FE4F-B324-67DB49E72FB1}"/>
+    <hyperlink ref="C2035" r:id="rId1689" xr:uid="{36966B37-B21A-794A-9864-7F9820060E0D}"/>
+    <hyperlink ref="C2036" r:id="rId1690" xr:uid="{861A2863-9F9B-AC44-905C-0673F228483E}"/>
+    <hyperlink ref="C2037" r:id="rId1691" xr:uid="{4B79D31C-D377-E843-B2A1-D20D1F65A060}"/>
+    <hyperlink ref="C2038" r:id="rId1692" xr:uid="{FA159321-1EC9-7B43-A34C-672DC89D7324}"/>
+    <hyperlink ref="C2039" r:id="rId1693" xr:uid="{A042FC75-EA89-524C-846C-70885AE95B13}"/>
+    <hyperlink ref="C2040" r:id="rId1694" xr:uid="{5BEC8A47-473D-4F47-B30B-62A188F279F0}"/>
+    <hyperlink ref="C2041" r:id="rId1695" xr:uid="{440CC595-7183-EA45-B403-618DE46BE6AC}"/>
+    <hyperlink ref="C2042" r:id="rId1696" xr:uid="{CB000AF8-92EE-D646-94A1-1885352938AF}"/>
+    <hyperlink ref="C2043" r:id="rId1697" xr:uid="{44DB571E-E900-E34B-A35C-5D38041E10E6}"/>
+    <hyperlink ref="C2044" r:id="rId1698" xr:uid="{4589DB67-0C5D-9E4D-8964-CD3E60E53E25}"/>
+    <hyperlink ref="C2045" r:id="rId1699" xr:uid="{A44B8EF4-77F1-A447-85B9-EEA2DE6CE69D}"/>
+    <hyperlink ref="C2046" r:id="rId1700" xr:uid="{840CE96B-9B44-1A4D-A7EA-CCAD08674FAE}"/>
+    <hyperlink ref="C2047" r:id="rId1701" xr:uid="{DB99390F-0A41-F24A-943C-DFEBC4114D8D}"/>
+    <hyperlink ref="C2048" r:id="rId1702" xr:uid="{F532892D-39CE-8242-B9C9-2F9F553F9D41}"/>
+    <hyperlink ref="C2049" r:id="rId1703" xr:uid="{859C6EA3-81E0-814E-A7CE-3B577DFC395C}"/>
+    <hyperlink ref="C2050" r:id="rId1704" xr:uid="{DB7E511E-9A80-AE40-97C7-F5897CD616BA}"/>
+    <hyperlink ref="C2051" r:id="rId1705" xr:uid="{ABA72233-B45D-B64C-B0A1-8AB2A637EC91}"/>
+    <hyperlink ref="C2052" r:id="rId1706" xr:uid="{A310FB14-0D70-1B44-8DBB-138C5F8C6E62}"/>
+    <hyperlink ref="C2053" r:id="rId1707" xr:uid="{A109227F-A048-3F4F-80B8-E163799B7F45}"/>
+    <hyperlink ref="C2055" r:id="rId1708" xr:uid="{8527081C-3240-9148-BB8A-91AD532EF8F1}"/>
+    <hyperlink ref="C2056" r:id="rId1709" xr:uid="{EC2568EB-718E-FC40-B880-31BDE60EF047}"/>
+    <hyperlink ref="C2057" r:id="rId1710" display="https://mandoxl.github.io/youssef/" xr:uid="{9D9138F9-5EC2-EC45-8E28-97B7FC0FB8D6}"/>
+    <hyperlink ref="C2058" r:id="rId1711" xr:uid="{B17A4B7F-5827-1942-AD20-0511286B2391}"/>
+    <hyperlink ref="C2059" r:id="rId1712" xr:uid="{8A42D3E9-2318-3147-A493-6B6D86F0ED9A}"/>
+    <hyperlink ref="C2060" r:id="rId1713" xr:uid="{920F405C-F8C7-E546-AF5B-BAEA480B8D7F}"/>
+    <hyperlink ref="C2061" r:id="rId1714" xr:uid="{D212CF4C-A495-4346-8788-8E735B9E3246}"/>
+    <hyperlink ref="C2062" r:id="rId1715" xr:uid="{5B2B3BE5-89E0-9642-990E-0DBD5131C387}"/>
+    <hyperlink ref="C2063" r:id="rId1716" xr:uid="{BA9ACE18-D941-884D-9627-E396CA7138A7}"/>
+    <hyperlink ref="C2064" r:id="rId1717" xr:uid="{8A0EAA9A-25E3-0340-98D7-BC7ECC698E68}"/>
+    <hyperlink ref="C2065" r:id="rId1718" xr:uid="{F60AE900-15C5-BF46-9BDE-05D11940912C}"/>
+    <hyperlink ref="C2066" r:id="rId1719" xr:uid="{834114C1-3185-DE49-9625-285728691086}"/>
+    <hyperlink ref="C2067" r:id="rId1720" xr:uid="{09311F85-3386-A141-988A-EAE912A01653}"/>
+    <hyperlink ref="C2068" r:id="rId1721" xr:uid="{D81FFE53-B3D5-B14A-B204-045FB3AB287C}"/>
+    <hyperlink ref="C2069" r:id="rId1722" xr:uid="{F90EB61E-59FE-0F47-BE43-A554A2757B12}"/>
+    <hyperlink ref="C2071" r:id="rId1723" xr:uid="{E59F702A-8A5E-3F4E-8CF1-A89BA886645C}"/>
+    <hyperlink ref="C2072" r:id="rId1724" xr:uid="{5E222437-E446-6D4A-A582-81F3DEC7F400}"/>
+    <hyperlink ref="C2073" r:id="rId1725" xr:uid="{D40A746C-CA1C-6144-81EC-743E52A56032}"/>
+    <hyperlink ref="C2074" r:id="rId1726" xr:uid="{4EAF02BD-6531-4649-971B-695815DF3102}"/>
+    <hyperlink ref="C2075" r:id="rId1727" xr:uid="{34AA2169-6373-0E48-888A-823639253D5B}"/>
+    <hyperlink ref="C2076" r:id="rId1728" xr:uid="{F36901C6-B0A0-6742-9B9A-14ACF35233FC}"/>
+    <hyperlink ref="C2077" r:id="rId1729" xr:uid="{05AECB7E-7227-2844-96C3-4F0879C4EF5E}"/>
+    <hyperlink ref="C2078" r:id="rId1730" xr:uid="{E8C7CE0F-1AFF-B64B-AFDA-92AC2CB18308}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1369"/>
+  <pageSetup orientation="portrait" r:id="rId1731"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C19E4-3027-4D44-900B-A22DCD66C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF1124-387D-B14C-BB6A-5A2EAA91FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3460" yWindow="3460" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="593">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1679,6 +1679,167 @@
   </si>
   <si>
     <t>https://el-tayyeb.github.io/end/#contactMe</t>
+  </si>
+  <si>
+    <t>se20232373@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://sandosaesam.github.io/my-page/
+سندس عصام عبدالفتاح 
+كود :20232373
+جروب : و
+اضغط علي الأزرار</t>
+  </si>
+  <si>
+    <t>https://ranaanwer.githup.io/calc/</t>
+  </si>
+  <si>
+    <t>am20232360@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://abdallah12365.github.io/skills-copilot-codespaces-vscode/</t>
+  </si>
+  <si>
+    <t>mm20235236@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nooremad-star.github.io/My-First-webpage/</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+&lt;title&gt;My First Web Page&lt;/title&gt;
+&lt;style&gt;
+body {
+background-color: pink;
+text-align: center;
+margin-top: 100px;
+}
+h1 {
+color: blue;
+font-family: Arial, sans-serif;
+}
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;h1&gt;Welcome to my first web page&lt;/h1&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>ay20230364@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ahmedyuigvf.github.io/first_project-/</t>
+  </si>
+  <si>
+    <t>sm20233273@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://sarah51223.github.io/my-first-web-page/</t>
+  </si>
+  <si>
+    <t>ma20231328@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mostafa1zz.github.io/My-first-wepage/</t>
+  </si>
+  <si>
+    <t>fm20233238@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>ar20231351@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ayar1234.github.io/my-page/</t>
+  </si>
+  <si>
+    <t>he20231324@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://heba63.github.io/M/</t>
+  </si>
+  <si>
+    <t>my20231274@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://malak563.github.io/my-first-webpage-/</t>
+  </si>
+  <si>
+    <t>sa20230316@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://sa278.github.io/MY_PAGE/</t>
+  </si>
+  <si>
+    <t>https://menna563.github.io/my-first-webpage/</t>
+  </si>
+  <si>
+    <t>qk20231383@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nouracodes.github.io/qadriya/</t>
+  </si>
+  <si>
+    <t>ar20232399@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://aya569.github.io/My-page-/</t>
+  </si>
+  <si>
+    <t>zr20231265@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://zainab563.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>sw20234325@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://soad368.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>wa20233296@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://walaa536.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>https://ae20233312.github.io/Androo/</t>
+  </si>
+  <si>
+    <t>ka20231302@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://kareem940.github.io/mypage/kareem1.html</t>
+  </si>
+  <si>
+    <t>https://mohamedfarid2005.github.io/MYPAGE/</t>
+  </si>
+  <si>
+    <t>mw20232290@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mennawaled339.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>me20233319@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://ae20233312.github.io/introduction-to-github/</t>
+  </si>
+  <si>
+    <t>ma20220395@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://nouracodes.github.io/malak-project/</t>
+  </si>
+  <si>
+    <t>https://rofaida253.github.io/my-first-web-page-/</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2147,10 +2308,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2159,12 +2320,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2184,9 +2346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2224,7 +2386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2330,7 +2492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2472,7 +2634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2480,22 +2642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:E853"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B316" sqref="B2:B316"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317:C853"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -2525,7 +2687,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -2538,7 +2700,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -2551,7 +2713,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -2564,7 +2726,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -2577,7 +2739,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -2590,7 +2752,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -2603,7 +2765,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -2616,7 +2778,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -2629,7 +2791,7 @@
       <c r="D10" s="50"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -2642,7 +2804,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -2653,7 +2815,7 @@
       <c r="D12" s="50"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -2666,7 +2828,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -2679,7 +2841,7 @@
       <c r="D14" s="50"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -2692,7 +2854,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -2705,7 +2867,7 @@
       <c r="D16" s="50"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -2718,7 +2880,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -2731,7 +2893,7 @@
       <c r="D18" s="50"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -2744,7 +2906,7 @@
       <c r="D19" s="54"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -2757,7 +2919,7 @@
       <c r="D20" s="50"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -2770,7 +2932,7 @@
       <c r="D21" s="54"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -2783,7 +2945,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -2796,7 +2958,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -2809,7 +2971,7 @@
       <c r="D24" s="50"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -2822,7 +2984,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -2835,7 +2997,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -2848,7 +3010,7 @@
       <c r="D27" s="54"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -2861,7 +3023,7 @@
       <c r="D28" s="50"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -2874,7 +3036,7 @@
       <c r="D29" s="54"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -2887,7 +3049,7 @@
       <c r="D30" s="50"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -2900,7 +3062,7 @@
       <c r="D31" s="54"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -2913,7 +3075,7 @@
       <c r="D32" s="50"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -2926,7 +3088,7 @@
       <c r="D33" s="54"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -2939,7 +3101,7 @@
       <c r="D34" s="50"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -2952,7 +3114,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -2965,7 +3127,7 @@
       <c r="D36" s="50"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -2978,7 +3140,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -2991,7 +3153,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -3004,7 +3166,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -3017,7 +3179,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -3030,7 +3192,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -3043,7 +3205,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -3056,7 +3218,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -3069,7 +3231,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -3082,7 +3244,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -3095,7 +3257,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -3108,7 +3270,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -3121,7 +3283,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -3134,7 +3296,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -3147,7 +3309,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -3160,7 +3322,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -3173,7 +3335,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -3186,7 +3348,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -3199,7 +3361,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -3212,7 +3374,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -3225,7 +3387,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -3238,7 +3400,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -3251,7 +3413,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -3264,7 +3426,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -3277,7 +3439,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -3290,7 +3452,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -3303,7 +3465,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -3316,7 +3478,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -3329,7 +3491,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -3342,7 +3504,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -3355,7 +3517,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -3368,7 +3530,7 @@
       <c r="D67" s="54"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -3381,7 +3543,7 @@
       <c r="D68" s="50"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -3394,7 +3556,7 @@
       <c r="D69" s="54"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -3407,7 +3569,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -3420,7 +3582,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -3433,7 +3595,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -3446,7 +3608,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -3459,7 +3621,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -3472,7 +3634,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -3485,7 +3647,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -3498,7 +3660,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -3511,7 +3673,7 @@
       <c r="D78" s="50"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -3524,7 +3686,7 @@
       <c r="D79" s="54"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -3537,7 +3699,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -3550,7 +3712,7 @@
       <c r="D81" s="54"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -3563,7 +3725,7 @@
       <c r="D82" s="50"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -3576,7 +3738,7 @@
       <c r="D83" s="54"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -3589,7 +3751,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -3602,7 +3764,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -3615,7 +3777,7 @@
       <c r="D86" s="50"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -3628,7 +3790,7 @@
       <c r="D87" s="48"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -3641,7 +3803,7 @@
       <c r="D88" s="49"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -3654,7 +3816,7 @@
       <c r="D89" s="48"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -3667,7 +3829,7 @@
       <c r="D90" s="49"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -3680,7 +3842,7 @@
       <c r="D91" s="48"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -3693,7 +3855,7 @@
       <c r="D92" s="49"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -3706,7 +3868,7 @@
       <c r="D93" s="48"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -3719,7 +3881,7 @@
       <c r="D94" s="49"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -3732,7 +3894,7 @@
       <c r="D95" s="48"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -3745,7 +3907,7 @@
       <c r="D96" s="49"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -3758,7 +3920,7 @@
       <c r="D97" s="48"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -3771,7 +3933,7 @@
       <c r="D98" s="49"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -3784,7 +3946,7 @@
       <c r="D99" s="48"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -3797,7 +3959,7 @@
       <c r="D100" s="49"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -3810,7 +3972,7 @@
       <c r="D101" s="48"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -3823,7 +3985,7 @@
       <c r="D102" s="49"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -3836,7 +3998,7 @@
       <c r="D103" s="48"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -3849,7 +4011,7 @@
       <c r="D104" s="49"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -3862,7 +4024,7 @@
       <c r="D105" s="48"/>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -3875,7 +4037,7 @@
       <c r="D106" s="49"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -3888,7 +4050,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -3901,7 +4063,7 @@
       <c r="D108" s="49"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -3914,7 +4076,7 @@
       <c r="D109" s="48"/>
       <c r="E109" s="9"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -3927,7 +4089,7 @@
       <c r="D110" s="49"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -3940,7 +4102,7 @@
       <c r="D111" s="48"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -3953,7 +4115,7 @@
       <c r="D112" s="49"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -3965,7 +4127,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -3977,7 +4139,7 @@
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -3989,7 +4151,7 @@
       </c>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -4001,7 +4163,7 @@
       </c>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -4013,7 +4175,7 @@
       </c>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -4025,7 +4187,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -4037,7 +4199,7 @@
       </c>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -4049,7 +4211,7 @@
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -4061,7 +4223,7 @@
       </c>
       <c r="E121" s="9"/>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -4073,7 +4235,7 @@
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>45740.519872685189</v>
       </c>
@@ -4085,7 +4247,7 @@
       </c>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124" s="56" t="s">
         <v>226</v>
       </c>
@@ -4093,7 +4255,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B125" s="56" t="s">
         <v>228</v>
       </c>
@@ -4101,7 +4263,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126" s="56" t="s">
         <v>112</v>
       </c>
@@ -4109,7 +4271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B127" s="56" t="s">
         <v>231</v>
       </c>
@@ -4117,7 +4279,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128" s="56" t="s">
         <v>233</v>
       </c>
@@ -4125,7 +4287,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="56" t="s">
         <v>235</v>
       </c>
@@ -4133,7 +4295,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="56" t="s">
         <v>237</v>
       </c>
@@ -4141,7 +4303,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B131" s="56" t="s">
         <v>82</v>
       </c>
@@ -4149,7 +4311,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="56" t="s">
         <v>82</v>
       </c>
@@ -4157,7 +4319,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B133" s="56" t="s">
         <v>82</v>
       </c>
@@ -4165,7 +4327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="56" t="s">
         <v>242</v>
       </c>
@@ -4173,7 +4335,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="56" t="s">
         <v>84</v>
       </c>
@@ -4181,7 +4343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="56" t="s">
         <v>245</v>
       </c>
@@ -4189,7 +4351,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="56" t="s">
         <v>247</v>
       </c>
@@ -4197,7 +4359,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="56" t="s">
         <v>249</v>
       </c>
@@ -4205,7 +4367,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B139" s="56" t="s">
         <v>148</v>
       </c>
@@ -4213,7 +4375,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="56" t="s">
         <v>148</v>
       </c>
@@ -4221,7 +4383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="56" t="s">
         <v>252</v>
       </c>
@@ -4229,7 +4391,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="56" t="s">
         <v>67</v>
       </c>
@@ -4237,7 +4399,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="56" t="s">
         <v>255</v>
       </c>
@@ -4245,7 +4407,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="56" t="s">
         <v>257</v>
       </c>
@@ -4253,7 +4415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="56" t="s">
         <v>258</v>
       </c>
@@ -4261,7 +4423,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="56" t="s">
         <v>260</v>
       </c>
@@ -4269,7 +4431,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="56" t="s">
         <v>84</v>
       </c>
@@ -4277,7 +4439,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="56" t="s">
         <v>263</v>
       </c>
@@ -4285,7 +4447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="56" t="s">
         <v>264</v>
       </c>
@@ -4293,7 +4455,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="56" t="s">
         <v>266</v>
       </c>
@@ -4301,7 +4463,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="56" t="s">
         <v>266</v>
       </c>
@@ -4309,7 +4471,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="56" t="s">
         <v>154</v>
       </c>
@@ -4317,7 +4479,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="56" t="s">
         <v>266</v>
       </c>
@@ -4325,7 +4487,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="56" t="s">
         <v>271</v>
       </c>
@@ -4333,7 +4495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="56" t="s">
         <v>271</v>
       </c>
@@ -4341,7 +4503,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="56" t="s">
         <v>274</v>
       </c>
@@ -4349,7 +4511,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="56" t="s">
         <v>276</v>
       </c>
@@ -4357,7 +4519,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="56" t="s">
         <v>278</v>
       </c>
@@ -4365,7 +4527,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="56" t="s">
         <v>280</v>
       </c>
@@ -4373,7 +4535,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="56" t="s">
         <v>282</v>
       </c>
@@ -4381,7 +4543,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B161" s="56" t="s">
         <v>235</v>
       </c>
@@ -4389,7 +4551,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="56" t="s">
         <v>86</v>
       </c>
@@ -4397,7 +4559,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="56" t="s">
         <v>286</v>
       </c>
@@ -4405,7 +4567,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="56" t="s">
         <v>288</v>
       </c>
@@ -4413,7 +4575,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="56" t="s">
         <v>290</v>
       </c>
@@ -4421,7 +4583,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="56" t="s">
         <v>292</v>
       </c>
@@ -4429,7 +4591,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="56" t="s">
         <v>294</v>
       </c>
@@ -4437,7 +4599,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="56" t="s">
         <v>104</v>
       </c>
@@ -4445,7 +4607,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="56" t="s">
         <v>18</v>
       </c>
@@ -4453,7 +4615,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="56" t="s">
         <v>148</v>
       </c>
@@ -4461,7 +4623,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="56" t="s">
         <v>299</v>
       </c>
@@ -4469,7 +4631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="56" t="s">
         <v>301</v>
       </c>
@@ -4477,7 +4639,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="56" t="s">
         <v>303</v>
       </c>
@@ -4485,7 +4647,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="56" t="s">
         <v>305</v>
       </c>
@@ -4493,7 +4655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="56" t="s">
         <v>307</v>
       </c>
@@ -4501,7 +4663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="56" t="s">
         <v>114</v>
       </c>
@@ -4509,7 +4671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="56" t="s">
         <v>310</v>
       </c>
@@ -4517,7 +4679,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="56" t="s">
         <v>255</v>
       </c>
@@ -4525,7 +4687,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="56" t="s">
         <v>235</v>
       </c>
@@ -4533,7 +4695,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="56" t="s">
         <v>314</v>
       </c>
@@ -4541,7 +4703,7 @@
         <v>20234390</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="56" t="s">
         <v>258</v>
       </c>
@@ -4549,7 +4711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="56" t="s">
         <v>316</v>
       </c>
@@ -4557,7 +4719,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="56" t="s">
         <v>318</v>
       </c>
@@ -4565,7 +4727,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="56" t="s">
         <v>116</v>
       </c>
@@ -4573,7 +4735,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="56" t="s">
         <v>321</v>
       </c>
@@ -4581,7 +4743,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="56" t="s">
         <v>323</v>
       </c>
@@ -4589,7 +4751,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="56" t="s">
         <v>325</v>
       </c>
@@ -4597,7 +4759,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="56" t="s">
         <v>327</v>
       </c>
@@ -4605,7 +4767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="56" t="s">
         <v>329</v>
       </c>
@@ -4613,7 +4775,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="56" t="s">
         <v>331</v>
       </c>
@@ -4621,7 +4783,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="56" t="s">
         <v>333</v>
       </c>
@@ -4629,7 +4791,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="56" t="s">
         <v>335</v>
       </c>
@@ -4637,7 +4799,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="56" t="s">
         <v>337</v>
       </c>
@@ -4645,7 +4807,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="56" t="s">
         <v>112</v>
       </c>
@@ -4653,7 +4815,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="56" t="s">
         <v>340</v>
       </c>
@@ -4661,7 +4823,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="56" t="s">
         <v>342</v>
       </c>
@@ -4669,7 +4831,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="56" t="s">
         <v>342</v>
       </c>
@@ -4677,7 +4839,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="56" t="s">
         <v>345</v>
       </c>
@@ -4685,7 +4847,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="56" t="s">
         <v>347</v>
       </c>
@@ -4693,7 +4855,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="56" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="56" t="s">
         <v>350</v>
       </c>
@@ -4709,7 +4871,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="56" t="s">
         <v>352</v>
       </c>
@@ -4717,7 +4879,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="56" t="s">
         <v>354</v>
       </c>
@@ -4725,7 +4887,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="56" t="s">
         <v>354</v>
       </c>
@@ -4733,7 +4895,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="56" t="s">
         <v>63</v>
       </c>
@@ -4741,7 +4903,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="56" t="s">
         <v>358</v>
       </c>
@@ -4749,7 +4911,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="56" t="s">
         <v>360</v>
       </c>
@@ -4757,7 +4919,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="56" t="s">
         <v>362</v>
       </c>
@@ -4765,7 +4927,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="56" t="s">
         <v>364</v>
       </c>
@@ -4773,7 +4935,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="56" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4943,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="56" t="s">
         <v>226</v>
       </c>
@@ -4789,7 +4951,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="56" t="s">
         <v>368</v>
       </c>
@@ -4797,7 +4959,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="56" t="s">
         <v>370</v>
       </c>
@@ -4805,7 +4967,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="56" t="s">
         <v>372</v>
       </c>
@@ -4813,7 +4975,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="56" t="s">
         <v>216</v>
       </c>
@@ -4821,7 +4983,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="56" t="s">
         <v>375</v>
       </c>
@@ -4829,7 +4991,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="56" t="s">
         <v>377</v>
       </c>
@@ -4837,7 +4999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="56" t="s">
         <v>379</v>
       </c>
@@ -4845,7 +5007,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="56" t="s">
         <v>381</v>
       </c>
@@ -4853,7 +5015,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="56" t="s">
         <v>383</v>
       </c>
@@ -4861,7 +5023,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="56" t="s">
         <v>161</v>
       </c>
@@ -4869,7 +5031,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="56" t="s">
         <v>386</v>
       </c>
@@ -4877,7 +5039,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="56" t="s">
         <v>388</v>
       </c>
@@ -4885,7 +5047,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="56" t="s">
         <v>257</v>
       </c>
@@ -4893,7 +5055,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="56" t="s">
         <v>391</v>
       </c>
@@ -4901,7 +5063,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="56" t="s">
         <v>228</v>
       </c>
@@ -4909,7 +5071,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="56" t="s">
         <v>394</v>
       </c>
@@ -4917,7 +5079,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="56" t="s">
         <v>43</v>
       </c>
@@ -4925,7 +5087,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="56" t="s">
         <v>397</v>
       </c>
@@ -4933,7 +5095,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="56" t="s">
         <v>15</v>
       </c>
@@ -4941,7 +5103,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="56" t="s">
         <v>400</v>
       </c>
@@ -4949,7 +5111,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="56" t="s">
         <v>402</v>
       </c>
@@ -4957,7 +5119,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="56" t="s">
         <v>404</v>
       </c>
@@ -4965,7 +5127,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="56" t="s">
         <v>406</v>
       </c>
@@ -4973,7 +5135,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="56" t="s">
         <v>237</v>
       </c>
@@ -4981,7 +5143,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="56" t="s">
         <v>409</v>
       </c>
@@ -4989,7 +5151,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="56" t="s">
         <v>231</v>
       </c>
@@ -4997,7 +5159,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="56" t="s">
         <v>412</v>
       </c>
@@ -5005,7 +5167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="56" t="s">
         <v>414</v>
       </c>
@@ -5013,7 +5175,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="56" t="s">
         <v>416</v>
       </c>
@@ -5021,7 +5183,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B241" s="56" t="s">
         <v>199</v>
       </c>
@@ -5029,7 +5191,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="56" t="s">
         <v>419</v>
       </c>
@@ -5037,7 +5199,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="56" t="s">
         <v>421</v>
       </c>
@@ -5045,7 +5207,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="56" t="s">
         <v>329</v>
       </c>
@@ -5053,7 +5215,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="56" t="s">
         <v>424</v>
       </c>
@@ -5061,7 +5223,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="56" t="s">
         <v>426</v>
       </c>
@@ -5069,7 +5231,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="56" t="s">
         <v>423</v>
       </c>
@@ -5077,7 +5239,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="56" t="s">
         <v>67</v>
       </c>
@@ -5085,7 +5247,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="56" t="s">
         <v>432</v>
       </c>
@@ -5093,7 +5255,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="56" t="s">
         <v>433</v>
       </c>
@@ -5101,7 +5263,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="56" t="s">
         <v>435</v>
       </c>
@@ -5109,7 +5271,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="56" t="s">
         <v>437</v>
       </c>
@@ -5117,7 +5279,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="56" t="s">
         <v>439</v>
       </c>
@@ -5125,7 +5287,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="56" t="s">
         <v>441</v>
       </c>
@@ -5133,7 +5295,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="56" t="s">
         <v>435</v>
       </c>
@@ -5141,7 +5303,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="56" t="s">
         <v>444</v>
       </c>
@@ -5149,7 +5311,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="56" t="s">
         <v>446</v>
       </c>
@@ -5157,7 +5319,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="56" t="s">
         <v>448</v>
       </c>
@@ -5165,7 +5327,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="56" t="s">
         <v>299</v>
       </c>
@@ -5173,7 +5335,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="56" t="s">
         <v>451</v>
       </c>
@@ -5181,7 +5343,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="56" t="s">
         <v>354</v>
       </c>
@@ -5189,7 +5351,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B262" s="56" t="s">
         <v>454</v>
       </c>
@@ -5197,7 +5359,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="56" t="s">
         <v>456</v>
       </c>
@@ -5205,7 +5367,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="56" t="s">
         <v>458</v>
       </c>
@@ -5213,7 +5375,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="56" t="s">
         <v>460</v>
       </c>
@@ -5221,7 +5383,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="56" t="s">
         <v>462</v>
       </c>
@@ -5229,7 +5391,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="56" t="s">
         <v>464</v>
       </c>
@@ -5237,7 +5399,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="56" t="s">
         <v>90</v>
       </c>
@@ -5245,7 +5407,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="56" t="s">
         <v>467</v>
       </c>
@@ -5253,7 +5415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="56" t="s">
         <v>469</v>
       </c>
@@ -5261,7 +5423,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="56" t="s">
         <v>471</v>
       </c>
@@ -5269,7 +5431,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B272" s="56" t="s">
         <v>208</v>
       </c>
@@ -5277,7 +5439,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="56" t="s">
         <v>474</v>
       </c>
@@ -5285,7 +5447,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="56" t="s">
         <v>476</v>
       </c>
@@ -5293,7 +5455,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="56" t="s">
         <v>458</v>
       </c>
@@ -5301,7 +5463,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="56" t="s">
         <v>479</v>
       </c>
@@ -5309,7 +5471,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="56" t="s">
         <v>481</v>
       </c>
@@ -5317,7 +5479,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="56" t="s">
         <v>483</v>
       </c>
@@ -5325,7 +5487,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="56" t="s">
         <v>485</v>
       </c>
@@ -5333,7 +5495,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="56" t="s">
         <v>487</v>
       </c>
@@ -5341,7 +5503,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="59" t="s">
         <v>489</v>
       </c>
@@ -5349,7 +5511,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="59" t="s">
         <v>491</v>
       </c>
@@ -5357,7 +5519,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="60" t="s">
         <v>493</v>
       </c>
@@ -5365,7 +5527,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="60" t="s">
         <v>495</v>
       </c>
@@ -5373,7 +5535,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="59" t="s">
         <v>497</v>
       </c>
@@ -5381,7 +5543,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="59" t="s">
         <v>499</v>
       </c>
@@ -5389,7 +5551,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="60" t="s">
         <v>456</v>
       </c>
@@ -5397,7 +5559,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="59" t="s">
         <v>502</v>
       </c>
@@ -5405,7 +5567,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="60" t="s">
         <v>242</v>
       </c>
@@ -5413,7 +5575,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="59" t="s">
         <v>154</v>
       </c>
@@ -5421,7 +5583,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="60" t="s">
         <v>156</v>
       </c>
@@ -5429,7 +5591,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B292" s="59" t="s">
         <v>507</v>
       </c>
@@ -5437,7 +5599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B293" s="60" t="s">
         <v>245</v>
       </c>
@@ -5445,7 +5607,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B294" s="59" t="s">
         <v>510</v>
       </c>
@@ -5453,7 +5615,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B295" s="60" t="s">
         <v>512</v>
       </c>
@@ -5461,7 +5623,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B296" s="60" t="s">
         <v>82</v>
       </c>
@@ -5469,7 +5631,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B297" s="60" t="s">
         <v>180</v>
       </c>
@@ -5477,7 +5639,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B298" s="59" t="s">
         <v>36</v>
       </c>
@@ -5485,7 +5647,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B299" s="60" t="s">
         <v>249</v>
       </c>
@@ -5493,7 +5655,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B300" s="60" t="s">
         <v>518</v>
       </c>
@@ -5501,7 +5663,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" ht="26" x14ac:dyDescent="0.2">
       <c r="B301" s="60" t="s">
         <v>520</v>
       </c>
@@ -5509,7 +5671,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" ht="26" x14ac:dyDescent="0.2">
       <c r="B302" s="59" t="s">
         <v>520</v>
       </c>
@@ -5517,7 +5679,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="60" t="s">
         <v>523</v>
       </c>
@@ -5525,7 +5687,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B304" s="59" t="s">
         <v>525</v>
       </c>
@@ -5533,7 +5695,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B305" s="60" t="s">
         <v>527</v>
       </c>
@@ -5541,7 +5703,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B306" s="59" t="s">
         <v>529</v>
       </c>
@@ -5549,7 +5711,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="60" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +5719,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="59" t="s">
         <v>13</v>
       </c>
@@ -5565,7 +5727,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B309" s="59" t="s">
         <v>533</v>
       </c>
@@ -5573,7 +5735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B310" s="59" t="s">
         <v>535</v>
       </c>
@@ -5581,7 +5743,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B311" s="60" t="s">
         <v>537</v>
       </c>
@@ -5589,7 +5751,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B312" s="59" t="s">
         <v>245</v>
       </c>
@@ -5597,7 +5759,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="60" t="s">
         <v>540</v>
       </c>
@@ -5605,7 +5767,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B314" s="60" t="s">
         <v>542</v>
       </c>
@@ -5613,7 +5775,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B315" s="59" t="s">
         <v>544</v>
       </c>
@@ -5621,12 +5783,4306 @@
         <v>545</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B316" s="60" t="s">
         <v>464</v>
       </c>
       <c r="C316" s="62" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" s="56">
+        <v>30509051400865</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C322" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C326" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C332" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B333" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" s="65"/>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B336" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" s="56">
+        <v>20233360</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C339" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C341" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C345" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C347" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C348" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C350" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B354" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C354" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C355" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B356" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B359" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C359" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C360" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C361" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C362" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B363" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C363" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C365" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B366" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C366" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C367" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C368" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C369" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C370" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C371" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" s="56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C373" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C375" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C377" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C378" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C379" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C380" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C382" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C383" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C384" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C385" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B386" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C386" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C387" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C388" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B389" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C389" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B390" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C391" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B392" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C392" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C393" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B394" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C394" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C395" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B396" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C396" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C397" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C398" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B399" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C399" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B400" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C400" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C401" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B402" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C402" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C403" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B404" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C404" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B405" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C405" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B406" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C406" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C407" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B408" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C408" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C409" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B410" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C410" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B411" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C411" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C412" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B413" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C413" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C414" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B415" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C415" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C416" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C417" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C418" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C419" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B420" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C420" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C421" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C422" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B423" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C423" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C424" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C425" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C426" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C427" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B428" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C428" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B429" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C429" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B430" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C430" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B431" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C431" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B432" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C432" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B433" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C433" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B434" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C434" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B435" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C435" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B436" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C436" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B437" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C437" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B438" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C438" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B439" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C439" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C440" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B441" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C441" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B442" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C442" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B443" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C443" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B444" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C444" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C445" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B446" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C446" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B447" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C447" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C448" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B449" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C449" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C450" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C451" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B452" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C452" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B453" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C453" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B454" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C454" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B455" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C455" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B456" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C456" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B457" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C457" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C458" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B459" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C459" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B460" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C460" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B461" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C461" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B462" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C462" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B463" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C463" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C464" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B465" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C465" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C466" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B467" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C467" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B468" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C468" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C469" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B470" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C471" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C472" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B473" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C473" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C474" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B475" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C475" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B476" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C476" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C477" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B478" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C478" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C479" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C480" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C481" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C482" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C483" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C484" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C485" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C486" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C487" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B488" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C488" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C489" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B490" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C490" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B491" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C491" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C492" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C493" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C494" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C495" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C496" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C497" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C498" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C499" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C500" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C501" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C502" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B503" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C503" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B504" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C504" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C505" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B506" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C506" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B507" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C507" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B508" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C508" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B509" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C509" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C510" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B512" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C512" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B513" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C513" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C514" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C515" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B516" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C516" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C517" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B518" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C518" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C519" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C520" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B521" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C521" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B522" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C522" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B523" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C523" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B524" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C524" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C525" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C526" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C527" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C529" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C530" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C531" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C532" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C533" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C534" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C535" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C536" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C537" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C538" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C540" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C541" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C542" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C543" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B544" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C544" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B545" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C545" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C546" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C548" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C549" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C550" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C551" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C552" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C553" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C554" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C555" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C556" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C557" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C558" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C559" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C560" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C561" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C562" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C563" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B564" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C564" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B565" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C565" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C566" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B567" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C567" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C568" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B569" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C569" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C570" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B571" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C571" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B572" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C572" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B573" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C573" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C574" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B575" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C575" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B576" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C576" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B577" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C577" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B578" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C578" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B579" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C579" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B580" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C580" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B581" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C581" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B582" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C582" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B583" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C583" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B584" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C584" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B585" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C585" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B586" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C586" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B587" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C587" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B588" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C588" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B589" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C589" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B590" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C590" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B591" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C591" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B592" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C592" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C593" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C594" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B595" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C595" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B596" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C596" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B597" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C597" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B598" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C598" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C599" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B600" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C600" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B601" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C601" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B602" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C602" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B603" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C603" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B604" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C604" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B605" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B606" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C606" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C607" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B608" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B609" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C609" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B610" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C610" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B611" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C611" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B612" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C612" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B613" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C613" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B614" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C614" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="615" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B615" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C615" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="616" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B616" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C616" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="617" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B617" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C617" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="618" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B618" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C618" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="619" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B619" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C619" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="620" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B620" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C620" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="621" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B621" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C621" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="622" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B622" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C622" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="623" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B623" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C623" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="624" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B624" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C624" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B625" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C625" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B626" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B627" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C627" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B628" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C628" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B629" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C629" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B630" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C630" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B631" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C631" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B632" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C632" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B633" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C633" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B634" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C634" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B635" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C635" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B636" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C636" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B637" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C637" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B638" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C638" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B639" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C639" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B640" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C640" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B641" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C641" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B642" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C642" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B643" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C643" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B644" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C644" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B645" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C645" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B646" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C646" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B647" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C647" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B648" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C648" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B649" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C649" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B650" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C650" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B651" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C651" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B652" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C652" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B653" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C653" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B654" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C654" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B655" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C655" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B656" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C656" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B657" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C657" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B658" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C658" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="659" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B659" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C659" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="660" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B660" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C660" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B661" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C661" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="662" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B662" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C662" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B663" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C663" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="664" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B664" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C664" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="665" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B665" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C665" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="666" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B666" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C666" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="667" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B667" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C667" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="668" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B668" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C668" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="669" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B669" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C669" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="670" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B670" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C670" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="671" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B671" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C671" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="672" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B672" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C672" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="673" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B673" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C673" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="674" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B674" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C674" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="675" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B675" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C675" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="676" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B676" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C676" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="677" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B677" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C677" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="678" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B678" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C678" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="679" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B679" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C679" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="680" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B680" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C680" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B681" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C681" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="682" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B682" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C682" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="683" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B683" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C683" s="58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="684" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B684" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C684" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B685" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C685" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B686" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C686" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B687" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C687" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="688" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B688" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C688" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B689" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C689" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="690" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B690" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C690" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="691" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B691" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C691" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="692" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B692" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C692" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="693" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B693" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C693" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="694" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B694" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C694" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="695" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B695" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C695" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="696" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B696" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C696" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="697" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B697" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C697" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="698" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B698" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C698" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="699" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B699" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C699" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="700" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B700" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C700" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="701" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B701" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C701" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="702" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B702" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C702" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="703" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B703" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C703" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="704" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B704" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="C704" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="705" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B705" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C705" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="706" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B706" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C706" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="707" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B707" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C707" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="708" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B708" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C708" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="709" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B709" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C709" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="710" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B710" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C710" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="711" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B711" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C711" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="712" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B712" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C712" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="713" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B713" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C713" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="714" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B714" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C714" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="715" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B715" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C715" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="716" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B716" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C716" s="56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="717" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B717" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C717" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="718" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B718" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C718" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="719" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B719" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="C719" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="720" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B720" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C720" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="721" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B721" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C721" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="722" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B722" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C722" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="723" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B723" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C723" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="724" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B724" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C724" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="725" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B725" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C725" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="726" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B726" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C726" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="727" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B727" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C727" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="728" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B728" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C728" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="729" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B729" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="C729" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="730" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B730" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C730" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="731" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B731" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C731" s="23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="732" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B732" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C732" s="58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="733" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B733" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C733" s="23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="734" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B734" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C734" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="735" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B735" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C735" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="736" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B736" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C736" s="23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B737" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="C737" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="738" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B738" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C738" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B739" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C739" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B740" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C740" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B741" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="C741" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B742" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="C742" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B743" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C743" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B744" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C744" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B745" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C745" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B746" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C746" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B747" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C747" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B748" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="C748" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B749" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C749" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B750" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C750" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B751" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C751" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B752" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C752" s="56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="753" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B753" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C753" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="754" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B754" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C754" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="755" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B755" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C755" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="756" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B756" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C756" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="757" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B757" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C757" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="758" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B758" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C758" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="759" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B759" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="C759" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="760" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B760" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C760" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="761" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B761" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C761" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="762" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B762" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C762" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="763" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B763" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C763" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="764" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B764" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C764" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="765" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B765" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="C765" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="766" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B766" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C766" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="767" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B767" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="C767" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="768" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B768" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C768" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="769" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B769" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C769" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="770" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B770" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C770" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="771" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B771" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C771" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="772" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B772" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C772" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="773" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B773" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C773" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="774" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B774" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C774" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="775" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B775" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C775" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="776" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B776" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C776" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="777" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B777" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C777" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="778" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B778" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C778" s="58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="779" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B779" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C779" s="58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="780" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B780" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="C780" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="781" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B781" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C781" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="782" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B782" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C782" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="783" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B783" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C783" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="784" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B784" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C784" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="785" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B785" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C785" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="786" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B786" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="C786" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="787" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B787" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C787" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="788" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B788" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C788" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="789" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B789" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C789" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="790" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B790" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C790" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="791" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B791" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C791" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="792" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B792" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C792" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="793" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B793" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C793" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="794" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B794" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="C794" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="795" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B795" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C795" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="796" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B796" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="C796" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="797" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B797" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C797" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="798" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B798" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="C798" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="799" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B799" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C799" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="800" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B800" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C800" s="23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="801" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B801" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C801" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="802" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B802" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C802" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="803" spans="2:3" ht="66" x14ac:dyDescent="0.2">
+      <c r="B803" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C803" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="804" spans="2:3" ht="66" x14ac:dyDescent="0.2">
+      <c r="B804" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C804" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="805" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B805" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C805" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="806" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B806" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="C806" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="807" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B807" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C807" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="808" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B808" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C808" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="809" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B809" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C809" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="810" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B810" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C810" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="811" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B811" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C811" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="812" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B812" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C812" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="813" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B813" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C813" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="814" spans="2:3" ht="261" x14ac:dyDescent="0.2">
+      <c r="B814" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C814" s="58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="815" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B815" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C815" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="816" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B816" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="C816" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="817" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B817" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="C817" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="818" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B818" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="C818" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B819" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="C819" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B820" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C820" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B821" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C821" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="822" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B822" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C822" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="823" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B823" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="C823" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="824" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B824" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="C824" s="23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="825" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B825" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C825" s="23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="826" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B826" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="C826" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="827" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B827" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C827" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="828" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B828" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C828" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="829" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B829" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C829" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="830" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B830" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C830" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="831" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B831" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="C831" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="832" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B832" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="C832" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="833" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B833" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C833" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="834" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B834" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C834" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="835" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B835" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C835" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="836" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B836" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="C836" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="837" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B837" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="C837" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="838" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B838" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C838" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="839" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B839" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C839" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="840" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B840" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C840" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="841" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B841" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C841" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="842" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B842" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C842" s="23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="843" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B843" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="C843" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="844" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B844" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="C844" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="845" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B845" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C845" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="846" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B846" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C846" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="847" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B847" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="C847" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="848" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B848" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="C848" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="849" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B849" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C849" s="23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="850" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B850" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C850" s="23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="851" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B851" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="C851" s="23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="852" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B852" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C852" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="853" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B853" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C853" s="23" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5887,9 +10343,472 @@
     <hyperlink ref="C314" r:id="rId254" xr:uid="{60F9054B-3CB7-49A7-9D3E-11D4819FDE5E}"/>
     <hyperlink ref="C315" r:id="rId255" xr:uid="{DEB6D30C-0F76-4B29-A656-8E351B244C1F}"/>
     <hyperlink ref="C316" r:id="rId256" location="contactMe" display="https://el-tayyeb.github.io/end/ - contactMe" xr:uid="{61013692-A59B-4AD0-AB81-7D46C322E4FD}"/>
+    <hyperlink ref="C319" r:id="rId257" xr:uid="{22D53B36-BF42-774F-B563-E97CB6D44529}"/>
+    <hyperlink ref="C323" r:id="rId258" xr:uid="{C5D96F65-63B2-4D4F-85B7-CC74018A3A1D}"/>
+    <hyperlink ref="C325" r:id="rId259" xr:uid="{AA49E49E-F768-3741-81FA-81AD9C4680C8}"/>
+    <hyperlink ref="C326" r:id="rId260" xr:uid="{21EBE09E-6358-0A4C-9C01-273F1D7A888C}"/>
+    <hyperlink ref="C332" r:id="rId261" xr:uid="{7F696BDB-1489-8F4B-9819-6D96BEE7D489}"/>
+    <hyperlink ref="C334" r:id="rId262" xr:uid="{98076876-1B9D-6B45-BA7B-53110CD666A9}"/>
+    <hyperlink ref="C338" r:id="rId263" xr:uid="{DBE286B6-B682-5340-8C53-C3F204953BC3}"/>
+    <hyperlink ref="C339" r:id="rId264" xr:uid="{29D22672-A727-B74E-A096-07BB9E01D992}"/>
+    <hyperlink ref="C340" r:id="rId265" xr:uid="{47B4D056-CAE8-0E43-98D9-5675E7C05804}"/>
+    <hyperlink ref="C341" r:id="rId266" xr:uid="{794CC349-C828-D342-8373-A0B3E0A38187}"/>
+    <hyperlink ref="C342" r:id="rId267" xr:uid="{C8020F79-22DB-6D43-BD28-CB25F8253FC4}"/>
+    <hyperlink ref="C343" r:id="rId268" xr:uid="{6AF3E29E-9B99-DC4D-9A82-256C5B0E0E3E}"/>
+    <hyperlink ref="C344" r:id="rId269" xr:uid="{52927159-6155-224E-A7ED-6026561E437E}"/>
+    <hyperlink ref="C345" r:id="rId270" xr:uid="{F7FA615F-208C-2B43-8B6E-F677CCCA2D17}"/>
+    <hyperlink ref="C346" r:id="rId271" xr:uid="{E630F64F-897A-D94D-A85C-551FC07D45E7}"/>
+    <hyperlink ref="C349" r:id="rId272" xr:uid="{5B170432-0CA5-EC44-A366-D7A9A1A610F3}"/>
+    <hyperlink ref="C350" r:id="rId273" xr:uid="{E035F495-5453-114F-8ABD-FF46FC4DFCBE}"/>
+    <hyperlink ref="C351" r:id="rId274" xr:uid="{37CB13C2-0890-044F-8667-BE6BE17BC323}"/>
+    <hyperlink ref="C352" r:id="rId275" xr:uid="{8641669F-77B4-6841-BD2B-42CC031048D2}"/>
+    <hyperlink ref="C353" r:id="rId276" xr:uid="{671AE435-F7DD-344F-B270-0DFECB274BEE}"/>
+    <hyperlink ref="C356" r:id="rId277" xr:uid="{96F65A01-8CB6-8943-8643-ABACC1B8D03B}"/>
+    <hyperlink ref="C358" r:id="rId278" xr:uid="{0074C3F8-15E6-C146-8714-238C151B39D1}"/>
+    <hyperlink ref="C360" r:id="rId279" xr:uid="{D6A449D6-E109-D843-96DF-3AEE3D6A36BA}"/>
+    <hyperlink ref="C361" r:id="rId280" xr:uid="{3BC6E9B5-610F-1343-A6EA-C8F5EA6D52FA}"/>
+    <hyperlink ref="C363" r:id="rId281" xr:uid="{EBEAD6CE-C249-074D-81D8-93DF566A8EF3}"/>
+    <hyperlink ref="C364" r:id="rId282" xr:uid="{37C2D194-9346-ED4D-B874-CC187F134EE9}"/>
+    <hyperlink ref="C366" r:id="rId283" xr:uid="{EDEBA34D-8881-A648-83A7-FAC281271517}"/>
+    <hyperlink ref="C367" r:id="rId284" xr:uid="{28DE749C-C002-C54C-8805-8CAA9043A311}"/>
+    <hyperlink ref="C368" r:id="rId285" xr:uid="{691A5BED-7080-7A43-90EF-4D50DB411893}"/>
+    <hyperlink ref="C369" r:id="rId286" xr:uid="{C1568415-6E04-DA4F-BEA6-81F61DB7C1F4}"/>
+    <hyperlink ref="C371" r:id="rId287" xr:uid="{AE52B394-7EC6-E049-9084-3BCF62AAEA56}"/>
+    <hyperlink ref="C373" r:id="rId288" xr:uid="{5C804A3E-2C84-284F-A98F-C966E370CCCA}"/>
+    <hyperlink ref="C374" r:id="rId289" xr:uid="{32995374-2CD6-294E-812C-3694BA5482A6}"/>
+    <hyperlink ref="C376" r:id="rId290" xr:uid="{D5DF14EA-1460-364F-9E86-E072FB371E7A}"/>
+    <hyperlink ref="C377" r:id="rId291" xr:uid="{7D80EA77-8C64-8247-915B-966EDB22447F}"/>
+    <hyperlink ref="C378" r:id="rId292" xr:uid="{159BE1E3-5E16-344D-A41D-36BAE70C4FA1}"/>
+    <hyperlink ref="C379" r:id="rId293" xr:uid="{DB05AFA7-9433-4B44-BF99-8A248E2B2392}"/>
+    <hyperlink ref="C380" r:id="rId294" xr:uid="{D5DDB7D9-3D7A-6547-9B0F-0DA674CC81BF}"/>
+    <hyperlink ref="C381" r:id="rId295" xr:uid="{42672855-7F4C-B144-A2B9-A2C762C53A48}"/>
+    <hyperlink ref="C384" r:id="rId296" xr:uid="{37E7B6F1-6C63-0E44-B4D7-A60A5D5483A8}"/>
+    <hyperlink ref="C385" r:id="rId297" xr:uid="{F60EDC03-7A1D-9A40-A4C0-2B83EE1826F8}"/>
+    <hyperlink ref="C386" r:id="rId298" xr:uid="{0C44DFA2-A121-4B4F-BF48-20EA460C046B}"/>
+    <hyperlink ref="C387" r:id="rId299" xr:uid="{539AA933-7638-E741-A2FF-E18C97D3A2F4}"/>
+    <hyperlink ref="C388" r:id="rId300" xr:uid="{6A66794A-C344-CE46-A06F-476E8FA16987}"/>
+    <hyperlink ref="C390" r:id="rId301" display="https://rahma5555.github.io/roro00/" xr:uid="{63D2CC63-B6C1-4244-9476-B63F178F6244}"/>
+    <hyperlink ref="C391" r:id="rId302" xr:uid="{4D9B49CA-499A-4B4A-8ADE-768589CF07B5}"/>
+    <hyperlink ref="C392" r:id="rId303" xr:uid="{03C51A21-4784-F44F-A5D8-3F4746332E66}"/>
+    <hyperlink ref="C393" r:id="rId304" xr:uid="{239A5E80-6C46-D542-898B-5B381DE86F40}"/>
+    <hyperlink ref="C394" r:id="rId305" xr:uid="{7ACB47BE-F6ED-E444-AE86-607DAD42FD46}"/>
+    <hyperlink ref="C395" r:id="rId306" xr:uid="{C1970719-A7F8-1D43-B2A4-B318271A4109}"/>
+    <hyperlink ref="C396" r:id="rId307" xr:uid="{CBE5A4BB-518B-0046-AEB5-EC61B22173BE}"/>
+    <hyperlink ref="C400" r:id="rId308" xr:uid="{F4D7EBC4-6B28-E44C-86CB-298E130598FE}"/>
+    <hyperlink ref="C401" r:id="rId309" xr:uid="{534A635D-A3F5-4A48-ACF5-0171F3B4D6BE}"/>
+    <hyperlink ref="C402" r:id="rId310" xr:uid="{D010598C-BB7D-2340-9F3F-672AE8772B91}"/>
+    <hyperlink ref="C403" r:id="rId311" xr:uid="{C194FC21-E61B-824E-ACE1-559642EFC84C}"/>
+    <hyperlink ref="C404" r:id="rId312" display="https://loloah20.githup.io/sva20/" xr:uid="{CBEB3776-BAC4-1240-B754-DCCCF591EC4C}"/>
+    <hyperlink ref="C406" r:id="rId313" xr:uid="{63E7A78D-3C9C-B048-BDFE-ED016578E32A}"/>
+    <hyperlink ref="C407" r:id="rId314" xr:uid="{3931DB4D-1516-964C-9A2D-C02DF3C75C1C}"/>
+    <hyperlink ref="C408" r:id="rId315" xr:uid="{0338DB2A-31BD-4A45-8BE8-F05EB539BB56}"/>
+    <hyperlink ref="C410" r:id="rId316" xr:uid="{242B794F-AED5-2A48-80FB-D8DF4A52B73B}"/>
+    <hyperlink ref="C411" r:id="rId317" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{4FECF431-D9E6-6142-B341-27C43DEC4752}"/>
+    <hyperlink ref="C412" r:id="rId318" xr:uid="{F0DBB8C6-615F-2E49-9624-AA8FCABEDD43}"/>
+    <hyperlink ref="C413" r:id="rId319" xr:uid="{9E5824E0-54EF-A84E-9182-785568959914}"/>
+    <hyperlink ref="C414" r:id="rId320" xr:uid="{49E47770-8BCC-D54C-966B-45A011868888}"/>
+    <hyperlink ref="C415" r:id="rId321" xr:uid="{7BCA03C4-87EB-5D44-A6E0-3FFED79CB49B}"/>
+    <hyperlink ref="C416" r:id="rId322" xr:uid="{DE4156BF-8A47-B142-A19E-C776C3AD5A25}"/>
+    <hyperlink ref="C417" r:id="rId323" xr:uid="{3CFBE319-0E0E-9C40-B211-7A60AC3B7D14}"/>
+    <hyperlink ref="C418" r:id="rId324" display="https://basant1512006.github.io/basant-walid/" xr:uid="{5CC6FE84-CCA0-364B-BC81-2E62E452E7E7}"/>
+    <hyperlink ref="C419" r:id="rId325" xr:uid="{1765CF35-675D-8144-BBAB-850286912F5D}"/>
+    <hyperlink ref="C420" r:id="rId326" xr:uid="{B3C51CFE-B605-4247-BE21-06FA85909E67}"/>
+    <hyperlink ref="C421" r:id="rId327" xr:uid="{08F4E2CC-7A0D-7D42-9DAB-59AF1ED499B1}"/>
+    <hyperlink ref="C423" r:id="rId328" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{58DFBA27-5F0F-9640-AC37-99D5FC44B894}"/>
+    <hyperlink ref="C424" r:id="rId329" xr:uid="{9D988D85-B23B-9D47-B007-E6B016140FFB}"/>
+    <hyperlink ref="C425" r:id="rId330" xr:uid="{AC8BF5FB-D6D0-A845-B230-380F430EC97D}"/>
+    <hyperlink ref="C426" r:id="rId331" xr:uid="{100F4812-74FE-AA43-AF63-9F9F694AA928}"/>
+    <hyperlink ref="C427" r:id="rId332" xr:uid="{35B81211-A64E-8147-9F55-296C3A34C8E1}"/>
+    <hyperlink ref="C428" r:id="rId333" xr:uid="{850724AC-6C97-9949-ADE9-C09B58726A54}"/>
+    <hyperlink ref="C429" r:id="rId334" xr:uid="{A7436E1B-231D-0C42-B88B-95A4148A01D5}"/>
+    <hyperlink ref="C430" r:id="rId335" xr:uid="{BDFE9CF6-9880-6141-96FD-C5E0D87EA5D1}"/>
+    <hyperlink ref="C431" r:id="rId336" xr:uid="{EEE7BF85-A824-9C42-AC14-8DF16A89087B}"/>
+    <hyperlink ref="C432" r:id="rId337" xr:uid="{EE9472D3-3E04-4F49-AAC2-66382E08DF46}"/>
+    <hyperlink ref="C433" r:id="rId338" xr:uid="{37E3082A-ADB3-7043-8F0E-2D1B6A783FD0}"/>
+    <hyperlink ref="C434" r:id="rId339" xr:uid="{39F91A3B-DDC1-5346-BD5B-4F81E6350914}"/>
+    <hyperlink ref="C435" r:id="rId340" xr:uid="{4C52C932-C4A8-0247-8FC0-40F5B2971D95}"/>
+    <hyperlink ref="C437" r:id="rId341" xr:uid="{191BFD5A-2BED-0640-A7D4-AB5AED62A0A7}"/>
+    <hyperlink ref="C438" r:id="rId342" xr:uid="{9053401C-E352-714E-8EDC-2856B1C53B94}"/>
+    <hyperlink ref="C439" r:id="rId343" xr:uid="{749319FA-B292-FF42-AFC3-EF088FAAB7A6}"/>
+    <hyperlink ref="C440" r:id="rId344" xr:uid="{68279371-EE1C-B444-A18F-2FA6A6F471F5}"/>
+    <hyperlink ref="C441" r:id="rId345" xr:uid="{00343BB4-26D1-AF43-926F-DAFF94FFE98F}"/>
+    <hyperlink ref="C442" r:id="rId346" xr:uid="{9665337E-F31D-5C48-864F-6931AAE0B9D8}"/>
+    <hyperlink ref="C443" r:id="rId347" xr:uid="{DDA29AB3-3467-0A4F-AED7-637E933F2EF0}"/>
+    <hyperlink ref="C444" r:id="rId348" xr:uid="{7E3308ED-60BB-5549-860B-AB927152A8B3}"/>
+    <hyperlink ref="C445" r:id="rId349" xr:uid="{C31A4BC6-9B45-1F41-9994-6D41BEED2523}"/>
+    <hyperlink ref="C446" r:id="rId350" xr:uid="{02DD26B2-80ED-9242-AE62-7B2A380E9C3B}"/>
+    <hyperlink ref="C447" r:id="rId351" xr:uid="{FBA70AED-DA68-A442-849A-92E37639C370}"/>
+    <hyperlink ref="C448" r:id="rId352" xr:uid="{4629E4E2-4F71-2048-952A-8AB34C1030C9}"/>
+    <hyperlink ref="C449" r:id="rId353" xr:uid="{A39C6C61-5EBB-DE45-B19E-A46E8F605739}"/>
+    <hyperlink ref="C450" r:id="rId354" xr:uid="{0840B873-276F-8741-A2D6-40446ED69664}"/>
+    <hyperlink ref="C451" r:id="rId355" xr:uid="{628A10CF-7B06-B644-BB1E-2929C37CD81E}"/>
+    <hyperlink ref="C453" r:id="rId356" xr:uid="{F419089B-262D-AA43-B2F5-7945ED67CB49}"/>
+    <hyperlink ref="C454" r:id="rId357" xr:uid="{799B0521-7F56-A147-87E5-F4B083F3364A}"/>
+    <hyperlink ref="C455" r:id="rId358" xr:uid="{D2B41BB5-1ABE-0B42-BF2E-A0AC1E88178E}"/>
+    <hyperlink ref="C456" r:id="rId359" xr:uid="{1F89A6F9-5F13-9044-BFD0-10C10CA93AB9}"/>
+    <hyperlink ref="C457" r:id="rId360" xr:uid="{3FB82951-5871-7A4C-9F3B-A7F4382E5F0A}"/>
+    <hyperlink ref="C458" r:id="rId361" xr:uid="{D7F10EF2-90D3-B94E-8DF9-10D291520F9A}"/>
+    <hyperlink ref="C459" r:id="rId362" xr:uid="{6AF30C46-ABF6-4241-B3D7-B36A11043441}"/>
+    <hyperlink ref="C460" r:id="rId363" xr:uid="{3DC8423E-AC50-FA47-B9A9-0CD24FD95CC4}"/>
+    <hyperlink ref="C461" r:id="rId364" xr:uid="{3F413619-F34E-9842-8FDC-B1DB3D6E2954}"/>
+    <hyperlink ref="C462" r:id="rId365" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{71E11461-1A29-E044-96EF-006EAAC78DE8}"/>
+    <hyperlink ref="C463" r:id="rId366" xr:uid="{7A417D11-1C92-0747-9B3D-012E77A77F8E}"/>
+    <hyperlink ref="C464" r:id="rId367" xr:uid="{56F9C336-DF3E-DA45-8DE2-ABC64D78BF0F}"/>
+    <hyperlink ref="C466" r:id="rId368" xr:uid="{E6B10285-1E7B-B945-878B-E75E2C79DB0C}"/>
+    <hyperlink ref="C467" r:id="rId369" xr:uid="{C40E9D79-C753-764C-9675-66C8CCC56411}"/>
+    <hyperlink ref="C468" r:id="rId370" xr:uid="{59FBEDD7-9063-5540-8E03-133C3BAC00BB}"/>
+    <hyperlink ref="C469" r:id="rId371" xr:uid="{A601D88A-322F-F34A-A271-90BD816C6CDE}"/>
+    <hyperlink ref="C470" r:id="rId372" xr:uid="{B6ABB2D9-7DCD-734C-AD09-C1355A6A8066}"/>
+    <hyperlink ref="C471" r:id="rId373" xr:uid="{FE009D31-3A98-6D4B-BC01-4E9BB51B1940}"/>
+    <hyperlink ref="C472" r:id="rId374" xr:uid="{266527EF-863C-EA41-A7E4-AFABDC36CE03}"/>
+    <hyperlink ref="C473" r:id="rId375" xr:uid="{F7581DFF-C952-1B4F-B172-FB5E32748C94}"/>
+    <hyperlink ref="C474" r:id="rId376" xr:uid="{B1054434-3D8D-4847-8250-6A5EDF6D69F1}"/>
+    <hyperlink ref="C475" r:id="rId377" xr:uid="{4FD3EA52-D010-BE4F-9A2E-714F64B8F5C8}"/>
+    <hyperlink ref="C481" r:id="rId378" xr:uid="{4E5B5AB0-59C3-DB4D-AAA6-0AF3CCF2248C}"/>
+    <hyperlink ref="C482" r:id="rId379" xr:uid="{0870A879-3D08-014D-B95D-176903040920}"/>
+    <hyperlink ref="C483" r:id="rId380" xr:uid="{58A022E9-7C08-B24A-986F-D92E016466C1}"/>
+    <hyperlink ref="C484" r:id="rId381" xr:uid="{FAB32E15-0065-714A-A647-469FF8BCAE12}"/>
+    <hyperlink ref="C485" r:id="rId382" xr:uid="{0F237D3A-6A8A-5844-B02C-8704E3F2BDDF}"/>
+    <hyperlink ref="C486" r:id="rId383" xr:uid="{43455FFC-5EB4-4F4B-8618-32E47F519EAC}"/>
+    <hyperlink ref="C488" r:id="rId384" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{86170272-8360-964B-8057-4DD4D05D9F76}"/>
+    <hyperlink ref="C489" r:id="rId385" xr:uid="{3A236F6D-B17F-E542-9F6A-CF880774CEA7}"/>
+    <hyperlink ref="C492" r:id="rId386" xr:uid="{7DF0B557-B953-7043-9427-05C534C7FDC6}"/>
+    <hyperlink ref="C493" r:id="rId387" xr:uid="{EA7B7DB5-B2F5-FE4A-BD20-AA4C44879A0B}"/>
+    <hyperlink ref="C494" r:id="rId388" xr:uid="{F307FCB4-3826-734E-BC9E-53D30BA0FE9A}"/>
+    <hyperlink ref="C496" r:id="rId389" xr:uid="{C77AC6E5-E1E0-2247-BF10-111724F0892D}"/>
+    <hyperlink ref="C497" r:id="rId390" xr:uid="{C2C5D9D7-9564-7942-A442-D934E06FCCAC}"/>
+    <hyperlink ref="C498" r:id="rId391" xr:uid="{5061ABB5-2FE2-B94F-9036-567188FA387B}"/>
+    <hyperlink ref="C500" r:id="rId392" xr:uid="{C8409274-61F4-2E48-9942-5E9D7806A71D}"/>
+    <hyperlink ref="C501" r:id="rId393" xr:uid="{F2AA941E-2E2B-CB4A-9C55-B759304FB606}"/>
+    <hyperlink ref="C502" r:id="rId394" xr:uid="{A9B81A9D-0313-764C-8AE9-301F9121864D}"/>
+    <hyperlink ref="C505" r:id="rId395" xr:uid="{9EDD902E-383C-484C-B56C-C2C572C5610A}"/>
+    <hyperlink ref="C506" r:id="rId396" xr:uid="{E356BEA9-F6F5-6A4E-9B68-0BB12509C2C1}"/>
+    <hyperlink ref="C507" r:id="rId397" xr:uid="{E557C7ED-2C02-4746-9025-CC979CAB557C}"/>
+    <hyperlink ref="C508" r:id="rId398" xr:uid="{213ACE1C-1BE4-C245-8D11-E38827DF111D}"/>
+    <hyperlink ref="C509" r:id="rId399" xr:uid="{98C3C78B-5376-C14C-AB5B-A8BCC7D5B7BB}"/>
+    <hyperlink ref="C510" r:id="rId400" xr:uid="{E2A3D6C3-14AA-D242-A111-5EFB875E87AA}"/>
+    <hyperlink ref="C511" r:id="rId401" xr:uid="{25D1751B-1026-8E40-9063-18D38A4783B0}"/>
+    <hyperlink ref="C516" r:id="rId402" xr:uid="{75B1FDE3-4A91-014F-B395-F06DBA28A4A9}"/>
+    <hyperlink ref="C517" r:id="rId403" xr:uid="{203FC94B-6873-224F-BECF-5D183C71845B}"/>
+    <hyperlink ref="C518" r:id="rId404" xr:uid="{33F2344C-D717-0146-B88C-BB5820DED0C6}"/>
+    <hyperlink ref="C519" r:id="rId405" xr:uid="{82A8B949-C072-F84C-B5A7-81DA8FAA79F9}"/>
+    <hyperlink ref="C520" r:id="rId406" xr:uid="{3F5E08BF-FDB6-C04A-BDDD-A13D0D77A0A5}"/>
+    <hyperlink ref="C521" r:id="rId407" xr:uid="{15F0F022-2894-1644-BD42-EDDB8E045776}"/>
+    <hyperlink ref="C522" r:id="rId408" xr:uid="{7E7EDDA3-57C2-E941-8C9B-FCF453A31EC8}"/>
+    <hyperlink ref="C523" r:id="rId409" xr:uid="{B5C67C6B-4DA4-7948-9145-7B33642E0F29}"/>
+    <hyperlink ref="C524" r:id="rId410" xr:uid="{73B5F131-699A-8A4B-BC33-C9F471C27937}"/>
+    <hyperlink ref="C525" r:id="rId411" xr:uid="{A11F6C6E-C0E1-DA45-955E-41AF9FDA27C7}"/>
+    <hyperlink ref="C526" r:id="rId412" xr:uid="{C1A33CD4-B82F-E44F-BA05-762206F8DFB1}"/>
+    <hyperlink ref="C527" r:id="rId413" xr:uid="{B5C130EF-17EA-8344-8CDA-362D3A479189}"/>
+    <hyperlink ref="C528" r:id="rId414" xr:uid="{B99781C2-9A38-A34F-AEA0-D806D94291A8}"/>
+    <hyperlink ref="C529" r:id="rId415" xr:uid="{A0F7D4E3-7C52-2D40-9E86-8856379F0CFA}"/>
+    <hyperlink ref="C530" r:id="rId416" xr:uid="{9390D3AC-330B-0747-82A0-E7A752431130}"/>
+    <hyperlink ref="C531" r:id="rId417" xr:uid="{304EEA0C-1143-D842-A5DD-092E7D0343BD}"/>
+    <hyperlink ref="C532" r:id="rId418" xr:uid="{BE73C05D-1924-ED46-AF06-0787D73DD3FD}"/>
+    <hyperlink ref="C533" r:id="rId419" xr:uid="{E964338D-8D7D-6145-B0FD-3FAF0FECE403}"/>
+    <hyperlink ref="C535" r:id="rId420" xr:uid="{BA14D2DA-1B00-6942-8DEF-C6985C8DF243}"/>
+    <hyperlink ref="C536" r:id="rId421" xr:uid="{F2136CFE-B533-D246-BBA8-580D8D5FD091}"/>
+    <hyperlink ref="C537" r:id="rId422" xr:uid="{FE14F89E-E364-424F-A7CF-C60D8CB8E134}"/>
+    <hyperlink ref="C538" r:id="rId423" xr:uid="{2614B92C-CEF1-344C-BF26-CFDF2471AC5C}"/>
+    <hyperlink ref="C539" r:id="rId424" xr:uid="{0B91A553-61DB-BA44-B46D-A67E8E7A6B2D}"/>
+    <hyperlink ref="C540" r:id="rId425" xr:uid="{23CEB720-C9DE-7045-B5DE-ED1B3018EF0C}"/>
+    <hyperlink ref="C541" r:id="rId426" xr:uid="{1C29CC9A-C88F-0348-A535-65D57C7BDDF4}"/>
+    <hyperlink ref="C542" r:id="rId427" xr:uid="{DE7903C4-56F4-0F46-94A7-F9CA9B985127}"/>
+    <hyperlink ref="C543" r:id="rId428" xr:uid="{4E1C6099-2AD5-0F48-BCF8-C06B69DC24F1}"/>
+    <hyperlink ref="C546" r:id="rId429" xr:uid="{CF506B45-5BB8-004B-8012-8671706D12CB}"/>
+    <hyperlink ref="C547" r:id="rId430" xr:uid="{F4EE343E-104C-D149-A8E1-C57A9A46A8D4}"/>
+    <hyperlink ref="C548" r:id="rId431" xr:uid="{45282D50-81AB-1D48-A715-22C94EBC4AA4}"/>
+    <hyperlink ref="C549" r:id="rId432" xr:uid="{ECCFE2FD-9BD0-5C47-9276-5B74B075F690}"/>
+    <hyperlink ref="C550" r:id="rId433" xr:uid="{1CCA7D2F-5BA3-6643-85F0-BC821E44ED98}"/>
+    <hyperlink ref="C551" r:id="rId434" xr:uid="{93D24F0A-7659-A94B-A672-5EB9A6B7FBDD}"/>
+    <hyperlink ref="C552" r:id="rId435" xr:uid="{E341B294-EDC5-9A4A-B8AC-23129729403D}"/>
+    <hyperlink ref="C553" r:id="rId436" xr:uid="{215744C7-AC30-F247-B8CA-191FAA31DEC3}"/>
+    <hyperlink ref="C554" r:id="rId437" xr:uid="{FDFE7F38-0CD5-F943-91CD-4CAEE5F5C2C5}"/>
+    <hyperlink ref="C555" r:id="rId438" xr:uid="{32E43E43-ECAD-324A-A699-14F959690810}"/>
+    <hyperlink ref="C556" r:id="rId439" xr:uid="{CC3D38E7-3DDD-2E4D-95A5-DB94A73A5B3F}"/>
+    <hyperlink ref="C557" r:id="rId440" xr:uid="{D77787FD-0B5E-7944-894C-EE4148313CE0}"/>
+    <hyperlink ref="C558" r:id="rId441" xr:uid="{0B2B974B-401C-FE43-B473-566199C92270}"/>
+    <hyperlink ref="C559" r:id="rId442" xr:uid="{D954AE27-DC3D-B444-9E63-52ED85B2598A}"/>
+    <hyperlink ref="C560" r:id="rId443" xr:uid="{B6AB86E5-0681-AB40-94F7-BCA5ED8B79FE}"/>
+    <hyperlink ref="C561" r:id="rId444" xr:uid="{4CF1D5C7-354A-EC4A-A63A-EE13E82438B8}"/>
+    <hyperlink ref="C562" r:id="rId445" xr:uid="{338697D6-B3F0-FE44-AF9E-4C9A400DA9A8}"/>
+    <hyperlink ref="C563" r:id="rId446" xr:uid="{12C639F5-E538-1540-B24A-9FA00448345D}"/>
+    <hyperlink ref="C564" r:id="rId447" xr:uid="{E9569276-7426-DD4A-A102-EA741DA9D68A}"/>
+    <hyperlink ref="C565" r:id="rId448" xr:uid="{B803FF1F-3D66-AE4B-9864-D95697AD0A96}"/>
+    <hyperlink ref="C566" r:id="rId449" xr:uid="{EE82A088-ECCC-0848-AC43-A7F9FC5C33CA}"/>
+    <hyperlink ref="C567" r:id="rId450" xr:uid="{170CE66F-C7E1-BE45-BA24-BE95E832D970}"/>
+    <hyperlink ref="C568" r:id="rId451" xr:uid="{563DBE71-40C8-3945-8202-50892BC17F6F}"/>
+    <hyperlink ref="C569" r:id="rId452" xr:uid="{E58A27BF-E1DD-C44A-87F6-785DD31081C3}"/>
+    <hyperlink ref="C570" r:id="rId453" xr:uid="{2B3C12DA-CD73-984A-B8C2-71FAC0148170}"/>
+    <hyperlink ref="C571" r:id="rId454" xr:uid="{544B1469-D4D0-8B43-B649-B49348AF8FF8}"/>
+    <hyperlink ref="C572" r:id="rId455" xr:uid="{16E32F4C-9E0B-1B43-A2BE-E843F560FB47}"/>
+    <hyperlink ref="C573" r:id="rId456" xr:uid="{E13C1792-69A9-7C4C-A2C1-FE4FE0E5B6C4}"/>
+    <hyperlink ref="C575" r:id="rId457" xr:uid="{1022974F-43EE-194B-ADC6-C45334B760FC}"/>
+    <hyperlink ref="C576" r:id="rId458" xr:uid="{F5DAD52E-46C1-4A4E-95EB-5D23DABAC017}"/>
+    <hyperlink ref="C577" r:id="rId459" xr:uid="{8D615B15-02ED-D54D-A03A-7D24A6535BEF}"/>
+    <hyperlink ref="C578" r:id="rId460" xr:uid="{14DC1C99-9135-3841-B389-416669550D7E}"/>
+    <hyperlink ref="C579" r:id="rId461" xr:uid="{33296E54-B7DA-934D-985A-95ED88E76E79}"/>
+    <hyperlink ref="C580" r:id="rId462" xr:uid="{8D4A9871-6699-9143-9DE8-63BE188D9F2E}"/>
+    <hyperlink ref="C581" r:id="rId463" xr:uid="{C4D08903-8109-224B-934F-41C6AC3078FF}"/>
+    <hyperlink ref="C582" r:id="rId464" xr:uid="{F1D96DC8-D456-1249-92BB-27A5CB6EEF10}"/>
+    <hyperlink ref="C583" r:id="rId465" xr:uid="{B057BBA1-4626-974E-8466-1D340E6D1022}"/>
+    <hyperlink ref="C584" r:id="rId466" xr:uid="{41DF164A-C279-4341-BC7D-7D1448190219}"/>
+    <hyperlink ref="C585" r:id="rId467" xr:uid="{0DBEA8B6-985B-CD48-BDAA-C3547FA50462}"/>
+    <hyperlink ref="C586" r:id="rId468" xr:uid="{D7C61B68-E91F-5640-897A-26609021C3F9}"/>
+    <hyperlink ref="C587" r:id="rId469" xr:uid="{7323FE19-CC2B-894E-9212-3C55693E2BA2}"/>
+    <hyperlink ref="C588" r:id="rId470" xr:uid="{6A9679A2-4885-AC4D-80A8-17C48AEAA06D}"/>
+    <hyperlink ref="C589" r:id="rId471" xr:uid="{7946C961-71EA-CD4E-AE19-C2A171F3A9B9}"/>
+    <hyperlink ref="C590" r:id="rId472" xr:uid="{6C85B561-24BC-2543-9682-1A106C18B8F4}"/>
+    <hyperlink ref="C591" r:id="rId473" xr:uid="{3A14A1C3-3F48-9F40-8097-D3CA4887B3B4}"/>
+    <hyperlink ref="C592" r:id="rId474" xr:uid="{16D7226F-BCC8-8A4F-BC4E-45578F58E747}"/>
+    <hyperlink ref="C593" r:id="rId475" xr:uid="{B273D007-7BD1-AB42-84BB-AA626B01FCD0}"/>
+    <hyperlink ref="C594" r:id="rId476" xr:uid="{691E3718-20A4-E948-8E61-E57BDDD147B5}"/>
+    <hyperlink ref="C595" r:id="rId477" xr:uid="{16F3898D-0363-6F4C-86D9-137FAE68A263}"/>
+    <hyperlink ref="C596" r:id="rId478" xr:uid="{EE34383C-3A3E-624A-9504-F861E1AD4BB6}"/>
+    <hyperlink ref="C597" r:id="rId479" xr:uid="{30B009D0-D1C4-3946-B48C-6D235F02CF27}"/>
+    <hyperlink ref="C598" r:id="rId480" xr:uid="{144F7306-8127-164C-BE36-09EA8039F454}"/>
+    <hyperlink ref="C599" r:id="rId481" xr:uid="{BA783450-15CD-6D4B-BE52-E822B25F6C4C}"/>
+    <hyperlink ref="C600" r:id="rId482" xr:uid="{F7392911-F2BB-4741-A0BF-0B78BD6270E9}"/>
+    <hyperlink ref="C601" r:id="rId483" xr:uid="{C618DE8B-DE87-F344-9637-83729E0191C5}"/>
+    <hyperlink ref="C602" r:id="rId484" xr:uid="{8C33455F-9247-A349-BC90-69410D708B6E}"/>
+    <hyperlink ref="C603" r:id="rId485" xr:uid="{CE9215B6-0553-C14E-8FCB-B8AE610732E3}"/>
+    <hyperlink ref="C604" r:id="rId486" xr:uid="{4C49EB5C-44AC-8348-BF34-4F0964FD5603}"/>
+    <hyperlink ref="C605" r:id="rId487" xr:uid="{1D1B92FA-ADFA-DC4A-A999-695E94B2AE9F}"/>
+    <hyperlink ref="C606" r:id="rId488" xr:uid="{3B799135-DF21-7342-AAC4-BC89B9CCC866}"/>
+    <hyperlink ref="C607" r:id="rId489" xr:uid="{BDB38460-820D-8B41-B045-1802BA172D2B}"/>
+    <hyperlink ref="C608" r:id="rId490" xr:uid="{F1AA8AD6-5C78-7F46-86FD-5091DE65985B}"/>
+    <hyperlink ref="C609" r:id="rId491" xr:uid="{8513B92E-071A-3446-8B17-F815D05920DA}"/>
+    <hyperlink ref="C610" r:id="rId492" xr:uid="{2C418495-3320-BE43-A6C8-BDE6BA4A17F2}"/>
+    <hyperlink ref="C611" r:id="rId493" xr:uid="{27188E1E-C7D6-324B-A5F2-0B959A2C338B}"/>
+    <hyperlink ref="C612" r:id="rId494" xr:uid="{B6D6D067-91B1-F644-BE6A-10429384B8E8}"/>
+    <hyperlink ref="C614" r:id="rId495" xr:uid="{337E0733-8830-584C-B9AC-C126019AC073}"/>
+    <hyperlink ref="C615" r:id="rId496" xr:uid="{85C5E53B-9DE2-8A4B-9671-52AA62FB59E8}"/>
+    <hyperlink ref="C616" r:id="rId497" xr:uid="{C7C2660A-3EDF-8F4B-816C-108663549B8B}"/>
+    <hyperlink ref="C617" r:id="rId498" xr:uid="{FF5FEA06-1E99-C246-8783-5DCE2FE261DE}"/>
+    <hyperlink ref="C618" r:id="rId499" xr:uid="{11C9123F-08FA-2347-9155-CB1810309888}"/>
+    <hyperlink ref="C619" r:id="rId500" xr:uid="{951C6057-8C62-1547-80FF-EA26B7767C0D}"/>
+    <hyperlink ref="C620" r:id="rId501" xr:uid="{D7A9E863-DB82-6642-99FB-65E8A9F975E5}"/>
+    <hyperlink ref="C621" r:id="rId502" xr:uid="{D478B0C4-9CA7-1448-BF7C-2F768AB08C9C}"/>
+    <hyperlink ref="C622" r:id="rId503" xr:uid="{6FFBF48F-A612-C44C-B11C-D59469BD1DEA}"/>
+    <hyperlink ref="C623" r:id="rId504" xr:uid="{8CBF40DD-8343-1843-BE08-81FFF51909FE}"/>
+    <hyperlink ref="C624" r:id="rId505" xr:uid="{B82D2AD0-19A6-1B47-ACDF-BC8903CD322D}"/>
+    <hyperlink ref="C625" r:id="rId506" xr:uid="{922A1C9A-6CC3-E14C-849A-24DB9F5FB54F}"/>
+    <hyperlink ref="C626" r:id="rId507" xr:uid="{C1DD05AB-3C67-D14D-B402-E1294D5913E6}"/>
+    <hyperlink ref="C627" r:id="rId508" xr:uid="{CBDA3031-C225-6647-81A5-077724235504}"/>
+    <hyperlink ref="C628" r:id="rId509" xr:uid="{C4BC15C9-C22F-E24C-B3F3-E167866964B8}"/>
+    <hyperlink ref="C629" r:id="rId510" xr:uid="{F8B5C0FE-EF86-D34A-9DCF-1C7AF12279D1}"/>
+    <hyperlink ref="C630" r:id="rId511" xr:uid="{50B2CA90-4652-E941-A8DB-5E717B568BAC}"/>
+    <hyperlink ref="C631" r:id="rId512" xr:uid="{6CAA3A46-B832-A148-BE45-DCCAEAC1719B}"/>
+    <hyperlink ref="C632" r:id="rId513" xr:uid="{BAD9EC54-2768-8048-85C1-95ADCAC0A700}"/>
+    <hyperlink ref="C633" r:id="rId514" xr:uid="{F2C8B3AA-579F-7649-93CE-A9AAD2FD9009}"/>
+    <hyperlink ref="C634" r:id="rId515" xr:uid="{E7B9F67B-4681-3147-91B2-5A7B869B43E1}"/>
+    <hyperlink ref="C635" r:id="rId516" xr:uid="{26785211-DEAB-8549-BABA-D8B153C0E16C}"/>
+    <hyperlink ref="C636" r:id="rId517" xr:uid="{994AC3C1-22BE-6844-B941-784AB98D9AED}"/>
+    <hyperlink ref="C637" r:id="rId518" xr:uid="{9FD0B67E-F0D8-8441-B8D5-BFE773321BF1}"/>
+    <hyperlink ref="C638" r:id="rId519" xr:uid="{8D90A8B4-8DFA-694F-A5B9-35A53291A33A}"/>
+    <hyperlink ref="C639" r:id="rId520" xr:uid="{90A30512-70B7-B14E-A42F-D4780BCF23F7}"/>
+    <hyperlink ref="C640" r:id="rId521" xr:uid="{82153E43-94A0-8149-8636-ACEEA879EB52}"/>
+    <hyperlink ref="C641" r:id="rId522" xr:uid="{939AE292-9378-CE4F-AEC0-35DBCD9E42D0}"/>
+    <hyperlink ref="C642" r:id="rId523" xr:uid="{6B3C73D8-4CAE-644C-8CAD-DD53C7F37321}"/>
+    <hyperlink ref="C643" r:id="rId524" xr:uid="{DB1C4A3B-567F-D847-AAF0-8292950DF6A0}"/>
+    <hyperlink ref="C644" r:id="rId525" xr:uid="{114AAB63-8AD0-AA4A-BC66-70576384259E}"/>
+    <hyperlink ref="C645" r:id="rId526" xr:uid="{978D7596-EDF4-2249-B4DF-6C5361CAF730}"/>
+    <hyperlink ref="C646" r:id="rId527" xr:uid="{9829F04B-1AA1-4441-9240-5B493E826E4F}"/>
+    <hyperlink ref="C647" r:id="rId528" xr:uid="{AFAEE249-F5D8-AB4A-BB30-EFF8951FFC6C}"/>
+    <hyperlink ref="C648" r:id="rId529" xr:uid="{A28968EA-5044-604C-816C-96AA28ED42F3}"/>
+    <hyperlink ref="C649" r:id="rId530" xr:uid="{8D47CDC5-AAB4-D44E-9477-B3D91B5F1272}"/>
+    <hyperlink ref="C650" r:id="rId531" xr:uid="{FCCC7593-4502-024A-BE35-869F51FF0A27}"/>
+    <hyperlink ref="C651" r:id="rId532" xr:uid="{C0572ED2-D377-2E40-8A7A-DD1437C35623}"/>
+    <hyperlink ref="C652" r:id="rId533" xr:uid="{2BC8DE81-CA80-0A48-9E95-F59EF5AC346F}"/>
+    <hyperlink ref="C653" r:id="rId534" xr:uid="{62496A23-92C6-7649-B162-673287FA0CCE}"/>
+    <hyperlink ref="C654" r:id="rId535" xr:uid="{FE50062B-89EA-8D49-8D4C-850202C64B4E}"/>
+    <hyperlink ref="C655" r:id="rId536" xr:uid="{5211A035-64E8-0345-9EDF-DEAD2D4E7160}"/>
+    <hyperlink ref="C656" r:id="rId537" xr:uid="{C1743A7E-FE99-2C49-A419-21195712FF46}"/>
+    <hyperlink ref="C657" r:id="rId538" xr:uid="{F579B93B-0512-B143-BB97-DBD46EA153C5}"/>
+    <hyperlink ref="C658" r:id="rId539" xr:uid="{CE1EDC75-E893-774C-BD5F-0878336FA610}"/>
+    <hyperlink ref="C659" r:id="rId540" xr:uid="{C5C0C275-3012-8C40-B532-833C121431FA}"/>
+    <hyperlink ref="C660" r:id="rId541" xr:uid="{54953951-EF8D-A749-818B-925D54C462C7}"/>
+    <hyperlink ref="C661" r:id="rId542" xr:uid="{D4616833-7F05-764F-9C92-CFE59BB89EBF}"/>
+    <hyperlink ref="C662" r:id="rId543" xr:uid="{31B0D682-6986-604B-B8FA-D51A33CAC0A2}"/>
+    <hyperlink ref="C663" r:id="rId544" xr:uid="{7D882D88-663C-C745-BDC6-A7DF22FA4324}"/>
+    <hyperlink ref="C664" r:id="rId545" xr:uid="{9EA24CB6-88E9-0641-B0CC-47CE14CD653A}"/>
+    <hyperlink ref="C665" r:id="rId546" xr:uid="{09D6BFC6-419B-2649-8251-7CB244588401}"/>
+    <hyperlink ref="C666" r:id="rId547" xr:uid="{D6878DA4-BC48-A342-BF53-42F3E7F779D7}"/>
+    <hyperlink ref="C667" r:id="rId548" xr:uid="{A2A90A61-192A-B34B-A52C-5DCCD323B35C}"/>
+    <hyperlink ref="C670" r:id="rId549" xr:uid="{086F0992-C896-4542-8E0C-53B712D3EC54}"/>
+    <hyperlink ref="C671" r:id="rId550" xr:uid="{27936876-6E11-2E4F-8A4C-33EBD443BA61}"/>
+    <hyperlink ref="C672" r:id="rId551" xr:uid="{A231C2AF-022B-504B-AF50-02D8519CF918}"/>
+    <hyperlink ref="C673" r:id="rId552" xr:uid="{155810F0-A913-3A4D-8D49-173BD2427490}"/>
+    <hyperlink ref="C674" r:id="rId553" xr:uid="{4456B606-FE5B-9942-816A-0662F1E56FAD}"/>
+    <hyperlink ref="C675" r:id="rId554" xr:uid="{6B5B4D71-CCA8-344E-B1A3-A2C4460BBC81}"/>
+    <hyperlink ref="C676" r:id="rId555" xr:uid="{6123FBB1-6341-F748-977D-E3191A1F7B01}"/>
+    <hyperlink ref="C677" r:id="rId556" xr:uid="{8DFD7FF1-4640-AC4C-A5C5-0EC3D1365CCE}"/>
+    <hyperlink ref="C678" r:id="rId557" xr:uid="{1E023A30-F04D-F64E-A37B-15E2267D57C8}"/>
+    <hyperlink ref="C679" r:id="rId558" xr:uid="{EACBF3FD-5498-BA4D-84F8-C7FB97086177}"/>
+    <hyperlink ref="C680" r:id="rId559" xr:uid="{827F27CB-DADD-254A-897B-1F391618D302}"/>
+    <hyperlink ref="C681" r:id="rId560" xr:uid="{9F0A8EDA-504B-164E-92CF-B8ECC9A75B6A}"/>
+    <hyperlink ref="C682" r:id="rId561" xr:uid="{CAE4803A-83FE-2243-AF9E-3DACFFFCCB73}"/>
+    <hyperlink ref="C684" r:id="rId562" xr:uid="{B1AD95BC-93FB-CE41-9550-F85EA8768177}"/>
+    <hyperlink ref="C685" r:id="rId563" xr:uid="{BF7A92AD-DE4C-0247-9CB2-2C196AE6CBB7}"/>
+    <hyperlink ref="C686" r:id="rId564" xr:uid="{8BA4A496-5FE2-8945-A5F3-94B359A7E110}"/>
+    <hyperlink ref="C687" r:id="rId565" xr:uid="{ECCF5457-7301-7945-B404-9C3E3FB17F10}"/>
+    <hyperlink ref="C688" r:id="rId566" xr:uid="{141FAC5E-BF3F-1644-951C-36F2924444CE}"/>
+    <hyperlink ref="C689" r:id="rId567" xr:uid="{777992CE-545F-5A4A-B1B4-870E5A99AC27}"/>
+    <hyperlink ref="C690" r:id="rId568" xr:uid="{79EBEAC9-FE7E-5649-9804-8A43D9A3CF34}"/>
+    <hyperlink ref="C691" r:id="rId569" xr:uid="{6FEFD7F0-8F26-E249-8096-5D10B9C10DF7}"/>
+    <hyperlink ref="C692" r:id="rId570" xr:uid="{3C1C9CF1-21D8-3B41-B07C-7E41ED3A2DFB}"/>
+    <hyperlink ref="C693" r:id="rId571" xr:uid="{36907684-A9A9-2A40-AC6D-AF96872CA818}"/>
+    <hyperlink ref="C694" r:id="rId572" xr:uid="{BDB81560-35EC-C24C-83CE-66D2A97679B3}"/>
+    <hyperlink ref="C695" r:id="rId573" xr:uid="{662733E0-CD75-6E4E-B9D0-2C144C1BD563}"/>
+    <hyperlink ref="C696" r:id="rId574" xr:uid="{1859F294-C6A5-244F-9AC5-52E08357E422}"/>
+    <hyperlink ref="C697" r:id="rId575" xr:uid="{C822FEDF-BD73-4D4F-B3AF-7DF7DD821D88}"/>
+    <hyperlink ref="C698" r:id="rId576" xr:uid="{A9B7872F-E397-9C44-8B12-4B8F834E357F}"/>
+    <hyperlink ref="C699" r:id="rId577" xr:uid="{012AAEF5-9019-5145-972E-56E893CDE837}"/>
+    <hyperlink ref="C700" r:id="rId578" xr:uid="{36CF95BF-2CE0-3A4A-AD84-1E552FEB0773}"/>
+    <hyperlink ref="C701" r:id="rId579" xr:uid="{1543E3D1-D24C-484A-8635-3F2C93852CB6}"/>
+    <hyperlink ref="C702" r:id="rId580" xr:uid="{74ABB792-F7D9-6147-A7D0-2D40DBE46738}"/>
+    <hyperlink ref="C703" r:id="rId581" xr:uid="{35D271B9-C5AC-E146-A97F-D85DE9685D13}"/>
+    <hyperlink ref="C704" r:id="rId582" xr:uid="{38CC1913-F6B1-AD48-BA5D-802D916CAB1A}"/>
+    <hyperlink ref="C705" r:id="rId583" xr:uid="{AF461777-A257-9B4B-B974-9A274AED50B4}"/>
+    <hyperlink ref="C706" r:id="rId584" xr:uid="{65869EF0-0BB5-2F46-8DE3-1809096413AC}"/>
+    <hyperlink ref="C707" r:id="rId585" xr:uid="{F5E6018A-1800-B54E-998C-B25C765D90A3}"/>
+    <hyperlink ref="C708" r:id="rId586" xr:uid="{2753CC14-E71F-584C-9E15-9FD94102A35F}"/>
+    <hyperlink ref="C709" r:id="rId587" xr:uid="{A4F0CF7A-E7BD-A54E-9EB8-F786BEFEDECF}"/>
+    <hyperlink ref="C710" r:id="rId588" xr:uid="{3DDB0E77-AD19-9641-B67C-7FD0A5738A9D}"/>
+    <hyperlink ref="C711" r:id="rId589" xr:uid="{FD323437-AB6B-1541-83D3-E3EADF95F94F}"/>
+    <hyperlink ref="C712" r:id="rId590" xr:uid="{3055B56F-231A-BD4C-A8D5-182BC04FC8B6}"/>
+    <hyperlink ref="C713" r:id="rId591" xr:uid="{4283983E-8087-754C-9E23-A177AB0A5E92}"/>
+    <hyperlink ref="C714" r:id="rId592" xr:uid="{364524F6-3CDA-7A49-976E-EA23B47C6EEB}"/>
+    <hyperlink ref="C715" r:id="rId593" xr:uid="{00F0F250-D7CF-494C-9B44-7534963DF190}"/>
+    <hyperlink ref="C717" r:id="rId594" xr:uid="{60CD1192-2E87-C248-88C2-63F8A7E928F6}"/>
+    <hyperlink ref="C718" r:id="rId595" xr:uid="{A35218E5-7D03-294C-8861-10AC779A7282}"/>
+    <hyperlink ref="C719" r:id="rId596" display="https://mandoxl.github.io/youssef/" xr:uid="{722C62DE-0D06-C540-90AA-FD7C13920548}"/>
+    <hyperlink ref="C720" r:id="rId597" xr:uid="{86E0AF3C-009B-C643-9F1F-4A9B9776F882}"/>
+    <hyperlink ref="C721" r:id="rId598" xr:uid="{33E4805F-193C-1A41-A9D7-866E4BB1EC2F}"/>
+    <hyperlink ref="C722" r:id="rId599" xr:uid="{754B9D31-B0BC-EA4B-AA5F-3E9086F1BC02}"/>
+    <hyperlink ref="C723" r:id="rId600" xr:uid="{457A065B-2CBD-0B4A-9751-0FADB8040A6C}"/>
+    <hyperlink ref="C724" r:id="rId601" xr:uid="{D4ACC7E9-C8A4-4C43-A19A-F212F31177F0}"/>
+    <hyperlink ref="C725" r:id="rId602" xr:uid="{7F631620-4F1F-A744-BF24-A02E30723E6D}"/>
+    <hyperlink ref="C726" r:id="rId603" xr:uid="{D6B11577-14F3-6941-8A26-A54E3BD281D8}"/>
+    <hyperlink ref="C727" r:id="rId604" xr:uid="{459BE09D-A196-664F-A8AE-FF4A142843E3}"/>
+    <hyperlink ref="C728" r:id="rId605" xr:uid="{69DBCED4-36CE-914E-AD30-CD2A377C7E55}"/>
+    <hyperlink ref="C729" r:id="rId606" xr:uid="{33721186-F052-2F40-9BA6-4028EEE2ED0D}"/>
+    <hyperlink ref="C730" r:id="rId607" xr:uid="{8CFD4252-F9B3-0B48-B00F-F25F71A433DC}"/>
+    <hyperlink ref="C731" r:id="rId608" xr:uid="{DC138D91-019A-C945-BA51-287A1FBB7D65}"/>
+    <hyperlink ref="C733" r:id="rId609" xr:uid="{D553FF8C-362A-4E47-BB80-90C2E57808B7}"/>
+    <hyperlink ref="C734" r:id="rId610" xr:uid="{4B5C168A-D47C-FF47-9E6F-CEF0DDB19F78}"/>
+    <hyperlink ref="C735" r:id="rId611" xr:uid="{4B909656-A03F-E24A-BBD4-D26EBAFF74FD}"/>
+    <hyperlink ref="C736" r:id="rId612" xr:uid="{A7B9213B-BCF9-314F-98C4-589180D7A893}"/>
+    <hyperlink ref="C737" r:id="rId613" xr:uid="{A2191C45-D58D-E641-977B-BF3AE3734141}"/>
+    <hyperlink ref="C738" r:id="rId614" xr:uid="{88495063-E616-0245-8B79-DB5140834BD6}"/>
+    <hyperlink ref="C739" r:id="rId615" xr:uid="{45143A3F-9083-4042-9686-B902139C9C63}"/>
+    <hyperlink ref="C740" r:id="rId616" xr:uid="{3EECA49D-F1BA-C944-A0AF-D127EF74287D}"/>
+    <hyperlink ref="C741" r:id="rId617" xr:uid="{29869D40-0D0B-A74E-9FC6-B0AD13085568}"/>
+    <hyperlink ref="C742" r:id="rId618" xr:uid="{199E294E-15A1-D54A-9065-80EB2D940E25}"/>
+    <hyperlink ref="C743" r:id="rId619" xr:uid="{4A5DF7E8-A546-4347-8492-4916879D83CD}"/>
+    <hyperlink ref="C744" r:id="rId620" xr:uid="{62F45FD9-A61F-9742-9965-A8A2B2BA6AF5}"/>
+    <hyperlink ref="C745" r:id="rId621" xr:uid="{CF9FEDA7-9C23-DD4B-BBAD-15844A1BB2AD}"/>
+    <hyperlink ref="C746" r:id="rId622" xr:uid="{8F046A9D-5E91-544B-A7A2-00C5D85ADE50}"/>
+    <hyperlink ref="C747" r:id="rId623" xr:uid="{CA1ACF5C-A60E-F84D-9EC5-D5285105E71F}"/>
+    <hyperlink ref="C748" r:id="rId624" xr:uid="{40F6EE03-07F1-CC41-B27B-0007C8968443}"/>
+    <hyperlink ref="C749" r:id="rId625" xr:uid="{86E736A2-4940-9140-8849-D7865B70B9E9}"/>
+    <hyperlink ref="C750" r:id="rId626" xr:uid="{70C49B0A-768C-8046-AB4C-907C56529AC1}"/>
+    <hyperlink ref="C751" r:id="rId627" xr:uid="{6D5B3F90-3F4D-A845-A6C5-D962E835BA26}"/>
+    <hyperlink ref="C753" r:id="rId628" xr:uid="{FB7B9CA9-6F50-8B4E-B824-228BD8DBE47B}"/>
+    <hyperlink ref="C754" r:id="rId629" xr:uid="{D23E7D20-CF0A-8540-AAA1-53AC40F99210}"/>
+    <hyperlink ref="C755" r:id="rId630" xr:uid="{4B8029C3-7351-F841-A66F-9949EB1656C7}"/>
+    <hyperlink ref="C756" r:id="rId631" xr:uid="{A0044B4B-BC7F-AC47-8F63-93F8F7A2AC79}"/>
+    <hyperlink ref="C757" r:id="rId632" xr:uid="{D10B0F36-1543-5444-9393-E41D3FE41ACE}"/>
+    <hyperlink ref="C758" r:id="rId633" xr:uid="{D7360F39-EE4F-9D49-95CA-42E8214B4153}"/>
+    <hyperlink ref="C759" r:id="rId634" xr:uid="{EF26E1F2-3BF1-8741-A713-7EE5BA821782}"/>
+    <hyperlink ref="C760" r:id="rId635" xr:uid="{97916FD5-D03F-794D-B0EC-998E10E5AB58}"/>
+    <hyperlink ref="C761" r:id="rId636" xr:uid="{3DB22626-D7D2-9645-B51C-E27A27189034}"/>
+    <hyperlink ref="C762" r:id="rId637" xr:uid="{AAAF8E9F-01F9-2E47-9C22-046CBD98D713}"/>
+    <hyperlink ref="C763" r:id="rId638" xr:uid="{7556D3B5-54AB-8645-BBDC-C33F81A64F4A}"/>
+    <hyperlink ref="C764" r:id="rId639" xr:uid="{5D3C14B2-B18F-D444-83F3-60666BE700AE}"/>
+    <hyperlink ref="C765" r:id="rId640" xr:uid="{9C9C28B4-345C-4745-96E1-6E7CB4E9D39E}"/>
+    <hyperlink ref="C766" r:id="rId641" xr:uid="{5580D10F-ED06-5A4C-8806-15ABDDCE263D}"/>
+    <hyperlink ref="C767" r:id="rId642" xr:uid="{0082D31E-5FC2-6D4B-8735-DBD9AE3642DE}"/>
+    <hyperlink ref="C768" r:id="rId643" xr:uid="{DFA1E43D-8F44-B841-A468-0827212FD9E0}"/>
+    <hyperlink ref="C769" r:id="rId644" xr:uid="{B0AA29D0-9B00-024F-80C7-431FEEA339B7}"/>
+    <hyperlink ref="C770" r:id="rId645" xr:uid="{E63E5490-A19E-FA4D-96EC-CD6863D7EA27}"/>
+    <hyperlink ref="C771" r:id="rId646" xr:uid="{8BEEB984-5FFC-EF46-B562-C0B6229994DA}"/>
+    <hyperlink ref="C772" r:id="rId647" xr:uid="{4A2CC135-054B-E94A-A39D-12905AA24A6B}"/>
+    <hyperlink ref="C773" r:id="rId648" xr:uid="{F77F64DD-792C-024B-A381-BDC79689D7C4}"/>
+    <hyperlink ref="C774" r:id="rId649" xr:uid="{5A2940F0-AE15-CF42-BED7-65A38692F287}"/>
+    <hyperlink ref="C775" r:id="rId650" xr:uid="{130F77CC-CF98-7F4A-8EFC-11D49D6690B5}"/>
+    <hyperlink ref="C776" r:id="rId651" xr:uid="{71673C34-24A5-9D45-AD58-41AD37F8F2BC}"/>
+    <hyperlink ref="C777" r:id="rId652" xr:uid="{E40D8E8D-48DB-BC47-9EFE-78827F30D791}"/>
+    <hyperlink ref="C780" r:id="rId653" xr:uid="{5E487640-C25C-174C-88C7-229D7F2E8A06}"/>
+    <hyperlink ref="C781" r:id="rId654" xr:uid="{A029D318-8C0D-E248-B66C-9528144D05E5}"/>
+    <hyperlink ref="C782" r:id="rId655" xr:uid="{F4F61316-B1A7-9740-9A99-88332A80E8BD}"/>
+    <hyperlink ref="C783" r:id="rId656" xr:uid="{37DB856F-291D-2C42-BCC7-03736029F540}"/>
+    <hyperlink ref="C784" r:id="rId657" xr:uid="{8D9F1A3E-D6BF-7D47-BE18-D20A959F9B59}"/>
+    <hyperlink ref="C785" r:id="rId658" xr:uid="{90799824-38FB-8344-835F-63699D630D2F}"/>
+    <hyperlink ref="C786" r:id="rId659" xr:uid="{80B7BE50-1F7C-8548-A825-B4B0F24CF720}"/>
+    <hyperlink ref="C787" r:id="rId660" xr:uid="{CC047A78-71BD-664F-97AA-9FFE8A121D01}"/>
+    <hyperlink ref="C791" r:id="rId661" xr:uid="{34C883D3-F323-A149-BD28-56A1A3FCBFD6}"/>
+    <hyperlink ref="C792" r:id="rId662" xr:uid="{8376A850-048B-D94A-B14E-5A936DBB7CF1}"/>
+    <hyperlink ref="C793" r:id="rId663" xr:uid="{C1CA4343-F168-5F46-8130-F387A55D6F83}"/>
+    <hyperlink ref="C794" r:id="rId664" xr:uid="{7305120F-7555-D644-B2CF-6CF4C9851985}"/>
+    <hyperlink ref="C795" r:id="rId665" xr:uid="{6772C1AD-11C2-0742-84D8-434D6BE6EB9B}"/>
+    <hyperlink ref="C796" r:id="rId666" xr:uid="{6557FAF2-371C-B04D-99CD-5C7ADB949BD8}"/>
+    <hyperlink ref="C797" r:id="rId667" xr:uid="{6B284770-9D1E-6C4B-97A0-52DE2168086F}"/>
+    <hyperlink ref="C798" r:id="rId668" xr:uid="{AD12F910-F71A-D643-AA40-A9B082D9A4D9}"/>
+    <hyperlink ref="C799" r:id="rId669" xr:uid="{AA30075C-9C1E-C643-9ED9-C665C64D8228}"/>
+    <hyperlink ref="C800" r:id="rId670" location="contactMe" display="https://el-tayyeb.github.io/end/ - contactMe" xr:uid="{CBBAC8B6-120D-B841-B462-FEE1C88D2BB0}"/>
+    <hyperlink ref="C801" r:id="rId671" xr:uid="{A8BD37D0-7000-9A48-9D5E-CA2827C5B3E9}"/>
+    <hyperlink ref="C802" r:id="rId672" xr:uid="{5B4C122C-8312-8D4E-8D45-19C241EDCDE6}"/>
+    <hyperlink ref="C805" r:id="rId673" xr:uid="{93D5D695-3C65-4E45-96E1-434119B7976A}"/>
+    <hyperlink ref="C806" r:id="rId674" xr:uid="{4D7144FD-1262-4740-8D2B-E2DEFA4A8ECA}"/>
+    <hyperlink ref="C807" r:id="rId675" xr:uid="{7FF13783-072A-434A-A760-4BC94BF2CEB7}"/>
+    <hyperlink ref="C808" r:id="rId676" xr:uid="{8780DA33-D171-634A-800D-DFDC99A69B15}"/>
+    <hyperlink ref="C809" r:id="rId677" xr:uid="{5245A6C4-D672-004B-8C82-648F62E516C7}"/>
+    <hyperlink ref="C810" r:id="rId678" xr:uid="{EAA0A829-CA98-1B45-BDDE-6B5605AC954C}"/>
+    <hyperlink ref="C811" r:id="rId679" xr:uid="{E6CAE1A3-BBCA-8643-BA0F-64D618FA2623}"/>
+    <hyperlink ref="C812" r:id="rId680" xr:uid="{CE5345D1-E513-2E4A-B4DD-EDD081E061F1}"/>
+    <hyperlink ref="C813" r:id="rId681" xr:uid="{3395D30C-46B0-2640-B919-31ADAF7CBBEE}"/>
+    <hyperlink ref="C816" r:id="rId682" xr:uid="{BFD904FB-1328-B04C-8BB8-3269D45816BC}"/>
+    <hyperlink ref="C817" r:id="rId683" xr:uid="{FB71A5A2-D1AE-F044-8B7B-8FFCF390B2CE}"/>
+    <hyperlink ref="C818" r:id="rId684" xr:uid="{EB4A4100-26C1-F04C-99F0-A28686FCB87B}"/>
+    <hyperlink ref="C819" r:id="rId685" xr:uid="{402B8A29-EA5E-2349-91EF-8B1AE65B9FC8}"/>
+    <hyperlink ref="C820" r:id="rId686" xr:uid="{4AB9898D-5A09-1E4E-AE22-86DAD629B767}"/>
+    <hyperlink ref="C821" r:id="rId687" xr:uid="{95E1A69B-686B-154A-878A-02AC9DC5E8CA}"/>
+    <hyperlink ref="C822" r:id="rId688" xr:uid="{876B5641-4DE2-5A45-98F1-B7C1E19C0EFF}"/>
+    <hyperlink ref="C823" r:id="rId689" xr:uid="{AC2F3DD3-A18B-404D-A4B1-604AA7C232C8}"/>
+    <hyperlink ref="C824" r:id="rId690" xr:uid="{427DE66F-87D6-2D41-9D51-3E500E342765}"/>
+    <hyperlink ref="C825" r:id="rId691" xr:uid="{236F63F1-A2C7-554D-90EF-0C8E83747E63}"/>
+    <hyperlink ref="C826" r:id="rId692" xr:uid="{936D6DEB-7392-474E-8860-93F9237B2999}"/>
+    <hyperlink ref="C827" r:id="rId693" xr:uid="{72A1F934-A3C9-6243-896A-CA1B5385B1D9}"/>
+    <hyperlink ref="C828" r:id="rId694" xr:uid="{887F23BF-2BE6-7F4A-BE94-F911A458F351}"/>
+    <hyperlink ref="C829" r:id="rId695" xr:uid="{97F369F5-BE9E-344F-9C8D-61B3A17DA27F}"/>
+    <hyperlink ref="C830" r:id="rId696" xr:uid="{DCA697DD-6821-D74B-8E61-E7B58F429EFB}"/>
+    <hyperlink ref="C831" r:id="rId697" xr:uid="{6F03A091-39BF-8644-986F-F02E5A2F7C27}"/>
+    <hyperlink ref="C832" r:id="rId698" xr:uid="{53731340-C968-2B49-8D7E-E868E2D8812B}"/>
+    <hyperlink ref="C833" r:id="rId699" xr:uid="{329E2107-8BF4-7C4A-8797-AAE5A3B7CD0C}"/>
+    <hyperlink ref="C834" r:id="rId700" xr:uid="{49FD760D-D5F4-8A46-98AC-5A42B39920F1}"/>
+    <hyperlink ref="C835" r:id="rId701" xr:uid="{60DB2907-0165-6444-8350-1260DD4B10E2}"/>
+    <hyperlink ref="C836" r:id="rId702" xr:uid="{947E101B-07F4-EE47-86B7-A6F429FDBE9B}"/>
+    <hyperlink ref="C837" r:id="rId703" xr:uid="{F0A054CD-4383-494C-BA7A-3D18BA971F95}"/>
+    <hyperlink ref="C838" r:id="rId704" xr:uid="{8B4520F3-CE7C-F84A-B51C-CF75D2FEBFEB}"/>
+    <hyperlink ref="C839" r:id="rId705" xr:uid="{3A8F2584-216B-DD42-9041-17212546A6C3}"/>
+    <hyperlink ref="C840" r:id="rId706" xr:uid="{AAB16C15-A200-7E4D-B8F5-A3466B2A72D3}"/>
+    <hyperlink ref="C841" r:id="rId707" xr:uid="{4954FA57-19AB-304B-8AF6-C352449667D9}"/>
+    <hyperlink ref="C842" r:id="rId708" xr:uid="{3CFBA7BD-24CC-9441-94D2-8282B9746197}"/>
+    <hyperlink ref="C843" r:id="rId709" xr:uid="{39ECE4E5-BD9C-B649-946B-6B08CE7B9269}"/>
+    <hyperlink ref="C844" r:id="rId710" xr:uid="{28FFDB8D-78CA-1F45-9175-63BA7F247E52}"/>
+    <hyperlink ref="C845" r:id="rId711" xr:uid="{80BA27EC-CAFF-2840-A188-C09B1748FF12}"/>
+    <hyperlink ref="C846" r:id="rId712" xr:uid="{E07617B7-DD61-294E-8D45-E6B12A8B5833}"/>
+    <hyperlink ref="C847" r:id="rId713" xr:uid="{CEFF4E72-7F55-8E46-AB0A-448B8C3290DF}"/>
+    <hyperlink ref="C848" r:id="rId714" xr:uid="{5FCEDCF9-CBDB-C547-9B59-5FEA639DA932}"/>
+    <hyperlink ref="C849" r:id="rId715" xr:uid="{8009A06D-49B3-B24F-B2E4-2742A4015C44}"/>
+    <hyperlink ref="C850" r:id="rId716" xr:uid="{96597FB8-2E2C-D549-9D0A-8D78CF452640}"/>
+    <hyperlink ref="C851" r:id="rId717" xr:uid="{5FF3EA60-B7AC-1742-8CB6-E14E21ED483A}"/>
+    <hyperlink ref="C852" r:id="rId718" xr:uid="{95B64AE2-E3C8-5E4D-8831-24C94548EF80}"/>
+    <hyperlink ref="C853" r:id="rId719" xr:uid="{C5644C7B-093C-2844-8990-9C5CAB8114F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId257"/>
+  <pageSetup orientation="portrait" r:id="rId720"/>
 </worksheet>
 </file>
 
@@ -5901,17 +10820,17 @@
       <selection activeCell="D3" sqref="D3:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="119.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5928,7 +10847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>45724.771736111114</v>
       </c>
@@ -5941,7 +10860,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <v>45724.772939814815</v>
       </c>
@@ -5954,7 +10873,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>45724.777685185189</v>
       </c>
@@ -5967,7 +10886,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>45724.783252314817</v>
       </c>
@@ -5980,7 +10899,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>45724.800636574073</v>
       </c>
@@ -5993,7 +10912,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>45724.803206018521</v>
       </c>
@@ -6006,7 +10925,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>45724.805752314816</v>
       </c>
@@ -6019,7 +10938,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
         <v>45724.812673611108</v>
       </c>
@@ -6032,7 +10951,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>45725.53019675926</v>
       </c>
@@ -6045,7 +10964,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>45726.039942129632</v>
       </c>
@@ -6058,7 +10977,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>45726.04005787037</v>
       </c>
@@ -6071,7 +10990,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>45726.356793981482</v>
       </c>
@@ -6084,7 +11003,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>45726.357164351852</v>
       </c>
@@ -6097,7 +11016,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
         <v>45726.466319444444</v>
       </c>
@@ -6110,7 +11029,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>45726.506782407407</v>
       </c>
@@ -6123,7 +11042,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>45726.507210648146</v>
       </c>
@@ -6136,7 +11055,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>45727.02065972222</v>
       </c>
@@ -6149,7 +11068,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>45727.022858796299</v>
       </c>
@@ -6160,7 +11079,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>45727.029664351852</v>
       </c>
@@ -6173,7 +11092,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
         <v>45727.032870370371</v>
       </c>
@@ -6186,7 +11105,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>45727.033043981479</v>
       </c>
@@ -6199,7 +11118,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>45727.039386574077</v>
       </c>
@@ -6212,7 +11131,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>45727.051342592589</v>
       </c>
@@ -6225,7 +11144,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>45727.055520833332</v>
       </c>
@@ -6238,7 +11157,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4">
         <v>45727.348298611112</v>
       </c>
@@ -6251,7 +11170,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>45727.348761574074</v>
       </c>
@@ -6264,7 +11183,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
         <v>45727.550428240742</v>
       </c>
@@ -6277,7 +11196,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7">
         <v>45730.132939814815</v>
       </c>
@@ -6290,7 +11209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4">
         <v>45730.667627314811</v>
       </c>
@@ -6303,7 +11222,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="7">
         <v>45730.668043981481</v>
       </c>
@@ -6316,7 +11235,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="4">
         <v>45730.692094907405</v>
       </c>
@@ -6329,7 +11248,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
         <v>45731.041458333333</v>
       </c>
@@ -6342,7 +11261,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="4">
         <v>45731.042604166665</v>
       </c>
@@ -6355,7 +11274,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
         <v>45731.383217592593</v>
       </c>
@@ -6368,7 +11287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="4">
         <v>45731.89230324074</v>
       </c>
@@ -6381,7 +11300,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <v>45731.892442129632</v>
       </c>
@@ -6394,7 +11313,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>45731.893680555557</v>
       </c>
@@ -6407,7 +11326,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7">
         <v>45731.893842592595</v>
       </c>
@@ -6420,7 +11339,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="4">
         <v>45731.895567129628</v>
       </c>
@@ -6433,7 +11352,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="7">
         <v>45733.789525462962</v>
       </c>
@@ -6446,7 +11365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="4">
         <v>45733.795115740744</v>
       </c>
@@ -6459,7 +11378,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="7">
         <v>45733.800370370373</v>
       </c>
@@ -6472,7 +11391,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="4">
         <v>45733.805578703701</v>
       </c>
@@ -6485,7 +11404,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="7">
         <v>45733.80641203704</v>
       </c>
@@ -6498,7 +11417,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="4">
         <v>45733.816261574073</v>
       </c>
@@ -6511,7 +11430,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="7">
         <v>45735.574652777781</v>
       </c>
@@ -6524,7 +11443,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="4">
         <v>45733.827337962961</v>
       </c>
@@ -6537,7 +11456,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="7">
         <v>45733.838587962964</v>
       </c>
@@ -6550,7 +11469,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="4">
         <v>45733.851712962962</v>
       </c>
@@ -6563,7 +11482,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="7">
         <v>45733.881053240744</v>
       </c>
@@ -6576,7 +11495,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="4">
         <v>45735.546041666668</v>
       </c>
@@ -6589,7 +11508,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7">
         <v>45733.974374999998</v>
       </c>
@@ -6602,7 +11521,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>45733.987372685187</v>
       </c>
@@ -6615,7 +11534,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="7">
         <v>45733.991678240738</v>
       </c>
@@ -6628,7 +11547,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="4">
         <v>45734.08734953704</v>
       </c>
@@ -6641,7 +11560,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C58" s="7">
         <v>45734.128171296295</v>
       </c>
@@ -6654,7 +11573,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="4">
         <v>45734.495439814818</v>
       </c>
@@ -6667,7 +11586,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7">
         <v>45734.552002314813</v>
       </c>
@@ -6680,7 +11599,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="4">
         <v>45734.606840277775</v>
       </c>
@@ -6693,7 +11612,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7">
         <v>45734.612662037034</v>
       </c>
@@ -6706,7 +11625,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="4">
         <v>45734.63653935185</v>
       </c>
@@ -6719,7 +11638,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7">
         <v>45734.719652777778</v>
       </c>
@@ -6732,7 +11651,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="4">
         <v>45734.721446759257</v>
       </c>
@@ -6745,7 +11664,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C66" s="7">
         <v>45734.725555555553</v>
       </c>
@@ -6758,7 +11677,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="4">
         <v>45734.728935185187</v>
       </c>
@@ -6771,7 +11690,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="7">
         <v>45734.863935185182</v>
       </c>
@@ -6784,7 +11703,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="4">
         <v>45735.164502314816</v>
       </c>
@@ -6797,7 +11716,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C70" s="7">
         <v>45735.229097222225</v>
       </c>
@@ -6810,7 +11729,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="4">
         <v>45735.262106481481</v>
       </c>
@@ -6823,7 +11742,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="7">
         <v>45735.341168981482</v>
       </c>
@@ -6836,7 +11755,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="4">
         <v>45735.395312499997</v>
       </c>
@@ -6849,7 +11768,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C74" s="7">
         <v>45735.414930555555</v>
       </c>
@@ -6862,7 +11781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4">
         <v>45735.517326388886</v>
       </c>
@@ -6875,7 +11794,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="7">
         <v>45735.634039351855</v>
       </c>
@@ -6888,7 +11807,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C77" s="4">
         <v>45735.653171296297</v>
       </c>
@@ -6901,7 +11820,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C78" s="7">
         <v>45735.656875000001</v>
       </c>
@@ -6914,7 +11833,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4">
         <v>45735.669131944444</v>
       </c>
@@ -6927,7 +11846,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="7">
         <v>45735.683749999997</v>
       </c>
@@ -6940,7 +11859,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>45735.722696759258</v>
       </c>
@@ -6953,7 +11872,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C82" s="7">
         <v>45735.73709490741</v>
       </c>
@@ -6966,7 +11885,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="4">
         <v>45735.791226851848</v>
       </c>
@@ -6979,7 +11898,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="7">
         <v>45735.815532407411</v>
       </c>
@@ -6992,7 +11911,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>45735.83017361111</v>
       </c>
@@ -7005,7 +11924,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="7">
         <v>45735.904293981483</v>
       </c>
@@ -7018,7 +11937,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C87" s="4">
         <v>45735.916076388887</v>
       </c>
@@ -7031,7 +11950,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C88" s="7">
         <v>45735.931064814817</v>
       </c>
@@ -7044,7 +11963,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>45735.954722222225</v>
       </c>
@@ -7057,7 +11976,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C90" s="7">
         <v>45736.216805555552</v>
       </c>
@@ -7070,7 +11989,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C91" s="4">
         <v>45736.221365740741</v>
       </c>
@@ -7083,7 +12002,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C92" s="7">
         <v>45736.383368055554</v>
       </c>
@@ -7096,7 +12015,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4">
         <v>45736.435949074075</v>
       </c>
@@ -7109,7 +12028,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C94" s="7">
         <v>45736.531006944446</v>
       </c>
@@ -7122,7 +12041,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4">
         <v>45736.532453703701</v>
       </c>
@@ -7135,7 +12054,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="7">
         <v>45736.622372685182</v>
       </c>
@@ -7148,7 +12067,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4">
         <v>45736.630844907406</v>
       </c>
@@ -7161,7 +12080,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C98" s="7">
         <v>45736.789652777778</v>
       </c>
@@ -7174,7 +12093,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="4">
         <v>45736.954583333332</v>
       </c>
@@ -7187,7 +12106,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C100" s="7">
         <v>45736.958553240744</v>
       </c>
@@ -7200,7 +12119,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C101" s="4">
         <v>45736.958796296298</v>
       </c>
@@ -7213,7 +12132,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C102" s="7">
         <v>45737.594444444447</v>
       </c>
@@ -7226,7 +12145,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C103" s="4">
         <v>45737.594560185185</v>
       </c>
@@ -7239,7 +12158,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C104" s="7">
         <v>45737.594675925924</v>
       </c>
@@ -7252,7 +12171,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C105" s="4">
         <v>45737.625115740739</v>
       </c>
@@ -7265,7 +12184,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C106" s="7">
         <v>45737.638344907406</v>
       </c>
@@ -7278,7 +12197,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C107" s="4">
         <v>45737.638645833336</v>
       </c>
@@ -7291,7 +12210,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C108" s="7">
         <v>45737.662002314813</v>
       </c>
@@ -7304,7 +12223,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C109" s="4">
         <v>45737.693680555552</v>
       </c>
@@ -7317,7 +12236,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C110" s="7">
         <v>45737.693831018521</v>
       </c>
@@ -7330,7 +12249,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="4">
         <v>45737.7031712963</v>
       </c>
@@ -7343,7 +12262,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="7">
         <v>45737.703530092593</v>
       </c>
@@ -7356,7 +12275,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="4">
         <v>45737.87636574074</v>
       </c>
@@ -7369,7 +12288,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" s="7">
         <v>45737.876574074071</v>
       </c>
@@ -7382,7 +12301,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" s="4">
         <v>45737.987118055556</v>
       </c>
@@ -7395,7 +12314,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" s="7">
         <v>45738.049212962964</v>
       </c>
@@ -7408,7 +12327,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" s="4">
         <v>45738.637048611112</v>
       </c>
@@ -7421,7 +12340,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="7">
         <v>45738.637326388889</v>
       </c>
@@ -7434,7 +12353,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="4">
         <v>45738.740254629629</v>
       </c>
@@ -7447,7 +12366,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" s="7">
         <v>45738.740439814814</v>
       </c>
@@ -7460,7 +12379,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" s="4">
         <v>45738.741099537037</v>
       </c>
@@ -7473,7 +12392,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" s="7">
         <v>45739.096574074072</v>
       </c>
@@ -7486,7 +12405,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" s="4">
         <v>45739.616539351853</v>
       </c>
@@ -7499,7 +12418,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" s="7">
         <v>45740.519872685189</v>
       </c>
@@ -7512,7 +12431,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" s="4">
         <v>45742.76363425926</v>
       </c>
@@ -7525,7 +12444,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" s="7">
         <v>45743.680300925924</v>
       </c>
@@ -7538,7 +12457,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" s="4">
         <v>45746.572465277779</v>
       </c>
@@ -7551,7 +12470,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" s="7">
         <v>45754.547407407408</v>
       </c>
@@ -7564,7 +12483,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" s="4">
         <v>45756.423807870371</v>
       </c>
@@ -7577,7 +12496,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" s="7">
         <v>45756.662766203706</v>
       </c>
@@ -7590,7 +12509,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" s="4">
         <v>45756.682824074072</v>
       </c>
@@ -7603,7 +12522,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" s="7">
         <v>45756.682974537034</v>
       </c>
@@ -7616,7 +12535,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" s="4">
         <v>45757.531770833331</v>
       </c>
@@ -7629,7 +12548,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" s="10">
         <v>45759.652187500003</v>
       </c>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF1124-387D-B14C-BB6A-5A2EAA91FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016C9C9-0BBE-EA46-9E20-123B520139D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="3460" windowWidth="18000" windowHeight="9360" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
+    <workbookView xWindow="3460" yWindow="3460" windowWidth="21260" windowHeight="11560" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="615">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1840,6 +1840,72 @@
   </si>
   <si>
     <t>https://rofaida253.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>https://kh20234275.github.io/-khlood-web-/</t>
+  </si>
+  <si>
+    <t>ay20231291@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://aya1372005.github.io/index.html/</t>
+  </si>
+  <si>
+    <t>si20233292@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://shrouk536.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>rh20232289@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mahmoud75364.github.io/cv.rawan/</t>
+  </si>
+  <si>
+    <t>rm20232267@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://rehab151.github.io/Rehab12/</t>
+  </si>
+  <si>
+    <t>https://bodaa47.github.io/my-first-webpage/</t>
+  </si>
+  <si>
+    <t>ah20231307@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://alaa123-a55.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>https://fatmaayman9019.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>https://ms20234282.github.io/My-Mohamed-/</t>
+  </si>
+  <si>
+    <t>mm20231215@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://11malak.github.io/my-webpage/</t>
+  </si>
+  <si>
+    <t>sh20230235@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://salma882005.github.io/my-first-webpage/</t>
+  </si>
+  <si>
+    <t>za20230398@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://zaineb553.github.io/my-first-web-page-/</t>
+  </si>
+  <si>
+    <t>bm20233307@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://bm-666422.github.io/My-first-webpage-2/</t>
   </si>
 </sst>
 </file>
@@ -2642,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E853"/>
+  <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B317" sqref="B317:C853"/>
+    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
+      <selection activeCell="B854" sqref="B854:C1383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10083,6 +10149,4246 @@
       </c>
       <c r="C853" s="23" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="854" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B854" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C854" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B855" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C855" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="856" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B856" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C856" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="857" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B857" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C857" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="858" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B858" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C858" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="859" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B859" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C859" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="860" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B860" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C860" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="861" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B861" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C861" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="862" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B862" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C862" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="863" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B863" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C863" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="864" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B864" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C864" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="865" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B865" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C865" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="866" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B866" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C866" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="867" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B867" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C867" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="868" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B868" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C868" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="869" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B869" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C869" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="870" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B870" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C870" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="871" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B871" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C871" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="872" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B872" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C872" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="873" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B873" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C873" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="874" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B874" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C874" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="875" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B875" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C875" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="876" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B876" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C876" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="877" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B877" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C877" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="878" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B878" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C878" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="879" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B879" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C879" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="880" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B880" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C880" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="881" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B881" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C881" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="882" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B882" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C882" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="883" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B883" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C883" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="884" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B884" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C884" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="885" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B885" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C885" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="886" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B886" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C886" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="887" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B887" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C887" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="888" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B888" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C888" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B889" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C889" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B890" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C890" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B891" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C891" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="892" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B892" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C892" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="893" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B893" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C893" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="894" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B894" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C894" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="895" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B895" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C895" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="896" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B896" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C896" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="897" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B897" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C897" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="898" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B898" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C898" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="899" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B899" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C899" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="900" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B900" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C900" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="901" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B901" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C901" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="902" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B902" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C902" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="903" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B903" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C903" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="904" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B904" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C904" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="905" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B905" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C905" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="906" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B906" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C906" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="907" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B907" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C907" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="908" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B908" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C908" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="909" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B909" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C909" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="910" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B910" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C910" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="911" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B911" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C911" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="912" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B912" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C912" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="913" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B913" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C913" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="914" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B914" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C914" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="915" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B915" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C915" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="916" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B916" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C916" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="917" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B917" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C917" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="918" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B918" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C918" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="919" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B919" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C919" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="920" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B920" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C920" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="921" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B921" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C921" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="922" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B922" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C922" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="923" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B923" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C923" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="924" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B924" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C924" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="925" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B925" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C925" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="926" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B926" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C926" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="927" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B927" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C927" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="928" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B928" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C928" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="929" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B929" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C929" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="930" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B930" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C930" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="931" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B931" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C931" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="932" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B932" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C932" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="933" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B933" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C933" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="934" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B934" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C934" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="935" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B935" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C935" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="936" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B936" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C936" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="937" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B937" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C937" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="938" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B938" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C938" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="939" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B939" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C939" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="940" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B940" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C940" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="941" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B941" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C941" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="942" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B942" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C942" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="943" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B943" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C943" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="944" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B944" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C944" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="945" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B945" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C945" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="946" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B946" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C946" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="947" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B947" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C947" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="948" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B948" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C948" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="949" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B949" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C949" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="950" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B950" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C950" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="951" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B951" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C951" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="952" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B952" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C952" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="953" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B953" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C953" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="954" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B954" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C954" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="955" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B955" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C955" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="956" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B956" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C956" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="957" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B957" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C957" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="958" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B958" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C958" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="959" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B959" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C959" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="960" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B960" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C960" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="961" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B961" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C961" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="962" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B962" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C962" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="963" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B963" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C963" s="56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="964" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B964" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C964" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="965" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B965" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C965" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="966" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B966" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C966" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="967" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B967" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C967" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="968" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B968" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C968" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="969" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B969" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C969" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="970" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B970" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C970" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="971" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B971" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C971" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="972" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B972" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C972" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="973" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B973" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C973" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="974" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B974" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C974" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="975" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B975" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C975" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="976" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B976" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C976" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="977" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B977" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C977" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="978" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B978" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C978" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="979" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B979" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C979" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="980" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B980" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C980" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="981" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B981" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C981" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="982" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B982" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C982" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="983" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B983" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C983" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="984" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B984" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C984" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="985" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B985" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C985" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="986" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B986" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C986" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="987" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B987" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C987" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="988" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B988" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C988" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="989" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B989" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C989" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="990" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B990" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C990" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="991" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B991" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C991" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="992" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B992" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C992" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="993" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B993" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C993" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="994" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B994" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C994" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="995" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B995" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C995" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="996" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B996" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C996" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="997" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B997" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C997" s="56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="998" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B998" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C998" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="999" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B999" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C999" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1000" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1000" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1001" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1001" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1002" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1002" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1003" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1003" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1004" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1004" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1005" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1005" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1006" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1006" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1007" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1007" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1008" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1008" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1009" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1009" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1010" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1010" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1011" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1011" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1012" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1012" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1013" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1013" s="56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1014" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1014" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1015" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1015" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1016" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1016" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1017" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1017" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1018" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1018" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1019" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1019" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1020" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1020" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1021" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1021" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1022" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1022" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1023" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1023" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1024" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1024" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1025" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1025" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1026" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1026" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1027" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1027" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1028" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1028" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1029" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1029" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1030" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1030" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1031" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1031" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1032" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1032" s="56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1033" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1033" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1034" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1034" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1035" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1035" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1036" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1036" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1037" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1037" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1038" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1038" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1039" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1039" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1040" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1040" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1041" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1041" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1042" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1042" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1043" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1043" s="58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1044" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1044" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1045" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1045" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1046" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1046" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1047" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1047" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1048" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1048" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1049" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1049" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1050" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1050" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1051" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1051" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1052" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1052" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1053" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1053" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1054" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1054" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1055" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1055" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1056" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1056" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1057" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1057" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1058" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1058" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1059" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1059" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1060" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1060" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1061" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1061" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1062" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1062" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1063" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1063" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1064" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1064" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1065" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1065" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1066" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1066" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1067" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1067" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1068" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1068" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1069" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1069" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1070" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1070" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1071" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1071" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1072" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1072" s="56">
+        <v>20234390</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1073" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1073" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1074" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1074" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1075" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1075" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1076" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1076" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1077" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1077" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1078" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1078" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1079" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1079" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1080" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1080" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1081" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1081" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1082" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1082" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1083" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1083" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1084" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1084" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1085" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1085" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1086" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1086" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1087" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1087" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1088" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1088" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1089" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1089" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1090" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1090" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1091" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1091" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1092" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1092" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1093" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1093" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1094" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1094" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1095" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1095" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1096" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1096" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1097" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1097" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1098" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1098" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1099" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1099" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1100" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1100" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1101" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1101" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1102" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1102" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1103" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1103" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1104" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1104" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1105" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1105" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1106" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1106" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1107" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1107" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1108" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1108" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1109" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1109" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1110" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1110" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1111" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1111" s="56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1112" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1112" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1113" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1113" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1114" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1114" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1115" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1115" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1116" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1116" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1117" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1117" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1118" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1118" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1119" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1119" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1120" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1120" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1121" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1121" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1122" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1122" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1123" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1123" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1124" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1124" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1125" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1125" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1126" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1126" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1127" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1127" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1128" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1128" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1129" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1129" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1130" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1130" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1131" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1131" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1132" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1132" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1133" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1133" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1134" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1134" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1135" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1135" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1136" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1136" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1137" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1137" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1138" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1138" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1139" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1139" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1140" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1140" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1141" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1141" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1142" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1142" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1143" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1143" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1144" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1144" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1145" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1145" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1146" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1146" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1147" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1147" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1148" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1148" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1149" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1149" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1150" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1150" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1151" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1151" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1152" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1152" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1153" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1153" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1154" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1154" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1155" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1155" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1156" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1156" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1157" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1157" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1158" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1158" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1159" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1159" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1160" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1160" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1161" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1161" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1162" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1162" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1163" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1163" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1164" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1164" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1165" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1165" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1166" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1166" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1167" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1167" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1168" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1168" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1169" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1169" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1170" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1170" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1171" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1171" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1172" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1172" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1173" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1173" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1174" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1174" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1175" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1175" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1176" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1176" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1177" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1177" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1178" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1178" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1179" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1179" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1180" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1180" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1181" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1181" s="58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1182" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1182" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1183" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1183" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1184" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1184" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1185" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1185" s="23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1186" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1186" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1187" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1187" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1188" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1188" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1189" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1189" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1190" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1190" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1191" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1191" s="23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1192" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1192" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1193" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1193" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1194" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1194" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1195" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1195" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1196" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1196" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1197" s="56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1197" s="23" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1198" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1198" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1199" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1199" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1200" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1200" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1201" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1201" s="23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1202" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1202" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1203" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1203" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1204" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1204" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1205" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1205" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1206" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1206" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1207" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1207" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1208" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1208" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1209" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1209" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1210" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1210" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1211" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1211" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1212" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1212" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1213" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1213" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1214" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1214" s="56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1215" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1215" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1216" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1216" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1217" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1217" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1218" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1218" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1219" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1219" s="23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1220" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1220" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1221" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1221" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1222" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1222" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1223" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1223" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1224" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1224" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1225" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1225" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1226" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1226" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1227" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1227" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1228" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1228" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1229" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1229" s="23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1230" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1230" s="58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1231" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1231" s="23" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1232" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1232" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1233" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1233" s="23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1234" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1234" s="23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1235" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1235" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1236" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1236" s="23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1237" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1237" s="23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1238" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1238" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1239" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1239" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1240" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1240" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1241" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1241" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1242" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1242" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1243" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1243" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1244" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1244" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1245" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1245" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1246" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1246" s="23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1247" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1247" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1248" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1248" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1249" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1249" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1250" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1250" s="56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1251" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1251" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1252" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1252" s="23" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1253" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1253" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1254" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1254" s="23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1255" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1255" s="23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1256" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1256" s="23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1257" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1257" s="23" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1258" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1258" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1259" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1259" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1260" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1260" s="23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1261" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1261" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1262" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1262" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1263" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1263" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1264" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1264" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1265" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1265" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1266" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1266" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1267" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1267" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1268" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1268" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1269" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1269" s="23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1270" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1270" s="23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1271" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1271" s="23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1272" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1272" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1273" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1273" s="23" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1274" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1274" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1275" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1275" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1276" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1276" s="58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B1277" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1277" s="58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1278" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1278" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1279" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1279" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1280" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1280" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1281" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1281" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1282" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1282" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1283" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1283" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1284" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1284" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1285" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1285" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1286" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1286" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1287" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1287" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1288" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1288" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1289" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1289" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1290" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1290" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1291" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1291" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1292" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1292" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1293" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1293" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1294" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1294" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1295" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1295" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1296" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1296" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1297" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1297" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1298" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1298" s="23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1299" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1299" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1300" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1300" s="23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:3" ht="66" x14ac:dyDescent="0.2">
+      <c r="B1301" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1301" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:3" ht="66" x14ac:dyDescent="0.2">
+      <c r="B1302" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1302" s="58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1303" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1303" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1304" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1304" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1305" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1305" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1306" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1306" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1307" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1307" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1308" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1308" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1309" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1309" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1310" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1310" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1311" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1311" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:3" ht="261" x14ac:dyDescent="0.2">
+      <c r="B1312" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1312" s="58" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1313" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1313" s="56" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1314" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1314" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1315" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1315" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1316" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1316" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1317" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1317" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1318" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1318" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1319" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1319" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1320" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1320" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1321" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1321" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1322" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1322" s="23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1323" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1323" s="23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1324" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1324" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1325" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1325" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1326" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1326" s="23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1327" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1327" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1328" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1328" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1329" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1329" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1330" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1330" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1331" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1331" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1332" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1332" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1333" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1333" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1334" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1334" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1335" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1335" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1336" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1336" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1337" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1337" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1338" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1338" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1339" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1339" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1340" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1340" s="23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1341" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1341" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1342" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1342" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1343" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1343" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1344" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1344" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1345" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1345" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1346" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1346" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1347" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1347" s="23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1348" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1348" s="23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1349" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1349" s="23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1350" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1350" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1351" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1351" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1352" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1352" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1353" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1353" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1354" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1354" s="23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1355" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1355" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1356" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1356" s="23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1357" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1357" s="23" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1358" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1358" s="23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1359" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1359" s="23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1360" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1360" s="23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1361" s="56" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1361" s="23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1362" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1362" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1363" s="56" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1363" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1364" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1364" s="23" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1365" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1365" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1366" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1366" s="23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1367" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1367" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1368" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1368" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1369" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1369" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1370" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1370" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1371" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1371" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1372" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1372" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1373" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1373" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1374" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1374" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1375" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1375" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1376" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1376" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="1377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1377" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1377" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1378" s="56" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1378" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1379" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1379" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1380" s="56" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1380" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1381" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1381" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1382" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1382" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1383" s="56" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1383" s="23" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -10806,9 +15112,493 @@
     <hyperlink ref="C851" r:id="rId717" xr:uid="{5FF3EA60-B7AC-1742-8CB6-E14E21ED483A}"/>
     <hyperlink ref="C852" r:id="rId718" xr:uid="{95B64AE2-E3C8-5E4D-8831-24C94548EF80}"/>
     <hyperlink ref="C853" r:id="rId719" xr:uid="{C5644C7B-093C-2844-8990-9C5CAB8114F8}"/>
+    <hyperlink ref="C854" r:id="rId720" xr:uid="{95DA7190-5C25-EB4F-80C6-8417E04E729F}"/>
+    <hyperlink ref="C855" r:id="rId721" xr:uid="{08C0AB1F-CB3C-8048-8A1E-4A6A8F18CEF2}"/>
+    <hyperlink ref="C856" r:id="rId722" xr:uid="{74F53698-1277-C24D-ABDB-D5067EAA4D97}"/>
+    <hyperlink ref="C857" r:id="rId723" xr:uid="{99B68239-8D92-7A4B-88FF-88A908677189}"/>
+    <hyperlink ref="C858" r:id="rId724" xr:uid="{6B56E8EA-6F91-3F4F-B9FC-4BD6DF9ACC85}"/>
+    <hyperlink ref="C859" r:id="rId725" xr:uid="{82A343D7-0EB0-344A-8B86-E2B2870339D8}"/>
+    <hyperlink ref="C860" r:id="rId726" xr:uid="{A957FE85-6B02-9844-9956-4077150778E0}"/>
+    <hyperlink ref="C861" r:id="rId727" xr:uid="{9A3CB930-37AD-2A4E-BFF8-71E4E2A66CF1}"/>
+    <hyperlink ref="C862" r:id="rId728" xr:uid="{3E219F98-F452-0543-8440-25A92C2F487F}"/>
+    <hyperlink ref="C863" r:id="rId729" xr:uid="{C31DF601-F9CC-AF4A-995C-F7C14A8CD1F9}"/>
+    <hyperlink ref="C864" r:id="rId730" xr:uid="{4BC1A7BA-0058-C943-8747-420094710568}"/>
+    <hyperlink ref="C865" r:id="rId731" xr:uid="{A879BF9C-074A-D046-A100-CE91E018CD1C}"/>
+    <hyperlink ref="C866" r:id="rId732" xr:uid="{0D9FBA91-8C32-1346-8D6F-77C6FFEE111B}"/>
+    <hyperlink ref="C867" r:id="rId733" xr:uid="{653D4471-90D9-C544-8813-850C9EA8E07A}"/>
+    <hyperlink ref="C868" r:id="rId734" xr:uid="{7676388E-EBE1-3941-AFB1-D6FCEB48DCBC}"/>
+    <hyperlink ref="C869" r:id="rId735" xr:uid="{584F6479-64B9-4B46-99B5-07B64B7873EA}"/>
+    <hyperlink ref="C870" r:id="rId736" xr:uid="{2D167002-B58B-1743-BFA6-FC6FD7686646}"/>
+    <hyperlink ref="C871" r:id="rId737" xr:uid="{93CE38B1-E982-5B4C-8DB5-289B22026C97}"/>
+    <hyperlink ref="C872" r:id="rId738" xr:uid="{8B19597E-9F45-5D44-92BB-A17356713964}"/>
+    <hyperlink ref="C873" r:id="rId739" xr:uid="{1868F76D-58E5-8D4D-9B42-6F81731C4210}"/>
+    <hyperlink ref="C874" r:id="rId740" xr:uid="{BE36B7B6-F023-5740-8389-2007CCE9C5A2}"/>
+    <hyperlink ref="C875" r:id="rId741" xr:uid="{FE66FCE0-C4A4-2847-B8F0-A63B6A701D49}"/>
+    <hyperlink ref="C876" r:id="rId742" xr:uid="{85FDDBD8-A225-384F-AD7E-72347EB9B974}"/>
+    <hyperlink ref="C877" r:id="rId743" xr:uid="{58CC3F2B-59E6-F04A-85DA-9F8E406F6F88}"/>
+    <hyperlink ref="C878" r:id="rId744" xr:uid="{F9EE702E-DB35-6B49-A9E1-BC1A95DC2366}"/>
+    <hyperlink ref="C879" r:id="rId745" xr:uid="{F95429E4-F3A4-0642-9CBD-78331105E685}"/>
+    <hyperlink ref="C880" r:id="rId746" xr:uid="{AD030C4D-5021-9D4E-8D42-AAE77E33B2B9}"/>
+    <hyperlink ref="C881" r:id="rId747" xr:uid="{FF4E3ECA-113A-0A4A-B6F2-3D9CBE33E34B}"/>
+    <hyperlink ref="C882" r:id="rId748" xr:uid="{F30283F3-76D1-664B-BB78-A4EF46E46130}"/>
+    <hyperlink ref="C883" r:id="rId749" xr:uid="{2131DDCE-AA03-F44D-B1F4-07AE22C2FB41}"/>
+    <hyperlink ref="C884" r:id="rId750" xr:uid="{2AD2D2FC-32C1-0341-B713-631045C7F160}"/>
+    <hyperlink ref="C885" r:id="rId751" xr:uid="{D0B0BE20-9AE3-844C-9803-6973780EE40F}"/>
+    <hyperlink ref="C886" r:id="rId752" xr:uid="{C81A8822-50A0-0649-9165-3DD70C7EBC07}"/>
+    <hyperlink ref="C888" r:id="rId753" display="https://rahma5555.github.io/roro00/" xr:uid="{16155DD3-A3D3-EA4F-B453-FDCFEDE90DDF}"/>
+    <hyperlink ref="C889" r:id="rId754" xr:uid="{560F8063-9CF6-914C-AC7E-31F8E158DE5E}"/>
+    <hyperlink ref="C890" r:id="rId755" xr:uid="{F9781E1F-D426-F343-A434-59EC0E2FA68C}"/>
+    <hyperlink ref="C891" r:id="rId756" xr:uid="{95FB0846-4973-9A43-B5D4-7D3CBA34943A}"/>
+    <hyperlink ref="C892" r:id="rId757" xr:uid="{A3C291EE-841F-9549-B3CE-F291A9DCC090}"/>
+    <hyperlink ref="C893" r:id="rId758" xr:uid="{4E8A3E72-5E1D-3D41-A62A-8FD7AD9B697D}"/>
+    <hyperlink ref="C894" r:id="rId759" xr:uid="{4FB75771-ACA1-FA4A-940F-97DA98E42DB4}"/>
+    <hyperlink ref="C898" r:id="rId760" xr:uid="{112573CB-CF01-A643-8FCB-92CEDD9EF354}"/>
+    <hyperlink ref="C899" r:id="rId761" xr:uid="{6718C11C-F5D8-214A-8766-DF807363F11C}"/>
+    <hyperlink ref="C900" r:id="rId762" xr:uid="{6D13EE9B-9C95-AA48-B8AE-2551D9300387}"/>
+    <hyperlink ref="C901" r:id="rId763" xr:uid="{6AC44A40-8F18-0D45-A662-C79A70017216}"/>
+    <hyperlink ref="C902" r:id="rId764" display="https://loloah20.githup.io/sva20/" xr:uid="{1EFFE8F8-A9B3-514A-8A25-87F17B6E5C09}"/>
+    <hyperlink ref="C904" r:id="rId765" xr:uid="{BD8BC8E0-F54A-CE42-8B22-67F0DC943BB6}"/>
+    <hyperlink ref="C905" r:id="rId766" xr:uid="{1A014B94-58CB-B14E-86BF-9A6BDA47ECB3}"/>
+    <hyperlink ref="C906" r:id="rId767" xr:uid="{35CA787A-2422-5A4E-AE64-D6E86524C14B}"/>
+    <hyperlink ref="C908" r:id="rId768" xr:uid="{B914129D-E641-5D47-87BB-7135B3027449}"/>
+    <hyperlink ref="C909" r:id="rId769" display="https://abdullahmahmoud20234326.github.io/myweb/" xr:uid="{C8723E6A-C1A2-514B-97C1-35563A9798DD}"/>
+    <hyperlink ref="C910" r:id="rId770" xr:uid="{A80E836A-BF7A-8F48-A731-B7A985A5609D}"/>
+    <hyperlink ref="C911" r:id="rId771" xr:uid="{15121F12-90C4-1E4E-B9D4-365AE5F25A8F}"/>
+    <hyperlink ref="C912" r:id="rId772" xr:uid="{AD1EB8C9-3BBE-B94E-899A-D3167CFEF35E}"/>
+    <hyperlink ref="C913" r:id="rId773" xr:uid="{D7E7838C-6079-9243-A8F8-462E29CA840F}"/>
+    <hyperlink ref="C914" r:id="rId774" xr:uid="{BD56EA81-840D-AF47-BDF7-F54F8ADB3ACA}"/>
+    <hyperlink ref="C915" r:id="rId775" xr:uid="{69F9CDC2-B296-9A4D-801F-CB0125B3651D}"/>
+    <hyperlink ref="C916" r:id="rId776" display="https://basant1512006.github.io/basant-walid/" xr:uid="{1297C870-17A0-794F-BC8F-FF721A0EBF47}"/>
+    <hyperlink ref="C917" r:id="rId777" xr:uid="{A7C01E25-DFCE-E34C-9BCC-2C1B3F3BB334}"/>
+    <hyperlink ref="C918" r:id="rId778" xr:uid="{84FFD1DC-6FE3-6043-A6B0-EADB168AF280}"/>
+    <hyperlink ref="C919" r:id="rId779" xr:uid="{9A9756CC-05FA-524A-BB9E-FE39B9572784}"/>
+    <hyperlink ref="C921" r:id="rId780" display="https://basant1512006.github.io/Rofida-gehad/" xr:uid="{49C4757F-5C59-AE41-BF94-78FFDC0F3312}"/>
+    <hyperlink ref="C922" r:id="rId781" xr:uid="{79190253-C1FB-7344-ADC0-EC0C5B3B6D0B}"/>
+    <hyperlink ref="C923" r:id="rId782" xr:uid="{3030423C-A80F-9F43-BACD-27D4344F96C1}"/>
+    <hyperlink ref="C924" r:id="rId783" xr:uid="{4694C8CC-0534-6E43-95DC-D24BF0B733C9}"/>
+    <hyperlink ref="C925" r:id="rId784" xr:uid="{07402F0D-5E50-A743-A1AC-94D2C66B2D9A}"/>
+    <hyperlink ref="C926" r:id="rId785" xr:uid="{0A6BB965-900F-1E4A-B9B6-B7FE3BA2DC62}"/>
+    <hyperlink ref="C927" r:id="rId786" xr:uid="{0CE8E3D0-EFE7-6040-A85E-ADBD474D570A}"/>
+    <hyperlink ref="C928" r:id="rId787" xr:uid="{F9C1438F-714E-6947-BF32-3372BF3DEA20}"/>
+    <hyperlink ref="C929" r:id="rId788" xr:uid="{13BEAB2D-119B-1640-9CA5-CE0A9EE040ED}"/>
+    <hyperlink ref="C930" r:id="rId789" xr:uid="{BAE5CAE0-08F3-F64D-B918-54296F793A38}"/>
+    <hyperlink ref="C931" r:id="rId790" xr:uid="{9532B81A-2FBD-DA4A-ACDF-DB6D86922D4A}"/>
+    <hyperlink ref="C932" r:id="rId791" xr:uid="{C87F24CE-C3CD-5C4B-9BBB-89BC2B1FC958}"/>
+    <hyperlink ref="C933" r:id="rId792" xr:uid="{ECAC199B-C732-9C42-8C84-D5B9BD41ECD4}"/>
+    <hyperlink ref="C935" r:id="rId793" xr:uid="{6F74B685-5F18-5D48-91FC-CB6DF077E126}"/>
+    <hyperlink ref="C936" r:id="rId794" xr:uid="{AECCBE44-895C-D64B-8478-FD0A0BAAAE83}"/>
+    <hyperlink ref="C937" r:id="rId795" xr:uid="{59FEF25E-FB63-1544-8F0A-0DFA4925A944}"/>
+    <hyperlink ref="C938" r:id="rId796" xr:uid="{3B4AA132-8DB9-0348-9A02-5F7A66B77B26}"/>
+    <hyperlink ref="C939" r:id="rId797" xr:uid="{881AA7ED-C16C-3749-B18B-CAD0A0C3751A}"/>
+    <hyperlink ref="C940" r:id="rId798" xr:uid="{83C949A8-6F80-B247-8416-6E3EC36F7DE3}"/>
+    <hyperlink ref="C941" r:id="rId799" xr:uid="{F15FDA94-E5C3-984C-8374-DABF6C370008}"/>
+    <hyperlink ref="C942" r:id="rId800" xr:uid="{E46D3778-BD35-FB43-B5AE-E1193067066D}"/>
+    <hyperlink ref="C943" r:id="rId801" xr:uid="{420CC5F7-62AE-A64F-B420-4BEC04028B9B}"/>
+    <hyperlink ref="C944" r:id="rId802" xr:uid="{963D35DC-760F-2447-ADD1-FABF017B2771}"/>
+    <hyperlink ref="C945" r:id="rId803" xr:uid="{D0016691-ECDD-4F41-B66C-B899577B341D}"/>
+    <hyperlink ref="C946" r:id="rId804" xr:uid="{366EC37F-F2C7-7848-949F-A592F135AD17}"/>
+    <hyperlink ref="C947" r:id="rId805" xr:uid="{5D6D7888-A804-1942-81E3-C86837DD23BE}"/>
+    <hyperlink ref="C948" r:id="rId806" xr:uid="{D68DAF57-CE74-1640-9B4E-BFA9B763138A}"/>
+    <hyperlink ref="C949" r:id="rId807" xr:uid="{9B73E59A-1876-204B-8008-ED003977E981}"/>
+    <hyperlink ref="C951" r:id="rId808" xr:uid="{1A643EE9-4A00-6340-B187-3AFA6A3E5210}"/>
+    <hyperlink ref="C952" r:id="rId809" xr:uid="{14D4E248-2297-8E42-A2F1-AE4A604BA705}"/>
+    <hyperlink ref="C953" r:id="rId810" xr:uid="{C7A11A09-838D-B541-8E23-047D540F5AC3}"/>
+    <hyperlink ref="C954" r:id="rId811" xr:uid="{7C1E94BB-16BA-BD4A-820F-8466B6771DF3}"/>
+    <hyperlink ref="C955" r:id="rId812" xr:uid="{E52BB816-780E-C246-904E-53C251D727B6}"/>
+    <hyperlink ref="C956" r:id="rId813" xr:uid="{9AE13CC4-1CC1-D64D-9671-4D073739EBAF}"/>
+    <hyperlink ref="C957" r:id="rId814" xr:uid="{3620473D-C448-364E-860A-DA273BDC938D}"/>
+    <hyperlink ref="C958" r:id="rId815" xr:uid="{A41168F9-D571-FD49-9CCF-491F679847FE}"/>
+    <hyperlink ref="C959" r:id="rId816" xr:uid="{C893F41F-110E-7448-8D99-892856015096}"/>
+    <hyperlink ref="C960" r:id="rId817" display="https://github.com/MoasNasr/my-first-project/blob/main/moaz index.html" xr:uid="{AC2C90FA-93A8-AB4D-A669-4EE86B812BE6}"/>
+    <hyperlink ref="C961" r:id="rId818" xr:uid="{A25FC10D-53C1-6949-935A-C7210CDB8402}"/>
+    <hyperlink ref="C962" r:id="rId819" xr:uid="{3E37E40F-FF35-6E4C-B05B-35E72025B6D9}"/>
+    <hyperlink ref="C964" r:id="rId820" xr:uid="{D10E980C-5004-0D4B-801A-8C5A37E52516}"/>
+    <hyperlink ref="C965" r:id="rId821" xr:uid="{833FBE1A-BFE2-804A-BA5E-4CACDDDD991C}"/>
+    <hyperlink ref="C966" r:id="rId822" xr:uid="{1341E032-209F-7142-9B55-9CCA63DFABFA}"/>
+    <hyperlink ref="C967" r:id="rId823" xr:uid="{6A26F876-17D2-504F-BF08-D9AE8D3FA882}"/>
+    <hyperlink ref="C968" r:id="rId824" xr:uid="{A9D24992-C452-E24A-B9E6-56158765590D}"/>
+    <hyperlink ref="C969" r:id="rId825" xr:uid="{FBEB43EA-D08E-C745-8A93-E59C078CC0E7}"/>
+    <hyperlink ref="C970" r:id="rId826" xr:uid="{AC10D04B-6D40-F14E-B820-A3801D3E7DC2}"/>
+    <hyperlink ref="C971" r:id="rId827" xr:uid="{7B7BA237-5120-354E-9263-793022F832ED}"/>
+    <hyperlink ref="C972" r:id="rId828" xr:uid="{C0F98FA6-B041-284E-A582-844F0C82149B}"/>
+    <hyperlink ref="C973" r:id="rId829" xr:uid="{84967100-00ED-B54A-9C49-C66FC67CAD9B}"/>
+    <hyperlink ref="C979" r:id="rId830" xr:uid="{5E0DC8F3-D1B9-184E-ACBD-47B60FC0DD66}"/>
+    <hyperlink ref="C980" r:id="rId831" xr:uid="{DD795E4C-39FB-264A-921A-658020BD62C4}"/>
+    <hyperlink ref="C981" r:id="rId832" xr:uid="{84B0916F-5E17-6A45-881D-1C51069AD3D6}"/>
+    <hyperlink ref="C982" r:id="rId833" xr:uid="{E2C9AB5A-B90A-AB45-AB65-45AB83FB47F4}"/>
+    <hyperlink ref="C983" r:id="rId834" xr:uid="{4A4E3886-4669-3F40-9AF8-0907B2603767}"/>
+    <hyperlink ref="C984" r:id="rId835" xr:uid="{BB7151C5-4446-E145-BC8A-E32476701BF6}"/>
+    <hyperlink ref="C986" r:id="rId836" display="https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a" xr:uid="{CA07B4FA-28F5-1E41-9838-61546B309FAF}"/>
+    <hyperlink ref="C987" r:id="rId837" xr:uid="{EE5E786C-96AE-C046-8209-32E4C4124D21}"/>
+    <hyperlink ref="C990" r:id="rId838" xr:uid="{E1C5B8B4-5B93-2E4E-B049-84B4DB5A6F0E}"/>
+    <hyperlink ref="C991" r:id="rId839" xr:uid="{B90ECE5F-4A12-3544-88AB-B3D1F44C3F8D}"/>
+    <hyperlink ref="C992" r:id="rId840" xr:uid="{0ED6E6DE-017C-CA45-B83E-7BAF04444B6E}"/>
+    <hyperlink ref="C994" r:id="rId841" xr:uid="{66653B5E-5B5D-2F40-BF08-CBB09375C7B5}"/>
+    <hyperlink ref="C995" r:id="rId842" xr:uid="{70ED1F23-721A-6748-9017-BC286CE4F3CD}"/>
+    <hyperlink ref="C996" r:id="rId843" xr:uid="{45A073B9-A984-3044-BD77-FAD4972EFF16}"/>
+    <hyperlink ref="C998" r:id="rId844" xr:uid="{B91ED8CC-F3CA-A14E-BD0D-516A43112C7B}"/>
+    <hyperlink ref="C999" r:id="rId845" xr:uid="{CB665B85-D336-B24F-B882-FD4DF93E7158}"/>
+    <hyperlink ref="C1000" r:id="rId846" xr:uid="{B1F1EAF9-9B04-804F-8FBD-B064F135548C}"/>
+    <hyperlink ref="C1003" r:id="rId847" xr:uid="{861BFD82-7D7D-6746-8F53-786AAF26ED13}"/>
+    <hyperlink ref="C1004" r:id="rId848" xr:uid="{0A6E78F8-E9A3-4344-848D-1DAEAEE3ECC9}"/>
+    <hyperlink ref="C1005" r:id="rId849" xr:uid="{8C4F1E94-A3A9-D441-B10D-2A8214885527}"/>
+    <hyperlink ref="C1006" r:id="rId850" xr:uid="{058EB4E9-C726-CA47-802C-550297E3D720}"/>
+    <hyperlink ref="C1007" r:id="rId851" xr:uid="{28080B32-7355-0E47-B867-11BF69980482}"/>
+    <hyperlink ref="C1008" r:id="rId852" xr:uid="{B1928E95-DFC9-064F-8170-071CDAC7BD2B}"/>
+    <hyperlink ref="C1009" r:id="rId853" xr:uid="{CADB7B55-BC1C-5E46-A50C-0AC9E8F9D704}"/>
+    <hyperlink ref="C1014" r:id="rId854" xr:uid="{62186726-87D8-EA4D-BC26-AF4B7CF7F765}"/>
+    <hyperlink ref="C1015" r:id="rId855" xr:uid="{22F7611E-C889-E24F-BB8E-A610FD358DE0}"/>
+    <hyperlink ref="C1016" r:id="rId856" xr:uid="{F028635C-CA19-A242-A8FC-C92ED8935004}"/>
+    <hyperlink ref="C1017" r:id="rId857" xr:uid="{EEDF9AA5-A5B4-F84A-BDF1-25E0DEDB12D5}"/>
+    <hyperlink ref="C1018" r:id="rId858" xr:uid="{93DF3982-839B-D945-AF4F-649356DF3C94}"/>
+    <hyperlink ref="C1019" r:id="rId859" xr:uid="{286B2728-C265-984D-A001-4F33E4ECA3A8}"/>
+    <hyperlink ref="C1020" r:id="rId860" xr:uid="{E13A8C7F-BD3A-0F45-B879-0541A68F74E0}"/>
+    <hyperlink ref="C1021" r:id="rId861" xr:uid="{93DB3237-5C4E-C849-B3E8-B635A03A8CF7}"/>
+    <hyperlink ref="C1022" r:id="rId862" xr:uid="{32F79BBB-B056-A447-86C5-C9092C7D8E30}"/>
+    <hyperlink ref="C1023" r:id="rId863" xr:uid="{EEB4AFF6-4BFB-1C4A-AB11-8A626CA9408D}"/>
+    <hyperlink ref="C1024" r:id="rId864" xr:uid="{E79B9BE7-A78D-8744-B87F-7B30F09D3DA3}"/>
+    <hyperlink ref="C1025" r:id="rId865" xr:uid="{5F556076-1A9E-BD42-9873-DCBD623F692C}"/>
+    <hyperlink ref="C1026" r:id="rId866" xr:uid="{B2B17154-3C63-D04F-B486-9F2851475041}"/>
+    <hyperlink ref="C1027" r:id="rId867" xr:uid="{7CA106E9-1EEC-F84D-B01F-B25904DF80E4}"/>
+    <hyperlink ref="C1028" r:id="rId868" xr:uid="{D7FE9A1A-1A7D-4B49-B585-8BBD67A284F3}"/>
+    <hyperlink ref="C1029" r:id="rId869" xr:uid="{5AF6A0B6-E7DF-B948-83B5-7B9794D9EC2D}"/>
+    <hyperlink ref="C1030" r:id="rId870" xr:uid="{12F09489-B9FA-5548-84A3-582B293810EE}"/>
+    <hyperlink ref="C1031" r:id="rId871" xr:uid="{8738D060-259E-AC45-B0A5-569DBC5F58DC}"/>
+    <hyperlink ref="C1033" r:id="rId872" xr:uid="{652E8FE8-B431-9A49-BEE1-FB73FDEAA7A1}"/>
+    <hyperlink ref="C1034" r:id="rId873" xr:uid="{2D4970DA-FBE1-6648-A3B5-A09641EFE900}"/>
+    <hyperlink ref="C1035" r:id="rId874" xr:uid="{4D696CD8-47D9-3642-A26B-87592819C3DC}"/>
+    <hyperlink ref="C1036" r:id="rId875" xr:uid="{211CF10C-DEFC-154C-9A39-B60F79D3C0D7}"/>
+    <hyperlink ref="C1037" r:id="rId876" xr:uid="{7D5B6562-8479-D449-BBD2-AF4C14BE41F7}"/>
+    <hyperlink ref="C1038" r:id="rId877" xr:uid="{62918C1B-8D94-CC4B-978F-AF976B3214D0}"/>
+    <hyperlink ref="C1039" r:id="rId878" xr:uid="{E34D1B5D-001E-0F43-8951-78032595D22B}"/>
+    <hyperlink ref="C1040" r:id="rId879" xr:uid="{884DAB20-6FE9-6E4E-B2CF-4C6C36BAAE7B}"/>
+    <hyperlink ref="C1041" r:id="rId880" xr:uid="{6FA5258E-1E1C-284C-9FCF-62C3DAB1AE78}"/>
+    <hyperlink ref="C1044" r:id="rId881" xr:uid="{ED414C6E-642B-F748-99E2-E1D728111948}"/>
+    <hyperlink ref="C1045" r:id="rId882" xr:uid="{4CE5DAFA-3648-EE4E-A326-0351911AAFB6}"/>
+    <hyperlink ref="C1046" r:id="rId883" xr:uid="{6934B659-87E5-FF4B-AF77-4F4D1ACBCBBE}"/>
+    <hyperlink ref="C1047" r:id="rId884" xr:uid="{500789E8-FB32-0547-B5B3-64F4B8139114}"/>
+    <hyperlink ref="C1048" r:id="rId885" xr:uid="{D0AFD832-EE9C-0842-815D-46067FE376A1}"/>
+    <hyperlink ref="C1049" r:id="rId886" xr:uid="{6A10FCA9-ABBF-5E4C-BE60-94E57CD35795}"/>
+    <hyperlink ref="C1050" r:id="rId887" xr:uid="{7577246A-8BFA-4545-BBED-C16F51DA1EBE}"/>
+    <hyperlink ref="C1051" r:id="rId888" xr:uid="{DFB2C010-83EB-C742-A2E7-860CD980D081}"/>
+    <hyperlink ref="C1052" r:id="rId889" xr:uid="{A34C05D0-5E5C-2E4B-8371-96DF6F9716FE}"/>
+    <hyperlink ref="C1053" r:id="rId890" xr:uid="{AD5FCA96-67FB-3742-99DC-059A825E05F8}"/>
+    <hyperlink ref="C1054" r:id="rId891" xr:uid="{F3427057-BFA6-9543-8078-3D530DED2036}"/>
+    <hyperlink ref="C1055" r:id="rId892" xr:uid="{2052F5E0-5C45-7346-BBE6-39B071DA89AD}"/>
+    <hyperlink ref="C1056" r:id="rId893" xr:uid="{BC769AFE-1146-3B4E-A8E3-3D65E2FEC310}"/>
+    <hyperlink ref="C1057" r:id="rId894" xr:uid="{0484F230-836F-1340-A9FA-D819F1FFF99D}"/>
+    <hyperlink ref="C1058" r:id="rId895" xr:uid="{E65ACECE-EDCE-8D46-8940-88D2147ED4BA}"/>
+    <hyperlink ref="C1059" r:id="rId896" xr:uid="{A542EBFF-6F9E-4D41-88F9-FAEF89336585}"/>
+    <hyperlink ref="C1060" r:id="rId897" xr:uid="{86E71D7C-E4D3-1049-93D5-15976147B84F}"/>
+    <hyperlink ref="C1061" r:id="rId898" xr:uid="{52DAC324-88DD-D94A-86CC-C44338924760}"/>
+    <hyperlink ref="C1062" r:id="rId899" xr:uid="{3CEA2842-4971-FD43-9C56-69EF9D807312}"/>
+    <hyperlink ref="C1063" r:id="rId900" xr:uid="{B87A9712-3881-7743-A6EA-3837E80D6A85}"/>
+    <hyperlink ref="C1064" r:id="rId901" xr:uid="{BEDE6B1A-BFA8-964C-907D-32393C78E59A}"/>
+    <hyperlink ref="C1065" r:id="rId902" xr:uid="{E59BF636-2365-E243-9517-AD89AE21AB7D}"/>
+    <hyperlink ref="C1066" r:id="rId903" xr:uid="{999457C7-7BE6-8047-989C-6CC425C18E29}"/>
+    <hyperlink ref="C1067" r:id="rId904" xr:uid="{06084FCE-613A-3746-B39F-765E7A84FFA0}"/>
+    <hyperlink ref="C1068" r:id="rId905" xr:uid="{8885192C-AE64-FF40-B479-C0EFFB7E407D}"/>
+    <hyperlink ref="C1069" r:id="rId906" xr:uid="{18D6C130-E067-FC43-8C8B-02001CB2EF51}"/>
+    <hyperlink ref="C1070" r:id="rId907" xr:uid="{DE032F4D-BB7A-1840-B2A8-324D6A2D023A}"/>
+    <hyperlink ref="C1071" r:id="rId908" xr:uid="{D251D5D6-0BD8-2547-A5F0-1FD65989949A}"/>
+    <hyperlink ref="C1073" r:id="rId909" xr:uid="{B4C92BF4-86E0-464A-B540-BF58DFD2F95E}"/>
+    <hyperlink ref="C1074" r:id="rId910" xr:uid="{28447859-FD05-C241-8D4E-462BDAA7E65F}"/>
+    <hyperlink ref="C1075" r:id="rId911" xr:uid="{C7622C2D-A6FF-1F4E-8FA4-FC3ECDB9EA1F}"/>
+    <hyperlink ref="C1076" r:id="rId912" xr:uid="{26A24D19-DE23-B442-9CAA-60D02D1E76C0}"/>
+    <hyperlink ref="C1077" r:id="rId913" xr:uid="{E1585DC3-8B12-9149-94A7-B6BECF60EAAF}"/>
+    <hyperlink ref="C1078" r:id="rId914" xr:uid="{678F3FA0-35D3-6443-B7E9-F7EA7C59A497}"/>
+    <hyperlink ref="C1079" r:id="rId915" xr:uid="{115AD1BE-CDEC-E54F-B81B-4349FCFFC458}"/>
+    <hyperlink ref="C1080" r:id="rId916" xr:uid="{368920D1-767D-6F46-BD26-F549E0610C21}"/>
+    <hyperlink ref="C1081" r:id="rId917" xr:uid="{7E2DBF3A-0611-9F4B-A3FC-03DC166A98E2}"/>
+    <hyperlink ref="C1082" r:id="rId918" xr:uid="{1815D55F-A9A8-5F45-BBF1-DF646E4AAA7D}"/>
+    <hyperlink ref="C1083" r:id="rId919" xr:uid="{009183F1-50A0-1944-A369-AF442DF5AEF8}"/>
+    <hyperlink ref="C1084" r:id="rId920" xr:uid="{B673141B-A133-D540-9E67-BEC2D2D675B1}"/>
+    <hyperlink ref="C1085" r:id="rId921" xr:uid="{7E09C215-6231-EE40-87EE-362358E074D0}"/>
+    <hyperlink ref="C1086" r:id="rId922" xr:uid="{0E981E4B-C4E9-D544-805D-7DCFB66D0266}"/>
+    <hyperlink ref="C1087" r:id="rId923" xr:uid="{BD2BB4E0-59E0-BE47-B801-70EC934AB494}"/>
+    <hyperlink ref="C1088" r:id="rId924" xr:uid="{3F142ED4-014B-9E4B-A16E-36404CD70A71}"/>
+    <hyperlink ref="C1089" r:id="rId925" xr:uid="{754EABA5-C0ED-6F48-BF1B-F63FD6CE96BC}"/>
+    <hyperlink ref="C1090" r:id="rId926" xr:uid="{9AADBE4C-BA89-5241-82C1-E5FA10243AD9}"/>
+    <hyperlink ref="C1091" r:id="rId927" xr:uid="{F15B03D3-A187-7141-B492-49A412F78557}"/>
+    <hyperlink ref="C1092" r:id="rId928" xr:uid="{D6C116E4-6DAA-9842-A694-ABCCA1D98E88}"/>
+    <hyperlink ref="C1093" r:id="rId929" xr:uid="{784D6238-2466-EA48-A9AC-D5684436C5DB}"/>
+    <hyperlink ref="C1094" r:id="rId930" xr:uid="{90E560E6-4120-4749-A593-104A50885BA9}"/>
+    <hyperlink ref="C1095" r:id="rId931" xr:uid="{B2533AC3-ADC4-8E4B-8888-1DF06C1CEFBD}"/>
+    <hyperlink ref="C1096" r:id="rId932" xr:uid="{F608EC5C-A534-504C-A17D-3E919762EAF5}"/>
+    <hyperlink ref="C1097" r:id="rId933" xr:uid="{DC755625-F3C7-FD4D-991D-8B5DD0604C4B}"/>
+    <hyperlink ref="C1098" r:id="rId934" xr:uid="{75F68A83-1633-EA4E-9A1D-3CCA89639FCC}"/>
+    <hyperlink ref="C1099" r:id="rId935" xr:uid="{BF96A28A-E2DE-684D-9CC5-8AA9DCB02E4E}"/>
+    <hyperlink ref="C1100" r:id="rId936" xr:uid="{C7110DC3-37BF-3F44-9450-0FE4B3912B68}"/>
+    <hyperlink ref="C1101" r:id="rId937" xr:uid="{BE5109F5-1A21-3948-BD0C-6561819B4055}"/>
+    <hyperlink ref="C1102" r:id="rId938" xr:uid="{379F9919-A028-704B-B7CC-04C35D9B93F7}"/>
+    <hyperlink ref="C1103" r:id="rId939" xr:uid="{23D60BE3-7B94-824E-BB8D-ABFCCE6BD406}"/>
+    <hyperlink ref="C1104" r:id="rId940" xr:uid="{DB68F66A-4E9D-B448-8792-6D8F6DA20790}"/>
+    <hyperlink ref="C1105" r:id="rId941" xr:uid="{71C8B2C2-93DA-4D4D-B29D-4F0363C8DE06}"/>
+    <hyperlink ref="C1106" r:id="rId942" xr:uid="{E9F45336-034C-5245-BB29-5F1CA26278BC}"/>
+    <hyperlink ref="C1107" r:id="rId943" xr:uid="{95D21808-7A1C-014C-B2B9-0481D81C0C81}"/>
+    <hyperlink ref="C1108" r:id="rId944" xr:uid="{E076A810-1C7A-8E43-A337-D75C0B037910}"/>
+    <hyperlink ref="C1109" r:id="rId945" xr:uid="{4B7E1DA4-2A92-3D41-9C64-371D6638D0D8}"/>
+    <hyperlink ref="C1110" r:id="rId946" xr:uid="{8842C974-F77A-0147-A8AE-9CD0C215DD27}"/>
+    <hyperlink ref="C1112" r:id="rId947" xr:uid="{3687A700-DAF6-6549-8C3D-DEF2FB925983}"/>
+    <hyperlink ref="C1113" r:id="rId948" xr:uid="{08339AB3-7561-CF4F-AA82-52B125B010E6}"/>
+    <hyperlink ref="C1114" r:id="rId949" xr:uid="{C269592B-BCD2-3744-8AE1-FEB63DDE8638}"/>
+    <hyperlink ref="C1115" r:id="rId950" xr:uid="{3B373B5A-6683-A146-A0AC-D25CED4F0BD2}"/>
+    <hyperlink ref="C1116" r:id="rId951" xr:uid="{D6D7639B-ECA3-8043-8A24-7BBD98573195}"/>
+    <hyperlink ref="C1117" r:id="rId952" xr:uid="{4527B960-35BF-7240-8325-EC6CD33A2BCF}"/>
+    <hyperlink ref="C1118" r:id="rId953" xr:uid="{B4FDC119-64E6-5941-B68A-2958349ED70D}"/>
+    <hyperlink ref="C1119" r:id="rId954" xr:uid="{9F633850-E7CC-1046-B7C3-1C6057518CDF}"/>
+    <hyperlink ref="C1120" r:id="rId955" xr:uid="{3B6F4E0F-E79C-7748-BEEB-9A1990662804}"/>
+    <hyperlink ref="C1121" r:id="rId956" xr:uid="{2CBD3E18-DBEC-014E-A00C-D55A378600F5}"/>
+    <hyperlink ref="C1122" r:id="rId957" xr:uid="{515D24C5-07EE-3C4B-9106-B970D6F0F3E9}"/>
+    <hyperlink ref="C1123" r:id="rId958" xr:uid="{E758A12E-0615-264D-A969-932891AE17C7}"/>
+    <hyperlink ref="C1124" r:id="rId959" xr:uid="{0EC3E96D-4C36-4641-A907-91411D203409}"/>
+    <hyperlink ref="C1125" r:id="rId960" xr:uid="{1E533D8A-9351-1543-B0FE-B823FA649481}"/>
+    <hyperlink ref="C1126" r:id="rId961" xr:uid="{3C660C22-344F-7E45-B100-F067C00B6A6B}"/>
+    <hyperlink ref="C1127" r:id="rId962" xr:uid="{49B80F4D-9559-B640-9298-7B8819AC68CA}"/>
+    <hyperlink ref="C1128" r:id="rId963" xr:uid="{6C84F73A-2F16-4E40-80B1-95965334B95D}"/>
+    <hyperlink ref="C1129" r:id="rId964" xr:uid="{8A3DCA49-46E6-B24C-8DB3-EBA24BF9A04A}"/>
+    <hyperlink ref="C1130" r:id="rId965" xr:uid="{0FF98669-2D84-704B-A648-977CC7055808}"/>
+    <hyperlink ref="C1131" r:id="rId966" xr:uid="{A92AF73E-0E12-2448-BDC1-171BB69995FE}"/>
+    <hyperlink ref="C1132" r:id="rId967" xr:uid="{9DBDAFF6-FBB5-3D4F-8F65-A3CC6A2B8CF2}"/>
+    <hyperlink ref="C1133" r:id="rId968" xr:uid="{09CE4485-DBBC-8F48-91F0-8CF34AC62628}"/>
+    <hyperlink ref="C1134" r:id="rId969" xr:uid="{F5A52C6B-CDD5-9E43-B211-0511E0E968DF}"/>
+    <hyperlink ref="C1135" r:id="rId970" xr:uid="{4A9BB802-5FDD-6948-8EA7-2B5976A9680D}"/>
+    <hyperlink ref="C1136" r:id="rId971" xr:uid="{7DF7EC22-FA5E-A74F-BBAD-E1FBD2EEFF1E}"/>
+    <hyperlink ref="C1137" r:id="rId972" xr:uid="{AB2BD09B-EB98-984B-BD04-E8EEB6F10AB9}"/>
+    <hyperlink ref="C1138" r:id="rId973" xr:uid="{6AAC9E54-BCFD-414F-B879-3B30EA0B84AA}"/>
+    <hyperlink ref="C1139" r:id="rId974" xr:uid="{32369E13-1A04-D64A-8B06-114CC61C8775}"/>
+    <hyperlink ref="C1140" r:id="rId975" xr:uid="{D91E8732-9B06-BE4A-B027-F949745FC844}"/>
+    <hyperlink ref="C1141" r:id="rId976" xr:uid="{8A745685-795D-0E47-855D-EB9E9E941DF0}"/>
+    <hyperlink ref="C1142" r:id="rId977" xr:uid="{8D2A4BC2-F380-C74B-9F61-75A757EADD08}"/>
+    <hyperlink ref="C1143" r:id="rId978" xr:uid="{3F3353EF-0F38-BC4B-B77B-20311F6605A9}"/>
+    <hyperlink ref="C1144" r:id="rId979" xr:uid="{1A3C8473-9806-4D42-931A-02DB3FE0960B}"/>
+    <hyperlink ref="C1145" r:id="rId980" xr:uid="{D5F6BA76-37B5-4A4D-B657-720D8F6F21D3}"/>
+    <hyperlink ref="C1146" r:id="rId981" xr:uid="{BCF5F601-6BC6-FB42-BAE0-4C687427D2BA}"/>
+    <hyperlink ref="C1147" r:id="rId982" xr:uid="{A853B662-A563-D64C-8DFC-746C68873E66}"/>
+    <hyperlink ref="C1148" r:id="rId983" xr:uid="{5ECAE925-20C6-804A-8038-F3839F847CFD}"/>
+    <hyperlink ref="C1149" r:id="rId984" xr:uid="{556F54E2-A6C0-9E4F-AB75-3A1E8C2CED1F}"/>
+    <hyperlink ref="C1150" r:id="rId985" xr:uid="{23186ADB-66B1-D64E-BC15-D8CCE04653E2}"/>
+    <hyperlink ref="C1151" r:id="rId986" xr:uid="{C4963441-167E-CF44-9D35-41C43A6AAEDF}"/>
+    <hyperlink ref="C1152" r:id="rId987" xr:uid="{F67D7FF0-8740-3E41-8577-FFA2BD8C4B14}"/>
+    <hyperlink ref="C1153" r:id="rId988" xr:uid="{B2A4BA07-62A7-1A48-9787-473EC09B4F0D}"/>
+    <hyperlink ref="C1154" r:id="rId989" xr:uid="{004BCCBF-E4D6-974A-AF12-942051BE81C0}"/>
+    <hyperlink ref="C1155" r:id="rId990" xr:uid="{4EAC8C2F-B0D1-E145-A49B-D4239002B878}"/>
+    <hyperlink ref="C1156" r:id="rId991" xr:uid="{2F44365F-4959-B34A-BFE2-A264536E4CE0}"/>
+    <hyperlink ref="C1157" r:id="rId992" xr:uid="{A7E0B075-DF57-2A49-B464-64FE7E50B2AD}"/>
+    <hyperlink ref="C1158" r:id="rId993" xr:uid="{93B25683-5447-7448-A88E-52EF60A2E7E1}"/>
+    <hyperlink ref="C1159" r:id="rId994" xr:uid="{782DAB98-AF2A-7D45-BD4B-5D1246224EA2}"/>
+    <hyperlink ref="C1160" r:id="rId995" xr:uid="{4536B098-31AF-2748-95F5-96655DF51864}"/>
+    <hyperlink ref="C1161" r:id="rId996" xr:uid="{673686C1-708A-1B41-BE9A-C3761AE1211F}"/>
+    <hyperlink ref="C1162" r:id="rId997" xr:uid="{8EFF2B6B-9B44-3A4B-94CE-C0249B440139}"/>
+    <hyperlink ref="C1163" r:id="rId998" xr:uid="{146DE711-6D1B-AA47-9EDD-3C89CFAEA31B}"/>
+    <hyperlink ref="C1164" r:id="rId999" xr:uid="{3392979A-FD37-D942-A1AC-F91122B24F9C}"/>
+    <hyperlink ref="C1165" r:id="rId1000" xr:uid="{068161BA-77F9-604A-BF5B-D24398755A7A}"/>
+    <hyperlink ref="C1168" r:id="rId1001" xr:uid="{FB2F0370-FE7A-DC43-BF3C-894091E2A365}"/>
+    <hyperlink ref="C1169" r:id="rId1002" xr:uid="{553B4E15-D835-2D40-9662-158927ACBE07}"/>
+    <hyperlink ref="C1170" r:id="rId1003" xr:uid="{ACC727E6-6BA4-8A4F-9ED3-45D873C6B162}"/>
+    <hyperlink ref="C1171" r:id="rId1004" xr:uid="{6A49D565-48ED-CA44-B9E5-4EF382DDB287}"/>
+    <hyperlink ref="C1172" r:id="rId1005" xr:uid="{080BB3FF-D257-F143-9312-5DD6537E15F6}"/>
+    <hyperlink ref="C1173" r:id="rId1006" xr:uid="{5D83D655-6CC6-CE4C-8939-6603AE7AAE58}"/>
+    <hyperlink ref="C1174" r:id="rId1007" xr:uid="{DA0C6B2E-3423-9B46-AFDE-717FA3FACCB3}"/>
+    <hyperlink ref="C1175" r:id="rId1008" xr:uid="{B8143AA3-9FA5-5141-983D-16F2E4E64F60}"/>
+    <hyperlink ref="C1176" r:id="rId1009" xr:uid="{7D0213F7-AA84-5449-96F1-E770B38D1210}"/>
+    <hyperlink ref="C1177" r:id="rId1010" xr:uid="{C0342ED8-374F-ED4F-B090-566B27D1CD5D}"/>
+    <hyperlink ref="C1178" r:id="rId1011" xr:uid="{34FD5EAC-D9C6-FD45-AB0B-70F879DA6612}"/>
+    <hyperlink ref="C1179" r:id="rId1012" xr:uid="{9C41A39B-6C6C-D147-BD63-AF849ABA013D}"/>
+    <hyperlink ref="C1180" r:id="rId1013" xr:uid="{0B07C00A-CFB6-8348-8D16-56001DF33AA7}"/>
+    <hyperlink ref="C1182" r:id="rId1014" xr:uid="{5AC3ACC1-0BE8-5946-8FFB-787F74D3C268}"/>
+    <hyperlink ref="C1183" r:id="rId1015" xr:uid="{1BB8D95E-483A-5A44-9959-7EE893BEBFCF}"/>
+    <hyperlink ref="C1184" r:id="rId1016" xr:uid="{0C634676-8214-A943-8230-4C07CCA5B57C}"/>
+    <hyperlink ref="C1185" r:id="rId1017" xr:uid="{834EDDA8-10A0-9545-9940-7EABD44A83E5}"/>
+    <hyperlink ref="C1186" r:id="rId1018" xr:uid="{3C56A3D7-1257-6845-B34F-595AF1C55E7F}"/>
+    <hyperlink ref="C1187" r:id="rId1019" xr:uid="{5323A752-E096-CD44-AB7F-7927BC95BA68}"/>
+    <hyperlink ref="C1188" r:id="rId1020" xr:uid="{29E776F9-1E06-4947-A9B7-2A4255497478}"/>
+    <hyperlink ref="C1189" r:id="rId1021" xr:uid="{AE8CE53C-BB8B-8F46-BAB7-1A0494A021BD}"/>
+    <hyperlink ref="C1190" r:id="rId1022" xr:uid="{F7D63DF5-BA8E-164A-81B5-D0EE620CF9A0}"/>
+    <hyperlink ref="C1191" r:id="rId1023" xr:uid="{918F78F3-09F7-6C49-8181-18C7B8EA6404}"/>
+    <hyperlink ref="C1192" r:id="rId1024" xr:uid="{D1B7499D-4101-D64D-95E3-E7CC26A45DA2}"/>
+    <hyperlink ref="C1193" r:id="rId1025" xr:uid="{48C9DFE5-A66B-F047-BDFD-069A6FA8961F}"/>
+    <hyperlink ref="C1194" r:id="rId1026" xr:uid="{B5C8726B-F53F-0245-9734-4DB5DEEF3A8B}"/>
+    <hyperlink ref="C1195" r:id="rId1027" xr:uid="{AE7C455E-8AF2-534D-B5B9-F4E45D1CA3D6}"/>
+    <hyperlink ref="C1196" r:id="rId1028" xr:uid="{72F755FC-B00F-9F4F-B06A-2909C4FD6DE9}"/>
+    <hyperlink ref="C1197" r:id="rId1029" xr:uid="{22D6B857-D7CC-E341-B2D3-7CE08BB52782}"/>
+    <hyperlink ref="C1198" r:id="rId1030" xr:uid="{892DDBE7-B1C0-1F47-B697-FFFB780015EB}"/>
+    <hyperlink ref="C1199" r:id="rId1031" xr:uid="{641FCD31-7936-2A43-9203-420EAB0B40C8}"/>
+    <hyperlink ref="C1200" r:id="rId1032" xr:uid="{45C597A8-7AB9-534A-8EEB-525790CA0370}"/>
+    <hyperlink ref="C1201" r:id="rId1033" xr:uid="{EF1174BC-C06B-AF43-9021-8A0D8ED82918}"/>
+    <hyperlink ref="C1202" r:id="rId1034" xr:uid="{2C0F8139-9926-8442-B2D5-695AE56FBCB2}"/>
+    <hyperlink ref="C1203" r:id="rId1035" xr:uid="{02C6DE92-83CB-534B-AD22-DD8D56697EC1}"/>
+    <hyperlink ref="C1204" r:id="rId1036" xr:uid="{5A75074B-1CDD-5247-8E12-313E62522D20}"/>
+    <hyperlink ref="C1205" r:id="rId1037" xr:uid="{76C7656F-931C-0140-A8A6-4138517BFD47}"/>
+    <hyperlink ref="C1206" r:id="rId1038" xr:uid="{E5187BC1-33DF-0147-814A-0CD62B601E36}"/>
+    <hyperlink ref="C1207" r:id="rId1039" xr:uid="{9A03436B-139E-534D-A5EA-EB6B8A3EC035}"/>
+    <hyperlink ref="C1208" r:id="rId1040" xr:uid="{0DAC3400-2131-6246-A0A1-7A303E7DDD70}"/>
+    <hyperlink ref="C1209" r:id="rId1041" xr:uid="{25F91426-44FF-8D45-A886-9DE28166A115}"/>
+    <hyperlink ref="C1210" r:id="rId1042" xr:uid="{E7D9C254-8E09-7A49-A07C-DB622554B940}"/>
+    <hyperlink ref="C1211" r:id="rId1043" xr:uid="{F4DEC43A-A811-4B4A-9DB2-833B02A883D5}"/>
+    <hyperlink ref="C1212" r:id="rId1044" xr:uid="{77D7C8D5-F937-7344-9B21-59F248AC05FA}"/>
+    <hyperlink ref="C1213" r:id="rId1045" xr:uid="{EE96C887-4513-1146-B9F4-4381A2139171}"/>
+    <hyperlink ref="C1215" r:id="rId1046" xr:uid="{01824A09-417A-CE44-8395-25BB5DD97D46}"/>
+    <hyperlink ref="C1216" r:id="rId1047" xr:uid="{86EFCAC2-E12D-0248-B916-D0411299E780}"/>
+    <hyperlink ref="C1217" r:id="rId1048" display="https://mandoxl.github.io/youssef/" xr:uid="{FC1515D4-B9EE-5E4B-BB7A-7B236C5484FE}"/>
+    <hyperlink ref="C1218" r:id="rId1049" xr:uid="{32DA1694-83A9-8747-93F2-8836E04421B2}"/>
+    <hyperlink ref="C1219" r:id="rId1050" xr:uid="{D5369A3D-F22C-5443-BC3D-99F76AB7FBDC}"/>
+    <hyperlink ref="C1220" r:id="rId1051" xr:uid="{3BF87B97-A93E-FD40-B5EE-9A2896508921}"/>
+    <hyperlink ref="C1221" r:id="rId1052" xr:uid="{931A6862-D692-C24C-B462-D4E5D1D8D04E}"/>
+    <hyperlink ref="C1222" r:id="rId1053" xr:uid="{A21B9177-FB31-DA49-8259-0F5492830D83}"/>
+    <hyperlink ref="C1223" r:id="rId1054" xr:uid="{B733800C-142E-B449-A8DB-3CE54E70F49B}"/>
+    <hyperlink ref="C1224" r:id="rId1055" xr:uid="{0E94377C-20E7-8247-8937-F9FDA6E0562D}"/>
+    <hyperlink ref="C1225" r:id="rId1056" xr:uid="{3C313078-D417-4C48-9FA0-1BD22429E0C5}"/>
+    <hyperlink ref="C1226" r:id="rId1057" xr:uid="{CA7F382F-C473-3141-992E-440E20FA2F70}"/>
+    <hyperlink ref="C1227" r:id="rId1058" xr:uid="{A687678D-C54E-BD44-9932-A8870F123DD4}"/>
+    <hyperlink ref="C1228" r:id="rId1059" xr:uid="{19BED4CB-B193-534B-80AF-41F7A24B377C}"/>
+    <hyperlink ref="C1229" r:id="rId1060" xr:uid="{1C7755D5-7CEA-554C-A792-8B95185118BD}"/>
+    <hyperlink ref="C1231" r:id="rId1061" xr:uid="{CFBFB210-B1D9-3D41-B133-0EACE3E6A48D}"/>
+    <hyperlink ref="C1232" r:id="rId1062" xr:uid="{024472A7-6B47-D945-8E3E-2640DDE290F4}"/>
+    <hyperlink ref="C1233" r:id="rId1063" xr:uid="{83CF9CA1-B224-B243-86C6-A1C7C1212C1E}"/>
+    <hyperlink ref="C1234" r:id="rId1064" xr:uid="{35D8B4A0-0D4A-3F4D-B2BF-1719A0CD07E9}"/>
+    <hyperlink ref="C1235" r:id="rId1065" xr:uid="{61A4CB91-76B8-C146-91E5-A71A46548D86}"/>
+    <hyperlink ref="C1236" r:id="rId1066" xr:uid="{8F7AE803-8511-F546-AAF1-5D80364D553E}"/>
+    <hyperlink ref="C1237" r:id="rId1067" xr:uid="{204C12EB-8DF6-B34A-A892-482A654BF975}"/>
+    <hyperlink ref="C1238" r:id="rId1068" xr:uid="{E3B1F02A-4AB6-884A-AFAC-46751B0A346F}"/>
+    <hyperlink ref="C1239" r:id="rId1069" xr:uid="{3463E0E2-B2B0-E244-91AA-681B72619944}"/>
+    <hyperlink ref="C1240" r:id="rId1070" xr:uid="{5086441E-2FD9-CF47-9408-71066AF18C05}"/>
+    <hyperlink ref="C1241" r:id="rId1071" xr:uid="{DE461346-1AC6-3B45-9691-5E1D24F75138}"/>
+    <hyperlink ref="C1242" r:id="rId1072" xr:uid="{B924FF42-B086-464D-A192-93BD67F2D4EE}"/>
+    <hyperlink ref="C1243" r:id="rId1073" xr:uid="{E5E45635-DAC8-CA40-9CC5-2F12F01D0E09}"/>
+    <hyperlink ref="C1244" r:id="rId1074" xr:uid="{F618906A-F85A-9740-BC08-F631B162ED6C}"/>
+    <hyperlink ref="C1245" r:id="rId1075" xr:uid="{26B5EFF0-C1DC-2C49-99CC-6980C64C9117}"/>
+    <hyperlink ref="C1246" r:id="rId1076" xr:uid="{7A51C3BD-2D09-C746-B614-07A0FA29E2A9}"/>
+    <hyperlink ref="C1247" r:id="rId1077" xr:uid="{5B8E8382-F60B-DB4F-91B4-5F285CF5FFDA}"/>
+    <hyperlink ref="C1248" r:id="rId1078" xr:uid="{FB155766-D41B-3047-A0C3-6D61CF9309F1}"/>
+    <hyperlink ref="C1249" r:id="rId1079" xr:uid="{DF97915E-09EF-A545-BFB0-4A83E4F37A5F}"/>
+    <hyperlink ref="C1251" r:id="rId1080" xr:uid="{7DCB2228-006E-7940-8F20-121415AEF410}"/>
+    <hyperlink ref="C1252" r:id="rId1081" xr:uid="{375EA3CB-A50B-774F-B885-D2D665352B3D}"/>
+    <hyperlink ref="C1253" r:id="rId1082" xr:uid="{E899720F-1F20-B74B-AD4B-95993CB0DC30}"/>
+    <hyperlink ref="C1254" r:id="rId1083" xr:uid="{C1C861F5-0FA4-B84F-8256-3092A340F50B}"/>
+    <hyperlink ref="C1255" r:id="rId1084" xr:uid="{FFF3B71E-93F8-E343-A921-E745BEEF9CD5}"/>
+    <hyperlink ref="C1256" r:id="rId1085" xr:uid="{B5834583-D694-0D42-9E0E-78F4BDBBD097}"/>
+    <hyperlink ref="C1257" r:id="rId1086" xr:uid="{D8741F72-901A-E348-8D1D-2309E7CFD7C4}"/>
+    <hyperlink ref="C1258" r:id="rId1087" xr:uid="{5D005C14-AABA-4049-9487-37D5AD21A6AE}"/>
+    <hyperlink ref="C1259" r:id="rId1088" xr:uid="{07C4EF1E-C5DF-784F-A047-437456EDF382}"/>
+    <hyperlink ref="C1260" r:id="rId1089" xr:uid="{BB5E64F9-25C3-0A42-96C5-7F782E04BF1F}"/>
+    <hyperlink ref="C1261" r:id="rId1090" xr:uid="{4A584587-10FA-5647-9766-EBEAEC6D75F3}"/>
+    <hyperlink ref="C1262" r:id="rId1091" xr:uid="{00B61727-04EC-5345-BFC7-40C9B0D9FDB9}"/>
+    <hyperlink ref="C1263" r:id="rId1092" xr:uid="{2292B559-DA98-A94D-8FD6-12FED3BB9521}"/>
+    <hyperlink ref="C1264" r:id="rId1093" xr:uid="{C1DAF5E0-B4BB-C148-B86E-E7173D9B37B6}"/>
+    <hyperlink ref="C1265" r:id="rId1094" xr:uid="{BDF46148-6E23-0044-B876-3BE6AE9A0CE3}"/>
+    <hyperlink ref="C1266" r:id="rId1095" xr:uid="{51EE7E40-C12F-4544-84C8-5307B5F12630}"/>
+    <hyperlink ref="C1267" r:id="rId1096" xr:uid="{48FB4E7F-16BB-6F4E-8531-FCA2FBEB2878}"/>
+    <hyperlink ref="C1268" r:id="rId1097" xr:uid="{82721CEA-80CC-1143-8D19-1CCF0667991F}"/>
+    <hyperlink ref="C1269" r:id="rId1098" xr:uid="{BECB4BC3-D033-A143-9A2D-1FB79335480B}"/>
+    <hyperlink ref="C1270" r:id="rId1099" xr:uid="{49D12FF5-DDAA-404D-ADC6-6B6EA1E9961C}"/>
+    <hyperlink ref="C1271" r:id="rId1100" xr:uid="{A22C00BA-524E-7140-B9FE-876D2A4F301E}"/>
+    <hyperlink ref="C1272" r:id="rId1101" xr:uid="{9C13B9C3-F0E0-9946-84D4-8EF76E2EB62F}"/>
+    <hyperlink ref="C1273" r:id="rId1102" xr:uid="{9FB08744-F940-0045-BF5C-94C3A72B5F6C}"/>
+    <hyperlink ref="C1274" r:id="rId1103" xr:uid="{E3B0761E-B3D3-EB4F-B752-FC93570008B2}"/>
+    <hyperlink ref="C1275" r:id="rId1104" xr:uid="{318CBEE4-1DCA-C247-A9DD-78CF9C69FF7B}"/>
+    <hyperlink ref="C1278" r:id="rId1105" xr:uid="{03A3DF70-DF4C-164F-B9E7-31A96ADF29E1}"/>
+    <hyperlink ref="C1279" r:id="rId1106" xr:uid="{86255319-1E88-054D-A899-A537A1831D24}"/>
+    <hyperlink ref="C1280" r:id="rId1107" xr:uid="{203223E6-B691-C54A-8203-4F5ECC067284}"/>
+    <hyperlink ref="C1281" r:id="rId1108" xr:uid="{83F0CEC2-A666-174A-8870-B6124C8884EF}"/>
+    <hyperlink ref="C1282" r:id="rId1109" xr:uid="{8589D6E8-8B47-E945-86DD-FD91F2650D85}"/>
+    <hyperlink ref="C1283" r:id="rId1110" xr:uid="{2252DECF-442E-024B-8F98-34E1439DE156}"/>
+    <hyperlink ref="C1284" r:id="rId1111" xr:uid="{A02B9F0D-E777-2F45-B9B8-D61852A3F8C9}"/>
+    <hyperlink ref="C1285" r:id="rId1112" xr:uid="{DDD8D45E-FD33-A643-BDD5-00C492EE30C4}"/>
+    <hyperlink ref="C1289" r:id="rId1113" xr:uid="{B892CCC5-79E0-8048-8059-662FF6800F97}"/>
+    <hyperlink ref="C1290" r:id="rId1114" xr:uid="{7A13B189-17A5-3F40-9F4E-CAF83A123F6F}"/>
+    <hyperlink ref="C1291" r:id="rId1115" xr:uid="{FC14F095-35C7-BC44-A423-3D34705B763A}"/>
+    <hyperlink ref="C1292" r:id="rId1116" xr:uid="{03C79D73-7D61-8D4A-9904-03E4CE5CBCBA}"/>
+    <hyperlink ref="C1293" r:id="rId1117" xr:uid="{FF20A470-B37D-2949-A995-6F362928B046}"/>
+    <hyperlink ref="C1294" r:id="rId1118" xr:uid="{B1EEA649-676B-C643-987E-4EE23F571B07}"/>
+    <hyperlink ref="C1295" r:id="rId1119" xr:uid="{62B65408-05CF-2B46-92AF-86F700938528}"/>
+    <hyperlink ref="C1296" r:id="rId1120" xr:uid="{30B5267F-396F-A543-8B17-110D00F434F5}"/>
+    <hyperlink ref="C1297" r:id="rId1121" xr:uid="{E986B55E-57F5-1C44-BE78-E0478D066BD9}"/>
+    <hyperlink ref="C1298" r:id="rId1122" location="contactMe" display="https://el-tayyeb.github.io/end/ - contactMe" xr:uid="{5D50F567-CB3A-8841-B75D-1B297F898F03}"/>
+    <hyperlink ref="C1299" r:id="rId1123" xr:uid="{5485D3E2-DD6F-F54B-AAE1-8E6F051503E6}"/>
+    <hyperlink ref="C1300" r:id="rId1124" xr:uid="{2D933E51-EA7B-304E-8798-63F433F10E6B}"/>
+    <hyperlink ref="C1303" r:id="rId1125" xr:uid="{AADDD447-D118-4841-936C-36BA364BDCC5}"/>
+    <hyperlink ref="C1304" r:id="rId1126" xr:uid="{506C683E-766A-5142-ABA8-63B98217C748}"/>
+    <hyperlink ref="C1305" r:id="rId1127" xr:uid="{E31DAC02-D2F9-A14C-B4F7-F722D89A4F63}"/>
+    <hyperlink ref="C1306" r:id="rId1128" xr:uid="{6DC75B16-2943-6243-AAC0-483875BEDEE0}"/>
+    <hyperlink ref="C1307" r:id="rId1129" xr:uid="{C7835690-E4CD-9D4F-8CE3-C75753A28D26}"/>
+    <hyperlink ref="C1308" r:id="rId1130" xr:uid="{C71DA798-3CAE-DB4F-A6ED-669D2802353A}"/>
+    <hyperlink ref="C1309" r:id="rId1131" xr:uid="{D981CB9A-0FC8-A345-AA6B-B9DC3F37CCD9}"/>
+    <hyperlink ref="C1310" r:id="rId1132" xr:uid="{12FA0346-9153-0B4B-AB74-CB3639DAE7CA}"/>
+    <hyperlink ref="C1311" r:id="rId1133" xr:uid="{57884A3C-B6C5-AD48-901F-451E7FA8A9CB}"/>
+    <hyperlink ref="C1314" r:id="rId1134" xr:uid="{9D35AB33-CF22-484F-A0BC-3269FB0FB182}"/>
+    <hyperlink ref="C1315" r:id="rId1135" xr:uid="{B8835C87-D38A-7942-A82D-2E4FB9507240}"/>
+    <hyperlink ref="C1316" r:id="rId1136" xr:uid="{2EB7EFA9-3F9C-EB4F-8EDA-4765CC163140}"/>
+    <hyperlink ref="C1317" r:id="rId1137" xr:uid="{2AEC5F64-A75D-A74E-8345-B6E6A5040433}"/>
+    <hyperlink ref="C1318" r:id="rId1138" xr:uid="{DFD475CD-56F1-514F-A422-836AA94A2E03}"/>
+    <hyperlink ref="C1319" r:id="rId1139" xr:uid="{EF30AF84-A73B-8643-9649-82AC73B40009}"/>
+    <hyperlink ref="C1320" r:id="rId1140" xr:uid="{69619989-B3C7-8B4D-8487-CF358B957028}"/>
+    <hyperlink ref="C1321" r:id="rId1141" xr:uid="{8417641E-18DD-9E43-97D9-7AC0FED2AE4D}"/>
+    <hyperlink ref="C1322" r:id="rId1142" xr:uid="{0771398A-BBD7-0345-9D6A-FA110841F9A8}"/>
+    <hyperlink ref="C1323" r:id="rId1143" xr:uid="{A26B07E2-58AA-5B44-AD74-159691B7D846}"/>
+    <hyperlink ref="C1324" r:id="rId1144" xr:uid="{A86250E8-9D01-4847-A988-766CCD0C62DA}"/>
+    <hyperlink ref="C1325" r:id="rId1145" xr:uid="{5DADD393-0D94-234A-9994-32963FBE77FF}"/>
+    <hyperlink ref="C1326" r:id="rId1146" xr:uid="{FE5995B4-8B47-214D-BF46-589D1ED48036}"/>
+    <hyperlink ref="C1327" r:id="rId1147" xr:uid="{707EB3D2-51BD-2642-8545-69A9DBD9E8D9}"/>
+    <hyperlink ref="C1328" r:id="rId1148" xr:uid="{FC1FAD18-21C3-2F42-B2B3-CA2621053C5B}"/>
+    <hyperlink ref="C1329" r:id="rId1149" xr:uid="{644E7B82-29D7-D54C-9C6B-6D5F4CEC65F4}"/>
+    <hyperlink ref="C1330" r:id="rId1150" xr:uid="{DF140C31-4469-9A46-B8C3-E728483A6406}"/>
+    <hyperlink ref="C1331" r:id="rId1151" xr:uid="{58A28F81-C8F5-0744-AC7D-B25D70D8667A}"/>
+    <hyperlink ref="C1332" r:id="rId1152" xr:uid="{0C6EBBDF-FD63-7B42-8000-55F8ADDD88A6}"/>
+    <hyperlink ref="C1333" r:id="rId1153" xr:uid="{649AFBA0-2E8C-AE48-84D6-CC8D2D542CBF}"/>
+    <hyperlink ref="C1334" r:id="rId1154" xr:uid="{CBA68638-1929-3043-8E7B-9D31863AC03B}"/>
+    <hyperlink ref="C1335" r:id="rId1155" xr:uid="{69C5A70F-6B47-AD4B-97EB-E36009920FD0}"/>
+    <hyperlink ref="C1336" r:id="rId1156" xr:uid="{DF1B3A61-6F68-C740-84C2-FF26A5D34681}"/>
+    <hyperlink ref="C1337" r:id="rId1157" xr:uid="{0E024C65-CA11-3846-842F-41E5E522E319}"/>
+    <hyperlink ref="C1338" r:id="rId1158" xr:uid="{3F011B5A-32DD-AD44-9816-5A09EF726A6B}"/>
+    <hyperlink ref="C1339" r:id="rId1159" xr:uid="{AC09AFD6-BFA6-EA45-A5D4-DC6EF3DE88F6}"/>
+    <hyperlink ref="C1340" r:id="rId1160" xr:uid="{230EA8D4-BD26-3249-B7AB-4F39D8642C86}"/>
+    <hyperlink ref="C1341" r:id="rId1161" xr:uid="{B458B9E0-1C46-1049-8FD7-54B89FB1A113}"/>
+    <hyperlink ref="C1342" r:id="rId1162" xr:uid="{24EB0BDC-29A9-4341-8D98-128CE74FFB04}"/>
+    <hyperlink ref="C1343" r:id="rId1163" xr:uid="{7A505DA9-8E97-604C-A8C4-8264DE852D25}"/>
+    <hyperlink ref="C1344" r:id="rId1164" xr:uid="{1D682F94-01F1-FA4E-92A5-F88AE34EEAB1}"/>
+    <hyperlink ref="C1345" r:id="rId1165" xr:uid="{70F998FB-C0E6-FF4A-9A67-CCD83B091CD5}"/>
+    <hyperlink ref="C1346" r:id="rId1166" xr:uid="{B02637AF-2258-CB44-858F-26E7713A2E0A}"/>
+    <hyperlink ref="C1347" r:id="rId1167" xr:uid="{CE92D3D4-DC44-354F-A295-F3A7E2E6F069}"/>
+    <hyperlink ref="C1348" r:id="rId1168" xr:uid="{8D7549D3-FE71-464A-A10F-420578BDBE85}"/>
+    <hyperlink ref="C1349" r:id="rId1169" xr:uid="{97B75C23-B7E2-4746-8253-B546EE531AE6}"/>
+    <hyperlink ref="C1350" r:id="rId1170" xr:uid="{CC278EDD-7E21-8A4A-BBF3-C10E5638A801}"/>
+    <hyperlink ref="C1351" r:id="rId1171" xr:uid="{489EC8D5-94B1-C04D-9686-B7D6F6F71A4A}"/>
+    <hyperlink ref="C1352" r:id="rId1172" xr:uid="{8BC2159B-B437-9948-A642-BC30E285AF4C}"/>
+    <hyperlink ref="C1353" r:id="rId1173" xr:uid="{1B97E906-C0E3-4040-8DB9-E447CCA4E50D}"/>
+    <hyperlink ref="C1354" r:id="rId1174" xr:uid="{44087FC9-9C8A-9341-BEF0-C6944A862D42}"/>
+    <hyperlink ref="C1355" r:id="rId1175" xr:uid="{683DFDFD-7A65-4A4A-A328-2938F8BB50A2}"/>
+    <hyperlink ref="C1356" r:id="rId1176" xr:uid="{F12D47DA-7BDF-A548-ABF3-2507A0C03ED3}"/>
+    <hyperlink ref="C1357" r:id="rId1177" xr:uid="{544C5CBA-E336-9C44-903F-5329C0BF0441}"/>
+    <hyperlink ref="C1358" r:id="rId1178" xr:uid="{B3AFF0A7-9D9F-3B4D-9A86-6560508FBB85}"/>
+    <hyperlink ref="C1359" r:id="rId1179" xr:uid="{83A00B04-E6AB-7C46-8235-0AC2E4B71AD3}"/>
+    <hyperlink ref="C1360" r:id="rId1180" xr:uid="{09296728-D96B-D341-A8B3-B27B44D890C3}"/>
+    <hyperlink ref="C1361" r:id="rId1181" xr:uid="{6F38E848-9B76-2F42-BDAB-A5074A60B519}"/>
+    <hyperlink ref="C1362" r:id="rId1182" xr:uid="{CA78ECE1-F7DD-E448-94B0-544920D29A9D}"/>
+    <hyperlink ref="C1363" r:id="rId1183" xr:uid="{01C367C2-C454-7641-8817-D3DA94C63403}"/>
+    <hyperlink ref="C1364" r:id="rId1184" xr:uid="{0357F061-F822-324E-993F-EEA3B5C0E8EF}"/>
+    <hyperlink ref="C1365" r:id="rId1185" xr:uid="{4CC52562-30C7-7443-9720-2FA62615EF8D}"/>
+    <hyperlink ref="C1366" r:id="rId1186" xr:uid="{1B4FCC39-75B0-044F-B27D-38886A17BEB4}"/>
+    <hyperlink ref="C1367" r:id="rId1187" xr:uid="{B35EAE87-3168-1647-B137-B24B84AC548C}"/>
+    <hyperlink ref="C1368" r:id="rId1188" xr:uid="{2437DC4E-490B-5E4E-AC43-969E62F0B333}"/>
+    <hyperlink ref="C1369" r:id="rId1189" xr:uid="{AD8A14B5-45C0-614E-9FEE-FC107495F81C}"/>
+    <hyperlink ref="C1370" r:id="rId1190" xr:uid="{25FE061E-C7EA-1D41-89FE-124B4C117061}"/>
+    <hyperlink ref="C1371" r:id="rId1191" xr:uid="{A90092ED-AB3F-1644-A76C-60C1F5F2BBD0}"/>
+    <hyperlink ref="C1372" r:id="rId1192" xr:uid="{AFF9599D-45BB-D04F-BE4A-92FA94AFE10E}"/>
+    <hyperlink ref="C1373" r:id="rId1193" xr:uid="{AA05AAE2-BF37-5140-8745-07D05CC9C080}"/>
+    <hyperlink ref="C1374" r:id="rId1194" xr:uid="{9568BAB7-61ED-734F-B1C1-5C532D2622DD}"/>
+    <hyperlink ref="C1375" r:id="rId1195" xr:uid="{581BC4CE-03A6-0F4C-8227-1503B74FC8E9}"/>
+    <hyperlink ref="C1376" r:id="rId1196" xr:uid="{CB17B0D7-4D16-6D42-98E2-86D595EA9FD0}"/>
+    <hyperlink ref="C1377" r:id="rId1197" xr:uid="{2236945B-42DD-8C43-B020-9BCDE7B26F5F}"/>
+    <hyperlink ref="C1378" r:id="rId1198" xr:uid="{499209AC-2495-8947-9875-499E539EAC9F}"/>
+    <hyperlink ref="C1379" r:id="rId1199" xr:uid="{C8ADB593-9972-2F4C-9B9D-26C4E6140820}"/>
+    <hyperlink ref="C1380" r:id="rId1200" xr:uid="{7A707AD0-863B-C64D-8117-988FEE95F846}"/>
+    <hyperlink ref="C1381" r:id="rId1201" xr:uid="{CBBAE09E-F984-5840-8CBE-5AC8F8512436}"/>
+    <hyperlink ref="C1382" r:id="rId1202" xr:uid="{422933A4-3535-9C47-AFD6-E209D5CF3BA3}"/>
+    <hyperlink ref="C1383" r:id="rId1203" xr:uid="{040D927A-6540-5D42-BA7D-830F2403CB28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId720"/>
+  <pageSetup orientation="portrait" r:id="rId1204"/>
 </worksheet>
 </file>
 

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016C9C9-0BBE-EA46-9E20-123B520139D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CCF347-F2F6-1B4D-B450-803DA29EBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3460" windowWidth="21260" windowHeight="11560" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="617">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1906,6 +1906,12 @@
   </si>
   <si>
     <t>https://bm-666422.github.io/My-first-webpage-2/</t>
+  </si>
+  <si>
+    <t>hm20233347@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://mohamed55249.github.io/page-252/</t>
   </si>
 </sst>
 </file>
@@ -2708,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
-  <dimension ref="A1:E1383"/>
+  <dimension ref="A1:E1384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
-      <selection activeCell="B854" sqref="B854:C1383"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
+      <selection activeCell="C1384" sqref="C1384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14389,6 +14395,14 @@
       </c>
       <c r="C1383" s="23" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1384" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018C487D-F507-0B4E-BEFD-2C8808C974E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F3DA79-6596-FE40-9BB0-93B95EE2C1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3460" windowWidth="21260" windowHeight="11560" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="559">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2373,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
   <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279:C285"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5274,9 +5274,13 @@
         <v>556</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B286" s="29"/>
-      <c r="C286" s="31"/>
+    <row r="286" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B286" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="30"/>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F3DA79-6596-FE40-9BB0-93B95EE2C1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C1454-C5FF-E643-A05B-4B205CE7309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3460" windowWidth="21260" windowHeight="11560" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="561">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1716,6 +1716,12 @@
   </si>
   <si>
     <t>malakmohamedsied502@gmail.com</t>
+  </si>
+  <si>
+    <t>shahdnaser9994@gmail.com</t>
+  </si>
+  <si>
+    <t>https://shahd99944.github.io/my-project1/</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2380,7 @@
   <dimension ref="A1:E1383"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5283,8 +5289,12 @@
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B287" s="30"/>
-      <c r="C287" s="30"/>
+      <c r="B287" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C287" s="30" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="29"/>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr.mzakaraia/Desktop/معهد الوادي/MyWeRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C1454-C5FF-E643-A05B-4B205CE7309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8466470-9F04-4C47-8E8F-4CB095E36BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="3460" windowWidth="21260" windowHeight="11560" xr2:uid="{AE619845-176D-4C93-91F5-F1442B84480E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="628">
   <si>
     <t>Timestamp</t>
   </si>
@@ -604,6 +604,12 @@
     <t>ae20233312@sva.edu.eg</t>
   </si>
   <si>
+    <t>es20232225@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>file:///D:/New%20folder%20(2)/index.html</t>
+  </si>
+  <si>
     <t>ss20230389@sva.edu.eg</t>
   </si>
   <si>
@@ -625,6 +631,9 @@
     <t>ns20232229@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://github.com/MoasNasr/my-first-project/blob/main/moaz%20index.html</t>
+  </si>
+  <si>
     <t>ea20235222@sva.edu.eg</t>
   </si>
   <si>
@@ -703,12 +712,24 @@
     <t>em20234278@sva.edu.eg</t>
   </si>
   <si>
+    <t>file:///D:/html/index-html.html</t>
+  </si>
+  <si>
     <t>nk20232211@sva.edu.eg</t>
   </si>
   <si>
+    <t>نورهان خليل احمد</t>
+  </si>
+  <si>
+    <t>محمد سعيد عبيد محمد</t>
+  </si>
+  <si>
     <t>na20233322@sva.edu.eg</t>
   </si>
   <si>
+    <t>صفحه html</t>
+  </si>
+  <si>
     <t>ma20233362@sva.edu.eg</t>
   </si>
   <si>
@@ -718,18 +739,57 @@
     <t>sn20230254@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://search.app/2bG1H9VsPfDX2mFB7</t>
+  </si>
+  <si>
     <t>ma20233286@sva.edu.eg</t>
   </si>
   <si>
+    <t>محمود عبدالعزيز حامد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a
+</t>
+  </si>
+  <si>
+    <t>https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a</t>
+  </si>
+  <si>
+    <t>https://github.com/Habiba753/Habiba753/tree/088496b2976b66fc81375d9a5ea67ec6b1374c7a
+حبيبه عبدالكريم محمد</t>
+  </si>
+  <si>
     <t>ho20232357@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://github.com/hassanosama900</t>
+  </si>
+  <si>
+    <t>تم الارسال</t>
+  </si>
+  <si>
     <t>am20231261@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://github.com/ayamohsen900</t>
+  </si>
+  <si>
+    <t>my20234259@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>Mohamed yahia</t>
+  </si>
+  <si>
     <t>ma20222236@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://github.com/Moham753/mohamed-/tree/9e2c42403543d6582357648ac8f3eade2a2fadcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ra20232378@sva.edu.eg</t>
+  </si>
+  <si>
     <t>aw20233381@sva.edu.eg</t>
   </si>
   <si>
@@ -742,6 +802,9 @@
     <t>ef20233313@sva.edu.eg</t>
   </si>
   <si>
+    <t>نعم</t>
+  </si>
+  <si>
     <t>mt20231389@sva.edu.eg</t>
   </si>
   <si>
@@ -757,18 +820,39 @@
     <t>https://khaled20fa.github.io/fantastic-striker/</t>
   </si>
   <si>
+    <t>https://github.com/yousifahmed2011/First-project-.git</t>
+  </si>
+  <si>
+    <t>hm20233310@sva.edu.eg</t>
+  </si>
+  <si>
     <t>yy20231347@sva.edu.eg</t>
   </si>
   <si>
     <t>https://joo20ma.github.io/Defence-rock/</t>
   </si>
   <si>
+    <t>ah20232386@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/elmag3k/Elsqr.git</t>
+  </si>
+  <si>
+    <t>https://github.com/elmag3k/</t>
+  </si>
+  <si>
     <t>https://mariem55345.github.io/mariem/</t>
   </si>
   <si>
+    <t>https://github.com/elmag3k/my-page.git</t>
+  </si>
+  <si>
     <t>nm20231304@sva.edu.eg</t>
   </si>
   <si>
+    <t>حاضر</t>
+  </si>
+  <si>
     <t>https://nouracodes.github.io/nada/</t>
   </si>
   <si>
@@ -776,6 +860,24 @@
   </si>
   <si>
     <t>https://nouracodes.github.io/nouracodes-.github-.io/</t>
+  </si>
+  <si>
+    <t>mk20230339@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/memo200001/html1/blob/01b7a352d7fe471391e088275a9ac3be6dfee9be/mrwan.html</t>
+  </si>
+  <si>
+    <t>sa20230330@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/sa20230330/html/blob/1a1a65347940c0c402fb845b313944d296908f69/20230330.html</t>
+  </si>
+  <si>
+    <t>mk20230386@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/bebo56438/html1/blob/f1e004b6f48840293112132cb819462a0a94d9af/bebo.html</t>
   </si>
   <si>
     <t>ff20232234@sva.edu.eg</t>
@@ -848,6 +950,12 @@
     <t>https://enjy123456.github.io/My-first-webpage/</t>
   </si>
   <si>
+    <t>mm20230395@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/morsy20230395/html/blob/06993aee8a96e80c7abc677c5c1eff11a78af1d3/morsy.html</t>
+  </si>
+  <si>
     <t>fm20230437@sva.edu.eg</t>
   </si>
   <si>
@@ -869,6 +977,9 @@
     <t>https://sandy596.github.io/my-page/</t>
   </si>
   <si>
+    <t>km20234390@sva.edu.eg</t>
+  </si>
+  <si>
     <t>https://mh20230243.github.io/Digital-Tasbeeh/</t>
   </si>
   <si>
@@ -914,6 +1025,9 @@
     <t>mm20232311@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://search.app/LQBsR48fDWbgYcNn7</t>
+  </si>
+  <si>
     <t>re20232341@sva.edu.eg</t>
   </si>
   <si>
@@ -938,6 +1052,9 @@
     <t>https://nada5234.github.io/my-first-wabpage/</t>
   </si>
   <si>
+    <t>https://github.com/ms20234282/Al-arbawy</t>
+  </si>
+  <si>
     <t>ym20231361@sva.edu.eg</t>
   </si>
   <si>
@@ -983,6 +1100,12 @@
     <t>mm20233275@sva.edu.eg</t>
   </si>
   <si>
+    <t>file:///C:/Users/ASUS/Downloads/%D8%A7%D8%B3%D8%A7%D9%8A%D9%85%D9%86%D8%AA%D8%A7%D8%AA%20%D8%A7%D9%84%D8%A7%D8%AA%D9%8A%D9%83%D9%8A%D8%AA%20%D9%88%20%D8%A7%D9%84%D8%A8%D8%B1%D9%88%D8%AA%D9%88%D9%83%D9%88%D9%84/index.html</t>
+  </si>
+  <si>
+    <t>https://github.com/darderyy12/my.git</t>
+  </si>
+  <si>
     <t>https://toqashalaan1.github.io/second-pro/</t>
   </si>
   <si>
@@ -1022,6 +1145,12 @@
     <t>https://esraaarafat13321.github.io/firstpage/</t>
   </si>
   <si>
+    <t>am20235237@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://search.app/XYRsu1ub9CTVAPU36</t>
+  </si>
+  <si>
     <t>bs20234351@sva.edu.eg</t>
   </si>
   <si>
@@ -1110,6 +1239,18 @@
   </si>
   <si>
     <t>https://fatma-byte.github.io/My-first-webpage/</t>
+  </si>
+  <si>
+    <t>mr20232361@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>content://com.mi.android.globalFileexplorer.myprovider/external_files/Html/4_5809833090574458154/programiz-html-css/index.html</t>
+  </si>
+  <si>
+    <t>or20232362@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>content://com.mi.android.globalFileexplorer.myprovider/external_files/Html/Omar/%D8%B9%D9%85%D8%B1%20%D8%B1%D9%85%D8%B6%D8%A7%D9%86/programiz-html-css/index.html</t>
   </si>
   <si>
     <t>hq20230337@sva.edu.eg</t>
@@ -1245,6 +1386,9 @@
     <t>https://bebo0103373.github.io/mybebo/</t>
   </si>
   <si>
+    <t>Rh20230275@sva.edu.eg</t>
+  </si>
+  <si>
     <t>aa20234370@sva.edu.eg</t>
   </si>
   <si>
@@ -1264,7 +1408,13 @@
     <t>mn20232230@sva.edu.eg</t>
   </si>
   <si>
+    <t>https://github.com/Mazen512958/My-first-webpage/issues/1</t>
+  </si>
+  <si>
     <t>sa20230315@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/shahdaboshanab/My-first-WebPage</t>
   </si>
   <si>
     <t>sh20231373@sva.edu.eg</t>
@@ -1337,6 +1487,12 @@
     <t>https://shahdmohamed7.github.io/Mypage/</t>
   </si>
   <si>
+    <t>ww20233221@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/WalaaWaell</t>
+  </si>
+  <si>
     <t>ms20234382@sva.edu.eg</t>
   </si>
   <si>
@@ -1388,6 +1544,12 @@
     <t>https://mazen512958.github.io/صفحتي-الويب-الأولى/</t>
   </si>
   <si>
+    <t>ms20234229@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/M4229/index.html/settings/pages</t>
+  </si>
+  <si>
     <t>https://hassanosama900.github.io/My-first-webpage/</t>
   </si>
   <si>
@@ -1431,6 +1593,9 @@
   </si>
   <si>
     <t>kh20234275@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/kh20234275/-khlood-web-.git</t>
   </si>
   <si>
     <t>as20230239@sva.edu.eg</t>
@@ -1450,6 +1615,12 @@
     <t>https://chocomist.github.io/My-firist-web-page/</t>
   </si>
   <si>
+    <t>ay20231260@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/Abderlhman22/Yousry</t>
+  </si>
+  <si>
     <t>we20230288@sva.edu.eg</t>
   </si>
   <si>
@@ -1462,6 +1633,12 @@
     <t>https://jana20061234.github.io/Thepage/</t>
   </si>
   <si>
+    <t>, from</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
     <t>wm20230347@sva.edu.eg</t>
   </si>
   <si>
@@ -1496,6 +1673,9 @@
   </si>
   <si>
     <t>fa20233284@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
   </si>
   <si>
     <t>https://el-tayyeb.github.io/end/#contactMe</t>
@@ -1526,6 +1706,31 @@
     <t>https://nooremad-star.github.io/My-First-webpage/</t>
   </si>
   <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+&lt;title&gt;My First Web Page&lt;/title&gt;
+&lt;style&gt;
+body {
+background-color: pink;
+text-align: center;
+margin-top: 100px;
+}
+h1 {
+color: blue;
+font-family: Arial, sans-serif;
+}
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;h1&gt;Welcome to my first web page&lt;/h1&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
     <t>ay20230364@sva.edu.eg</t>
   </si>
   <si>
@@ -1722,6 +1927,24 @@
   </si>
   <si>
     <t>https://shahd99944.github.io/my-project1/</t>
+  </si>
+  <si>
+    <t>https://shereen0478.github.io/my-progect2/</t>
+  </si>
+  <si>
+    <t>ba20231204@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://basmala-eng388.github.io/My-first-webpage-/</t>
+  </si>
+  <si>
+    <t>na20230297@sva.edu.eg</t>
+  </si>
+  <si>
+    <t>https://na20230297.github.io/My-first-wabpage/</t>
+  </si>
+  <si>
+    <t>sr20234226@sva.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2052,16 +2275,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2379,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97601210-06D1-436F-9FFC-E5C230996E4C}">
   <dimension ref="A1:E1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="B822" sqref="B822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3376,10 +3589,10 @@
         <v>45735.653171296297</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
@@ -3389,10 +3602,10 @@
         <v>45735.656875000001</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="9"/>
@@ -3402,10 +3615,10 @@
         <v>45735.669131944444</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="6"/>
@@ -3415,10 +3628,10 @@
         <v>45735.683749999997</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="9"/>
@@ -3428,10 +3641,10 @@
         <v>45735.722696759258</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
@@ -3441,10 +3654,10 @@
         <v>45735.73709490741</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="9"/>
@@ -3454,10 +3667,10 @@
         <v>45735.791226851848</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="6"/>
@@ -3467,10 +3680,10 @@
         <v>45735.815532407411</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="9"/>
@@ -3483,7 +3696,7 @@
         <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
@@ -3493,10 +3706,10 @@
         <v>45735.904293981483</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="9"/>
@@ -3506,10 +3719,10 @@
         <v>45735.916076388887</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="6"/>
@@ -3519,10 +3732,10 @@
         <v>45735.931064814817</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="9"/>
@@ -3535,7 +3748,7 @@
         <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="6"/>
@@ -3545,10 +3758,10 @@
         <v>45736.216805555552</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="9"/>
@@ -3558,10 +3771,10 @@
         <v>45736.221365740741</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="6"/>
@@ -3574,7 +3787,7 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="9"/>
@@ -3587,7 +3800,7 @@
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="6"/>
@@ -3597,10 +3810,10 @@
         <v>45736.531006944446</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="9"/>
@@ -3610,10 +3823,10 @@
         <v>45736.532453703701</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="6"/>
@@ -3626,7 +3839,7 @@
         <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="9"/>
@@ -3636,10 +3849,10 @@
         <v>45736.630844907406</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="6"/>
@@ -3649,10 +3862,10 @@
         <v>45736.789652777778</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="9"/>
@@ -3662,10 +3875,10 @@
         <v>45736.954583333332</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="6"/>
@@ -3678,7 +3891,7 @@
         <v>154</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="9"/>
@@ -3688,10 +3901,10 @@
         <v>45736.958796296298</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="6"/>
@@ -3701,10 +3914,10 @@
         <v>45737.594444444447</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="9"/>
@@ -3714,10 +3927,10 @@
         <v>45737.594560185185</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="6"/>
@@ -3727,10 +3940,10 @@
         <v>45737.594675925924</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="9"/>
@@ -3743,7 +3956,7 @@
         <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="6"/>
@@ -3753,10 +3966,10 @@
         <v>45737.638344907406</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="9"/>
@@ -3766,10 +3979,10 @@
         <v>45737.638645833336</v>
       </c>
       <c r="B106" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="6"/>
@@ -3779,10 +3992,10 @@
         <v>45737.662002314813</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="9"/>
@@ -3792,10 +4005,10 @@
         <v>45737.693680555552</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="6"/>
@@ -3805,10 +4018,10 @@
         <v>45737.693831018521</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="9"/>
@@ -3821,7 +4034,7 @@
         <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="6"/>
@@ -3834,7 +4047,7 @@
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="9"/>
@@ -3847,7 +4060,7 @@
         <v>148</v>
       </c>
       <c r="C112" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="6"/>
@@ -3857,10 +4070,10 @@
         <v>45737.876574074071</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="E113" s="9"/>
     </row>
@@ -3869,10 +4082,10 @@
         <v>45737.987118055556</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="E114" s="6"/>
     </row>
@@ -3881,10 +4094,10 @@
         <v>45738.049212962964</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="E115" s="9"/>
     </row>
@@ -3893,10 +4106,10 @@
         <v>45738.637048611112</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="C116" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="E116" s="6"/>
     </row>
@@ -3908,7 +4121,7 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="E117" s="9"/>
     </row>
@@ -3917,10 +4130,10 @@
         <v>45738.740254629629</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="E118" s="6"/>
     </row>
@@ -3929,10 +4142,10 @@
         <v>45738.740439814814</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E119" s="9"/>
     </row>
@@ -3941,10 +4154,10 @@
         <v>45738.741099537037</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="E120" s="6"/>
     </row>
@@ -3953,10 +4166,10 @@
         <v>45739.096574074072</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="E121" s="9"/>
     </row>
@@ -3965,10 +4178,10 @@
         <v>45739.616539351853</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="E122" s="6"/>
     </row>
@@ -3977,10 +4190,10 @@
         <v>45740.519872685189</v>
       </c>
       <c r="B123" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E123" s="12"/>
     </row>
@@ -3989,111 +4202,111 @@
         <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="C127" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="C128" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C131" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C132" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C135" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
@@ -4101,23 +4314,23 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C139" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
@@ -4125,39 +4338,39 @@
         <v>63</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
@@ -4165,79 +4378,79 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="C154" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C155" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
@@ -4245,55 +4458,55 @@
         <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C157" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C158" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C160" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="C162" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -4301,15 +4514,15 @@
         <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
@@ -4317,127 +4530,127 @@
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="C166" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="C167" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C168" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="C171" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="C172" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="C173" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C174" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="C175" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="C176" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="C178" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="C179" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
@@ -4445,135 +4658,135 @@
         <v>67</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C182" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="C183" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="C184" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="C185" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="C186" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="C188" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="C189" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="C190" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="C191" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C195" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="C196" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="C197" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
@@ -4581,159 +4794,159 @@
         <v>90</v>
       </c>
       <c r="C198" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="C199" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C200" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="C201" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C202" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="C203" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="C204" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="C205" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="C206" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C207" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="C208" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="C209" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="C210" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="C211" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="C213" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="C214" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="C215" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="C216" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C217" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
@@ -4741,7 +4954,7 @@
         <v>154</v>
       </c>
       <c r="C218" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
@@ -4749,39 +4962,39 @@
         <v>156</v>
       </c>
       <c r="C219" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="C220" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C221" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="C222" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="C223" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
@@ -4789,7 +5002,7 @@
         <v>82</v>
       </c>
       <c r="C224" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
@@ -4797,7 +5010,7 @@
         <v>180</v>
       </c>
       <c r="C225" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
@@ -4805,119 +5018,119 @@
         <v>36</v>
       </c>
       <c r="C226" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C227" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="C228" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="C229" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="C230" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="C231" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="C232" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="C233" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="C234" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="C235" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C236" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="C237" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="C238" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="C239" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="C240" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
@@ -4925,15 +5138,15 @@
         <v>44</v>
       </c>
       <c r="C241" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="C242" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
@@ -4941,111 +5154,111 @@
         <v>61</v>
       </c>
       <c r="C243" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="C244" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="C245" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="C246" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="C247" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="C248" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="C249" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="C250" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="C251" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="C252" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="C253" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="C254" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="C255" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="C256" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
@@ -5053,47 +5266,47 @@
         <v>171</v>
       </c>
       <c r="C257" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="C258" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C259" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="C260" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="C261" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="C262" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
@@ -5101,47 +5314,47 @@
         <v>143</v>
       </c>
       <c r="C263" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="C264" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="C265" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="C266" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="C267" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="C268" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
@@ -5149,23 +5362,23 @@
         <v>122</v>
       </c>
       <c r="C269" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="C270" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
@@ -5173,87 +5386,87 @@
         <v>112</v>
       </c>
       <c r="C272" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="C273" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="C274" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="C275" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="C276" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="C277" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="26" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="26" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="26" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="26" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
@@ -5261,2180 +5474,4320 @@
         <v>20233238</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="26" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="26" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="29" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C287" s="30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B300" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B333" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C333" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B336" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C336" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B337" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C337" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C339" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C340" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C341" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C342" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B343" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C343" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C344" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B354" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C354" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B356" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B359" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C360" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C361" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C362" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B363" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C364" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B366" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C368" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C381" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B386" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B389" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B390" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B392" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B394" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B396" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B399" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B400" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C401" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B402" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C402" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C403" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B404" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B405" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B406" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B408" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C409" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B410" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C410" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B411" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C411" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C412" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B413" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B415" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C416" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C418" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B420" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C420" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C421" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B422" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C422" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B423" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C423" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C427" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B428" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B429" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C429" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B430" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B431" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C431" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B432" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B433" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C433" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B434" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B435" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C435" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B436" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C436" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B437" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C437" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B438" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B439" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B441" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B442" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B443" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B444" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C444" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C445" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B446" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C446" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B447" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C447" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B449" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B452" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B453" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B454" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B455" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B456" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B457" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B459" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B460" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B461" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B462" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C462" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B463" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C463" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C464" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B465" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C465" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C466" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B467" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C467" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B468" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B470" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B473" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C473" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C474" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B475" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C475" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B476" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C476" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="B477" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C477" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B478" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C478" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C479" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C485" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C487" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B490" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C493" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C497" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C499" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C501" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502" s="26" t="s">
+        <v>310</v>
+      </c>
+ 